--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -247,6 +247,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -314,17 +317,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -377,6 +391,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -466,22 +481,22 @@
             <c:numRef>
               <c:f>Summary!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.2222222222222219E-2</c:v>
+                  <c:v>9.1713196075358119E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1122222222222222</c:v>
+                  <c:v>0.1120159944739523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17311111111111113</c:v>
+                  <c:v>0.17160190134522463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19244444444444447</c:v>
+                  <c:v>0.19181052458152417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23188888888888892</c:v>
+                  <c:v>0.23150703440631004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,22 +557,22 @@
             <c:numRef>
               <c:f>Summary!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.6510128502450097E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.6431743786938922E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1072712197284221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.1433654095945468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.22956564977215757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,21 +635,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -696,21 +696,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -772,21 +757,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -801,11 +771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="195545576"/>
-        <c:axId val="195544792"/>
+        <c:axId val="180378096"/>
+        <c:axId val="180374568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195545576"/>
+        <c:axId val="180378096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +818,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195544792"/>
+        <c:crossAx val="180374568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195544792"/>
+        <c:axId val="180374568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +846,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -907,7 +877,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195545576"/>
+        <c:crossAx val="180378096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -921,6 +891,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1027,6 +998,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1116,22 +1088,22 @@
             <c:numRef>
               <c:f>Summary!$B$11:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72711111111111104</c:v>
+                  <c:v>0.50496600095331901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4658888888888892</c:v>
+                  <c:v>1.1547335308334854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7888888888888879</c:v>
+                  <c:v>8.4229073944904496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.283333333333331</c:v>
+                  <c:v>32.317513882842967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.086</c:v>
+                  <c:v>10.200932943568031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,22 +1164,22 @@
             <c:numRef>
               <c:f>Summary!$C$11:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.54504912456136556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7720456555716841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.28765774181411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>65.643641109764957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>21.706443362773502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,21 +1242,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1346,21 +1303,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1422,21 +1364,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1451,11 +1378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="176660520"/>
-        <c:axId val="197579560"/>
+        <c:axId val="180378880"/>
+        <c:axId val="180371432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176660520"/>
+        <c:axId val="180378880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1425,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197579560"/>
+        <c:crossAx val="180371432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1506,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197579560"/>
+        <c:axId val="180371432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1527,7 +1454,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1558,7 +1485,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176660520"/>
+        <c:crossAx val="180378880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,6 +1499,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2820,8 +2748,8 @@
   <autoFilter ref="A10:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
-    <tableColumn id="2" name="Default"/>
-    <tableColumn id="3" name="Heuristic 1"/>
+    <tableColumn id="2" name="Default" dataDxfId="1"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="0"/>
     <tableColumn id="4" name="Heuristic 2"/>
     <tableColumn id="5" name="Heuristic 3"/>
     <tableColumn id="6" name="Heuristic 4"/>
@@ -2835,7 +2763,7 @@
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
-    <tableColumn id="2" name="Default"/>
+    <tableColumn id="2" name="Default" dataDxfId="2"/>
     <tableColumn id="3" name="Heuristic 1"/>
     <tableColumn id="4" name="Heuristic 2"/>
     <tableColumn id="5" name="Heuristic 3"/>
@@ -3330,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3364,125 +3292,65 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>AVERAGE(Models!L12:L14,Models!O12:O14,Models!R12:R14)</f>
-        <v>9.2222222222222219E-2</v>
-      </c>
-      <c r="C2" t="e">
-        <f>AVERAGE(Models!L33:L35,Models!O33:O35,Models!R33:R35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D2" t="e">
-        <f>AVERAGE(Models!L54:L56,Models!O54:O56,Models!R54:R56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" t="e">
-        <f>AVERAGE(Models!L75:L77,Models!O75:O77,Models!R75:R77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" t="e">
-        <f>AVERAGE(Models!L96:L98,Models!O96:O98,Models!R96:R98)</f>
-        <v>#DIV/0!</v>
+      <c r="B2" s="8">
+        <f>GEOMEAN(Models!L12:L14,Models!O12:O14,Models!R12:R14)</f>
+        <v>9.1713196075358119E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>GEOMEAN(Models!L33:L35,Models!O33:O35,Models!R33:R35)</f>
+        <v>6.6510128502450097E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>AVERAGE(Models!L15:L17,Models!O15:O17,Models!R15:R17)</f>
-        <v>0.1122222222222222</v>
-      </c>
-      <c r="C3" t="e">
-        <f>AVERAGE(Models!L36:L38,Models!O36:O38,Models!R36:R38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D3" t="e">
-        <f>AVERAGE(Models!L57:L59,Models!O57:O59,Models!R57:R59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" t="e">
-        <f>AVERAGE(Models!L78:L80,Models!O78:O80,Models!R78:R80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" t="e">
-        <f>AVERAGE(Models!L99:L101,Models!O99:O101,Models!R99:R101)</f>
-        <v>#DIV/0!</v>
+      <c r="B3" s="8">
+        <f>GEOMEAN(Models!L15:L17,Models!O15:O17,Models!R15:R17)</f>
+        <v>0.1120159944739523</v>
+      </c>
+      <c r="C3" s="8">
+        <f>GEOMEAN(Models!L36:L38,Models!O36:O38,Models!R36:R38)</f>
+        <v>8.6431743786938922E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f>AVERAGE(Models!L18:L20,Models!O18:O20,Models!R18:R20)</f>
-        <v>0.17311111111111113</v>
-      </c>
-      <c r="C4" t="e">
-        <f>AVERAGE(Models!L39:L41,Models!O39:O41,Models!R39:R41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" t="e">
-        <f>AVERAGE(Models!L60:L62,Models!O60:O62,Models!R60:R62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" t="e">
-        <f>AVERAGE(Models!L81:L83,Models!O81:O83,Models!R81:R83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" t="e">
-        <f>AVERAGE(Models!L102:L104,Models!O102:O104,Models!R102:R104)</f>
-        <v>#DIV/0!</v>
+      <c r="B4" s="8">
+        <f>GEOMEAN(Models!L18:L20,Models!O18:O20,Models!R18:R20)</f>
+        <v>0.17160190134522463</v>
+      </c>
+      <c r="C4" s="8">
+        <f>GEOMEAN(Models!L39:L41,Models!O39:O41,Models!R39:R41)</f>
+        <v>0.1072712197284221</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>AVERAGE(Models!L21:L23,Models!O21:O23,Models!R21:R23)</f>
-        <v>0.19244444444444447</v>
-      </c>
-      <c r="C5" t="e">
-        <f>AVERAGE(Models!L42:L44,Models!O42:O44,Models!R42:R44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" t="e">
-        <f>AVERAGE(Models!L63:L65,Models!O63:O65,Models!R63:R65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" t="e">
-        <f>AVERAGE(Models!L84:L86,Models!O84:O86,Models!R84:R86)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" t="e">
-        <f>AVERAGE(Models!L105:L107,Models!O105:O107,Models!R105:R107)</f>
-        <v>#DIV/0!</v>
+      <c r="B5" s="8">
+        <f>GEOMEAN(Models!L21:L23,Models!O21:O23,Models!R21:R23)</f>
+        <v>0.19181052458152417</v>
+      </c>
+      <c r="C5" s="8">
+        <f>GEOMEAN(Models!L42:L44,Models!O42:O44,Models!R42:R44)</f>
+        <v>0.1433654095945468</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>AVERAGE(Models!L24:L26,Models!O24:O26,Models!R24:R26)</f>
-        <v>0.23188888888888892</v>
-      </c>
-      <c r="C6" t="e">
-        <f>AVERAGE(Models!L45:L47,Models!O45:O47,Models!R45:R47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" t="e">
-        <f>AVERAGE(Models!L66:L68,Models!O66:O68,Models!R66:R68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" t="e">
-        <f>AVERAGE(Models!L87:L89,Models!O87:O89,Models!R87:R89)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" t="e">
-        <f>AVERAGE(Models!L108:L110,Models!O108:O110,Models!R108:R110)</f>
-        <v>#DIV/0!</v>
+      <c r="B6" s="8">
+        <f>GEOMEAN(Models!L24:L26,Models!O24:O26,Models!R24:R26)</f>
+        <v>0.23150703440631004</v>
+      </c>
+      <c r="C6" s="8">
+        <f>GEOMEAN(Models!L45:L47,Models!O45:O47,Models!R45:R47)</f>
+        <v>0.22956564977215757</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3509,124 +3377,65 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11">
-        <f>AVERAGE(Models!AB12:AB14,Models!AE12:AE14,Models!AH12:AH14)</f>
-        <v>0.72711111111111104</v>
-      </c>
-      <c r="C11" t="e">
-        <f>AVERAGE(Models!AB33:AB35,Models!AE33:AE35,Models!AH33:AH35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" t="e">
-        <f>AVERAGE(Models!AB54:AB56,Models!AE54:AE56,Models!AH54:AH56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" t="e">
-        <f>AVERAGE(Models!AB75:AB77,Models!AE75:AE77,Models!AH75:AH77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" t="e">
-        <f>AVERAGE(Models!AB96:AB98,Models!AE96:AE98,Models!AH96:AH98)</f>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f>GEOMEAN(Models!AB12:AB14,Models!AE12:AE14,Models!AH12:AH14)</f>
+        <v>0.50496600095331901</v>
+      </c>
+      <c r="C11" s="8">
+        <f>GEOMEAN(Models!AB33:AB35,Models!AE33:AE35,Models!AH33:AH35)</f>
+        <v>0.54504912456136556</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12">
-        <f>AVERAGE(Models!AB15:AB17,Models!AE15:AE17,Models!AH15:AH17)</f>
-        <v>2.4658888888888892</v>
-      </c>
-      <c r="C12" t="e">
-        <f>AVERAGE(Models!AB36:AB38,Models!AE36:AE38,Models!AH36:AH38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" t="e">
-        <f>AVERAGE(Models!AB57:AB59,Models!AE57:AE59,Models!AH57:AH59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" t="e">
-        <f>AVERAGE(Models!AB78:AB80,Models!AE78:AE80,Models!AH78:AH80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" t="e">
-        <f>AVERAGE(Models!AB99:AB101,Models!AE99:AE101,Models!AH99:AH101)</f>
-        <v>#DIV/0!</v>
+      <c r="B12" s="8">
+        <f>GEOMEAN(Models!AB15:AB17,Models!AE15:AE17,Models!AH15:AH17)</f>
+        <v>1.1547335308334854</v>
+      </c>
+      <c r="C12" s="8">
+        <f>GEOMEAN(Models!AB36:AB38,Models!AE36:AE38,Models!AH36:AH38)</f>
+        <v>1.7720456555716841</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13">
-        <f>AVERAGE(Models!AB18:AB20,Models!AE18:AE20,Models!AH18:AH20)</f>
-        <v>9.7888888888888879</v>
-      </c>
-      <c r="C13" t="e">
-        <f>AVERAGE(Models!AB39:AB41,Models!AE39:AE41,Models!AH39:AH41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" t="e">
-        <f>AVERAGE(Models!AB60:AB62,Models!AE60:AE62,Models!AH60:AH62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" t="e">
-        <f>AVERAGE(Models!AB81:AB83,Models!AE81:AE83,Models!AH81:AH83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" t="e">
-        <f>AVERAGE(Models!AB102:AB104,Models!AE102:AE104,Models!AH102:AH104)</f>
-        <v>#DIV/0!</v>
+      <c r="B13" s="8">
+        <f>GEOMEAN(Models!AB18:AB20,Models!AE18:AE20,Models!AH18:AH20)</f>
+        <v>8.4229073944904496</v>
+      </c>
+      <c r="C13" s="8">
+        <f>GEOMEAN(Models!AB39:AB41,Models!AE39:AE41,Models!AH39:AH41)</f>
+        <v>10.28765774181411</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14">
-        <f>AVERAGE(Models!AB21:AB23,Models!AE21:AE23,Models!AH21:AH23)</f>
-        <v>34.283333333333331</v>
-      </c>
-      <c r="C14" t="e">
-        <f>AVERAGE(Models!AB42:AB44,Models!AE42:AE44,Models!AH42:AH44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" t="e">
-        <f>AVERAGE(Models!AB63:AB65,Models!AE63:AE65,Models!AH63:AH65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" t="e">
-        <f>AVERAGE(Models!AB84:AB86,Models!AE84:AE86,Models!AH84:AH86)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14">
-        <v>1000</v>
+      <c r="B14" s="8">
+        <f>GEOMEAN(Models!AB21:AB23,Models!AE21:AE23,Models!AH21:AH23)</f>
+        <v>32.317513882842967</v>
+      </c>
+      <c r="C14" s="8">
+        <f>GEOMEAN(Models!AB42:AB44,Models!AE42:AE44,Models!AH42:AH44)</f>
+        <v>65.643641109764957</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15">
-        <f>AVERAGE(Models!AB24:AB26,Models!AE24:AE26,Models!AH24:AH26)</f>
-        <v>11.086</v>
-      </c>
-      <c r="C15" t="e">
-        <f>AVERAGE(Models!AB45:AB47,Models!AE45:AE47,Models!AH45:AH47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" t="e">
-        <f>AVERAGE(Models!AB66:AB68,Models!AE66:AE68,Models!AH66:AH68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" t="e">
-        <f>AVERAGE(Models!AB87:AB89,Models!AE87:AE89,Models!AH87:AH89)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" t="e">
-        <f>AVERAGE(Models!AB108:AB110,Models!AE108:AE110,Models!AH108:AH110)</f>
-        <v>#DIV/0!</v>
+      <c r="B15" s="8">
+        <f>GEOMEAN(Models!AB24:AB26,Models!AE24:AE26,Models!AH24:AH26)</f>
+        <v>10.200932943568031</v>
+      </c>
+      <c r="C15" s="8">
+        <f>GEOMEAN(Models!AB45:AB47,Models!AE45:AE47,Models!AH45:AH47)</f>
+        <v>21.706443362773502</v>
       </c>
     </row>
   </sheetData>
@@ -3643,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AE28" workbookViewId="0">
+      <selection activeCell="AI48" sqref="AI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3691,7 +3500,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B2">
@@ -3699,10 +3508,10 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.1</v>
       </c>
     </row>
@@ -3726,7 +3535,7 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.05</v>
       </c>
     </row>
@@ -3739,54 +3548,54 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5" t="s">
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5" t="s">
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5" t="s">
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5" t="s">
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5509,54 +5318,54 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5" t="s">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5" t="s">
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5" t="s">
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5" t="s">
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5" t="s">
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5" t="s">
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -5665,7 +5474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5675,8 +5484,104 @@
       <c r="C33">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>665</v>
+      </c>
+      <c r="E33">
+        <v>723</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L33">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M33">
+        <v>0.11</v>
+      </c>
+      <c r="N33">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="O33">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.109</v>
+      </c>
+      <c r="Q33">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="R33">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="S33">
+        <v>0.105</v>
+      </c>
+      <c r="T33">
+        <v>1489</v>
+      </c>
+      <c r="U33">
+        <v>1547</v>
+      </c>
+      <c r="V33">
+        <v>216</v>
+      </c>
+      <c r="W33">
+        <v>2200</v>
+      </c>
+      <c r="X33">
+        <v>3969</v>
+      </c>
+      <c r="Y33">
+        <v>1769</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AB33">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AC33">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AD33">
+        <v>0.123</v>
+      </c>
+      <c r="AE33">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AF33">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AG33">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AH33">
+        <v>0.59</v>
+      </c>
+      <c r="AI33">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5686,8 +5591,104 @@
       <c r="C34">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>742</v>
+      </c>
+      <c r="E34">
+        <v>811</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="L34">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M34">
+        <v>0.151</v>
+      </c>
+      <c r="N34">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="O34">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.111</v>
+      </c>
+      <c r="Q34">
+        <v>0.126</v>
+      </c>
+      <c r="R34">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="S34">
+        <v>0.113</v>
+      </c>
+      <c r="T34">
+        <v>2606</v>
+      </c>
+      <c r="U34">
+        <v>2675</v>
+      </c>
+      <c r="V34">
+        <v>476</v>
+      </c>
+      <c r="W34">
+        <v>13864</v>
+      </c>
+      <c r="X34">
+        <v>26777</v>
+      </c>
+      <c r="Y34">
+        <v>12913</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AB34">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="AC34">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="AD34">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AE34">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="AF34">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="AG34">
+        <v>0.12</v>
+      </c>
+      <c r="AH34">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="AI34">
+        <v>2.6539999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5697,8 +5698,104 @@
       <c r="C35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>734</v>
+      </c>
+      <c r="E35">
+        <v>801</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>27</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.122</v>
+      </c>
+      <c r="L35">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M35">
+        <v>0.104</v>
+      </c>
+      <c r="N35">
+        <v>0.125</v>
+      </c>
+      <c r="O35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.1</v>
+      </c>
+      <c r="Q35">
+        <v>0.129</v>
+      </c>
+      <c r="R35">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S35">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="T35">
+        <v>878</v>
+      </c>
+      <c r="U35">
+        <v>945</v>
+      </c>
+      <c r="V35">
+        <v>46</v>
+      </c>
+      <c r="W35">
+        <v>116</v>
+      </c>
+      <c r="X35">
+        <v>141</v>
+      </c>
+      <c r="Y35">
+        <v>25</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>0.128</v>
+      </c>
+      <c r="AC35">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AD35">
+        <v>0.121</v>
+      </c>
+      <c r="AE35">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AF35">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AG35">
+        <v>0.125</v>
+      </c>
+      <c r="AH35">
+        <v>0.1</v>
+      </c>
+      <c r="AI35">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -5708,8 +5805,104 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1309</v>
+      </c>
+      <c r="E36">
+        <v>1434</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.17</v>
+      </c>
+      <c r="L36">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M36">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="O36">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P36">
+        <v>0.125</v>
+      </c>
+      <c r="Q36">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R36">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S36">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="T36">
+        <v>2473</v>
+      </c>
+      <c r="U36">
+        <v>2598</v>
+      </c>
+      <c r="V36">
+        <v>301</v>
+      </c>
+      <c r="W36">
+        <v>1600</v>
+      </c>
+      <c r="X36">
+        <v>2599</v>
+      </c>
+      <c r="Y36">
+        <v>999</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0.223</v>
+      </c>
+      <c r="AB36">
+        <v>1.034</v>
+      </c>
+      <c r="AC36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD36">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AE36">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AF36">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="AG36">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AH36">
+        <v>0.621</v>
+      </c>
+      <c r="AI36">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
@@ -5719,8 +5912,104 @@
       <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>1239</v>
+      </c>
+      <c r="E37">
+        <v>1362</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="L37">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M37">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O37">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P37">
+        <v>0.111</v>
+      </c>
+      <c r="Q37">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="R37">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="S37">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="T37">
+        <v>3799</v>
+      </c>
+      <c r="U37">
+        <v>3922</v>
+      </c>
+      <c r="V37">
+        <v>650</v>
+      </c>
+      <c r="W37">
+        <v>39317</v>
+      </c>
+      <c r="X37">
+        <v>77335</v>
+      </c>
+      <c r="Y37">
+        <v>38018</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0.188</v>
+      </c>
+      <c r="AB37">
+        <v>11.574</v>
+      </c>
+      <c r="AC37">
+        <v>11.632</v>
+      </c>
+      <c r="AD37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE37">
+        <v>11.831</v>
+      </c>
+      <c r="AF37">
+        <v>11.875</v>
+      </c>
+      <c r="AG37">
+        <v>0.154</v>
+      </c>
+      <c r="AH37">
+        <v>11.551</v>
+      </c>
+      <c r="AI37">
+        <v>11.599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -5730,8 +6019,104 @@
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>1326</v>
+      </c>
+      <c r="E38">
+        <v>1458</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.11</v>
+      </c>
+      <c r="M38">
+        <v>0.161</v>
+      </c>
+      <c r="N38">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.09</v>
+      </c>
+      <c r="P38">
+        <v>0.129</v>
+      </c>
+      <c r="Q38">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="R38">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.126</v>
+      </c>
+      <c r="T38">
+        <v>2074</v>
+      </c>
+      <c r="U38">
+        <v>2206</v>
+      </c>
+      <c r="V38">
+        <v>197</v>
+      </c>
+      <c r="W38">
+        <v>1189</v>
+      </c>
+      <c r="X38">
+        <v>1985</v>
+      </c>
+      <c r="Y38">
+        <v>796</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AB38">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AC38">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AD38">
+        <v>0.19</v>
+      </c>
+      <c r="AE38">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AF38">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AG38">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AH38">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="AI38">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
@@ -5741,8 +6126,104 @@
       <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>2049</v>
+      </c>
+      <c r="E39">
+        <v>2249</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.17</v>
+      </c>
+      <c r="L39">
+        <v>0.1</v>
+      </c>
+      <c r="M39">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.104</v>
+      </c>
+      <c r="P39">
+        <v>0.153</v>
+      </c>
+      <c r="Q39">
+        <v>0.15</v>
+      </c>
+      <c r="R39">
+        <v>0.107</v>
+      </c>
+      <c r="S39">
+        <v>0.151</v>
+      </c>
+      <c r="T39">
+        <v>6009</v>
+      </c>
+      <c r="U39">
+        <v>6209</v>
+      </c>
+      <c r="V39">
+        <v>1000</v>
+      </c>
+      <c r="W39">
+        <v>28390</v>
+      </c>
+      <c r="X39">
+        <v>54761</v>
+      </c>
+      <c r="Y39">
+        <v>26386</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AB39">
+        <v>14.4</v>
+      </c>
+      <c r="AC39">
+        <v>14.446</v>
+      </c>
+      <c r="AD39">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE39">
+        <v>15.574</v>
+      </c>
+      <c r="AF39">
+        <v>15.62</v>
+      </c>
+      <c r="AG39">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AH39">
+        <v>14.071999999999999</v>
+      </c>
+      <c r="AI39">
+        <v>14.118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>21</v>
       </c>
@@ -5752,8 +6233,104 @@
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>2087</v>
+      </c>
+      <c r="E40">
+        <v>2295</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.104</v>
+      </c>
+      <c r="M40">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N40">
+        <v>0.153</v>
+      </c>
+      <c r="O40">
+        <v>0.104</v>
+      </c>
+      <c r="P40">
+        <v>0.152</v>
+      </c>
+      <c r="Q40">
+        <v>0.151</v>
+      </c>
+      <c r="R40">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S40">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="T40">
+        <v>4179</v>
+      </c>
+      <c r="U40">
+        <v>4387</v>
+      </c>
+      <c r="V40">
+        <v>533</v>
+      </c>
+      <c r="W40">
+        <v>8143</v>
+      </c>
+      <c r="X40">
+        <v>15221</v>
+      </c>
+      <c r="Y40">
+        <v>7078</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AB40">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="AC40">
+        <v>3.569</v>
+      </c>
+      <c r="AD40">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="AF40">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="AG40">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AH40">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="AI40">
+        <v>3.4569999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
@@ -5763,8 +6340,104 @@
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>2056</v>
+      </c>
+      <c r="E41">
+        <v>2254</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>57</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.15</v>
+      </c>
+      <c r="L41">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N41">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P41">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q41">
+        <v>0.152</v>
+      </c>
+      <c r="R41">
+        <v>0.111</v>
+      </c>
+      <c r="S41">
+        <v>0.155</v>
+      </c>
+      <c r="T41">
+        <v>6016</v>
+      </c>
+      <c r="U41">
+        <v>6214</v>
+      </c>
+      <c r="V41">
+        <v>1000</v>
+      </c>
+      <c r="W41">
+        <v>65323</v>
+      </c>
+      <c r="X41">
+        <v>128576</v>
+      </c>
+      <c r="Y41">
+        <v>63294</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AB41">
+        <v>21.3</v>
+      </c>
+      <c r="AC41">
+        <v>21.346</v>
+      </c>
+      <c r="AD41">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AE41">
+        <v>22.75</v>
+      </c>
+      <c r="AF41">
+        <v>22.800999999999998</v>
+      </c>
+      <c r="AG41">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AH41">
+        <v>21.335000000000001</v>
+      </c>
+      <c r="AI41">
+        <v>21.378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>30</v>
       </c>
@@ -5774,8 +6447,104 @@
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>2744</v>
+      </c>
+      <c r="E42">
+        <v>3017</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>66</v>
+      </c>
+      <c r="H42">
+        <v>17</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L42">
+        <v>0.123</v>
+      </c>
+      <c r="M42">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="N42">
+        <v>0.151</v>
+      </c>
+      <c r="O42">
+        <v>0.126</v>
+      </c>
+      <c r="P42">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Q42">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="R42">
+        <v>0.123</v>
+      </c>
+      <c r="S42">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="T42">
+        <v>6704</v>
+      </c>
+      <c r="U42">
+        <v>6977</v>
+      </c>
+      <c r="V42">
+        <v>1000</v>
+      </c>
+      <c r="W42">
+        <v>122955</v>
+      </c>
+      <c r="X42">
+        <v>243825</v>
+      </c>
+      <c r="Y42">
+        <v>120919</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AB42">
+        <v>39.966999999999999</v>
+      </c>
+      <c r="AC42">
+        <v>40.014000000000003</v>
+      </c>
+      <c r="AD42">
+        <v>0.155</v>
+      </c>
+      <c r="AE42">
+        <v>39.695</v>
+      </c>
+      <c r="AF42">
+        <v>39.744</v>
+      </c>
+      <c r="AG42">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AH42">
+        <v>40.137999999999998</v>
+      </c>
+      <c r="AI42">
+        <v>40.185000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>31</v>
       </c>
@@ -5785,8 +6554,104 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>2736</v>
+      </c>
+      <c r="E43">
+        <v>3008</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.15</v>
+      </c>
+      <c r="L43">
+        <v>0.127</v>
+      </c>
+      <c r="M43">
+        <v>0.17</v>
+      </c>
+      <c r="N43">
+        <v>0.159</v>
+      </c>
+      <c r="O43">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="P43">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="R43">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S43">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T43">
+        <v>6696</v>
+      </c>
+      <c r="U43">
+        <v>6968</v>
+      </c>
+      <c r="V43">
+        <v>1000</v>
+      </c>
+      <c r="W43">
+        <v>29011</v>
+      </c>
+      <c r="X43">
+        <v>55959</v>
+      </c>
+      <c r="Y43">
+        <v>26984</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AB43">
+        <v>14.516999999999999</v>
+      </c>
+      <c r="AC43">
+        <v>14.57</v>
+      </c>
+      <c r="AD43">
+        <v>0.161</v>
+      </c>
+      <c r="AE43">
+        <v>15.279</v>
+      </c>
+      <c r="AF43">
+        <v>15.331</v>
+      </c>
+      <c r="AG43">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AH43">
+        <v>15.132</v>
+      </c>
+      <c r="AI43">
+        <v>15.180999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>32</v>
       </c>
@@ -5796,8 +6661,104 @@
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>2585</v>
+      </c>
+      <c r="E44">
+        <v>2842</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>108</v>
+      </c>
+      <c r="H44">
+        <v>131</v>
+      </c>
+      <c r="I44">
+        <v>59</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.222</v>
+      </c>
+      <c r="M44">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N44">
+        <v>0.154</v>
+      </c>
+      <c r="O44">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="P44">
+        <v>0.223</v>
+      </c>
+      <c r="Q44">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R44">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="S44">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="T44">
+        <v>6545</v>
+      </c>
+      <c r="U44">
+        <v>6802</v>
+      </c>
+      <c r="V44">
+        <v>1000</v>
+      </c>
+      <c r="W44">
+        <v>1880204</v>
+      </c>
+      <c r="X44">
+        <v>3758340</v>
+      </c>
+      <c r="Y44">
+        <v>1878178</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0.23</v>
+      </c>
+      <c r="AB44">
+        <v>451.351</v>
+      </c>
+      <c r="AC44">
+        <v>451.41500000000002</v>
+      </c>
+      <c r="AD44">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE44">
+        <v>430.80099999999999</v>
+      </c>
+      <c r="AF44">
+        <v>430.84800000000001</v>
+      </c>
+      <c r="AG44">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AH44">
+        <v>544.60500000000002</v>
+      </c>
+      <c r="AI44">
+        <v>544.73199999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -5807,8 +6768,104 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>3313</v>
+      </c>
+      <c r="E45">
+        <v>3639</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>72</v>
+      </c>
+      <c r="H45">
+        <v>24</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L45">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N45">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="O45">
+        <v>0.221</v>
+      </c>
+      <c r="P45">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="Q45">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="R45">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="S45">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="T45">
+        <v>7273</v>
+      </c>
+      <c r="U45">
+        <v>7599</v>
+      </c>
+      <c r="V45">
+        <v>1000</v>
+      </c>
+      <c r="W45">
+        <v>131622</v>
+      </c>
+      <c r="X45">
+        <v>261146</v>
+      </c>
+      <c r="Y45">
+        <v>129578</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AB45">
+        <v>70.103999999999999</v>
+      </c>
+      <c r="AC45">
+        <v>70.207999999999998</v>
+      </c>
+      <c r="AD45">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AE45">
+        <v>76.715000000000003</v>
+      </c>
+      <c r="AF45">
+        <v>76.787999999999997</v>
+      </c>
+      <c r="AG45">
+        <v>0.26</v>
+      </c>
+      <c r="AH45">
+        <v>71.712000000000003</v>
+      </c>
+      <c r="AI45">
+        <v>71.796000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -5818,8 +6875,104 @@
       <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>3260</v>
+      </c>
+      <c r="E46">
+        <v>3585</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>57</v>
+      </c>
+      <c r="H46">
+        <v>17</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M46">
+        <v>0.39</v>
+      </c>
+      <c r="N46">
+        <v>0.251</v>
+      </c>
+      <c r="O46">
+        <v>0.216</v>
+      </c>
+      <c r="P46">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Q46">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="R46">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="S46">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="T46">
+        <v>7220</v>
+      </c>
+      <c r="U46">
+        <v>7545</v>
+      </c>
+      <c r="V46">
+        <v>1000</v>
+      </c>
+      <c r="W46">
+        <v>34508</v>
+      </c>
+      <c r="X46">
+        <v>66948</v>
+      </c>
+      <c r="Y46">
+        <v>32482</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0.433</v>
+      </c>
+      <c r="AB46">
+        <v>22.699000000000002</v>
+      </c>
+      <c r="AC46">
+        <v>22.811</v>
+      </c>
+      <c r="AD46">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AE46">
+        <v>20.834</v>
+      </c>
+      <c r="AF46">
+        <v>20.914000000000001</v>
+      </c>
+      <c r="AG46">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AH46">
+        <v>22.82</v>
+      </c>
+      <c r="AI46">
+        <v>22.893999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -5829,9 +6982,102 @@
       <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
+      <c r="D47">
+        <v>3230</v>
+      </c>
+      <c r="E47">
+        <v>3549</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>66</v>
+      </c>
+      <c r="H47">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.378</v>
+      </c>
+      <c r="L47">
+        <v>0.311</v>
+      </c>
+      <c r="M47">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P47">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>0.247</v>
+      </c>
+      <c r="R47">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S47">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="T47" s="2">
+        <v>7190</v>
+      </c>
+      <c r="U47" s="2">
+        <v>7509</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W47">
+        <v>6090</v>
+      </c>
+      <c r="X47">
+        <v>10110</v>
+      </c>
+      <c r="Y47">
+        <v>4062</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0.4</v>
+      </c>
+      <c r="AB47">
+        <v>6.657</v>
+      </c>
+      <c r="AC47">
+        <v>6.7709999999999999</v>
+      </c>
+      <c r="AD47">
+        <v>0.223</v>
+      </c>
+      <c r="AE47">
+        <v>5.7869999999999999</v>
+      </c>
+      <c r="AF47">
+        <v>5.859</v>
+      </c>
+      <c r="AG47">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AH47">
+        <v>6.6719999999999997</v>
+      </c>
+      <c r="AI47">
+        <v>6.74</v>
+      </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -5842,54 +7088,54 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5" t="s">
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5" t="s">
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5" t="s">
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5" t="s">
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5" t="s">
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -6187,54 +7433,54 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5" t="s">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5" t="s">
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5" t="s">
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5" t="s">
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5" t="s">
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5" t="s">
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5" t="s">
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="5"/>
-      <c r="AI73" s="5"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -6536,54 +7782,54 @@
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5" t="s">
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5" t="s">
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5" t="s">
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5" t="s">
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
-      <c r="AD94" s="5" t="s">
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AE94" s="5"/>
-      <c r="AF94" s="5"/>
-      <c r="AG94" s="5" t="s">
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH94" s="5"/>
-      <c r="AI94" s="5"/>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -6897,22 +8143,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AA73:AC73"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AG73:AI73"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="T73:Z73"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:Z31"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AG94:AI94"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:Z94"/>
     <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="AG10:AI10"/>
     <mergeCell ref="T10:Z10"/>
@@ -6929,14 +8167,22 @@
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA94:AC94"/>
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AG94:AI94"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="T94:Z94"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Z31"/>
+    <mergeCell ref="AA73:AC73"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AG73:AI73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="T73:Z73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="71">
   <si>
     <t>Run</t>
   </si>
@@ -198,9 +198,6 @@
     <t>1000 Solutions - Run 3</t>
   </si>
   <si>
-    <t>Features: 40, Heuristic: 2</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -213,19 +210,10 @@
     <t>Heuristic 2</t>
   </si>
   <si>
-    <t>Features: 40, Heuristic: 3</t>
-  </si>
-  <si>
     <t>Heuristic 3</t>
   </si>
   <si>
-    <t>Features: 40, Heuristic: 4</t>
-  </si>
-  <si>
     <t>Heuristic 4</t>
-  </si>
-  <si>
-    <t>Features: 40, Heuristic 1: MorePercInstVars</t>
   </si>
   <si>
     <t>#CTC per FM:</t>
@@ -241,6 +229,15 @@
   </si>
   <si>
     <t>#Features</t>
+  </si>
+  <si>
+    <t>Features: 40, Heuristic 2: Default + BiVarArithmetic</t>
+  </si>
+  <si>
+    <t>Features: 40, Heuristic 1: Default + MorePercInstVars</t>
+  </si>
+  <si>
+    <t>Features: 40, Heuristic 3: Default + BiVarArithmetic + OrAttr0 + OrAttr1</t>
   </si>
 </sst>
 </file>
@@ -484,19 +481,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.1713196075358119E-2</c:v>
+                  <c:v>9.1187269729718287E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1120159944739523</c:v>
+                  <c:v>0.11180847459261625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17160190134522463</c:v>
+                  <c:v>0.17014395193802512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19181052458152417</c:v>
+                  <c:v>0.19116987590893744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23150703440631004</c:v>
+                  <c:v>0.23112729160001227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,19 +557,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.6510128502450097E-2</c:v>
+                  <c:v>6.5905807503954361E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6431743786938922E-2</c:v>
+                  <c:v>8.5653949321746303E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1072712197284221</c:v>
+                  <c:v>0.10691845154486945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1433654095945468</c:v>
+                  <c:v>0.14034154529106099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22956564977215757</c:v>
+                  <c:v>0.22708745996596125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,6 +632,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.837459345418106E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.973155770843153E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11130381037109011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12629952919295748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14112515449175733</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1091,19 +1103,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.50496600095331901</c:v>
+                  <c:v>0.30144674955333528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1547335308334854</c:v>
+                  <c:v>0.70487610846063131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4229073944904496</c:v>
+                  <c:v>7.1782102891205311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.317513882842967</c:v>
+                  <c:v>30.133753885968989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.200932943568031</c:v>
+                  <c:v>9.3311456376174444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,19 +1179,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.54504912456136556</c:v>
+                  <c:v>0.26271717043663456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7720456555716841</c:v>
+                  <c:v>0.9855389183779858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.28765774181411</c:v>
+                  <c:v>7.3579809941861845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.643641109764957</c:v>
+                  <c:v>31.92406529142966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.706443362773502</c:v>
+                  <c:v>13.845771604971324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,6 +1254,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3103117867143107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7290030969009762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7141563995510145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.188664846837895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.470053843172394</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2949,50 +2976,6 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A95:AI110"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3258,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3270,22 +3253,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3293,12 +3276,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>GEOMEAN(Models!L12:L14,Models!O12:O14,Models!R12:R14)</f>
-        <v>9.1713196075358119E-2</v>
+        <f>HARMEAN(Models!L12:L14,Models!O12:O14,Models!R12:R14)</f>
+        <v>9.1187269729718287E-2</v>
       </c>
       <c r="C2" s="8">
-        <f>GEOMEAN(Models!L33:L35,Models!O33:O35,Models!R33:R35)</f>
-        <v>6.6510128502450097E-2</v>
+        <f>HARMEAN(Models!L33:L35,Models!O33:O35,Models!R33:R35)</f>
+        <v>6.5905807503954361E-2</v>
+      </c>
+      <c r="D2">
+        <f>HARMEAN(Models!L54:L56,Models!O54:O56,Models!R54:R56)</f>
+        <v>7.837459345418106E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3306,12 +3293,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <f>GEOMEAN(Models!L15:L17,Models!O15:O17,Models!R15:R17)</f>
-        <v>0.1120159944739523</v>
+        <f>HARMEAN(Models!L15:L17,Models!O15:O17,Models!R15:R17)</f>
+        <v>0.11180847459261625</v>
       </c>
       <c r="C3" s="8">
-        <f>GEOMEAN(Models!L36:L38,Models!O36:O38,Models!R36:R38)</f>
-        <v>8.6431743786938922E-2</v>
+        <f>HARMEAN(Models!L36:L38,Models!O36:O38,Models!R36:R38)</f>
+        <v>8.5653949321746303E-2</v>
+      </c>
+      <c r="D3">
+        <f>HARMEAN(Models!L57:L59,Models!O57:O59,Models!R57:R59)</f>
+        <v>7.973155770843153E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3319,12 +3310,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <f>GEOMEAN(Models!L18:L20,Models!O18:O20,Models!R18:R20)</f>
-        <v>0.17160190134522463</v>
+        <f>HARMEAN(Models!L18:L20,Models!O18:O20,Models!R18:R20)</f>
+        <v>0.17014395193802512</v>
       </c>
       <c r="C4" s="8">
-        <f>GEOMEAN(Models!L39:L41,Models!O39:O41,Models!R39:R41)</f>
-        <v>0.1072712197284221</v>
+        <f>HARMEAN(Models!L39:L41,Models!O39:O41,Models!R39:R41)</f>
+        <v>0.10691845154486945</v>
+      </c>
+      <c r="D4">
+        <f>HARMEAN(Models!L60:L62,Models!O60:O62,Models!R60:R62)</f>
+        <v>0.11130381037109011</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3332,12 +3327,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <f>GEOMEAN(Models!L21:L23,Models!O21:O23,Models!R21:R23)</f>
-        <v>0.19181052458152417</v>
+        <f>HARMEAN(Models!L21:L23,Models!O21:O23,Models!R21:R23)</f>
+        <v>0.19116987590893744</v>
       </c>
       <c r="C5" s="8">
-        <f>GEOMEAN(Models!L42:L44,Models!O42:O44,Models!R42:R44)</f>
-        <v>0.1433654095945468</v>
+        <f>HARMEAN(Models!L42:L44,Models!O42:O44,Models!R42:R44)</f>
+        <v>0.14034154529106099</v>
+      </c>
+      <c r="D5">
+        <f>HARMEAN(Models!L63:L65,Models!O63:O65,Models!R63:R65)</f>
+        <v>0.12629952919295748</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3345,32 +3344,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <f>GEOMEAN(Models!L24:L26,Models!O24:O26,Models!R24:R26)</f>
-        <v>0.23150703440631004</v>
+        <f>HARMEAN(Models!L24:L26,Models!O24:O26,Models!R24:R26)</f>
+        <v>0.23112729160001227</v>
       </c>
       <c r="C6" s="8">
-        <f>GEOMEAN(Models!L45:L47,Models!O45:O47,Models!R45:R47)</f>
-        <v>0.22956564977215757</v>
+        <f>HARMEAN(Models!L45:L47,Models!O45:O47,Models!R45:R47)</f>
+        <v>0.22708745996596125</v>
+      </c>
+      <c r="D6">
+        <f>HARMEAN(Models!L66:L68,Models!O66:O68,Models!R66:R68)</f>
+        <v>0.14112515449175733</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3378,12 +3381,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="8">
-        <f>GEOMEAN(Models!AB12:AB14,Models!AE12:AE14,Models!AH12:AH14)</f>
-        <v>0.50496600095331901</v>
+        <f>HARMEAN(Models!AB12:AB14,Models!AE12:AE14,Models!AH12:AH14)</f>
+        <v>0.30144674955333528</v>
       </c>
       <c r="C11" s="8">
-        <f>GEOMEAN(Models!AB33:AB35,Models!AE33:AE35,Models!AH33:AH35)</f>
-        <v>0.54504912456136556</v>
+        <f>HARMEAN(Models!AB33:AB35,Models!AE33:AE35,Models!AH33:AH35)</f>
+        <v>0.26271717043663456</v>
+      </c>
+      <c r="D11">
+        <f>HARMEAN(Models!AB54:AB56,Models!AE54:AE56,Models!AH54:AH56)</f>
+        <v>0.3103117867143107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3391,12 +3398,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="8">
-        <f>GEOMEAN(Models!AB15:AB17,Models!AE15:AE17,Models!AH15:AH17)</f>
-        <v>1.1547335308334854</v>
+        <f>HARMEAN(Models!AB15:AB17,Models!AE15:AE17,Models!AH15:AH17)</f>
+        <v>0.70487610846063131</v>
       </c>
       <c r="C12" s="8">
-        <f>GEOMEAN(Models!AB36:AB38,Models!AE36:AE38,Models!AH36:AH38)</f>
-        <v>1.7720456555716841</v>
+        <f>HARMEAN(Models!AB36:AB38,Models!AE36:AE38,Models!AH36:AH38)</f>
+        <v>0.9855389183779858</v>
+      </c>
+      <c r="D12">
+        <f>HARMEAN(Models!AB57:AB59,Models!AE57:AE59,Models!AH57:AH59)</f>
+        <v>0.7290030969009762</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3404,12 +3415,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="8">
-        <f>GEOMEAN(Models!AB18:AB20,Models!AE18:AE20,Models!AH18:AH20)</f>
-        <v>8.4229073944904496</v>
+        <f>HARMEAN(Models!AB18:AB20,Models!AE18:AE20,Models!AH18:AH20)</f>
+        <v>7.1782102891205311</v>
       </c>
       <c r="C13" s="8">
-        <f>GEOMEAN(Models!AB39:AB41,Models!AE39:AE41,Models!AH39:AH41)</f>
-        <v>10.28765774181411</v>
+        <f>HARMEAN(Models!AB39:AB41,Models!AE39:AE41,Models!AH39:AH41)</f>
+        <v>7.3579809941861845</v>
+      </c>
+      <c r="D13">
+        <f>HARMEAN(Models!AB60:AB62,Models!AE60:AE62,Models!AH60:AH62)</f>
+        <v>5.7141563995510145</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3417,12 +3432,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="8">
-        <f>GEOMEAN(Models!AB21:AB23,Models!AE21:AE23,Models!AH21:AH23)</f>
-        <v>32.317513882842967</v>
+        <f>HARMEAN(Models!AB21:AB23,Models!AE21:AE23,Models!AH21:AH23)</f>
+        <v>30.133753885968989</v>
       </c>
       <c r="C14" s="8">
-        <f>GEOMEAN(Models!AB42:AB44,Models!AE42:AE44,Models!AH42:AH44)</f>
-        <v>65.643641109764957</v>
+        <f>HARMEAN(Models!AB42:AB44,Models!AE42:AE44,Models!AH42:AH44)</f>
+        <v>31.92406529142966</v>
+      </c>
+      <c r="D14">
+        <f>HARMEAN(Models!AB63:AB65,Models!AE63:AE65,Models!AH63:AH65)</f>
+        <v>36.188664846837895</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3430,12 +3449,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="8">
-        <f>GEOMEAN(Models!AB24:AB26,Models!AE24:AE26,Models!AH24:AH26)</f>
-        <v>10.200932943568031</v>
+        <f>HARMEAN(Models!AB24:AB26,Models!AE24:AE26,Models!AH24:AH26)</f>
+        <v>9.3311456376174444</v>
       </c>
       <c r="C15" s="8">
-        <f>GEOMEAN(Models!AB45:AB47,Models!AE45:AE47,Models!AH45:AH47)</f>
-        <v>21.706443362773502</v>
+        <f>HARMEAN(Models!AB45:AB47,Models!AE45:AE47,Models!AH45:AH47)</f>
+        <v>13.845771604971324</v>
+      </c>
+      <c r="D15">
+        <f>HARMEAN(Models!AB66:AB68,Models!AE66:AE68,Models!AH66:AH68)</f>
+        <v>30.470053843172394</v>
       </c>
     </row>
   </sheetData>
@@ -3450,14 +3473,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI110"/>
+  <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView topLeftCell="AE28" workbookViewId="0">
-      <selection activeCell="AI48" sqref="AI48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
@@ -3501,7 +3525,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3509,7 +3533,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5">
         <v>0.1</v>
@@ -3517,7 +3541,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3525,7 +3549,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3533,7 +3557,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
         <v>0.05</v>
@@ -5311,7 +5335,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
@@ -7081,7 +7105,7 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
@@ -7254,6 +7278,102 @@
       <c r="C54">
         <v>19</v>
       </c>
+      <c r="D54">
+        <v>665</v>
+      </c>
+      <c r="E54">
+        <v>723</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>32</v>
+      </c>
+      <c r="H54">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.214</v>
+      </c>
+      <c r="L54">
+        <v>0.109</v>
+      </c>
+      <c r="M54">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="N54">
+        <v>0.17</v>
+      </c>
+      <c r="O54">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.15</v>
+      </c>
+      <c r="Q54">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R54">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S54">
+        <v>0.127</v>
+      </c>
+      <c r="T54">
+        <v>2641</v>
+      </c>
+      <c r="U54">
+        <v>2699</v>
+      </c>
+      <c r="V54">
+        <v>504</v>
+      </c>
+      <c r="W54">
+        <v>2534</v>
+      </c>
+      <c r="X54">
+        <v>4061</v>
+      </c>
+      <c r="Y54">
+        <v>1527</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0.18</v>
+      </c>
+      <c r="AB54">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AC54">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="AD54">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AE54">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AF54">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AG54">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AH54">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AI54">
+        <v>1.0409999999999999</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -7265,6 +7385,102 @@
       <c r="C55">
         <v>24</v>
       </c>
+      <c r="D55">
+        <v>742</v>
+      </c>
+      <c r="E55">
+        <v>311</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>33</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.216</v>
+      </c>
+      <c r="L55">
+        <v>0.113</v>
+      </c>
+      <c r="M55">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N55">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="O55">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="P55">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q55">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="R55">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S55">
+        <v>0.112</v>
+      </c>
+      <c r="T55">
+        <v>2310</v>
+      </c>
+      <c r="U55">
+        <v>2379</v>
+      </c>
+      <c r="V55">
+        <v>402</v>
+      </c>
+      <c r="W55">
+        <v>6377</v>
+      </c>
+      <c r="X55">
+        <v>11951</v>
+      </c>
+      <c r="Y55">
+        <v>5574</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0.129</v>
+      </c>
+      <c r="AB55">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="AC55">
+        <v>1.351</v>
+      </c>
+      <c r="AD55">
+        <v>0.125</v>
+      </c>
+      <c r="AE55">
+        <v>1.353</v>
+      </c>
+      <c r="AF55">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="AG55">
+        <v>0.127</v>
+      </c>
+      <c r="AH55">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="AI55">
+        <v>1.458</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -7276,6 +7492,102 @@
       <c r="C56">
         <v>9</v>
       </c>
+      <c r="D56">
+        <v>734</v>
+      </c>
+      <c r="E56">
+        <v>801</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56">
+        <v>14</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.128</v>
+      </c>
+      <c r="L56">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M56">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N56">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="O56">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P56">
+        <v>0.114</v>
+      </c>
+      <c r="Q56">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="R56">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="S56">
+        <v>0.107</v>
+      </c>
+      <c r="T56">
+        <v>934</v>
+      </c>
+      <c r="U56">
+        <v>1001</v>
+      </c>
+      <c r="V56">
+        <v>60</v>
+      </c>
+      <c r="W56">
+        <v>131</v>
+      </c>
+      <c r="X56">
+        <v>143</v>
+      </c>
+      <c r="Y56">
+        <v>12</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AB56">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AC56">
+        <v>0.158</v>
+      </c>
+      <c r="AD56">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AE56">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AF56">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AG56">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AH56">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AI56">
+        <v>0.17699999999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -7287,6 +7599,102 @@
       <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D57">
+        <v>1309</v>
+      </c>
+      <c r="E57">
+        <v>1434</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L57">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M57">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="N57">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O57">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P57">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q57">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="R57">
+        <v>0.08</v>
+      </c>
+      <c r="S57">
+        <v>0.124</v>
+      </c>
+      <c r="T57">
+        <v>1977</v>
+      </c>
+      <c r="U57">
+        <v>2102</v>
+      </c>
+      <c r="V57">
+        <v>177</v>
+      </c>
+      <c r="W57">
+        <v>995</v>
+      </c>
+      <c r="X57">
+        <v>1637</v>
+      </c>
+      <c r="Y57">
+        <v>642</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AB57">
+        <v>0.437</v>
+      </c>
+      <c r="AC57">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AD57">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE57">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="AF57">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AG57">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AH57">
+        <v>0.43</v>
+      </c>
+      <c r="AI57">
+        <v>0.47399999999999998</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -7298,9 +7706,102 @@
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
+      <c r="D58">
+        <v>1239</v>
+      </c>
+      <c r="E58">
+        <v>1362</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>39</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="L58">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M58">
+        <v>0.127</v>
+      </c>
+      <c r="N58">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O58">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="P58">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R58">
+        <v>0.08</v>
+      </c>
+      <c r="S58">
+        <v>0.124</v>
+      </c>
+      <c r="T58">
+        <v>3475</v>
+      </c>
+      <c r="U58">
+        <v>3598</v>
+      </c>
+      <c r="V58">
+        <v>569</v>
+      </c>
+      <c r="W58" s="2">
+        <v>10148</v>
+      </c>
+      <c r="X58" s="2">
+        <v>19159</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>9011</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AB58">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="AC58">
+        <v>2.722</v>
+      </c>
+      <c r="AD58">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AE58">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="AF58">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="AG58">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AH58">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="AI58">
+        <v>2.6110000000000002</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -7312,6 +7813,102 @@
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D59">
+        <v>1326</v>
+      </c>
+      <c r="E59">
+        <v>1458</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>31</v>
+      </c>
+      <c r="H59">
+        <v>15</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.192</v>
+      </c>
+      <c r="L59">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M59">
+        <v>0.151</v>
+      </c>
+      <c r="N59">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="O59">
+        <v>0.08</v>
+      </c>
+      <c r="P59">
+        <v>0.122</v>
+      </c>
+      <c r="Q59">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="R59">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="S59">
+        <v>0.128</v>
+      </c>
+      <c r="T59">
+        <v>2662</v>
+      </c>
+      <c r="U59">
+        <v>2794</v>
+      </c>
+      <c r="V59">
+        <v>344</v>
+      </c>
+      <c r="W59">
+        <v>1293</v>
+      </c>
+      <c r="X59">
+        <v>1899</v>
+      </c>
+      <c r="Y59">
+        <v>606</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0.223</v>
+      </c>
+      <c r="AB59">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="AC59">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="AD59">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AE59">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="AF59">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AG59">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AH59">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="AI59">
+        <v>0.69899999999999995</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -7323,6 +7920,102 @@
       <c r="C60" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D60">
+        <v>2049</v>
+      </c>
+      <c r="E60">
+        <v>2249</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>42</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="N60">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O60">
+        <v>0.115</v>
+      </c>
+      <c r="P60">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>0.153</v>
+      </c>
+      <c r="R60">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="S60">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="T60">
+        <v>6009</v>
+      </c>
+      <c r="U60">
+        <v>6209</v>
+      </c>
+      <c r="V60">
+        <v>1000</v>
+      </c>
+      <c r="W60">
+        <v>19928</v>
+      </c>
+      <c r="X60">
+        <v>37818</v>
+      </c>
+      <c r="Y60">
+        <v>17916</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0.191</v>
+      </c>
+      <c r="AB60">
+        <v>10.653</v>
+      </c>
+      <c r="AC60">
+        <v>1.706</v>
+      </c>
+      <c r="AD60">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AE60">
+        <v>11.337</v>
+      </c>
+      <c r="AF60">
+        <v>11.384</v>
+      </c>
+      <c r="AG60">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AH60">
+        <v>10.25</v>
+      </c>
+      <c r="AI60">
+        <v>10.298999999999999</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -7334,6 +8027,102 @@
       <c r="C61" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D61">
+        <v>2087</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2295</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>32</v>
+      </c>
+      <c r="H61" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L61">
+        <v>0.153</v>
+      </c>
+      <c r="M61">
+        <v>0.217</v>
+      </c>
+      <c r="N61">
+        <v>0.151</v>
+      </c>
+      <c r="O61">
+        <v>0.108</v>
+      </c>
+      <c r="P61">
+        <v>0.157</v>
+      </c>
+      <c r="Q61">
+        <v>0.151</v>
+      </c>
+      <c r="R61">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S61">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="T61">
+        <v>5459</v>
+      </c>
+      <c r="U61">
+        <v>5667</v>
+      </c>
+      <c r="V61">
+        <v>853</v>
+      </c>
+      <c r="W61">
+        <v>12856</v>
+      </c>
+      <c r="X61">
+        <v>24007</v>
+      </c>
+      <c r="Y61">
+        <v>11151</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AB61">
+        <v>4.5730000000000004</v>
+      </c>
+      <c r="AC61">
+        <v>4.62</v>
+      </c>
+      <c r="AD61">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AE61">
+        <v>4.4210000000000003</v>
+      </c>
+      <c r="AF61">
+        <v>4.47</v>
+      </c>
+      <c r="AG61">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AH61">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="AI61">
+        <v>4.5010000000000003</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -7345,6 +8134,102 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D62">
+        <v>2056</v>
+      </c>
+      <c r="E62">
+        <v>2254</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>56</v>
+      </c>
+      <c r="H62">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.15</v>
+      </c>
+      <c r="L62">
+        <v>0.104</v>
+      </c>
+      <c r="M62">
+        <v>0.151</v>
+      </c>
+      <c r="N62">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="O62">
+        <v>0.109</v>
+      </c>
+      <c r="P62">
+        <v>0.157</v>
+      </c>
+      <c r="Q62">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="R62">
+        <v>0.104</v>
+      </c>
+      <c r="S62">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="T62">
+        <v>6016</v>
+      </c>
+      <c r="U62">
+        <v>6214</v>
+      </c>
+      <c r="V62">
+        <v>1000</v>
+      </c>
+      <c r="W62">
+        <v>9861</v>
+      </c>
+      <c r="X62">
+        <v>17654</v>
+      </c>
+      <c r="Y62">
+        <v>7831</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0.214</v>
+      </c>
+      <c r="AB62">
+        <v>4.8760000000000003</v>
+      </c>
+      <c r="AC62">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="AD62">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE62">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AF62">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="AG62">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AH62">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="AI62">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -7356,9 +8241,102 @@
       <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="D63" s="2">
+        <v>2744</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3017</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.152</v>
+      </c>
+      <c r="L63">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="M63">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="N63">
+        <v>0.16</v>
+      </c>
+      <c r="O63">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="P63">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Q63">
+        <v>0.153</v>
+      </c>
+      <c r="R63">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="S63">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="T63">
+        <v>6704</v>
+      </c>
+      <c r="U63">
+        <v>6977</v>
+      </c>
+      <c r="V63">
+        <v>1000</v>
+      </c>
+      <c r="W63">
+        <v>32055</v>
+      </c>
+      <c r="X63">
+        <v>62039</v>
+      </c>
+      <c r="Y63">
+        <v>30025</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0.246</v>
+      </c>
+      <c r="AB63">
+        <v>15.768000000000001</v>
+      </c>
+      <c r="AC63">
+        <v>15.839</v>
+      </c>
+      <c r="AD63">
+        <v>0.16</v>
+      </c>
+      <c r="AE63">
+        <v>15.113</v>
+      </c>
+      <c r="AF63">
+        <v>15.16</v>
+      </c>
+      <c r="AG63">
+        <v>0.155</v>
+      </c>
+      <c r="AH63">
+        <v>14.912000000000001</v>
+      </c>
+      <c r="AI63">
+        <v>14.959</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -7370,6 +8348,102 @@
       <c r="C64" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D64">
+        <v>2736</v>
+      </c>
+      <c r="E64">
+        <v>3008</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>54</v>
+      </c>
+      <c r="H64">
+        <v>16</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.187</v>
+      </c>
+      <c r="M64">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.157</v>
+      </c>
+      <c r="O64">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="P64">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="Q64">
+        <v>0.158</v>
+      </c>
+      <c r="R64">
+        <v>0.126</v>
+      </c>
+      <c r="S64">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="T64">
+        <v>6696</v>
+      </c>
+      <c r="U64">
+        <v>6968</v>
+      </c>
+      <c r="V64">
+        <v>1000</v>
+      </c>
+      <c r="W64">
+        <v>218117</v>
+      </c>
+      <c r="X64">
+        <v>434169</v>
+      </c>
+      <c r="Y64">
+        <v>216091</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AB64">
+        <v>81.424000000000007</v>
+      </c>
+      <c r="AC64">
+        <v>81.481999999999999</v>
+      </c>
+      <c r="AD64">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AE64">
+        <v>80.811000000000007</v>
+      </c>
+      <c r="AF64">
+        <v>80.869</v>
+      </c>
+      <c r="AG64">
+        <v>0.155</v>
+      </c>
+      <c r="AH64">
+        <v>99.641999999999996</v>
+      </c>
+      <c r="AI64">
+        <v>99.691999999999993</v>
+      </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -7381,6 +8455,102 @@
       <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D65">
+        <v>2585</v>
+      </c>
+      <c r="E65">
+        <v>2842</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>46</v>
+      </c>
+      <c r="H65">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.24</v>
+      </c>
+      <c r="L65">
+        <v>0.152</v>
+      </c>
+      <c r="M65">
+        <v>0.217</v>
+      </c>
+      <c r="N65">
+        <v>0.16</v>
+      </c>
+      <c r="O65">
+        <v>0.112</v>
+      </c>
+      <c r="P65">
+        <v>0.16</v>
+      </c>
+      <c r="Q65">
+        <v>0.159</v>
+      </c>
+      <c r="R65">
+        <v>0.105</v>
+      </c>
+      <c r="S65">
+        <v>0.153</v>
+      </c>
+      <c r="T65">
+        <v>6545</v>
+      </c>
+      <c r="U65">
+        <v>6802</v>
+      </c>
+      <c r="V65">
+        <v>1000</v>
+      </c>
+      <c r="W65">
+        <v>405612</v>
+      </c>
+      <c r="X65">
+        <v>809174</v>
+      </c>
+      <c r="Y65">
+        <v>403591</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0.157</v>
+      </c>
+      <c r="AB65">
+        <v>173.24100000000001</v>
+      </c>
+      <c r="AC65">
+        <v>173.29</v>
+      </c>
+      <c r="AD65">
+        <v>0.155</v>
+      </c>
+      <c r="AE65">
+        <v>162.75800000000001</v>
+      </c>
+      <c r="AF65">
+        <v>162.80500000000001</v>
+      </c>
+      <c r="AG65">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AH65">
+        <v>183.80600000000001</v>
+      </c>
+      <c r="AI65">
+        <v>183.86699999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -7392,6 +8562,102 @@
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D66">
+        <v>3313</v>
+      </c>
+      <c r="E66">
+        <v>3639</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>74</v>
+      </c>
+      <c r="H66">
+        <v>19</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.159</v>
+      </c>
+      <c r="M66">
+        <v>0.215</v>
+      </c>
+      <c r="N66">
+        <v>0.158</v>
+      </c>
+      <c r="O66">
+        <v>0.155</v>
+      </c>
+      <c r="P66">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R66">
+        <v>0.153</v>
+      </c>
+      <c r="S66">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="T66">
+        <v>7273</v>
+      </c>
+      <c r="U66">
+        <v>7599</v>
+      </c>
+      <c r="V66">
+        <v>1000</v>
+      </c>
+      <c r="W66">
+        <v>550945</v>
+      </c>
+      <c r="X66">
+        <v>1099800</v>
+      </c>
+      <c r="Y66">
+        <v>548911</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0.249</v>
+      </c>
+      <c r="AB66">
+        <v>253.65799999999999</v>
+      </c>
+      <c r="AC66">
+        <v>253.733</v>
+      </c>
+      <c r="AD66">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AE66">
+        <v>231.95</v>
+      </c>
+      <c r="AF66">
+        <v>232.029</v>
+      </c>
+      <c r="AG66">
+        <v>0.159</v>
+      </c>
+      <c r="AH66">
+        <v>241.191</v>
+      </c>
+      <c r="AI66">
+        <v>241.24799999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -7403,9 +8669,102 @@
       <c r="C67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
+      <c r="D67">
+        <v>3260</v>
+      </c>
+      <c r="E67">
+        <v>3585</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>60</v>
+      </c>
+      <c r="H67">
+        <v>18</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.161</v>
+      </c>
+      <c r="L67">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M67">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="N67">
+        <v>0.16</v>
+      </c>
+      <c r="O67">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="P67">
+        <v>0.187</v>
+      </c>
+      <c r="Q67">
+        <v>0.157</v>
+      </c>
+      <c r="R67">
+        <v>0.13</v>
+      </c>
+      <c r="S67">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="T67" s="2">
+        <v>7220</v>
+      </c>
+      <c r="U67" s="2">
+        <v>7545</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W67">
+        <v>249049</v>
+      </c>
+      <c r="X67" s="2">
+        <v>496026</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>247022</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AB67">
+        <v>72.194999999999993</v>
+      </c>
+      <c r="AC67">
+        <v>72.269000000000005</v>
+      </c>
+      <c r="AD67">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AE67">
+        <v>73.006</v>
+      </c>
+      <c r="AF67">
+        <v>73.052999999999997</v>
+      </c>
+      <c r="AG67">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AH67">
+        <v>75.793000000000006</v>
+      </c>
+      <c r="AI67">
+        <v>75.84</v>
+      </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -7417,16 +8776,106 @@
       <c r="C68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
+      <c r="D68">
+        <v>3230</v>
+      </c>
+      <c r="E68">
+        <v>3549</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>69</v>
+      </c>
+      <c r="H68">
+        <v>34</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N68">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O68">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="P68">
+        <v>0.183</v>
+      </c>
+      <c r="Q68">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="R68">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="S68">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="T68" s="2">
+        <v>7190</v>
+      </c>
+      <c r="U68" s="2">
+        <v>7509</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W68">
+        <v>35975</v>
+      </c>
+      <c r="X68">
+        <v>69868</v>
+      </c>
+      <c r="Y68">
+        <v>33938</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>12.672000000000001</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>12.718</v>
+      </c>
+      <c r="AD68">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AE68">
+        <v>12.303000000000001</v>
+      </c>
+      <c r="AF68">
+        <v>12.35</v>
+      </c>
+      <c r="AG68">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AH68">
+        <v>12.19</v>
+      </c>
+      <c r="AI68">
+        <v>12.236000000000001</v>
+      </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.3">
@@ -7658,7 +9107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -7673,7 +9122,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -7684,7 +9133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22</v>
       </c>
@@ -7695,7 +9144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>30</v>
       </c>
@@ -7709,7 +9158,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>31</v>
       </c>
@@ -7720,7 +9169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>32</v>
       </c>
@@ -7731,7 +9180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -7742,7 +9191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -7756,7 +9205,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>42</v>
       </c>
@@ -7773,384 +9222,8 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
-      <c r="AG94" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH94" s="7"/>
-      <c r="AI94" s="7"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" t="s">
-        <v>31</v>
-      </c>
-      <c r="J95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K95" t="s">
-        <v>17</v>
-      </c>
-      <c r="L95" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" t="s">
-        <v>19</v>
-      </c>
-      <c r="N95" t="s">
-        <v>20</v>
-      </c>
-      <c r="O95" t="s">
-        <v>21</v>
-      </c>
-      <c r="P95" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R95" t="s">
-        <v>24</v>
-      </c>
-      <c r="S95" t="s">
-        <v>25</v>
-      </c>
-      <c r="T95" t="s">
-        <v>37</v>
-      </c>
-      <c r="U95" t="s">
-        <v>38</v>
-      </c>
-      <c r="V95" t="s">
-        <v>39</v>
-      </c>
-      <c r="W95" t="s">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>10</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>11</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>12</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>20</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>21</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>22</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>30</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>31</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>32</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>40</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>41</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>42</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AA94:AC94"/>
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AG94:AI94"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="T94:Z94"/>
+  <mergeCells count="32">
     <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="AG10:AI10"/>
     <mergeCell ref="T10:Z10"/>
@@ -8186,12 +9259,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="Models" sheetId="1" r:id="rId2"/>
+    <sheet name="40 - Models" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="72">
   <si>
     <t>Run</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Heuristic 3</t>
   </si>
   <si>
-    <t>Heuristic 4</t>
-  </si>
-  <si>
     <t>#CTC per FM:</t>
   </si>
   <si>
@@ -238,6 +235,12 @@
   </si>
   <si>
     <t>Features: 40, Heuristic 3: Default + BiVarArithmetic + OrAttr0 + OrAttr1</t>
+  </si>
+  <si>
+    <t>Features: 40, Heuristic 4: Default + OrAttr0 + OrAttr1</t>
+  </si>
+  <si>
+    <t>Constraints</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,19 @@
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="0.000"/>
     </dxf>
@@ -383,7 +398,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>10 Solutions</a:t>
+              <a:t>1000 Solutions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -429,11 +444,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$B$1</c:f>
+              <c:f>Summary!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Default</c:v>
+                  <c:v>Constraints</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -452,7 +467,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:f>Summary!$A$11:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -476,25 +491,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$2:$B$6</c:f>
+              <c:f>Summary!$B$11:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.1187269729718287E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11180847459261625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17014395193802512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19116987590893744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23112729160001227</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -505,11 +505,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$C$1</c:f>
+              <c:f>Summary!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 1</c:v>
+                  <c:v>Default</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -528,7 +528,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:f>Summary!$A$11:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -552,24 +552,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$2:$C$6</c:f>
+              <c:f>Summary!$C$11:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.5905807503954361E-2</c:v>
+                  <c:v>0.30144674955333528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5653949321746303E-2</c:v>
+                  <c:v>0.70487610846063131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10691845154486945</c:v>
+                  <c:v>7.1782102891205311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14034154529106099</c:v>
+                  <c:v>30.133753885968989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22708745996596125</c:v>
+                  <c:v>9.3311456376174444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,11 +581,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$D$1</c:f>
+              <c:f>Summary!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 2</c:v>
+                  <c:v>Heuristic 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -604,7 +604,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:f>Summary!$A$11:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -628,24 +628,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$2:$D$6</c:f>
+              <c:f>Summary!$D$11:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.837459345418106E-2</c:v>
+                  <c:v>0.26271717043663456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.973155770843153E-2</c:v>
+                  <c:v>0.9855389183779858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11130381037109011</c:v>
+                  <c:v>7.3579809941861845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12629952919295748</c:v>
+                  <c:v>31.92406529142966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14112515449175733</c:v>
+                  <c:v>13.845771604971324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,11 +657,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$E$1</c:f>
+              <c:f>Summary!$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 3</c:v>
+                  <c:v>Heuristic 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,7 +680,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:f>Summary!$A$11:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -704,10 +704,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$2:$E$6</c:f>
+              <c:f>Summary!$E$11:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3103117867143107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7290030969009762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7141563995510145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.188664846837895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.470053843172394</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -718,11 +733,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$F$1</c:f>
+              <c:f>Summary!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 4</c:v>
+                  <c:v>Heuristic 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -741,7 +756,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:f>Summary!$A$11:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -765,10 +780,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$2:$F$6</c:f>
+              <c:f>Summary!$F$11:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28661775870741463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69737861410103907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9914634565127107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.766448089786131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.888986502272239</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -783,11 +813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="180378096"/>
-        <c:axId val="180374568"/>
+        <c:axId val="180378880"/>
+        <c:axId val="180371432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180378096"/>
+        <c:axId val="180378880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +860,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180374568"/>
+        <c:crossAx val="180371432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,8 +868,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180374568"/>
+        <c:axId val="180371432"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -858,7 +889,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -889,7 +920,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180378096"/>
+        <c:crossAx val="180378880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,7 +1036,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>1000 Solutions</a:t>
+              <a:t>10 Solutions - Models</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1051,7 +1082,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$B$10</c:f>
+              <c:f>Summary!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1074,7 +1105,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:f>Summary!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1098,24 +1129,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$11:$B$15</c:f>
+              <c:f>Summary!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.30144674955333528</c:v>
+                  <c:v>9.1187269729718287E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70487610846063131</c:v>
+                  <c:v>0.11180847459261625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1782102891205311</c:v>
+                  <c:v>0.17014395193802512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.133753885968989</c:v>
+                  <c:v>0.19116987590893744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3311456376174444</c:v>
+                  <c:v>0.23112729160001227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,7 +1158,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$C$10</c:f>
+              <c:f>Summary!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1150,7 +1181,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:f>Summary!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1174,24 +1205,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$11:$C$15</c:f>
+              <c:f>Summary!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.26271717043663456</c:v>
+                  <c:v>6.5905807503954361E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9855389183779858</c:v>
+                  <c:v>8.5653949321746303E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3579809941861845</c:v>
+                  <c:v>0.10691845154486945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.92406529142966</c:v>
+                  <c:v>0.14034154529106099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.845771604971324</c:v>
+                  <c:v>0.22708745996596125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1234,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$D$10</c:f>
+              <c:f>Summary!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1226,7 +1257,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:f>Summary!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1250,24 +1281,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$11:$D$15</c:f>
+              <c:f>Summary!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3103117867143107</c:v>
+                  <c:v>7.837459345418106E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7290030969009762</c:v>
+                  <c:v>7.973155770843153E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7141563995510145</c:v>
+                  <c:v>0.11130381037109011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.188664846837895</c:v>
+                  <c:v>0.12629952919295748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.470053843172394</c:v>
+                  <c:v>0.14112515449175733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,7 +1310,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$E$10</c:f>
+              <c:f>Summary!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1302,7 +1333,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:f>Summary!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1326,71 +1357,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$11:$E$15</c:f>
+              <c:f>Summary!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$F$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6.5412518447039589E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.472896132803894E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0.10156336722046637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0.12323666324336834</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0.15417903466059946</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$F$11:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1405,11 +1390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="180378880"/>
-        <c:axId val="180371432"/>
+        <c:axId val="248623888"/>
+        <c:axId val="248622320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180378880"/>
+        <c:axId val="248623888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1437,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180371432"/>
+        <c:crossAx val="248622320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1460,9 +1445,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180371432"/>
+        <c:axId val="248622320"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1512,7 +1496,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180378880"/>
+        <c:crossAx val="248623888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2709,36 +2693,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -2761,6 +2715,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -2775,11 +2759,11 @@
   <autoFilter ref="A10:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
-    <tableColumn id="2" name="Default" dataDxfId="1"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="0"/>
-    <tableColumn id="4" name="Heuristic 2"/>
-    <tableColumn id="5" name="Heuristic 3"/>
-    <tableColumn id="6" name="Heuristic 4"/>
+    <tableColumn id="6" name="Constraints"/>
+    <tableColumn id="2" name="Default" dataDxfId="5"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="4"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="1"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2790,11 +2774,11 @@
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
-    <tableColumn id="2" name="Default" dataDxfId="2"/>
+    <tableColumn id="6" name="Constraints"/>
+    <tableColumn id="2" name="Default" dataDxfId="6"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2"/>
-    <tableColumn id="5" name="Heuristic 3"/>
-    <tableColumn id="6" name="Heuristic 4"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="3"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2935,6 +2919,50 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A95:AI110"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
@@ -3241,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3256,104 +3284,144 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <f>HARMEAN(Models!L12:L14,Models!O12:O14,Models!R12:R14)</f>
+      <c r="B2">
+        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B12+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B12</f>
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
+        <f>HARMEAN('40 - Models'!L12:L14,'40 - Models'!O12:O14,'40 - Models'!R12:R14)</f>
         <v>9.1187269729718287E-2</v>
       </c>
-      <c r="C2" s="8">
-        <f>HARMEAN(Models!L33:L35,Models!O33:O35,Models!R33:R35)</f>
+      <c r="D2" s="8">
+        <f>HARMEAN('40 - Models'!L33:L35,'40 - Models'!O33:O35,'40 - Models'!R33:R35)</f>
         <v>6.5905807503954361E-2</v>
       </c>
-      <c r="D2">
-        <f>HARMEAN(Models!L54:L56,Models!O54:O56,Models!R54:R56)</f>
+      <c r="E2" s="8">
+        <f>HARMEAN('40 - Models'!L54:L56,'40 - Models'!O54:O56,'40 - Models'!R54:R56)</f>
         <v>7.837459345418106E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <f>HARMEAN('40 - Models'!L75:L77,'40 - Models'!O75:O77,'40 - Models'!R75:R77)</f>
+        <v>6.5412518447039589E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <f>HARMEAN(Models!L15:L17,Models!O15:O17,Models!R15:R17)</f>
+      <c r="B3">
+        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B15+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B15</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
+        <f>HARMEAN('40 - Models'!L15:L17,'40 - Models'!O15:O17,'40 - Models'!R15:R17)</f>
         <v>0.11180847459261625</v>
       </c>
-      <c r="C3" s="8">
-        <f>HARMEAN(Models!L36:L38,Models!O36:O38,Models!R36:R38)</f>
+      <c r="D3" s="8">
+        <f>HARMEAN('40 - Models'!L36:L38,'40 - Models'!O36:O38,'40 - Models'!R36:R38)</f>
         <v>8.5653949321746303E-2</v>
       </c>
-      <c r="D3">
-        <f>HARMEAN(Models!L57:L59,Models!O57:O59,Models!R57:R59)</f>
+      <c r="E3" s="8">
+        <f>HARMEAN('40 - Models'!L57:L59,'40 - Models'!O57:O59,'40 - Models'!R57:R59)</f>
         <v>7.973155770843153E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <f>HARMEAN('40 - Models'!L78:L80,'40 - Models'!O78:O80,'40 - Models'!R78:R80)</f>
+        <v>7.472896132803894E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <f>HARMEAN(Models!L18:L20,Models!O18:O20,Models!R18:R20)</f>
+      <c r="B4">
+        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B18+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B18</f>
+        <v>18</v>
+      </c>
+      <c r="C4" s="8">
+        <f>HARMEAN('40 - Models'!L18:L20,'40 - Models'!O18:O20,'40 - Models'!R18:R20)</f>
         <v>0.17014395193802512</v>
       </c>
-      <c r="C4" s="8">
-        <f>HARMEAN(Models!L39:L41,Models!O39:O41,Models!R39:R41)</f>
+      <c r="D4" s="8">
+        <f>HARMEAN('40 - Models'!L39:L41,'40 - Models'!O39:O41,'40 - Models'!R39:R41)</f>
         <v>0.10691845154486945</v>
       </c>
-      <c r="D4">
-        <f>HARMEAN(Models!L60:L62,Models!O60:O62,Models!R60:R62)</f>
+      <c r="E4" s="8">
+        <f>HARMEAN('40 - Models'!L60:L62,'40 - Models'!O60:O62,'40 - Models'!R60:R62)</f>
         <v>0.11130381037109011</v>
+      </c>
+      <c r="F4" s="8">
+        <f>HARMEAN('40 - Models'!L81:L83,'40 - Models'!O81:O83,'40 - Models'!R81:R83)</f>
+        <v>0.10156336722046637</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <f>HARMEAN(Models!L21:L23,Models!O21:O23,Models!R21:R23)</f>
+      <c r="B5">
+        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B21+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B21</f>
+        <v>24</v>
+      </c>
+      <c r="C5" s="8">
+        <f>HARMEAN('40 - Models'!L21:L23,'40 - Models'!O21:O23,'40 - Models'!R21:R23)</f>
         <v>0.19116987590893744</v>
       </c>
-      <c r="C5" s="8">
-        <f>HARMEAN(Models!L42:L44,Models!O42:O44,Models!R42:R44)</f>
+      <c r="D5" s="8">
+        <f>HARMEAN('40 - Models'!L42:L44,'40 - Models'!O42:O44,'40 - Models'!R42:R44)</f>
         <v>0.14034154529106099</v>
       </c>
-      <c r="D5">
-        <f>HARMEAN(Models!L63:L65,Models!O63:O65,Models!R63:R65)</f>
+      <c r="E5" s="8">
+        <f>HARMEAN('40 - Models'!L63:L65,'40 - Models'!O63:O65,'40 - Models'!R63:R65)</f>
         <v>0.12629952919295748</v>
+      </c>
+      <c r="F5" s="8">
+        <f>HARMEAN('40 - Models'!L84:L86,'40 - Models'!O84:O86,'40 - Models'!R84:R86)</f>
+        <v>0.12323666324336834</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <f>HARMEAN(Models!L24:L26,Models!O24:O26,Models!R24:R26)</f>
+      <c r="B6">
+        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B24+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B24</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <f>HARMEAN('40 - Models'!L24:L26,'40 - Models'!O24:O26,'40 - Models'!R24:R26)</f>
         <v>0.23112729160001227</v>
       </c>
-      <c r="C6" s="8">
-        <f>HARMEAN(Models!L45:L47,Models!O45:O47,Models!R45:R47)</f>
+      <c r="D6" s="8">
+        <f>HARMEAN('40 - Models'!L45:L47,'40 - Models'!O45:O47,'40 - Models'!R45:R47)</f>
         <v>0.22708745996596125</v>
       </c>
-      <c r="D6">
-        <f>HARMEAN(Models!L66:L68,Models!O66:O68,Models!R66:R68)</f>
+      <c r="E6" s="8">
+        <f>HARMEAN('40 - Models'!L66:L68,'40 - Models'!O66:O68,'40 - Models'!R66:R68)</f>
         <v>0.14112515449175733</v>
+      </c>
+      <c r="F6" s="8">
+        <f>HARMEAN('40 - Models'!L87:L89,'40 - Models'!O87:O89,'40 - Models'!R87:R89)</f>
+        <v>0.15417903466059946</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3361,104 +3429,124 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="8">
-        <f>HARMEAN(Models!AB12:AB14,Models!AE12:AE14,Models!AH12:AH14)</f>
+      <c r="C11" s="8">
+        <f>HARMEAN('40 - Models'!AB12:AB14,'40 - Models'!AE12:AE14,'40 - Models'!AH12:AH14)</f>
         <v>0.30144674955333528</v>
       </c>
-      <c r="C11" s="8">
-        <f>HARMEAN(Models!AB33:AB35,Models!AE33:AE35,Models!AH33:AH35)</f>
+      <c r="D11" s="8">
+        <f>HARMEAN('40 - Models'!AB33:AB35,'40 - Models'!AE33:AE35,'40 - Models'!AH33:AH35)</f>
         <v>0.26271717043663456</v>
       </c>
-      <c r="D11">
-        <f>HARMEAN(Models!AB54:AB56,Models!AE54:AE56,Models!AH54:AH56)</f>
+      <c r="E11" s="8">
+        <f>HARMEAN('40 - Models'!AB54:AB56,'40 - Models'!AE54:AE56,'40 - Models'!AH54:AH56)</f>
         <v>0.3103117867143107</v>
+      </c>
+      <c r="F11" s="8">
+        <f>HARMEAN('40 - Models'!AB75:AB77,'40 - Models'!AE75:AE77,'40 - Models'!AH75:AH77)</f>
+        <v>0.28661775870741463</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="8">
-        <f>HARMEAN(Models!AB15:AB17,Models!AE15:AE17,Models!AH15:AH17)</f>
+      <c r="C12" s="8">
+        <f>HARMEAN('40 - Models'!AB15:AB17,'40 - Models'!AE15:AE17,'40 - Models'!AH15:AH17)</f>
         <v>0.70487610846063131</v>
       </c>
-      <c r="C12" s="8">
-        <f>HARMEAN(Models!AB36:AB38,Models!AE36:AE38,Models!AH36:AH38)</f>
+      <c r="D12" s="8">
+        <f>HARMEAN('40 - Models'!AB36:AB38,'40 - Models'!AE36:AE38,'40 - Models'!AH36:AH38)</f>
         <v>0.9855389183779858</v>
       </c>
-      <c r="D12">
-        <f>HARMEAN(Models!AB57:AB59,Models!AE57:AE59,Models!AH57:AH59)</f>
+      <c r="E12" s="8">
+        <f>HARMEAN('40 - Models'!AB57:AB59,'40 - Models'!AE57:AE59,'40 - Models'!AH57:AH59)</f>
         <v>0.7290030969009762</v>
+      </c>
+      <c r="F12" s="8">
+        <f>HARMEAN('40 - Models'!AB78:AB80,'40 - Models'!AE78:AE80,'40 - Models'!AH78:AH80)</f>
+        <v>0.69737861410103907</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="8">
-        <f>HARMEAN(Models!AB18:AB20,Models!AE18:AE20,Models!AH18:AH20)</f>
+      <c r="C13" s="8">
+        <f>HARMEAN('40 - Models'!AB18:AB20,'40 - Models'!AE18:AE20,'40 - Models'!AH18:AH20)</f>
         <v>7.1782102891205311</v>
       </c>
-      <c r="C13" s="8">
-        <f>HARMEAN(Models!AB39:AB41,Models!AE39:AE41,Models!AH39:AH41)</f>
+      <c r="D13" s="8">
+        <f>HARMEAN('40 - Models'!AB39:AB41,'40 - Models'!AE39:AE41,'40 - Models'!AH39:AH41)</f>
         <v>7.3579809941861845</v>
       </c>
-      <c r="D13">
-        <f>HARMEAN(Models!AB60:AB62,Models!AE60:AE62,Models!AH60:AH62)</f>
+      <c r="E13" s="8">
+        <f>HARMEAN('40 - Models'!AB60:AB62,'40 - Models'!AE60:AE62,'40 - Models'!AH60:AH62)</f>
         <v>5.7141563995510145</v>
+      </c>
+      <c r="F13" s="8">
+        <f>HARMEAN('40 - Models'!AB81:AB83,'40 - Models'!AE81:AE83,'40 - Models'!AH81:AH83)</f>
+        <v>4.9914634565127107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="8">
-        <f>HARMEAN(Models!AB21:AB23,Models!AE21:AE23,Models!AH21:AH23)</f>
+      <c r="C14" s="8">
+        <f>HARMEAN('40 - Models'!AB21:AB23,'40 - Models'!AE21:AE23,'40 - Models'!AH21:AH23)</f>
         <v>30.133753885968989</v>
       </c>
-      <c r="C14" s="8">
-        <f>HARMEAN(Models!AB42:AB44,Models!AE42:AE44,Models!AH42:AH44)</f>
+      <c r="D14" s="8">
+        <f>HARMEAN('40 - Models'!AB42:AB44,'40 - Models'!AE42:AE44,'40 - Models'!AH42:AH44)</f>
         <v>31.92406529142966</v>
       </c>
-      <c r="D14">
-        <f>HARMEAN(Models!AB63:AB65,Models!AE63:AE65,Models!AH63:AH65)</f>
+      <c r="E14" s="8">
+        <f>HARMEAN('40 - Models'!AB63:AB65,'40 - Models'!AE63:AE65,'40 - Models'!AH63:AH65)</f>
         <v>36.188664846837895</v>
+      </c>
+      <c r="F14" s="8">
+        <f>HARMEAN('40 - Models'!AB84:AB86,'40 - Models'!AE84:AE86,'40 - Models'!AH84:AH86)</f>
+        <v>31.766448089786131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="8">
-        <f>HARMEAN(Models!AB24:AB26,Models!AE24:AE26,Models!AH24:AH26)</f>
+      <c r="C15" s="8">
+        <f>HARMEAN('40 - Models'!AB24:AB26,'40 - Models'!AE24:AE26,'40 - Models'!AH24:AH26)</f>
         <v>9.3311456376174444</v>
       </c>
-      <c r="C15" s="8">
-        <f>HARMEAN(Models!AB45:AB47,Models!AE45:AE47,Models!AH45:AH47)</f>
+      <c r="D15" s="8">
+        <f>HARMEAN('40 - Models'!AB45:AB47,'40 - Models'!AE45:AE47,'40 - Models'!AH45:AH47)</f>
         <v>13.845771604971324</v>
       </c>
-      <c r="D15">
-        <f>HARMEAN(Models!AB66:AB68,Models!AE66:AE68,Models!AH66:AH68)</f>
+      <c r="E15" s="8">
+        <f>HARMEAN('40 - Models'!AB66:AB68,'40 - Models'!AE66:AE68,'40 - Models'!AH66:AH68)</f>
         <v>30.470053843172394</v>
+      </c>
+      <c r="F15" s="8">
+        <f>HARMEAN('40 - Models'!AB87:AB89,'40 - Models'!AE87:AE89,'40 - Models'!AH87:AH89)</f>
+        <v>33.888986502272239</v>
       </c>
     </row>
   </sheetData>
@@ -3473,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI89"/>
+  <dimension ref="A1:AI110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="AH77" sqref="AH77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3525,7 +3613,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3533,7 +3621,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5">
         <v>0.1</v>
@@ -3541,7 +3629,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3549,7 +3637,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3557,7 +3645,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5">
         <v>0.05</v>
@@ -5335,7 +5423,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
@@ -7105,7 +7193,7 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
@@ -8875,7 +8963,7 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.3">
@@ -9048,6 +9136,102 @@
       <c r="C75">
         <v>19</v>
       </c>
+      <c r="D75">
+        <v>665</v>
+      </c>
+      <c r="E75">
+        <v>723</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>32</v>
+      </c>
+      <c r="H75">
+        <v>21</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L75">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M75">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N75">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O75">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P75">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q75">
+        <v>0.114</v>
+      </c>
+      <c r="R75">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S75">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="T75">
+        <v>2641</v>
+      </c>
+      <c r="U75">
+        <v>2699</v>
+      </c>
+      <c r="V75">
+        <v>504</v>
+      </c>
+      <c r="W75">
+        <v>2534</v>
+      </c>
+      <c r="X75">
+        <v>4061</v>
+      </c>
+      <c r="Y75">
+        <v>1527</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AB75">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AC75">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AD75">
+        <v>0.113</v>
+      </c>
+      <c r="AE75">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AF75">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="AG75">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AH75">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AI75">
+        <v>0.81599999999999995</v>
+      </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -9059,6 +9243,102 @@
       <c r="C76">
         <v>24</v>
       </c>
+      <c r="D76">
+        <v>742</v>
+      </c>
+      <c r="E76">
+        <v>811</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>33</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0.123</v>
+      </c>
+      <c r="L76">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M76">
+        <v>0.1</v>
+      </c>
+      <c r="N76">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O76">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P76">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q76">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="R76">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S76">
+        <v>0.106</v>
+      </c>
+      <c r="T76">
+        <v>2310</v>
+      </c>
+      <c r="U76">
+        <v>2379</v>
+      </c>
+      <c r="V76">
+        <v>402</v>
+      </c>
+      <c r="W76">
+        <v>6377</v>
+      </c>
+      <c r="X76">
+        <v>11951</v>
+      </c>
+      <c r="Y76">
+        <v>5574</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0.188</v>
+      </c>
+      <c r="AB76">
+        <v>1.375</v>
+      </c>
+      <c r="AC76">
+        <v>1.429</v>
+      </c>
+      <c r="AD76">
+        <v>0.114</v>
+      </c>
+      <c r="AE76">
+        <v>1.254</v>
+      </c>
+      <c r="AF76">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="AG76">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AH76">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="AI76">
+        <v>1.2649999999999999</v>
+      </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -9070,6 +9350,102 @@
       <c r="C77">
         <v>9</v>
       </c>
+      <c r="D77">
+        <v>734</v>
+      </c>
+      <c r="E77">
+        <v>801</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>24</v>
+      </c>
+      <c r="H77">
+        <v>14</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L77">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M77">
+        <v>0.124</v>
+      </c>
+      <c r="N77">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O77">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="P77">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Q77">
+        <v>0.16</v>
+      </c>
+      <c r="R77">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="S77">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="T77">
+        <v>934</v>
+      </c>
+      <c r="U77">
+        <v>1001</v>
+      </c>
+      <c r="V77">
+        <v>60</v>
+      </c>
+      <c r="W77">
+        <v>131</v>
+      </c>
+      <c r="X77">
+        <v>143</v>
+      </c>
+      <c r="Y77">
+        <v>12</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0.152</v>
+      </c>
+      <c r="AB77">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AC77">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AD77">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AE77">
+        <v>0.109</v>
+      </c>
+      <c r="AF77">
+        <v>0.15</v>
+      </c>
+      <c r="AG77">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AH77">
+        <v>0.108</v>
+      </c>
+      <c r="AI77">
+        <v>0.14799999999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -9081,6 +9457,102 @@
       <c r="C78" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D78">
+        <v>1309</v>
+      </c>
+      <c r="E78">
+        <v>1434</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.123</v>
+      </c>
+      <c r="L78">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M78">
+        <v>0.112</v>
+      </c>
+      <c r="N78">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="O78">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P78">
+        <v>0.124</v>
+      </c>
+      <c r="Q78">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="R78">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S78">
+        <v>0.125</v>
+      </c>
+      <c r="T78">
+        <v>1977</v>
+      </c>
+      <c r="U78">
+        <v>2102</v>
+      </c>
+      <c r="V78">
+        <v>177</v>
+      </c>
+      <c r="W78">
+        <v>995</v>
+      </c>
+      <c r="X78">
+        <v>1637</v>
+      </c>
+      <c r="Y78">
+        <v>642</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0.186</v>
+      </c>
+      <c r="AB78">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="AC78">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AD78">
+        <v>0.123</v>
+      </c>
+      <c r="AE78">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AF78">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AG78">
+        <v>0.18</v>
+      </c>
+      <c r="AH78">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AI78">
+        <v>0.48099999999999998</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -9092,9 +9564,102 @@
       <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
+      <c r="D79" s="2">
+        <v>1239</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1362</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>39</v>
+      </c>
+      <c r="H79">
+        <v>24</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.121</v>
+      </c>
+      <c r="L79">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M79">
+        <v>0.111</v>
+      </c>
+      <c r="N79">
+        <v>0.125</v>
+      </c>
+      <c r="O79">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P79">
+        <v>0.12</v>
+      </c>
+      <c r="Q79">
+        <v>0.125</v>
+      </c>
+      <c r="R79">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="S79">
+        <v>0.111</v>
+      </c>
+      <c r="T79">
+        <v>3475</v>
+      </c>
+      <c r="U79">
+        <v>3598</v>
+      </c>
+      <c r="V79">
+        <v>569</v>
+      </c>
+      <c r="W79" s="2">
+        <v>10148</v>
+      </c>
+      <c r="X79" s="2">
+        <v>19159</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>9011</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0.125</v>
+      </c>
+      <c r="AB79">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="AC79">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="AD79">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AE79">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AF79">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="AG79">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH79">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="AI79">
+        <v>2.4980000000000002</v>
+      </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -9106,8 +9671,104 @@
       <c r="C80" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D80">
+        <v>1326</v>
+      </c>
+      <c r="E80">
+        <v>1458</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>31</v>
+      </c>
+      <c r="H80">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.124</v>
+      </c>
+      <c r="L80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M80">
+        <v>0.11</v>
+      </c>
+      <c r="N80">
+        <v>0.124</v>
+      </c>
+      <c r="O80">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="P80">
+        <v>0.115</v>
+      </c>
+      <c r="Q80">
+        <v>0.125</v>
+      </c>
+      <c r="R80">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S80">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="T80">
+        <v>2662</v>
+      </c>
+      <c r="U80">
+        <v>2794</v>
+      </c>
+      <c r="V80">
+        <v>344</v>
+      </c>
+      <c r="W80">
+        <v>1293</v>
+      </c>
+      <c r="X80">
+        <v>1899</v>
+      </c>
+      <c r="Y80">
+        <v>606</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0.121</v>
+      </c>
+      <c r="AB80">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AC80">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="AD80">
+        <v>0.122</v>
+      </c>
+      <c r="AE80">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AF80">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="AG80">
+        <v>0.124</v>
+      </c>
+      <c r="AH80">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AI80">
+        <v>0.61599999999999999</v>
+      </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -9117,12 +9778,104 @@
       <c r="C81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
+      <c r="D81">
+        <v>2049</v>
+      </c>
+      <c r="E81">
+        <v>2249</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>42</v>
+      </c>
+      <c r="H81">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L81">
+        <v>0.1</v>
+      </c>
+      <c r="M81">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N81">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="O81">
+        <v>0.1</v>
+      </c>
+      <c r="P81">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q81">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="R81">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S81">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T81">
+        <v>6009</v>
+      </c>
+      <c r="U81">
+        <v>6209</v>
+      </c>
+      <c r="V81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W81" s="2">
+        <v>19928</v>
+      </c>
+      <c r="X81" s="2">
+        <v>37818</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>17916</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0.13</v>
+      </c>
+      <c r="AB81">
+        <v>9.08</v>
+      </c>
+      <c r="AC81">
+        <v>9.125</v>
+      </c>
+      <c r="AD81">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE81">
+        <v>9.0510000000000002</v>
+      </c>
+      <c r="AF81">
+        <v>9.0969999999999995</v>
+      </c>
+      <c r="AG81">
+        <v>0.129</v>
+      </c>
+      <c r="AH81">
+        <v>9.077</v>
+      </c>
+      <c r="AI81">
+        <v>9.1199999999999992</v>
+      </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -9132,8 +9885,104 @@
       <c r="C82" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D82">
+        <v>2087</v>
+      </c>
+      <c r="E82">
+        <v>2295</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>32</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L82">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M82">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N82">
+        <v>0.157</v>
+      </c>
+      <c r="O82">
+        <v>0.125</v>
+      </c>
+      <c r="P82">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q82">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="R82">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="S82">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="T82">
+        <v>5459</v>
+      </c>
+      <c r="U82">
+        <v>5667</v>
+      </c>
+      <c r="V82">
+        <v>853</v>
+      </c>
+      <c r="W82">
+        <v>12856</v>
+      </c>
+      <c r="X82">
+        <v>24007</v>
+      </c>
+      <c r="Y82">
+        <v>11151</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0.129</v>
+      </c>
+      <c r="AB82">
+        <v>3.86</v>
+      </c>
+      <c r="AC82">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="AD82">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AE82">
+        <v>3.907</v>
+      </c>
+      <c r="AF82">
+        <v>3.95</v>
+      </c>
+      <c r="AG82">
+        <v>0.13</v>
+      </c>
+      <c r="AH82">
+        <v>3.8319999999999999</v>
+      </c>
+      <c r="AI82">
+        <v>3.8759999999999999</v>
+      </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22</v>
       </c>
@@ -9143,8 +9992,104 @@
       <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D83">
+        <v>2056</v>
+      </c>
+      <c r="E83">
+        <v>2254</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>56</v>
+      </c>
+      <c r="H83">
+        <v>18</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L83">
+        <v>0.108</v>
+      </c>
+      <c r="M83">
+        <v>0.15</v>
+      </c>
+      <c r="N83">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="O83">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P83">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="Q83">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="R83">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="S83">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="T83">
+        <v>6016</v>
+      </c>
+      <c r="U83">
+        <v>6214</v>
+      </c>
+      <c r="V83">
+        <v>1000</v>
+      </c>
+      <c r="W83">
+        <v>9861</v>
+      </c>
+      <c r="X83">
+        <v>17654</v>
+      </c>
+      <c r="Y83">
+        <v>7831</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AB83">
+        <v>4.1059999999999999</v>
+      </c>
+      <c r="AC83">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AD83">
+        <v>0.13</v>
+      </c>
+      <c r="AE83">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="AF83">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="AG83">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AH83">
+        <v>4.8070000000000004</v>
+      </c>
+      <c r="AI83">
+        <v>4.8540000000000001</v>
+      </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>30</v>
       </c>
@@ -9154,11 +10099,104 @@
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="D84" s="2">
+        <v>2744</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3017</v>
+      </c>
+      <c r="F84" s="2">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>61</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L84">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M84">
+        <v>0.161</v>
+      </c>
+      <c r="N84">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="O84">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="P84">
+        <v>0.16</v>
+      </c>
+      <c r="Q84">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R84">
+        <v>0.122</v>
+      </c>
+      <c r="S84">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="T84" s="2">
+        <v>6104</v>
+      </c>
+      <c r="U84" s="2">
+        <v>6977</v>
+      </c>
+      <c r="V84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W84">
+        <v>32055</v>
+      </c>
+      <c r="X84">
+        <v>62039</v>
+      </c>
+      <c r="Y84">
+        <v>30025</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB84">
+        <v>13.327</v>
+      </c>
+      <c r="AC84">
+        <v>13.375999999999999</v>
+      </c>
+      <c r="AD84">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE84">
+        <v>13.291</v>
+      </c>
+      <c r="AF84">
+        <v>13.337999999999999</v>
+      </c>
+      <c r="AG84">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AH84">
+        <v>13.196999999999999</v>
+      </c>
+      <c r="AI84">
+        <v>13.244</v>
+      </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>31</v>
       </c>
@@ -9168,8 +10206,104 @@
       <c r="C85" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D85">
+        <v>2736</v>
+      </c>
+      <c r="E85">
+        <v>3008</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>54</v>
+      </c>
+      <c r="H85" s="2">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L85">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M85">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N85">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O85">
+        <v>0.124</v>
+      </c>
+      <c r="P85">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q85">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="R85">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S85">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T85">
+        <v>6696</v>
+      </c>
+      <c r="U85">
+        <v>6968</v>
+      </c>
+      <c r="V85">
+        <v>1000</v>
+      </c>
+      <c r="W85">
+        <v>218117</v>
+      </c>
+      <c r="X85">
+        <v>434169</v>
+      </c>
+      <c r="Y85">
+        <v>216091</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AB85">
+        <v>80.658000000000001</v>
+      </c>
+      <c r="AC85">
+        <v>80.725999999999999</v>
+      </c>
+      <c r="AD85">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AE85">
+        <v>74.775999999999996</v>
+      </c>
+      <c r="AF85">
+        <v>74.819000000000003</v>
+      </c>
+      <c r="AG85">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AH85">
+        <v>76.950999999999993</v>
+      </c>
+      <c r="AI85">
+        <v>76.995999999999995</v>
+      </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>32</v>
       </c>
@@ -9179,8 +10313,104 @@
       <c r="C86" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D86">
+        <v>2585</v>
+      </c>
+      <c r="E86">
+        <v>2842</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>46</v>
+      </c>
+      <c r="H86">
+        <v>17</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L86">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M86">
+        <v>0.159</v>
+      </c>
+      <c r="N86">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O86">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="P86">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Q86">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R86">
+        <v>0.124</v>
+      </c>
+      <c r="S86">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="T86">
+        <v>6545</v>
+      </c>
+      <c r="U86">
+        <v>6802</v>
+      </c>
+      <c r="V86">
+        <v>1000</v>
+      </c>
+      <c r="W86">
+        <v>405612</v>
+      </c>
+      <c r="X86">
+        <v>809174</v>
+      </c>
+      <c r="Y86">
+        <v>403591</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AB86">
+        <v>154.97</v>
+      </c>
+      <c r="AC86">
+        <v>155.01499999999999</v>
+      </c>
+      <c r="AD86">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AE86">
+        <v>183.48699999999999</v>
+      </c>
+      <c r="AF86">
+        <v>183.55099999999999</v>
+      </c>
+      <c r="AG86">
+        <v>0.152</v>
+      </c>
+      <c r="AH86">
+        <v>151.53700000000001</v>
+      </c>
+      <c r="AI86">
+        <v>151.58600000000001</v>
+      </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -9190,8 +10420,104 @@
       <c r="C87" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D87">
+        <v>3313</v>
+      </c>
+      <c r="E87">
+        <v>3639</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>74</v>
+      </c>
+      <c r="H87">
+        <v>19</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="M87">
+        <v>0.186</v>
+      </c>
+      <c r="N87">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O87">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P87">
+        <v>0.19</v>
+      </c>
+      <c r="Q87">
+        <v>0.182</v>
+      </c>
+      <c r="R87">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="S87">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="T87">
+        <v>7273</v>
+      </c>
+      <c r="U87">
+        <v>7599</v>
+      </c>
+      <c r="V87">
+        <v>1000</v>
+      </c>
+      <c r="W87">
+        <v>550945</v>
+      </c>
+      <c r="X87">
+        <v>1099800</v>
+      </c>
+      <c r="Y87">
+        <v>548911</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AB87">
+        <v>244.131</v>
+      </c>
+      <c r="AC87">
+        <v>244.197</v>
+      </c>
+      <c r="AD87">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AE87">
+        <v>250.42400000000001</v>
+      </c>
+      <c r="AF87">
+        <v>250.47800000000001</v>
+      </c>
+      <c r="AG87">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AH87">
+        <v>259.51600000000002</v>
+      </c>
+      <c r="AI87">
+        <v>259.58</v>
+      </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -9201,11 +10527,104 @@
       <c r="C88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
+      <c r="D88">
+        <v>3260</v>
+      </c>
+      <c r="E88">
+        <v>3585</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>60</v>
+      </c>
+      <c r="H88">
+        <v>18</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.15</v>
+      </c>
+      <c r="L88">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="M88">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="N88">
+        <v>0.159</v>
+      </c>
+      <c r="O88">
+        <v>0.159</v>
+      </c>
+      <c r="P88">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="Q88">
+        <v>0.15</v>
+      </c>
+      <c r="R88">
+        <v>0.15</v>
+      </c>
+      <c r="S88">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="T88" s="2">
+        <v>7220</v>
+      </c>
+      <c r="U88" s="2">
+        <v>7545</v>
+      </c>
+      <c r="V88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W88">
+        <v>249049</v>
+      </c>
+      <c r="X88">
+        <v>496026</v>
+      </c>
+      <c r="Y88">
+        <v>247022</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0.217</v>
+      </c>
+      <c r="AB88">
+        <v>86.528999999999996</v>
+      </c>
+      <c r="AC88">
+        <v>86.597999999999999</v>
+      </c>
+      <c r="AD88">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AE88">
+        <v>103.95</v>
+      </c>
+      <c r="AF88">
+        <v>104.033</v>
+      </c>
+      <c r="AG88">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AH88">
+        <v>97.766999999999996</v>
+      </c>
+      <c r="AI88">
+        <v>97.828999999999994</v>
+      </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>42</v>
       </c>
@@ -9215,15 +10634,1682 @@
       <c r="C89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
+      <c r="D89">
+        <v>3230</v>
+      </c>
+      <c r="E89">
+        <v>3549</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>69</v>
+      </c>
+      <c r="H89">
+        <v>34</v>
+      </c>
+      <c r="I89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.157</v>
+      </c>
+      <c r="M89">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="N89">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O89">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="P89">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Q89">
+        <v>0.152</v>
+      </c>
+      <c r="R89">
+        <v>0.155</v>
+      </c>
+      <c r="S89">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="T89" s="2">
+        <v>7190</v>
+      </c>
+      <c r="U89" s="2">
+        <v>7509</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W89">
+        <v>35975</v>
+      </c>
+      <c r="X89">
+        <v>69868</v>
+      </c>
+      <c r="Y89">
+        <v>33938</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>13.507</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>13.579000000000001</v>
+      </c>
+      <c r="AD89">
+        <v>0.151</v>
+      </c>
+      <c r="AE89">
+        <v>13.396000000000001</v>
+      </c>
+      <c r="AF89">
+        <v>13.446999999999999</v>
+      </c>
+      <c r="AG89">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AH89">
+        <v>13.598000000000001</v>
+      </c>
+      <c r="AI89">
+        <v>13.647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" t="s">
+        <v>20</v>
+      </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R95" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" t="s">
+        <v>25</v>
+      </c>
+      <c r="T95" t="s">
+        <v>37</v>
+      </c>
+      <c r="U95" t="s">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s">
+        <v>39</v>
+      </c>
+      <c r="W95" t="s">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>19</v>
+      </c>
+      <c r="D96">
+        <v>665</v>
+      </c>
+      <c r="E96">
+        <v>723</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>32</v>
+      </c>
+      <c r="H96">
+        <v>21</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L96">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M96">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N96">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O96">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P96">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q96">
+        <v>0.114</v>
+      </c>
+      <c r="R96">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S96">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="T96">
+        <v>2641</v>
+      </c>
+      <c r="U96">
+        <v>2699</v>
+      </c>
+      <c r="V96">
+        <v>504</v>
+      </c>
+      <c r="W96">
+        <v>2534</v>
+      </c>
+      <c r="X96">
+        <v>4061</v>
+      </c>
+      <c r="Y96">
+        <v>1527</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AB96">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AC96">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AD96">
+        <v>0.113</v>
+      </c>
+      <c r="AE96">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AF96">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="AG96">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AH96">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AI96">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>742</v>
+      </c>
+      <c r="E97">
+        <v>811</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>33</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0.123</v>
+      </c>
+      <c r="L97">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M97">
+        <v>0.1</v>
+      </c>
+      <c r="N97">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O97">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P97">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q97">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="R97">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S97">
+        <v>0.106</v>
+      </c>
+      <c r="T97">
+        <v>2310</v>
+      </c>
+      <c r="U97">
+        <v>2379</v>
+      </c>
+      <c r="V97">
+        <v>402</v>
+      </c>
+      <c r="W97">
+        <v>6377</v>
+      </c>
+      <c r="X97">
+        <v>11951</v>
+      </c>
+      <c r="Y97">
+        <v>5574</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0.188</v>
+      </c>
+      <c r="AB97">
+        <v>1.375</v>
+      </c>
+      <c r="AC97">
+        <v>1.429</v>
+      </c>
+      <c r="AD97">
+        <v>0.114</v>
+      </c>
+      <c r="AE97">
+        <v>1.254</v>
+      </c>
+      <c r="AF97">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="AG97">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AH97">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="AI97">
+        <v>1.2649999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>2310</v>
+      </c>
+      <c r="E98">
+        <v>2379</v>
+      </c>
+      <c r="F98">
+        <v>402</v>
+      </c>
+      <c r="G98">
+        <v>6377</v>
+      </c>
+      <c r="H98">
+        <v>11951</v>
+      </c>
+      <c r="I98">
+        <v>5574</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L98">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M98">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N98">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O98">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P98">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q98">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="R98">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="S98">
+        <v>0.1</v>
+      </c>
+      <c r="T98">
+        <v>934</v>
+      </c>
+      <c r="U98">
+        <v>1001</v>
+      </c>
+      <c r="V98">
+        <v>60</v>
+      </c>
+      <c r="W98">
+        <v>131</v>
+      </c>
+      <c r="X98">
+        <v>143</v>
+      </c>
+      <c r="Y98">
+        <v>12</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0.152</v>
+      </c>
+      <c r="AB98">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AC98">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AD98">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AE98">
+        <v>0.109</v>
+      </c>
+      <c r="AF98">
+        <v>0.15</v>
+      </c>
+      <c r="AG98">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AH98">
+        <v>0.108</v>
+      </c>
+      <c r="AI98">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>1309</v>
+      </c>
+      <c r="E99">
+        <v>1434</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>30</v>
+      </c>
+      <c r="H99">
+        <v>16</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0.123</v>
+      </c>
+      <c r="L99">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M99">
+        <v>0.112</v>
+      </c>
+      <c r="N99">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="O99">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P99">
+        <v>0.124</v>
+      </c>
+      <c r="Q99">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="R99">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S99">
+        <v>0.125</v>
+      </c>
+      <c r="T99">
+        <v>1977</v>
+      </c>
+      <c r="U99">
+        <v>2102</v>
+      </c>
+      <c r="V99">
+        <v>177</v>
+      </c>
+      <c r="W99">
+        <v>995</v>
+      </c>
+      <c r="X99">
+        <v>1637</v>
+      </c>
+      <c r="Y99">
+        <v>642</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0.186</v>
+      </c>
+      <c r="AB99">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="AC99">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AD99">
+        <v>0.123</v>
+      </c>
+      <c r="AE99">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AF99">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AG99">
+        <v>0.18</v>
+      </c>
+      <c r="AH99">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AI99">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1239</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1362</v>
+      </c>
+      <c r="F100" s="2">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>39</v>
+      </c>
+      <c r="H100">
+        <v>24</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0.121</v>
+      </c>
+      <c r="L100">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M100">
+        <v>0.111</v>
+      </c>
+      <c r="N100">
+        <v>0.125</v>
+      </c>
+      <c r="O100">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P100">
+        <v>0.12</v>
+      </c>
+      <c r="Q100">
+        <v>0.125</v>
+      </c>
+      <c r="R100">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="S100">
+        <v>0.111</v>
+      </c>
+      <c r="T100">
+        <v>3475</v>
+      </c>
+      <c r="U100">
+        <v>3598</v>
+      </c>
+      <c r="V100">
+        <v>569</v>
+      </c>
+      <c r="W100" s="2">
+        <v>10148</v>
+      </c>
+      <c r="X100" s="2">
+        <v>19159</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>9011</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0.125</v>
+      </c>
+      <c r="AB100">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="AC100">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="AD100">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AE100">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AF100">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="AG100">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH100">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="AI100">
+        <v>2.4980000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>1326</v>
+      </c>
+      <c r="E101">
+        <v>1458</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>31</v>
+      </c>
+      <c r="H101">
+        <v>15</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0.124</v>
+      </c>
+      <c r="L101">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M101">
+        <v>0.11</v>
+      </c>
+      <c r="N101">
+        <v>0.124</v>
+      </c>
+      <c r="O101">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="P101">
+        <v>0.115</v>
+      </c>
+      <c r="Q101">
+        <v>0.125</v>
+      </c>
+      <c r="R101">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S101">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="T101">
+        <v>2662</v>
+      </c>
+      <c r="U101">
+        <v>2794</v>
+      </c>
+      <c r="V101">
+        <v>344</v>
+      </c>
+      <c r="W101">
+        <v>1293</v>
+      </c>
+      <c r="X101">
+        <v>1899</v>
+      </c>
+      <c r="Y101">
+        <v>606</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0.121</v>
+      </c>
+      <c r="AB101">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AC101">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="AD101">
+        <v>0.122</v>
+      </c>
+      <c r="AE101">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AF101">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="AG101">
+        <v>0.124</v>
+      </c>
+      <c r="AH101">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AI101">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>2049</v>
+      </c>
+      <c r="E102">
+        <v>2249</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <v>42</v>
+      </c>
+      <c r="H102">
+        <v>17</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L102">
+        <v>0.1</v>
+      </c>
+      <c r="M102">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N102">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="O102">
+        <v>0.1</v>
+      </c>
+      <c r="P102">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q102">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="R102">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S102">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T102">
+        <v>6009</v>
+      </c>
+      <c r="U102">
+        <v>6209</v>
+      </c>
+      <c r="V102" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W102" s="2">
+        <v>19928</v>
+      </c>
+      <c r="X102" s="2">
+        <v>37818</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>17916</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0.13</v>
+      </c>
+      <c r="AB102">
+        <v>9.08</v>
+      </c>
+      <c r="AC102">
+        <v>9.125</v>
+      </c>
+      <c r="AD102">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE102">
+        <v>9.0510000000000002</v>
+      </c>
+      <c r="AF102">
+        <v>9.0969999999999995</v>
+      </c>
+      <c r="AG102">
+        <v>0.129</v>
+      </c>
+      <c r="AH102">
+        <v>9.077</v>
+      </c>
+      <c r="AI102">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>2087</v>
+      </c>
+      <c r="E103">
+        <v>2295</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>32</v>
+      </c>
+      <c r="H103">
+        <v>20</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L103">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M103">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N103">
+        <v>0.157</v>
+      </c>
+      <c r="O103">
+        <v>0.125</v>
+      </c>
+      <c r="P103">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q103">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="R103">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="S103">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="T103">
+        <v>5459</v>
+      </c>
+      <c r="U103">
+        <v>5667</v>
+      </c>
+      <c r="V103">
+        <v>853</v>
+      </c>
+      <c r="W103">
+        <v>12856</v>
+      </c>
+      <c r="X103">
+        <v>24007</v>
+      </c>
+      <c r="Y103">
+        <v>11151</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0.129</v>
+      </c>
+      <c r="AB103">
+        <v>3.86</v>
+      </c>
+      <c r="AC103">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="AD103">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AE103">
+        <v>3.907</v>
+      </c>
+      <c r="AF103">
+        <v>3.95</v>
+      </c>
+      <c r="AG103">
+        <v>0.13</v>
+      </c>
+      <c r="AH103">
+        <v>3.8319999999999999</v>
+      </c>
+      <c r="AI103">
+        <v>3.8759999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>2056</v>
+      </c>
+      <c r="E104">
+        <v>2254</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>56</v>
+      </c>
+      <c r="H104">
+        <v>18</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L104">
+        <v>0.108</v>
+      </c>
+      <c r="M104">
+        <v>0.15</v>
+      </c>
+      <c r="N104">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="O104">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P104">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="Q104">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="R104">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="S104">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="T104">
+        <v>6016</v>
+      </c>
+      <c r="U104">
+        <v>6214</v>
+      </c>
+      <c r="V104">
+        <v>1000</v>
+      </c>
+      <c r="W104">
+        <v>9861</v>
+      </c>
+      <c r="X104">
+        <v>17654</v>
+      </c>
+      <c r="Y104">
+        <v>7831</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AB104">
+        <v>4.1059999999999999</v>
+      </c>
+      <c r="AC104">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AD104">
+        <v>0.13</v>
+      </c>
+      <c r="AE104">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="AF104">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="AG104">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AH104">
+        <v>4.8070000000000004</v>
+      </c>
+      <c r="AI104">
+        <v>4.8540000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2744</v>
+      </c>
+      <c r="E105" s="2">
+        <v>3017</v>
+      </c>
+      <c r="F105" s="2">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>61</v>
+      </c>
+      <c r="H105">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L105">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M105">
+        <v>0.161</v>
+      </c>
+      <c r="N105">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="O105">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="P105">
+        <v>0.16</v>
+      </c>
+      <c r="Q105">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R105">
+        <v>0.122</v>
+      </c>
+      <c r="S105">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="T105" s="2">
+        <v>6104</v>
+      </c>
+      <c r="U105" s="2">
+        <v>6977</v>
+      </c>
+      <c r="V105" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W105">
+        <v>32055</v>
+      </c>
+      <c r="X105">
+        <v>62039</v>
+      </c>
+      <c r="Y105">
+        <v>30025</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB105">
+        <v>13.327</v>
+      </c>
+      <c r="AC105">
+        <v>13.375999999999999</v>
+      </c>
+      <c r="AD105">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE105">
+        <v>13.291</v>
+      </c>
+      <c r="AF105">
+        <v>13.337999999999999</v>
+      </c>
+      <c r="AG105">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AH105">
+        <v>13.196999999999999</v>
+      </c>
+      <c r="AI105">
+        <v>13.244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>31</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>2736</v>
+      </c>
+      <c r="E106">
+        <v>3008</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2">
+        <v>54</v>
+      </c>
+      <c r="H106" s="2">
+        <v>16</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L106">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M106">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N106">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O106">
+        <v>0.124</v>
+      </c>
+      <c r="P106">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q106">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="R106">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S106">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="T106">
+        <v>6696</v>
+      </c>
+      <c r="U106">
+        <v>6968</v>
+      </c>
+      <c r="V106">
+        <v>1000</v>
+      </c>
+      <c r="W106">
+        <v>218117</v>
+      </c>
+      <c r="X106">
+        <v>434169</v>
+      </c>
+      <c r="Y106">
+        <v>216091</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AB106">
+        <v>80.658000000000001</v>
+      </c>
+      <c r="AC106">
+        <v>80.725999999999999</v>
+      </c>
+      <c r="AD106">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AE106">
+        <v>74.775999999999996</v>
+      </c>
+      <c r="AF106">
+        <v>74.819000000000003</v>
+      </c>
+      <c r="AG106">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AH106">
+        <v>76.950999999999993</v>
+      </c>
+      <c r="AI106">
+        <v>76.995999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>32</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>2585</v>
+      </c>
+      <c r="E107">
+        <v>2842</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>46</v>
+      </c>
+      <c r="H107">
+        <v>17</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L107">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M107">
+        <v>0.159</v>
+      </c>
+      <c r="N107">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O107">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="P107">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Q107">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R107">
+        <v>0.124</v>
+      </c>
+      <c r="S107">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="T107">
+        <v>6545</v>
+      </c>
+      <c r="U107">
+        <v>6802</v>
+      </c>
+      <c r="V107">
+        <v>1000</v>
+      </c>
+      <c r="W107">
+        <v>405612</v>
+      </c>
+      <c r="X107">
+        <v>809174</v>
+      </c>
+      <c r="Y107">
+        <v>403591</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AB107">
+        <v>154.97</v>
+      </c>
+      <c r="AC107">
+        <v>155.01499999999999</v>
+      </c>
+      <c r="AD107">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AE107">
+        <v>183.48699999999999</v>
+      </c>
+      <c r="AF107">
+        <v>183.55099999999999</v>
+      </c>
+      <c r="AG107">
+        <v>0.152</v>
+      </c>
+      <c r="AH107">
+        <v>151.53700000000001</v>
+      </c>
+      <c r="AI107">
+        <v>151.58600000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>40</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>3313</v>
+      </c>
+      <c r="E108">
+        <v>3639</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>74</v>
+      </c>
+      <c r="H108">
+        <v>19</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="L108">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="M108">
+        <v>0.186</v>
+      </c>
+      <c r="N108">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O108">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P108">
+        <v>0.19</v>
+      </c>
+      <c r="Q108">
+        <v>0.182</v>
+      </c>
+      <c r="R108">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="S108">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="T108">
+        <v>7273</v>
+      </c>
+      <c r="U108">
+        <v>7599</v>
+      </c>
+      <c r="V108">
+        <v>1000</v>
+      </c>
+      <c r="W108">
+        <v>550945</v>
+      </c>
+      <c r="X108">
+        <v>1099800</v>
+      </c>
+      <c r="Y108">
+        <v>548911</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AB108">
+        <v>244.131</v>
+      </c>
+      <c r="AC108">
+        <v>244.197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>41</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="40">
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AG94:AI94"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:Z94"/>
     <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="AG10:AI10"/>
     <mergeCell ref="T10:Z10"/>
@@ -9259,11 +12345,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="40 - Models" sheetId="1" r:id="rId2"/>
+    <sheet name="80 - Models" sheetId="3" r:id="rId2"/>
+    <sheet name="40 - Models" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="78">
   <si>
     <t>Run</t>
   </si>
@@ -213,6 +214,9 @@
     <t>Heuristic 3</t>
   </si>
   <si>
+    <t>Heuristic 4</t>
+  </si>
+  <si>
     <t>#CTC per FM:</t>
   </si>
   <si>
@@ -241,6 +245,21 @@
   </si>
   <si>
     <t>Constraints</t>
+  </si>
+  <si>
+    <t>Features: 80, Heuristic: default</t>
+  </si>
+  <si>
+    <t>Features: 80, Heuristic 1: Default + MorePercInstVars</t>
+  </si>
+  <si>
+    <t>Features: 80, Heuristic 2: Default + BiVarArithmetic</t>
+  </si>
+  <si>
+    <t>Features: 80, Heuristic 3: Default + BiVarArithmetic + OrAttr0 + OrAttr1</t>
+  </si>
+  <si>
+    <t>Features: 80, Heuristic 4: Default + OrAttr0 + OrAttr1</t>
   </si>
 </sst>
 </file>
@@ -328,7 +347,13 @@
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="0.000"/>
     </dxf>
@@ -398,646 +423,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>1000 Solutions</a:t>
+              <a:t>10 Solutions -</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> 40 Features</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Constraints</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$B$11:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Default</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$C$11:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.30144674955333528</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70487610846063131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1782102891205311</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.133753885968989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3311456376174444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$D$11:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.26271717043663456</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9855389183779858</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3579809941861845</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.92406529142966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.845771604971324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$E$11:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.3103117867143107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7290030969009762</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7141563995510145</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.188664846837895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.470053843172394</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$F$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$11:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$F$11:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.28661775870741463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69737861410103907</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9914634565127107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.766448089786131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.888986502272239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="180378880"/>
-        <c:axId val="180371432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="180378880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="180371432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="180371432"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="180378880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>10 Solutions - Models</a:t>
-            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1381,6 +779,82 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6179246981599299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5173665888558606E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11448383890884309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1695255987848355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18908759871486996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1497,6 +971,658 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="248623888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>1000 Solutions - 40 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30144674955333528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70487610846063131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1782102891205311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.133753885968989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3311456376174444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26271717043663456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9855389183779858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3579809941861845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.92406529142966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.845771604971324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$11:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3103117867143107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7290030969009762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7141563995510145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.188664846837895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.470053843172394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28661775870741463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69737861410103907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9914634565127107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.766448089786131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.888986502272239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$11:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31720926936384841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91456162496331495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3989062384179087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.275599422759733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9094177195687347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="247358848"/>
+        <c:axId val="247360024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="247358848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247360024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="247360024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247358848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,36 +2819,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601133</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2745,6 +2841,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -2755,36 +2881,394 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A10:F15" totalsRowShown="0">
-  <autoFilter ref="A10:F15"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A10:G15" totalsRowShown="0">
+  <autoFilter ref="A10:G15"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Models"/>
-    <tableColumn id="6" name="Constraints"/>
-    <tableColumn id="2" name="Default" dataDxfId="5"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="4"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="1"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="0"/>
+    <tableColumn id="6" name="Constraints">
+      <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Default" dataDxfId="7"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="6"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="3"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="2"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A95:AI110"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Models"/>
-    <tableColumn id="6" name="Constraints"/>
-    <tableColumn id="2" name="Default" dataDxfId="6"/>
+    <tableColumn id="6" name="Constraints">
+      <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Default" dataDxfId="8"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="3"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="2"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="5"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="4"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A11:AI26"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1410" displayName="Table1410" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A32:AI47"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1437813" displayName="Table1437813" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A95:AI110"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -2828,141 +3312,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A95:AI110"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
@@ -3267,24 +3619,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -3298,13 +3651,16 @@
       <c r="F1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B12+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B12</f>
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>6</v>
       </c>
       <c r="C2" s="8">
@@ -3323,13 +3679,17 @@
         <f>HARMEAN('40 - Models'!L75:L77,'40 - Models'!O75:O77,'40 - Models'!R75:R77)</f>
         <v>6.5412518447039589E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="8">
+        <f>HARMEAN('40 - Models'!L96:L98,'40 - Models'!O96:O98,'40 - Models'!R96:R98)</f>
+        <v>6.6179246981599299E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B15+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B15</f>
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>12</v>
       </c>
       <c r="C3" s="8">
@@ -3348,13 +3708,17 @@
         <f>HARMEAN('40 - Models'!L78:L80,'40 - Models'!O78:O80,'40 - Models'!R78:R80)</f>
         <v>7.472896132803894E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="8">
+        <f>HARMEAN('40 - Models'!L99:L101,'40 - Models'!O99:O101,'40 - Models'!R99:R101)</f>
+        <v>9.5173665888558606E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B18+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B18</f>
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>18</v>
       </c>
       <c r="C4" s="8">
@@ -3373,13 +3737,17 @@
         <f>HARMEAN('40 - Models'!L81:L83,'40 - Models'!O81:O83,'40 - Models'!R81:R83)</f>
         <v>0.10156336722046637</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="8">
+        <f>HARMEAN('40 - Models'!L102:L104,'40 - Models'!O102:O104,'40 - Models'!R102:R104)</f>
+        <v>0.11448383890884309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B21+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B21</f>
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>24</v>
       </c>
       <c r="C5" s="8">
@@ -3398,13 +3766,17 @@
         <f>HARMEAN('40 - Models'!L84:L86,'40 - Models'!O84:O86,'40 - Models'!R84:R86)</f>
         <v>0.12323666324336834</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="8">
+        <f>HARMEAN('40 - Models'!L105:L107,'40 - Models'!O105:O107,'40 - Models'!R105:R107)</f>
+        <v>0.1695255987848355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B24+'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B24</f>
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>30</v>
       </c>
       <c r="C6" s="8">
@@ -3423,13 +3795,17 @@
         <f>HARMEAN('40 - Models'!L87:L89,'40 - Models'!O87:O89,'40 - Models'!R87:R89)</f>
         <v>0.15417903466059946</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="8">
+        <f>HARMEAN('40 - Models'!L108:L110,'40 - Models'!O108:O110,'40 - Models'!R108:R110)</f>
+        <v>0.18908759871486996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -3443,10 +3819,17 @@
       <c r="F10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
+      </c>
+      <c r="B11">
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
+        <v>6</v>
       </c>
       <c r="C11" s="8">
         <f>HARMEAN('40 - Models'!AB12:AB14,'40 - Models'!AE12:AE14,'40 - Models'!AH12:AH14)</f>
@@ -3464,10 +3847,18 @@
         <f>HARMEAN('40 - Models'!AB75:AB77,'40 - Models'!AE75:AE77,'40 - Models'!AH75:AH77)</f>
         <v>0.28661775870741463</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="8">
+        <f>HARMEAN('40 - Models'!AB96:AB98,'40 - Models'!AE96:AE98,'40 - Models'!AH96:AH98)</f>
+        <v>0.31720926936384841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
+      </c>
+      <c r="B12">
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
+        <v>12</v>
       </c>
       <c r="C12" s="8">
         <f>HARMEAN('40 - Models'!AB15:AB17,'40 - Models'!AE15:AE17,'40 - Models'!AH15:AH17)</f>
@@ -3485,10 +3876,18 @@
         <f>HARMEAN('40 - Models'!AB78:AB80,'40 - Models'!AE78:AE80,'40 - Models'!AH78:AH80)</f>
         <v>0.69737861410103907</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="8">
+        <f>HARMEAN('40 - Models'!AB99:AB101,'40 - Models'!AE99:AE101,'40 - Models'!AH99:AH101)</f>
+        <v>0.91456162496331495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
+      </c>
+      <c r="B13">
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
+        <v>18</v>
       </c>
       <c r="C13" s="8">
         <f>HARMEAN('40 - Models'!AB18:AB20,'40 - Models'!AE18:AE20,'40 - Models'!AH18:AH20)</f>
@@ -3506,10 +3905,18 @@
         <f>HARMEAN('40 - Models'!AB81:AB83,'40 - Models'!AE81:AE83,'40 - Models'!AH81:AH83)</f>
         <v>4.9914634565127107</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="8">
+        <f>HARMEAN('40 - Models'!AB102:AB104,'40 - Models'!AE102:AE104,'40 - Models'!AH102:AH104)</f>
+        <v>4.3989062384179087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
+      </c>
+      <c r="B14">
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
+        <v>24</v>
       </c>
       <c r="C14" s="8">
         <f>HARMEAN('40 - Models'!AB21:AB23,'40 - Models'!AE21:AE23,'40 - Models'!AH21:AH23)</f>
@@ -3527,10 +3934,18 @@
         <f>HARMEAN('40 - Models'!AB84:AB86,'40 - Models'!AE84:AE86,'40 - Models'!AH84:AH86)</f>
         <v>31.766448089786131</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="8">
+        <f>HARMEAN('40 - Models'!AB105:AB107,'40 - Models'!AE105:AE107,'40 - Models'!AH105:AH107)</f>
+        <v>35.275599422759733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
+      </c>
+      <c r="B15">
+        <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
+        <v>30</v>
       </c>
       <c r="C15" s="8">
         <f>HARMEAN('40 - Models'!AB24:AB26,'40 - Models'!AE24:AE26,'40 - Models'!AH24:AH26)</f>
@@ -3547,6 +3962,10 @@
       <c r="F15" s="8">
         <f>HARMEAN('40 - Models'!AB87:AB89,'40 - Models'!AE87:AE89,'40 - Models'!AH87:AH89)</f>
         <v>33.888986502272239</v>
+      </c>
+      <c r="G15" s="8">
+        <f>HARMEAN('40 - Models'!AB108:AB110,'40 - Models'!AE108:AE110,'40 - Models'!AH108:AH110)</f>
+        <v>9.9094177195687347</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3983,1693 @@
   <dimension ref="A1:AI110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH77" sqref="AH77"/>
+      <selection activeCell="C96" sqref="C96:AI110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>42</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>23</v>
+      </c>
+      <c r="R74" t="s">
+        <v>24</v>
+      </c>
+      <c r="S74" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s">
+        <v>39</v>
+      </c>
+      <c r="W74" t="s">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>32</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>40</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>41</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>42</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" t="s">
+        <v>20</v>
+      </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R95" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" t="s">
+        <v>25</v>
+      </c>
+      <c r="T95" t="s">
+        <v>37</v>
+      </c>
+      <c r="U95" t="s">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s">
+        <v>39</v>
+      </c>
+      <c r="W95" t="s">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>31</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>32</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>40</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>41</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AG94:AI94"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:Z94"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="AA73:AC73"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AG73:AI73"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Z31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AC10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB115" sqref="AB115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3613,7 +5718,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3621,7 +5726,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5">
         <v>0.1</v>
@@ -3629,7 +5734,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3637,7 +5742,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3645,7 +5750,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
         <v>0.05</v>
@@ -5423,7 +7528,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
@@ -7193,7 +9298,7 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
@@ -8963,7 +11068,7 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.3">
@@ -10733,7 +12838,7 @@
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.3">
@@ -10916,91 +13021,91 @@
         <v>10</v>
       </c>
       <c r="G96">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0.11600000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="L96">
-        <v>5.3999999999999999E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="M96">
-        <v>9.0999999999999998E-2</v>
+        <v>0.105</v>
       </c>
       <c r="N96">
-        <v>0.11700000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="O96">
-        <v>6.2E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P96">
-        <v>0.10100000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="Q96">
-        <v>0.114</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="R96">
-        <v>6.0999999999999999E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="S96">
-        <v>9.7000000000000003E-2</v>
+        <v>0.115</v>
       </c>
       <c r="T96">
-        <v>2641</v>
+        <v>2793</v>
       </c>
       <c r="U96">
-        <v>2699</v>
+        <v>2851</v>
       </c>
       <c r="V96">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="W96">
-        <v>2534</v>
+        <v>2766</v>
       </c>
       <c r="X96">
-        <v>4061</v>
+        <v>4449</v>
       </c>
       <c r="Y96">
-        <v>1527</v>
+        <v>1683</v>
       </c>
       <c r="Z96">
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0.17699999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.91900000000000004</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="AC96">
-        <v>0.97299999999999998</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="AD96">
-        <v>0.113</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AE96">
-        <v>0.79600000000000004</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="AF96">
-        <v>0.83499999999999996</v>
+        <v>1.147</v>
       </c>
       <c r="AG96">
-        <v>0.11799999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH96">
-        <v>0.77600000000000002</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="AI96">
-        <v>0.81599999999999995</v>
+        <v>1.1020000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.3">
@@ -11023,91 +13128,91 @@
         <v>10</v>
       </c>
       <c r="G97">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0.123</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="L97">
-        <v>6.2E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="M97">
-        <v>0.1</v>
+        <v>0.107</v>
       </c>
       <c r="N97">
-        <v>0.11700000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="O97">
-        <v>5.8000000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="P97">
-        <v>9.4E-2</v>
+        <v>0.111</v>
       </c>
       <c r="Q97">
-        <v>0.11799999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="R97">
-        <v>6.6000000000000003E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="S97">
-        <v>0.106</v>
+        <v>0.112</v>
       </c>
       <c r="T97">
-        <v>2310</v>
+        <v>2622</v>
       </c>
       <c r="U97">
-        <v>2379</v>
+        <v>2691</v>
       </c>
       <c r="V97">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="W97">
-        <v>6377</v>
+        <v>7306</v>
       </c>
       <c r="X97">
-        <v>11951</v>
+        <v>13653</v>
       </c>
       <c r="Y97">
-        <v>5574</v>
+        <v>6347</v>
       </c>
       <c r="Z97">
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.188</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="AB97">
-        <v>1.375</v>
+        <v>2.3090000000000002</v>
       </c>
       <c r="AC97">
-        <v>1.429</v>
+        <v>2.3719999999999999</v>
       </c>
       <c r="AD97">
-        <v>0.114</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AE97">
-        <v>1.254</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="AF97">
-        <v>1.2929999999999999</v>
+        <v>2.0539999999999998</v>
       </c>
       <c r="AG97">
-        <v>0.11600000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="AH97">
-        <v>1.2250000000000001</v>
+        <v>2.0910000000000002</v>
       </c>
       <c r="AI97">
-        <v>1.2649999999999999</v>
+        <v>2.1379999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.3">
@@ -11121,100 +13226,100 @@
         <v>9</v>
       </c>
       <c r="D98">
-        <v>2310</v>
+        <v>734</v>
       </c>
       <c r="E98">
-        <v>2379</v>
+        <v>801</v>
       </c>
       <c r="F98">
-        <v>402</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>6377</v>
+        <v>24</v>
       </c>
       <c r="H98">
-        <v>11951</v>
+        <v>18</v>
       </c>
       <c r="I98">
-        <v>5574</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0.11600000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="L98">
-        <v>5.6000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="M98">
-        <v>9.1999999999999998E-2</v>
+        <v>0.104</v>
       </c>
       <c r="N98">
-        <v>0.27300000000000002</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="O98">
-        <v>5.8000000000000003E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="P98">
-        <v>9.4E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q98">
-        <v>0.11600000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="R98">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="S98">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="T98">
-        <v>934</v>
+        <v>830</v>
       </c>
       <c r="U98">
-        <v>1001</v>
+        <v>897</v>
       </c>
       <c r="V98">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="W98">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="X98">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Y98">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Z98">
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.152</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.14299999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.20100000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="AD98">
-        <v>0.11799999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="AE98">
-        <v>0.109</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AF98">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG98">
-        <v>0.11799999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AH98">
-        <v>0.108</v>
+        <v>0.125</v>
       </c>
       <c r="AI98">
-        <v>0.14799999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.3">
@@ -11237,10 +13342,10 @@
         <v>10</v>
       </c>
       <c r="G99">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -11249,79 +13354,79 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0.123</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="L99">
-        <v>7.0999999999999994E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="M99">
-        <v>0.112</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="N99">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O99">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P99">
+        <v>0.128</v>
+      </c>
+      <c r="Q99">
         <v>0.13800000000000001</v>
-      </c>
-      <c r="O99">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="P99">
-        <v>0.124</v>
-      </c>
-      <c r="Q99">
-        <v>0.14099999999999999</v>
       </c>
       <c r="R99">
         <v>7.8E-2</v>
       </c>
       <c r="S99">
-        <v>0.125</v>
-      </c>
-      <c r="T99">
-        <v>1977</v>
-      </c>
-      <c r="U99">
-        <v>2102</v>
-      </c>
-      <c r="V99">
-        <v>177</v>
+        <v>0.12</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1885</v>
+      </c>
+      <c r="U99" s="2">
+        <v>2010</v>
+      </c>
+      <c r="V99" s="2">
+        <v>154</v>
       </c>
       <c r="W99">
-        <v>995</v>
+        <v>1025</v>
       </c>
       <c r="X99">
-        <v>1637</v>
+        <v>1743</v>
       </c>
       <c r="Y99">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="Z99">
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.186</v>
+        <v>0.153</v>
       </c>
       <c r="AB99">
-        <v>0.71399999999999997</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="AC99">
-        <v>0.77600000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="AD99">
-        <v>0.123</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="AE99">
-        <v>0.38500000000000001</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="AF99">
-        <v>0.42799999999999999</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="AG99">
-        <v>0.18</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AH99">
-        <v>0.42499999999999999</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="AI99">
-        <v>0.48099999999999998</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.3">
@@ -11344,91 +13449,91 @@
         <v>10</v>
       </c>
       <c r="G100">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L100">
         <v>0.121</v>
       </c>
-      <c r="L100">
-        <v>7.2999999999999995E-2</v>
-      </c>
       <c r="M100">
-        <v>0.111</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="N100">
-        <v>0.125</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="O100">
-        <v>7.9000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="P100">
-        <v>0.12</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="Q100">
-        <v>0.125</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="R100">
-        <v>7.0999999999999994E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="S100">
-        <v>0.111</v>
+        <v>0.128</v>
       </c>
       <c r="T100">
-        <v>3475</v>
+        <v>5199</v>
       </c>
       <c r="U100">
-        <v>3598</v>
+        <v>5322</v>
       </c>
       <c r="V100">
-        <v>569</v>
+        <v>1000</v>
       </c>
       <c r="W100" s="2">
-        <v>10148</v>
+        <v>17240</v>
       </c>
       <c r="X100" s="2">
-        <v>19159</v>
+        <v>32453</v>
       </c>
       <c r="Y100" s="2">
-        <v>9011</v>
+        <v>15235</v>
       </c>
       <c r="Z100">
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.125</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="AB100">
-        <v>2.4449999999999998</v>
+        <v>6.5350000000000001</v>
       </c>
       <c r="AC100">
-        <v>2.4860000000000002</v>
+        <v>6.6180000000000003</v>
       </c>
       <c r="AD100">
-        <v>0.13400000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AE100">
-        <v>2.4900000000000002</v>
+        <v>6.93</v>
       </c>
       <c r="AF100">
-        <v>2.5350000000000001</v>
+        <v>6.992</v>
       </c>
       <c r="AG100">
-        <v>0.14000000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AH100">
-        <v>2.4529999999999998</v>
+        <v>6.5060000000000002</v>
       </c>
       <c r="AI100">
-        <v>2.4980000000000002</v>
+        <v>6.5570000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.3">
@@ -11451,10 +13556,10 @@
         <v>10</v>
       </c>
       <c r="G101">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -11463,79 +13568,79 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0.124</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="L101">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="M101">
-        <v>0.11</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N101">
-        <v>0.124</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="O101">
-        <v>7.6999999999999999E-2</v>
+        <v>0.112</v>
       </c>
       <c r="P101">
-        <v>0.115</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="Q101">
-        <v>0.125</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="R101">
-        <v>7.5999999999999998E-2</v>
+        <v>0.121</v>
       </c>
       <c r="S101">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="T101">
-        <v>2662</v>
-      </c>
-      <c r="U101">
-        <v>2794</v>
-      </c>
-      <c r="V101">
-        <v>344</v>
+        <v>0.193</v>
+      </c>
+      <c r="T101" s="2">
+        <v>2442</v>
+      </c>
+      <c r="U101" s="2">
+        <v>2574</v>
+      </c>
+      <c r="V101" s="2">
+        <v>289</v>
       </c>
       <c r="W101">
-        <v>1293</v>
+        <v>1260</v>
       </c>
       <c r="X101">
-        <v>1899</v>
+        <v>1943</v>
       </c>
       <c r="Y101">
-        <v>606</v>
+        <v>683</v>
       </c>
       <c r="Z101">
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.121</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.55800000000000005</v>
+        <v>1.046</v>
       </c>
       <c r="AC101">
-        <v>0.59899999999999998</v>
+        <v>1.131</v>
       </c>
       <c r="AD101">
-        <v>0.122</v>
+        <v>0.19</v>
       </c>
       <c r="AE101">
-        <v>0.55400000000000005</v>
+        <v>0.98</v>
       </c>
       <c r="AF101">
-        <v>0.59399999999999997</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="AG101">
-        <v>0.124</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="AH101">
-        <v>0.57499999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="AI101">
-        <v>0.61599999999999999</v>
+        <v>1.0089999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.3">
@@ -11558,43 +13663,43 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>17</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0.13300000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="L102">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="M102">
-        <v>0.14499999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="N102">
-        <v>0.13500000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="O102">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="P102">
-        <v>0.14299999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="Q102">
-        <v>0.13200000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="R102">
-        <v>0.10299999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="S102">
-        <v>0.14599999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="T102">
         <v>6009</v>
@@ -11606,43 +13711,43 @@
         <v>1000</v>
       </c>
       <c r="W102" s="2">
-        <v>19928</v>
+        <v>6906</v>
       </c>
       <c r="X102" s="2">
-        <v>37818</v>
+        <v>11770</v>
       </c>
       <c r="Y102" s="2">
-        <v>17916</v>
+        <v>4890</v>
       </c>
       <c r="Z102">
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.13</v>
+        <v>0.154</v>
       </c>
       <c r="AB102">
-        <v>9.08</v>
+        <v>4.4489999999999998</v>
       </c>
       <c r="AC102">
-        <v>9.125</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="AD102">
-        <v>0.14099999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="AE102">
-        <v>9.0510000000000002</v>
+        <v>4.452</v>
       </c>
       <c r="AF102">
-        <v>9.0969999999999995</v>
+        <v>4.5030000000000001</v>
       </c>
       <c r="AG102">
-        <v>0.129</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AH102">
-        <v>9.077</v>
+        <v>4.415</v>
       </c>
       <c r="AI102">
-        <v>9.1199999999999992</v>
+        <v>4.4640000000000004</v>
       </c>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.3">
@@ -11665,91 +13770,91 @@
         <v>10</v>
       </c>
       <c r="G103">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0.13600000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="L103">
-        <v>9.2999999999999999E-2</v>
+        <v>0.109</v>
       </c>
       <c r="M103">
-        <v>0.13600000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="N103">
-        <v>0.157</v>
+        <v>0.151</v>
       </c>
       <c r="O103">
-        <v>0.125</v>
+        <v>0.113</v>
       </c>
       <c r="P103">
-        <v>0.18099999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="Q103">
-        <v>0.13400000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="R103">
-        <v>9.0999999999999998E-2</v>
+        <v>0.105</v>
       </c>
       <c r="S103">
-        <v>0.13200000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="T103">
-        <v>5459</v>
+        <v>4703</v>
       </c>
       <c r="U103">
-        <v>5667</v>
+        <v>4911</v>
       </c>
       <c r="V103">
-        <v>853</v>
+        <v>664</v>
       </c>
       <c r="W103">
-        <v>12856</v>
+        <v>10824</v>
       </c>
       <c r="X103">
-        <v>24007</v>
+        <v>20321</v>
       </c>
       <c r="Y103">
-        <v>11151</v>
+        <v>9497</v>
       </c>
       <c r="Z103">
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.129</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="AB103">
-        <v>3.86</v>
+        <v>3.5089999999999999</v>
       </c>
       <c r="AC103">
-        <v>3.9039999999999999</v>
+        <v>3.5819999999999999</v>
       </c>
       <c r="AD103">
-        <v>0.13100000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="AE103">
-        <v>3.907</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="AF103">
-        <v>3.95</v>
+        <v>3.202</v>
       </c>
       <c r="AG103">
-        <v>0.13</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="AH103">
-        <v>3.8319999999999999</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="AI103">
-        <v>3.8759999999999999</v>
+        <v>3.339</v>
       </c>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.3">
@@ -11772,43 +13877,43 @@
         <v>10</v>
       </c>
       <c r="G104">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0.14099999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="L104">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="M104">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="N104">
-        <v>0.13500000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="O104">
-        <v>0.10199999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="P104">
-        <v>0.14599999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="Q104">
-        <v>0.13300000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="R104">
-        <v>9.9000000000000005E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="S104">
-        <v>0.14299999999999999</v>
+        <v>0.189</v>
       </c>
       <c r="T104">
         <v>6016</v>
@@ -11820,43 +13925,43 @@
         <v>1000</v>
       </c>
       <c r="W104">
-        <v>9861</v>
+        <v>9082</v>
       </c>
       <c r="X104">
-        <v>17654</v>
+        <v>16108</v>
       </c>
       <c r="Y104">
-        <v>7831</v>
+        <v>7058</v>
       </c>
       <c r="Z104">
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.13200000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="AB104">
-        <v>4.1059999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AC104">
-        <v>4.1900000000000004</v>
+        <v>7.0069999999999997</v>
       </c>
       <c r="AD104">
-        <v>0.13</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="AE104">
-        <v>4.0860000000000003</v>
+        <v>6.202</v>
       </c>
       <c r="AF104">
-        <v>4.1289999999999996</v>
+        <v>6.2729999999999997</v>
       </c>
       <c r="AG104">
-        <v>0.13800000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="AH104">
-        <v>4.8070000000000004</v>
+        <v>6.319</v>
       </c>
       <c r="AI104">
-        <v>4.8540000000000001</v>
+        <v>6.3840000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.3">
@@ -11879,10 +13984,10 @@
         <v>10</v>
       </c>
       <c r="G105">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H105">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -11891,34 +13996,34 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0.13600000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="L105">
-        <v>0.11799999999999999</v>
+        <v>0.189</v>
       </c>
       <c r="M105">
-        <v>0.161</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="N105">
-        <v>0.13700000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="O105">
-        <v>0.11600000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="P105">
-        <v>0.16</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="Q105">
-        <v>0.13500000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="R105">
-        <v>0.122</v>
+        <v>0.191</v>
       </c>
       <c r="S105">
-        <v>0.16500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="T105" s="2">
-        <v>6104</v>
+        <v>6704</v>
       </c>
       <c r="U105" s="2">
         <v>6977</v>
@@ -11927,43 +14032,43 @@
         <v>1000</v>
       </c>
       <c r="W105">
-        <v>32055</v>
+        <v>123648</v>
       </c>
       <c r="X105">
-        <v>62039</v>
+        <v>245209</v>
       </c>
       <c r="Y105">
-        <v>30025</v>
+        <v>121608</v>
       </c>
       <c r="Z105">
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.14000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="AB105">
-        <v>13.327</v>
+        <v>54.030999999999999</v>
       </c>
       <c r="AC105">
-        <v>13.375999999999999</v>
+        <v>54.128999999999998</v>
       </c>
       <c r="AD105">
-        <v>0.14099999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AE105">
-        <v>13.291</v>
+        <v>56.682000000000002</v>
       </c>
       <c r="AF105">
-        <v>13.337999999999999</v>
+        <v>56.753</v>
       </c>
       <c r="AG105">
-        <v>0.13400000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="AH105">
-        <v>13.196999999999999</v>
+        <v>59.26</v>
       </c>
       <c r="AI105">
-        <v>13.244</v>
+        <v>59.323999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.3">
@@ -11986,43 +14091,43 @@
         <v>10</v>
       </c>
       <c r="G106" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H106" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I106" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0.20300000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="L106">
-        <v>0.17399999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="M106">
-        <v>0.23599999999999999</v>
+        <v>0.191</v>
       </c>
       <c r="N106">
-        <v>0.14099999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="O106">
-        <v>0.124</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="P106">
-        <v>0.16800000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="Q106">
-        <v>0.14099999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="R106">
-        <v>0.11600000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="S106">
-        <v>0.16300000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="T106">
         <v>6696</v>
@@ -12034,43 +14139,43 @@
         <v>1000</v>
       </c>
       <c r="W106">
-        <v>218117</v>
+        <v>31204</v>
       </c>
       <c r="X106">
-        <v>434169</v>
+        <v>60368</v>
       </c>
       <c r="Y106">
-        <v>216091</v>
+        <v>29192</v>
       </c>
       <c r="Z106">
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.20100000000000001</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AB106">
-        <v>80.658000000000001</v>
+        <v>16.68</v>
       </c>
       <c r="AC106">
-        <v>80.725999999999999</v>
+        <v>17.047000000000001</v>
       </c>
       <c r="AD106">
-        <v>0.13400000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AE106">
-        <v>74.775999999999996</v>
+        <v>16.666</v>
       </c>
       <c r="AF106">
-        <v>74.819000000000003</v>
+        <v>16.731999999999999</v>
       </c>
       <c r="AG106">
-        <v>0.13600000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="AH106">
-        <v>76.950999999999993</v>
+        <v>16.448</v>
       </c>
       <c r="AI106">
-        <v>76.995999999999995</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.3">
@@ -12093,7 +14198,7 @@
         <v>10</v>
       </c>
       <c r="G107">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107">
         <v>17</v>
@@ -12105,31 +14210,31 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0.13500000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="L107">
-        <v>0.11600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M107">
-        <v>0.159</v>
+        <v>0.19</v>
       </c>
       <c r="N107">
-        <v>0.14099999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="O107">
-        <v>0.11600000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="P107">
-        <v>0.16400000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="Q107">
-        <v>0.13500000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="R107">
-        <v>0.124</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="S107">
-        <v>0.16700000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="T107">
         <v>6545</v>
@@ -12141,43 +14246,43 @@
         <v>1000</v>
       </c>
       <c r="W107">
-        <v>405612</v>
+        <v>393334</v>
       </c>
       <c r="X107">
-        <v>809174</v>
+        <v>784603</v>
       </c>
       <c r="Y107">
-        <v>403591</v>
+        <v>391306</v>
       </c>
       <c r="Z107">
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.13200000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="AB107">
-        <v>154.97</v>
+        <v>148.57300000000001</v>
       </c>
       <c r="AC107">
-        <v>155.01499999999999</v>
+        <v>148.642</v>
       </c>
       <c r="AD107">
-        <v>0.19700000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AE107">
-        <v>183.48699999999999</v>
+        <v>144.773</v>
       </c>
       <c r="AF107">
-        <v>183.55099999999999</v>
+        <v>144.84800000000001</v>
       </c>
       <c r="AG107">
-        <v>0.152</v>
+        <v>0.193</v>
       </c>
       <c r="AH107">
-        <v>151.53700000000001</v>
+        <v>129.55500000000001</v>
       </c>
       <c r="AI107">
-        <v>151.58600000000001</v>
+        <v>129.61699999999999</v>
       </c>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.3">
@@ -12190,53 +14295,53 @@
       <c r="C108" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <v>3313</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>3639</v>
       </c>
       <c r="F108">
         <v>10</v>
       </c>
       <c r="G108">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H108">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0.13900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="L108">
-        <v>0.14199999999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="M108">
-        <v>0.186</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="N108">
-        <v>0.14299999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="O108">
-        <v>0.14399999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="P108">
-        <v>0.19</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="Q108">
-        <v>0.182</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="R108">
-        <v>0.19800000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="S108">
-        <v>0.26100000000000001</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="T108">
         <v>7273</v>
@@ -12248,25 +14353,43 @@
         <v>1000</v>
       </c>
       <c r="W108">
-        <v>550945</v>
+        <v>8959</v>
       </c>
       <c r="X108">
-        <v>1099800</v>
+        <v>15858</v>
       </c>
       <c r="Y108">
-        <v>548911</v>
+        <v>6935</v>
       </c>
       <c r="Z108">
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.21199999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="AB108">
-        <v>244.131</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="AC108">
-        <v>244.197</v>
+        <v>6.91</v>
+      </c>
+      <c r="AD108">
+        <v>0.157</v>
+      </c>
+      <c r="AE108">
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="AF108">
+        <v>5.3369999999999997</v>
+      </c>
+      <c r="AG108">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AH108">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="AI108">
+        <v>5.2610000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.3">
@@ -12279,9 +14402,102 @@
       <c r="C109" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
+      <c r="D109">
+        <v>3260</v>
+      </c>
+      <c r="E109">
+        <v>3585</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>44</v>
+      </c>
+      <c r="H109">
+        <v>17</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="L109">
+        <v>0.18</v>
+      </c>
+      <c r="M109">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="N109">
+        <v>0.154</v>
+      </c>
+      <c r="O109">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="P109">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q109">
+        <v>0.158</v>
+      </c>
+      <c r="R109">
+        <v>0.152</v>
+      </c>
+      <c r="S109">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="T109" s="2">
+        <v>7220</v>
+      </c>
+      <c r="U109" s="2">
+        <v>7545</v>
+      </c>
+      <c r="V109" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W109">
+        <v>31333</v>
+      </c>
+      <c r="X109">
+        <v>60631</v>
+      </c>
+      <c r="Y109">
+        <v>29324</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AB109" s="2">
+        <v>14.042</v>
+      </c>
+      <c r="AC109" s="2">
+        <v>14.127000000000001</v>
+      </c>
+      <c r="AD109">
+        <v>0.183</v>
+      </c>
+      <c r="AE109">
+        <v>19.460999999999999</v>
+      </c>
+      <c r="AF109">
+        <v>19.52</v>
+      </c>
+      <c r="AG109">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AH109">
+        <v>18.193999999999999</v>
+      </c>
+      <c r="AI109">
+        <v>18.265999999999998</v>
+      </c>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A110">
@@ -12293,12 +14509,102 @@
       <c r="C110" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
+      <c r="D110">
+        <v>3230</v>
+      </c>
+      <c r="E110">
+        <v>3549</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>52</v>
+      </c>
+      <c r="H110">
+        <v>16</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0.215</v>
+      </c>
+      <c r="L110">
+        <v>0.189</v>
+      </c>
+      <c r="M110">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="N110">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="O110">
+        <v>0.191</v>
+      </c>
+      <c r="P110">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Q110">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="R110">
+        <v>0.192</v>
+      </c>
+      <c r="S110">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="T110" s="2">
+        <v>7190</v>
+      </c>
+      <c r="U110" s="2">
+        <v>7509</v>
+      </c>
+      <c r="V110" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W110">
+        <v>23607</v>
+      </c>
+      <c r="X110">
+        <v>45151</v>
+      </c>
+      <c r="Y110">
+        <v>21582</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AB110" s="2">
+        <v>14.605</v>
+      </c>
+      <c r="AC110" s="2">
+        <v>14.715999999999999</v>
+      </c>
+      <c r="AD110">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AE110">
+        <v>15.445</v>
+      </c>
+      <c r="AF110">
+        <v>15.507999999999999</v>
+      </c>
+      <c r="AG110">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AH110">
+        <v>14.445</v>
+      </c>
+      <c r="AI110">
+        <v>14.513</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
-    <sheet name="80 - Models" sheetId="3" r:id="rId2"/>
-    <sheet name="40 - Models" sheetId="1" r:id="rId3"/>
+    <sheet name="40 - Models" sheetId="1" r:id="rId2"/>
+    <sheet name="80 - Models" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="86">
   <si>
     <t>Run</t>
   </si>
@@ -261,6 +261,30 @@
   <si>
     <t>Features: 80, Heuristic 4: Default + OrAttr0 + OrAttr1</t>
   </si>
+  <si>
+    <t>0, 19</t>
+  </si>
+  <si>
+    <t>3, 15</t>
+  </si>
+  <si>
+    <t>1, 15, 25</t>
+  </si>
+  <si>
+    <t>5, 12, 17, 26</t>
+  </si>
+  <si>
+    <t>1, 14, 16, 19</t>
+  </si>
+  <si>
+    <t>4, 11, 21, 23, 27</t>
+  </si>
+  <si>
+    <t>0, 1, 10, 11, 23</t>
+  </si>
+  <si>
+    <t>5, 14, 16, 20, 27</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +371,37 @@
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="0.000"/>
     </dxf>
@@ -1703,6 +1757,1190 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>10 Solutions - 80 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$21:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12522936270672017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22079819666039632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37773472606510916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5730018492119725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68858636014817731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$21:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$21:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$21:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$21:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="249265040"/>
+        <c:axId val="249265824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="249265040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249265824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249265824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249265040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>1000 Solutions - 80 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$30:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42042899495736996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1304432066740002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.844199160281665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.128765769100387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.83365578908839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$30:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$30:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$30:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$30:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$30:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$30:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$30:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$30:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="248625064"/>
+        <c:axId val="247355320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="248625064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247355320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="247355320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248625064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1744,6 +2982,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2815,6 +4133,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2877,6 +5227,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2888,18 +5298,106 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="7"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="6"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="3"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="2"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="0"/>
+    <tableColumn id="2" name="Default" dataDxfId="17"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="16"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="13"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="12"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A11:AI26"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1410" displayName="Table1410" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A32:AI47"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
@@ -2942,8 +5440,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
@@ -2986,8 +5484,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1437813" displayName="Table1437813" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A95:AI110"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
@@ -3038,237 +5536,53 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="8"/>
+    <tableColumn id="2" name="Default" dataDxfId="18"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="5"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="4"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="1"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="15"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="14"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A11:AI26"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table414" displayName="Table414" ref="A20:G25" totalsRowShown="0">
+  <autoFilter ref="A20:G25"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Models"/>
+    <tableColumn id="6" name="Constraints">
+      <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Default" dataDxfId="9"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="8"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="7"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="6"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1410" displayName="Table1410" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A32:AI47"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table41415" displayName="Table41415" ref="A29:G34" totalsRowShown="0">
+  <autoFilter ref="A29:G34"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Models"/>
+    <tableColumn id="6" name="Constraints">
+      <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Default" dataDxfId="4"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="3"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="2"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="1"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1437813" displayName="Table1437813" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A95:AI110"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -3312,9 +5626,141 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A95:AI110"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
@@ -3619,10 +6065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3968,12 +6414,230 @@
         <v>9.9094177195687347</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <f>HARMEAN('80 - Models'!L12:L14,'80 - Models'!O12:O14,'80 - Models'!R12:R14)</f>
+        <v>0.12522936270672017</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
+        <v>24</v>
+      </c>
+      <c r="C22" s="8">
+        <f>HARMEAN('80 - Models'!L15:L17,'80 - Models'!O15:O17,'80 - Models'!R15:R17)</f>
+        <v>0.22079819666039632</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
+        <v>36</v>
+      </c>
+      <c r="C23" s="8">
+        <f>HARMEAN('80 - Models'!L18:L20,'80 - Models'!O18:O20,'80 - Models'!R18:R20)</f>
+        <v>0.37773472606510916</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
+        <v>48</v>
+      </c>
+      <c r="C24" s="8">
+        <f>HARMEAN('80 - Models'!L21:L23,'80 - Models'!O21:O23,'80 - Models'!R21:R23)</f>
+        <v>0.5730018492119725</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
+        <v>60</v>
+      </c>
+      <c r="C25" s="8">
+        <f>HARMEAN('80 - Models'!L24:L26,'80 - Models'!O24:O26,'80 - Models'!R24:R26)</f>
+        <v>0.68858636014817731</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
+        <v>12</v>
+      </c>
+      <c r="C30" s="8">
+        <f>HARMEAN('80 - Models'!AB12:AB14,'80 - Models'!AE12:AE14,'80 - Models'!AH12:AH14)</f>
+        <v>0.42042899495736996</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
+        <v>24</v>
+      </c>
+      <c r="C31" s="8">
+        <f>HARMEAN('80 - Models'!AB15:AB17,'80 - Models'!AE15:AE17,'80 - Models'!AH15:AH17)</f>
+        <v>9.1304432066740002</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
+        <v>36</v>
+      </c>
+      <c r="C32" s="8">
+        <f>HARMEAN('80 - Models'!AB18:AB20,'80 - Models'!AE18:AE20,'80 - Models'!AH18:AH20)</f>
+        <v>25.844199160281665</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
+        <v>48</v>
+      </c>
+      <c r="C33" s="8">
+        <f>HARMEAN('80 - Models'!AB21:AB23,'80 - Models'!AE21:AE23,'80 - Models'!AH21:AH23)</f>
+        <v>20.128765769100387</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
+        <v>60</v>
+      </c>
+      <c r="C34" s="8">
+        <f>HARMEAN('80 - Models'!AB24:AB26,'80 - Models'!AE24:AE26,'80 - Models'!AH24:AH26)</f>
+        <v>42.83365578908839</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3983,1692 +6647,6 @@
   <dimension ref="A1:AI110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C96" sqref="C96:AI110"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>41</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>42</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" t="s">
-        <v>25</v>
-      </c>
-      <c r="T32" t="s">
-        <v>37</v>
-      </c>
-      <c r="U32" t="s">
-        <v>38</v>
-      </c>
-      <c r="V32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W32" t="s">
-        <v>40</v>
-      </c>
-      <c r="X32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>12</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>21</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>30</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>31</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>32</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>40</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>41</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>42</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s">
-        <v>36</v>
-      </c>
-      <c r="I53" t="s">
-        <v>31</v>
-      </c>
-      <c r="J53" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" t="s">
-        <v>20</v>
-      </c>
-      <c r="O53" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" t="s">
-        <v>24</v>
-      </c>
-      <c r="S53" t="s">
-        <v>25</v>
-      </c>
-      <c r="T53" t="s">
-        <v>37</v>
-      </c>
-      <c r="U53" t="s">
-        <v>38</v>
-      </c>
-      <c r="V53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W53" t="s">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>10</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>11</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>12</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>20</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>21</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>22</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>30</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>31</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>32</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>40</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>41</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>42</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH73" s="7"/>
-      <c r="AI73" s="7"/>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" t="s">
-        <v>36</v>
-      </c>
-      <c r="I74" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" t="s">
-        <v>19</v>
-      </c>
-      <c r="N74" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74" t="s">
-        <v>21</v>
-      </c>
-      <c r="P74" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" t="s">
-        <v>24</v>
-      </c>
-      <c r="S74" t="s">
-        <v>25</v>
-      </c>
-      <c r="T74" t="s">
-        <v>37</v>
-      </c>
-      <c r="U74" t="s">
-        <v>38</v>
-      </c>
-      <c r="V74" t="s">
-        <v>39</v>
-      </c>
-      <c r="W74" t="s">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>10</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>11</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>12</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>20</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>21</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>22</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>30</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>31</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>32</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>40</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>41</v>
-      </c>
-      <c r="B88">
-        <v>5</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>42</v>
-      </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
-      <c r="AG94" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH94" s="7"/>
-      <c r="AI94" s="7"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" t="s">
-        <v>31</v>
-      </c>
-      <c r="J95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K95" t="s">
-        <v>17</v>
-      </c>
-      <c r="L95" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" t="s">
-        <v>19</v>
-      </c>
-      <c r="N95" t="s">
-        <v>20</v>
-      </c>
-      <c r="O95" t="s">
-        <v>21</v>
-      </c>
-      <c r="P95" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R95" t="s">
-        <v>24</v>
-      </c>
-      <c r="S95" t="s">
-        <v>25</v>
-      </c>
-      <c r="T95" t="s">
-        <v>37</v>
-      </c>
-      <c r="U95" t="s">
-        <v>38</v>
-      </c>
-      <c r="V95" t="s">
-        <v>39</v>
-      </c>
-      <c r="W95" t="s">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>10</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>11</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>12</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>20</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>21</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>22</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>30</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>31</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>32</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
-      </c>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>40</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>41</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
-      <c r="AC109" s="2"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>42</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AG94:AI94"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="T94:Z94"/>
-    <mergeCell ref="AA94:AC94"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AI52"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="T73:Z73"/>
-    <mergeCell ref="AA73:AC73"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AG73:AI73"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="T52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:Z31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AC10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI110"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AB115" sqref="AB115"/>
     </sheetView>
   </sheetViews>
@@ -14659,4 +15637,3166 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI110"/>
+  <sheetViews>
+    <sheetView topLeftCell="Z7" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="AJ27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1298</v>
+      </c>
+      <c r="E12">
+        <v>1420</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.153</v>
+      </c>
+      <c r="M12">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.123</v>
+      </c>
+      <c r="O12">
+        <v>0.11</v>
+      </c>
+      <c r="P12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>0.122</v>
+      </c>
+      <c r="R12">
+        <v>0.11</v>
+      </c>
+      <c r="S12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="T12">
+        <v>5258</v>
+      </c>
+      <c r="U12">
+        <v>5380</v>
+      </c>
+      <c r="V12">
+        <v>1000</v>
+      </c>
+      <c r="W12">
+        <v>23195</v>
+      </c>
+      <c r="X12">
+        <v>44345</v>
+      </c>
+      <c r="Y12">
+        <v>21176</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>13.547000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>13.611000000000001</v>
+      </c>
+      <c r="AD12">
+        <v>0.158</v>
+      </c>
+      <c r="AE12">
+        <v>12.815</v>
+      </c>
+      <c r="AF12">
+        <v>12.861000000000001</v>
+      </c>
+      <c r="AG12">
+        <v>0.157</v>
+      </c>
+      <c r="AH12">
+        <v>13.006</v>
+      </c>
+      <c r="AI12">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1401</v>
+      </c>
+      <c r="E13">
+        <v>1534</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.192</v>
+      </c>
+      <c r="N13">
+        <v>0.129</v>
+      </c>
+      <c r="O13">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.15</v>
+      </c>
+      <c r="Q13">
+        <v>0.129</v>
+      </c>
+      <c r="R13">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.152</v>
+      </c>
+      <c r="T13">
+        <v>5361</v>
+      </c>
+      <c r="U13">
+        <v>5494</v>
+      </c>
+      <c r="V13">
+        <v>1000</v>
+      </c>
+      <c r="W13">
+        <v>18995</v>
+      </c>
+      <c r="X13">
+        <v>35957</v>
+      </c>
+      <c r="Y13">
+        <v>16983</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AB13">
+        <v>6.8330000000000002</v>
+      </c>
+      <c r="AC13">
+        <v>6.8819999999999997</v>
+      </c>
+      <c r="AD13">
+        <v>0.125</v>
+      </c>
+      <c r="AE13">
+        <v>7.8719999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>7.907</v>
+      </c>
+      <c r="AG13">
+        <v>0.124</v>
+      </c>
+      <c r="AH13">
+        <v>6.9470000000000001</v>
+      </c>
+      <c r="AI13">
+        <v>6.9809999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1324</v>
+      </c>
+      <c r="E14">
+        <v>1449</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.223</v>
+      </c>
+      <c r="N14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.115</v>
+      </c>
+      <c r="P14">
+        <v>0.156</v>
+      </c>
+      <c r="Q14">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.114</v>
+      </c>
+      <c r="S14">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1380</v>
+      </c>
+      <c r="U14">
+        <v>1505</v>
+      </c>
+      <c r="V14">
+        <v>24</v>
+      </c>
+      <c r="W14">
+        <v>102</v>
+      </c>
+      <c r="X14">
+        <v>157</v>
+      </c>
+      <c r="Y14">
+        <v>55</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AC14">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AD14">
+        <v>0.122</v>
+      </c>
+      <c r="AE14">
+        <v>0.126</v>
+      </c>
+      <c r="AF14">
+        <v>0.16</v>
+      </c>
+      <c r="AG14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AH14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AI14">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2712</v>
+      </c>
+      <c r="E15">
+        <v>2986</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>51</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.217</v>
+      </c>
+      <c r="N15">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.18</v>
+      </c>
+      <c r="P15">
+        <v>0.219</v>
+      </c>
+      <c r="Q15">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S15">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="T15">
+        <v>6672</v>
+      </c>
+      <c r="U15">
+        <v>6946</v>
+      </c>
+      <c r="V15">
+        <v>1000</v>
+      </c>
+      <c r="W15">
+        <v>19592</v>
+      </c>
+      <c r="X15">
+        <v>37148</v>
+      </c>
+      <c r="Y15">
+        <v>17579</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AB15">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="AC15">
+        <v>8.391</v>
+      </c>
+      <c r="AD15">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>8.26</v>
+      </c>
+      <c r="AF15">
+        <v>8.298</v>
+      </c>
+      <c r="AG15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AH15">
+        <v>8.2040000000000006</v>
+      </c>
+      <c r="AI15">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>2658</v>
+      </c>
+      <c r="E16">
+        <v>2921</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.189</v>
+      </c>
+      <c r="L16">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="N16">
+        <v>0.192</v>
+      </c>
+      <c r="O16">
+        <v>0.217</v>
+      </c>
+      <c r="P16">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R16">
+        <v>0.27</v>
+      </c>
+      <c r="S16">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="T16">
+        <v>6618</v>
+      </c>
+      <c r="U16">
+        <v>6881</v>
+      </c>
+      <c r="V16">
+        <v>1000</v>
+      </c>
+      <c r="W16">
+        <v>21387</v>
+      </c>
+      <c r="X16">
+        <v>40680</v>
+      </c>
+      <c r="Y16">
+        <v>19346</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AB16">
+        <v>17.792999999999999</v>
+      </c>
+      <c r="AC16">
+        <v>17.858000000000001</v>
+      </c>
+      <c r="AD16">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AE16">
+        <v>12.898</v>
+      </c>
+      <c r="AF16">
+        <v>12.941000000000001</v>
+      </c>
+      <c r="AG16">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AH16">
+        <v>13.307</v>
+      </c>
+      <c r="AI16">
+        <v>13.348000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>2616</v>
+      </c>
+      <c r="E17">
+        <v>2878</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="M17">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N17">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="O17">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="P17">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>0.183</v>
+      </c>
+      <c r="R17">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.27</v>
+      </c>
+      <c r="T17">
+        <v>6576</v>
+      </c>
+      <c r="U17">
+        <v>6838</v>
+      </c>
+      <c r="V17">
+        <v>1000</v>
+      </c>
+      <c r="W17">
+        <v>10230</v>
+      </c>
+      <c r="X17">
+        <v>18407</v>
+      </c>
+      <c r="Y17">
+        <v>8209</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0.189</v>
+      </c>
+      <c r="AB17">
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="AC17">
+        <v>8.1170000000000009</v>
+      </c>
+      <c r="AD17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>6.77</v>
+      </c>
+      <c r="AF17">
+        <v>6.8159999999999998</v>
+      </c>
+      <c r="AG17">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AH17">
+        <v>7.0190000000000001</v>
+      </c>
+      <c r="AI17">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>3994</v>
+      </c>
+      <c r="E18">
+        <v>4393</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="N18">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="P18">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="Q18">
+        <v>0.155</v>
+      </c>
+      <c r="R18">
+        <v>0.316</v>
+      </c>
+      <c r="S18">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="T18" s="2">
+        <v>7954</v>
+      </c>
+      <c r="U18" s="2">
+        <v>8353</v>
+      </c>
+      <c r="V18">
+        <v>1000</v>
+      </c>
+      <c r="W18">
+        <v>32857</v>
+      </c>
+      <c r="X18">
+        <v>63675</v>
+      </c>
+      <c r="Y18">
+        <v>30844</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>23.652000000000001</v>
+      </c>
+      <c r="AC18">
+        <v>23.72</v>
+      </c>
+      <c r="AD18">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AE18">
+        <v>21.323</v>
+      </c>
+      <c r="AF18">
+        <v>21.364000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>0.158</v>
+      </c>
+      <c r="AH18">
+        <v>18.832000000000001</v>
+      </c>
+      <c r="AI18">
+        <v>18.876999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3886</v>
+      </c>
+      <c r="E19">
+        <v>4275</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.442</v>
+      </c>
+      <c r="M19">
+        <v>0.502</v>
+      </c>
+      <c r="N19">
+        <v>0.189</v>
+      </c>
+      <c r="O19">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="P19">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="Q19">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="R19">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="T19" s="2">
+        <v>7846</v>
+      </c>
+      <c r="U19" s="2">
+        <v>8235</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W19">
+        <v>317505</v>
+      </c>
+      <c r="X19">
+        <v>632915</v>
+      </c>
+      <c r="Y19">
+        <v>315465</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AB19">
+        <v>173.815</v>
+      </c>
+      <c r="AC19">
+        <v>173.88900000000001</v>
+      </c>
+      <c r="AD19">
+        <v>0.188</v>
+      </c>
+      <c r="AE19">
+        <v>184.65</v>
+      </c>
+      <c r="AF19">
+        <v>184.70400000000001</v>
+      </c>
+      <c r="AG19">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AH19">
+        <v>178.72399999999999</v>
+      </c>
+      <c r="AI19">
+        <v>178.77799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3972</v>
+      </c>
+      <c r="E20">
+        <v>4371</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.183</v>
+      </c>
+      <c r="L20">
+        <v>0.379</v>
+      </c>
+      <c r="M20">
+        <v>0.432</v>
+      </c>
+      <c r="N20">
+        <v>0.192</v>
+      </c>
+      <c r="O20">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="P20">
+        <v>0.46</v>
+      </c>
+      <c r="Q20">
+        <v>0.249</v>
+      </c>
+      <c r="R20">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="S20">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="T20">
+        <v>7932</v>
+      </c>
+      <c r="U20">
+        <v>8331</v>
+      </c>
+      <c r="V20">
+        <v>1000</v>
+      </c>
+      <c r="W20">
+        <v>21892</v>
+      </c>
+      <c r="X20">
+        <v>41733</v>
+      </c>
+      <c r="Y20">
+        <v>19873</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0.184</v>
+      </c>
+      <c r="AB20">
+        <v>16.641999999999999</v>
+      </c>
+      <c r="AC20">
+        <v>16.693999999999999</v>
+      </c>
+      <c r="AD20">
+        <v>0.189</v>
+      </c>
+      <c r="AE20">
+        <v>15.548999999999999</v>
+      </c>
+      <c r="AF20">
+        <v>15.603999999999999</v>
+      </c>
+      <c r="AG20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AH20">
+        <v>15.433</v>
+      </c>
+      <c r="AI20">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>5414</v>
+      </c>
+      <c r="E21">
+        <v>5955</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="N21">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="P21">
+        <v>0.59</v>
+      </c>
+      <c r="Q21">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="R21">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S21">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="T21">
+        <v>9374</v>
+      </c>
+      <c r="U21">
+        <v>9915</v>
+      </c>
+      <c r="V21">
+        <v>1000</v>
+      </c>
+      <c r="W21">
+        <v>27032</v>
+      </c>
+      <c r="X21">
+        <v>51979</v>
+      </c>
+      <c r="Y21">
+        <v>24996</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AB21">
+        <v>27.274000000000001</v>
+      </c>
+      <c r="AC21">
+        <v>27.359000000000002</v>
+      </c>
+      <c r="AD21">
+        <v>0.151</v>
+      </c>
+      <c r="AE21">
+        <v>22.282</v>
+      </c>
+      <c r="AF21">
+        <v>22.327999999999999</v>
+      </c>
+      <c r="AG21">
+        <v>0.154</v>
+      </c>
+      <c r="AH21">
+        <v>26.937999999999999</v>
+      </c>
+      <c r="AI21">
+        <v>26.988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22">
+        <v>5241</v>
+      </c>
+      <c r="E22">
+        <v>5768</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>77</v>
+      </c>
+      <c r="I22">
+        <v>31</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="M22">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="N22">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P22">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Q22">
+        <v>0.2</v>
+      </c>
+      <c r="R22">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="T22">
+        <v>9201</v>
+      </c>
+      <c r="U22">
+        <v>9728</v>
+      </c>
+      <c r="V22">
+        <v>1000</v>
+      </c>
+      <c r="W22">
+        <v>35119</v>
+      </c>
+      <c r="X22">
+        <v>68129</v>
+      </c>
+      <c r="Y22">
+        <v>33068</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AB22">
+        <v>33.377000000000002</v>
+      </c>
+      <c r="AC22">
+        <v>33.466999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>0.218</v>
+      </c>
+      <c r="AE22">
+        <v>29.681000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>29.75</v>
+      </c>
+      <c r="AG22">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AH22">
+        <v>30.675000000000001</v>
+      </c>
+      <c r="AI22">
+        <v>30.736000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5291</v>
+      </c>
+      <c r="E23">
+        <v>5828</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>112</v>
+      </c>
+      <c r="H23">
+        <v>41</v>
+      </c>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="N23">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="P23">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="S23">
+        <v>0.623</v>
+      </c>
+      <c r="T23">
+        <v>9251</v>
+      </c>
+      <c r="U23">
+        <v>9788</v>
+      </c>
+      <c r="V23">
+        <v>1000</v>
+      </c>
+      <c r="W23">
+        <v>16366</v>
+      </c>
+      <c r="X23">
+        <v>30583</v>
+      </c>
+      <c r="Y23">
+        <v>14298</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="AB23">
+        <v>16.436</v>
+      </c>
+      <c r="AC23">
+        <v>16.523</v>
+      </c>
+      <c r="AD23">
+        <v>0.152</v>
+      </c>
+      <c r="AE23">
+        <v>11.814</v>
+      </c>
+      <c r="AF23">
+        <v>11.862</v>
+      </c>
+      <c r="AG23">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AH23">
+        <v>11.532</v>
+      </c>
+      <c r="AI23">
+        <v>11.584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <v>6561</v>
+      </c>
+      <c r="E24">
+        <v>7225</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>126</v>
+      </c>
+      <c r="H24">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="N24">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="P24">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="Q24">
+        <v>0.217</v>
+      </c>
+      <c r="R24">
+        <v>0.752</v>
+      </c>
+      <c r="S24">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="T24">
+        <v>10521</v>
+      </c>
+      <c r="U24">
+        <v>11185</v>
+      </c>
+      <c r="V24">
+        <v>1000</v>
+      </c>
+      <c r="W24">
+        <v>96488</v>
+      </c>
+      <c r="X24">
+        <v>190780</v>
+      </c>
+      <c r="Y24">
+        <v>94396</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AB24">
+        <v>91.256</v>
+      </c>
+      <c r="AC24">
+        <v>91.337000000000003</v>
+      </c>
+      <c r="AD24">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AE24">
+        <v>90.938000000000002</v>
+      </c>
+      <c r="AF24">
+        <v>91</v>
+      </c>
+      <c r="AG24">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AH24">
+        <v>87.545000000000002</v>
+      </c>
+      <c r="AI24">
+        <v>87.606999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25">
+        <v>6696</v>
+      </c>
+      <c r="E25">
+        <v>7372</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>120</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.627</v>
+      </c>
+      <c r="M25">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="N25">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="P25">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="Q25">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="S25">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="T25">
+        <v>10656</v>
+      </c>
+      <c r="U25">
+        <v>11332</v>
+      </c>
+      <c r="V25">
+        <v>1000</v>
+      </c>
+      <c r="W25">
+        <v>17890</v>
+      </c>
+      <c r="X25">
+        <v>33596</v>
+      </c>
+      <c r="Y25">
+        <v>15803</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0.159</v>
+      </c>
+      <c r="AB25">
+        <v>18.808</v>
+      </c>
+      <c r="AC25">
+        <v>18.856999999999999</v>
+      </c>
+      <c r="AD25">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>20.739000000000001</v>
+      </c>
+      <c r="AF25">
+        <v>20.81</v>
+      </c>
+      <c r="AG25">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AH25">
+        <v>20.817</v>
+      </c>
+      <c r="AI25">
+        <v>20.885000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>6475</v>
+      </c>
+      <c r="E26">
+        <v>7136</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>85</v>
+      </c>
+      <c r="H26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="M26">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="N26">
+        <v>0.218</v>
+      </c>
+      <c r="O26">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="P26">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Q26">
+        <v>0.255</v>
+      </c>
+      <c r="R26">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="S26">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="T26">
+        <v>10435</v>
+      </c>
+      <c r="U26">
+        <v>11096</v>
+      </c>
+      <c r="V26">
+        <v>1000</v>
+      </c>
+      <c r="W26">
+        <v>125257</v>
+      </c>
+      <c r="X26">
+        <v>248402</v>
+      </c>
+      <c r="Y26">
+        <v>123206</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0.21</v>
+      </c>
+      <c r="AB26">
+        <v>120.22499999999999</v>
+      </c>
+      <c r="AC26">
+        <v>120.286</v>
+      </c>
+      <c r="AD26">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AE26">
+        <v>94.983000000000004</v>
+      </c>
+      <c r="AF26">
+        <v>95.031999999999996</v>
+      </c>
+      <c r="AG26">
+        <v>0.161</v>
+      </c>
+      <c r="AH26">
+        <v>118.10599999999999</v>
+      </c>
+      <c r="AI26">
+        <v>118.157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>42</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>23</v>
+      </c>
+      <c r="R74" t="s">
+        <v>24</v>
+      </c>
+      <c r="S74" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s">
+        <v>39</v>
+      </c>
+      <c r="W74" t="s">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>32</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>40</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>41</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>42</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" t="s">
+        <v>20</v>
+      </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R95" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" t="s">
+        <v>25</v>
+      </c>
+      <c r="T95" t="s">
+        <v>37</v>
+      </c>
+      <c r="U95" t="s">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s">
+        <v>39</v>
+      </c>
+      <c r="W95" t="s">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>31</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>32</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>40</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>41</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AG94:AI94"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:Z94"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="AA73:AC73"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AG73:AI73"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="T52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Z31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AC10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="86">
   <si>
     <t>Run</t>
   </si>
@@ -291,7 +291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -362,72 +362,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -918,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="248623888"/>
-        <c:axId val="248622320"/>
+        <c:axId val="310206632"/>
+        <c:axId val="310259848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248623888"/>
+        <c:axId val="310206632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +962,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248622320"/>
+        <c:crossAx val="310259848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248622320"/>
+        <c:axId val="310259848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1021,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248623888"/>
+        <c:crossAx val="310206632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,11 +1567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="247358848"/>
-        <c:axId val="247360024"/>
+        <c:axId val="312050712"/>
+        <c:axId val="311439192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247358848"/>
+        <c:axId val="312050712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1614,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247360024"/>
+        <c:crossAx val="311439192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1625,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247360024"/>
+        <c:axId val="311439192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1673,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247358848"/>
+        <c:crossAx val="312050712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1965,6 +1962,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11439175202788675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14781688745976435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24908093144028493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26994033745986379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30074901114503988</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2092,67 +2104,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$21:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$G$21:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2162,11 +2113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="249265040"/>
-        <c:axId val="249265824"/>
+        <c:axId val="468572608"/>
+        <c:axId val="468578096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249265040"/>
+        <c:axId val="468572608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2160,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249265824"/>
+        <c:crossAx val="468578096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249265824"/>
+        <c:axId val="468578096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2219,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249265040"/>
+        <c:crossAx val="468572608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2557,6 +2508,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56580424271293084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.128869116490275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.410604615631556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.871834631856656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5724833041754245</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2684,67 +2650,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$G$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary!$A$30:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$G$30:$G$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2754,11 +2659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="248625064"/>
-        <c:axId val="247355320"/>
+        <c:axId val="387462000"/>
+        <c:axId val="387461216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248625064"/>
+        <c:axId val="387462000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2706,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247355320"/>
+        <c:crossAx val="387461216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2809,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247355320"/>
+        <c:axId val="387461216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2860,7 +2765,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248625064"/>
+        <c:crossAx val="387462000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5230,19 +5135,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>601133</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4234</xdr:rowOff>
+      <xdr:colOff>601132</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>296332</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5260,19 +5165,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4233</xdr:rowOff>
+      <xdr:colOff>448733</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5300,9 +5205,9 @@
     </tableColumn>
     <tableColumn id="2" name="Default" dataDxfId="17"/>
     <tableColumn id="3" name="Heuristic 1" dataDxfId="16"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="13"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="12"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="10"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="15"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="14"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5358,7 +5263,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -5536,38 +5441,37 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="18"/>
+    <tableColumn id="2" name="Default" dataDxfId="12"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="15"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="14"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="11"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="11"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="10"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table414" displayName="Table414" ref="A20:G25" totalsRowShown="0">
-  <autoFilter ref="A20:G25"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table414" displayName="Table414" ref="A20:F25" totalsRowShown="0">
+  <autoFilter ref="A20:F25"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="9"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="8"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="7"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="6"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="5"/>
+    <tableColumn id="2" name="Default" dataDxfId="8"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="7"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="6"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table41415" displayName="Table41415" ref="A29:G34" totalsRowShown="0">
-  <autoFilter ref="A29:G34"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table41415" displayName="Table41415" ref="A29:F34" totalsRowShown="0">
+  <autoFilter ref="A29:F34"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</calculatedColumnFormula>
@@ -5576,7 +5480,6 @@
     <tableColumn id="3" name="Heuristic 1" dataDxfId="3"/>
     <tableColumn id="4" name="Heuristic 2" dataDxfId="2"/>
     <tableColumn id="5" name="Heuristic 3" dataDxfId="1"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6067,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6109,23 +6012,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <f>HARMEAN('40 - Models'!L12:L14,'40 - Models'!O12:O14,'40 - Models'!R12:R14)</f>
         <v>9.1187269729718287E-2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>HARMEAN('40 - Models'!L33:L35,'40 - Models'!O33:O35,'40 - Models'!R33:R35)</f>
         <v>6.5905807503954361E-2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>HARMEAN('40 - Models'!L54:L56,'40 - Models'!O54:O56,'40 - Models'!R54:R56)</f>
         <v>7.837459345418106E-2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>HARMEAN('40 - Models'!L75:L77,'40 - Models'!O75:O77,'40 - Models'!R75:R77)</f>
         <v>6.5412518447039589E-2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>HARMEAN('40 - Models'!L96:L98,'40 - Models'!O96:O98,'40 - Models'!R96:R98)</f>
         <v>6.6179246981599299E-2</v>
       </c>
@@ -6138,23 +6041,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f>HARMEAN('40 - Models'!L15:L17,'40 - Models'!O15:O17,'40 - Models'!R15:R17)</f>
         <v>0.11180847459261625</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f>HARMEAN('40 - Models'!L36:L38,'40 - Models'!O36:O38,'40 - Models'!R36:R38)</f>
         <v>8.5653949321746303E-2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>HARMEAN('40 - Models'!L57:L59,'40 - Models'!O57:O59,'40 - Models'!R57:R59)</f>
         <v>7.973155770843153E-2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>HARMEAN('40 - Models'!L78:L80,'40 - Models'!O78:O80,'40 - Models'!R78:R80)</f>
         <v>7.472896132803894E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>HARMEAN('40 - Models'!L99:L101,'40 - Models'!O99:O101,'40 - Models'!R99:R101)</f>
         <v>9.5173665888558606E-2</v>
       </c>
@@ -6167,23 +6070,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>18</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>HARMEAN('40 - Models'!L18:L20,'40 - Models'!O18:O20,'40 - Models'!R18:R20)</f>
         <v>0.17014395193802512</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>HARMEAN('40 - Models'!L39:L41,'40 - Models'!O39:O41,'40 - Models'!R39:R41)</f>
         <v>0.10691845154486945</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>HARMEAN('40 - Models'!L60:L62,'40 - Models'!O60:O62,'40 - Models'!R60:R62)</f>
         <v>0.11130381037109011</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>HARMEAN('40 - Models'!L81:L83,'40 - Models'!O81:O83,'40 - Models'!R81:R83)</f>
         <v>0.10156336722046637</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>HARMEAN('40 - Models'!L102:L104,'40 - Models'!O102:O104,'40 - Models'!R102:R104)</f>
         <v>0.11448383890884309</v>
       </c>
@@ -6196,23 +6099,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>24</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>HARMEAN('40 - Models'!L21:L23,'40 - Models'!O21:O23,'40 - Models'!R21:R23)</f>
         <v>0.19116987590893744</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>HARMEAN('40 - Models'!L42:L44,'40 - Models'!O42:O44,'40 - Models'!R42:R44)</f>
         <v>0.14034154529106099</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f>HARMEAN('40 - Models'!L63:L65,'40 - Models'!O63:O65,'40 - Models'!R63:R65)</f>
         <v>0.12629952919295748</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f>HARMEAN('40 - Models'!L84:L86,'40 - Models'!O84:O86,'40 - Models'!R84:R86)</f>
         <v>0.12323666324336834</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f>HARMEAN('40 - Models'!L105:L107,'40 - Models'!O105:O107,'40 - Models'!R105:R107)</f>
         <v>0.1695255987848355</v>
       </c>
@@ -6225,23 +6128,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</f>
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>HARMEAN('40 - Models'!L24:L26,'40 - Models'!O24:O26,'40 - Models'!R24:R26)</f>
         <v>0.23112729160001227</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>HARMEAN('40 - Models'!L45:L47,'40 - Models'!O45:O47,'40 - Models'!R45:R47)</f>
         <v>0.22708745996596125</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>HARMEAN('40 - Models'!L66:L68,'40 - Models'!O66:O68,'40 - Models'!R66:R68)</f>
         <v>0.14112515449175733</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>HARMEAN('40 - Models'!L87:L89,'40 - Models'!O87:O89,'40 - Models'!R87:R89)</f>
         <v>0.15417903466059946</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f>HARMEAN('40 - Models'!L108:L110,'40 - Models'!O108:O110,'40 - Models'!R108:R110)</f>
         <v>0.18908759871486996</v>
       </c>
@@ -6277,23 +6180,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f>HARMEAN('40 - Models'!AB12:AB14,'40 - Models'!AE12:AE14,'40 - Models'!AH12:AH14)</f>
         <v>0.30144674955333528</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f>HARMEAN('40 - Models'!AB33:AB35,'40 - Models'!AE33:AE35,'40 - Models'!AH33:AH35)</f>
         <v>0.26271717043663456</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f>HARMEAN('40 - Models'!AB54:AB56,'40 - Models'!AE54:AE56,'40 - Models'!AH54:AH56)</f>
         <v>0.3103117867143107</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f>HARMEAN('40 - Models'!AB75:AB77,'40 - Models'!AE75:AE77,'40 - Models'!AH75:AH77)</f>
         <v>0.28661775870741463</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f>HARMEAN('40 - Models'!AB96:AB98,'40 - Models'!AE96:AE98,'40 - Models'!AH96:AH98)</f>
         <v>0.31720926936384841</v>
       </c>
@@ -6306,23 +6209,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
         <v>12</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>HARMEAN('40 - Models'!AB15:AB17,'40 - Models'!AE15:AE17,'40 - Models'!AH15:AH17)</f>
         <v>0.70487610846063131</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>HARMEAN('40 - Models'!AB36:AB38,'40 - Models'!AE36:AE38,'40 - Models'!AH36:AH38)</f>
         <v>0.9855389183779858</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>HARMEAN('40 - Models'!AB57:AB59,'40 - Models'!AE57:AE59,'40 - Models'!AH57:AH59)</f>
         <v>0.7290030969009762</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>HARMEAN('40 - Models'!AB78:AB80,'40 - Models'!AE78:AE80,'40 - Models'!AH78:AH80)</f>
         <v>0.69737861410103907</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f>HARMEAN('40 - Models'!AB99:AB101,'40 - Models'!AE99:AE101,'40 - Models'!AH99:AH101)</f>
         <v>0.91456162496331495</v>
       </c>
@@ -6335,23 +6238,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
         <v>18</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f>HARMEAN('40 - Models'!AB18:AB20,'40 - Models'!AE18:AE20,'40 - Models'!AH18:AH20)</f>
         <v>7.1782102891205311</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f>HARMEAN('40 - Models'!AB39:AB41,'40 - Models'!AE39:AE41,'40 - Models'!AH39:AH41)</f>
         <v>7.3579809941861845</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>HARMEAN('40 - Models'!AB60:AB62,'40 - Models'!AE60:AE62,'40 - Models'!AH60:AH62)</f>
         <v>5.7141563995510145</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f>HARMEAN('40 - Models'!AB81:AB83,'40 - Models'!AE81:AE83,'40 - Models'!AH81:AH83)</f>
         <v>4.9914634565127107</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f>HARMEAN('40 - Models'!AB102:AB104,'40 - Models'!AE102:AE104,'40 - Models'!AH102:AH104)</f>
         <v>4.3989062384179087</v>
       </c>
@@ -6364,23 +6267,23 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
         <v>24</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f>HARMEAN('40 - Models'!AB21:AB23,'40 - Models'!AE21:AE23,'40 - Models'!AH21:AH23)</f>
         <v>30.133753885968989</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f>HARMEAN('40 - Models'!AB42:AB44,'40 - Models'!AE42:AE44,'40 - Models'!AH42:AH44)</f>
         <v>31.92406529142966</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f>HARMEAN('40 - Models'!AB63:AB65,'40 - Models'!AE63:AE65,'40 - Models'!AH63:AH65)</f>
         <v>36.188664846837895</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f>HARMEAN('40 - Models'!AB84:AB86,'40 - Models'!AE84:AE86,'40 - Models'!AH84:AH86)</f>
         <v>31.766448089786131</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f>HARMEAN('40 - Models'!AB105:AB107,'40 - Models'!AE105:AE107,'40 - Models'!AH105:AH107)</f>
         <v>35.275599422759733</v>
       </c>
@@ -6393,28 +6296,28 @@
         <f>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</f>
         <v>30</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f>HARMEAN('40 - Models'!AB24:AB26,'40 - Models'!AE24:AE26,'40 - Models'!AH24:AH26)</f>
         <v>9.3311456376174444</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f>HARMEAN('40 - Models'!AB45:AB47,'40 - Models'!AE45:AE47,'40 - Models'!AH45:AH47)</f>
         <v>13.845771604971324</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f>HARMEAN('40 - Models'!AB66:AB68,'40 - Models'!AE66:AE68,'40 - Models'!AH66:AH68)</f>
         <v>30.470053843172394</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f>HARMEAN('40 - Models'!AB87:AB89,'40 - Models'!AE87:AE89,'40 - Models'!AH87:AH89)</f>
         <v>33.888986502272239</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f>HARMEAN('40 - Models'!AB108:AB110,'40 - Models'!AE108:AE110,'40 - Models'!AH108:AH110)</f>
         <v>9.9094177195687347</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -6433,11 +6336,8 @@
       <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6445,16 +6345,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
         <v>12</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <f>HARMEAN('80 - Models'!L12:L14,'80 - Models'!O12:O14,'80 - Models'!R12:R14)</f>
         <v>0.12522936270672017</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="7">
+        <f>HARMEAN('80 - Models'!L33:L35,'80 - Models'!O33:O35,'80 - Models'!R33:R35)</f>
+        <v>0.11439175202788675</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -6462,16 +6364,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
         <v>24</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f>HARMEAN('80 - Models'!L15:L17,'80 - Models'!O15:O17,'80 - Models'!R15:R17)</f>
         <v>0.22079819666039632</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="7">
+        <f>HARMEAN('80 - Models'!L36:L38,'80 - Models'!O36:O38,'80 - Models'!R36:R38)</f>
+        <v>0.14781688745976435</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6479,16 +6383,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f>HARMEAN('80 - Models'!L18:L20,'80 - Models'!O18:O20,'80 - Models'!R18:R20)</f>
         <v>0.37773472606510916</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="7">
+        <f>HARMEAN('80 - Models'!L39:L41,'80 - Models'!O39:O41,'80 - Models'!R39:R41)</f>
+        <v>0.24908093144028493</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -6496,16 +6402,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
         <v>48</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>HARMEAN('80 - Models'!L21:L23,'80 - Models'!O21:O23,'80 - Models'!R21:R23)</f>
         <v>0.5730018492119725</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="7">
+        <f>HARMEAN('80 - Models'!L42:L44,'80 - Models'!O42:O44,'80 - Models'!R42:R44)</f>
+        <v>0.26994033745986379</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6513,16 +6421,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</f>
         <v>60</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f>HARMEAN('80 - Models'!L24:L26,'80 - Models'!O24:O26,'80 - Models'!R24:R26)</f>
         <v>0.68858636014817731</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="7">
+        <f>HARMEAN('80 - Models'!L45:L47,'80 - Models'!O45:O47,'80 - Models'!R45:R47)</f>
+        <v>0.30074901114503988</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -6541,11 +6451,8 @@
       <c r="F29" t="s">
         <v>61</v>
       </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6553,16 +6460,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
         <v>12</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <f>HARMEAN('80 - Models'!AB12:AB14,'80 - Models'!AE12:AE14,'80 - Models'!AH12:AH14)</f>
         <v>0.42042899495736996</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="7">
+        <f>HARMEAN('80 - Models'!AB33:AB35,'80 - Models'!AE33:AE35,'80 - Models'!AH33:AH35)</f>
+        <v>0.56580424271293084</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6570,16 +6479,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
         <v>24</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <f>HARMEAN('80 - Models'!AB15:AB17,'80 - Models'!AE15:AE17,'80 - Models'!AH15:AH17)</f>
         <v>9.1304432066740002</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="7">
+        <f>HARMEAN('80 - Models'!AB36:AB38,'80 - Models'!AE36:AE38,'80 - Models'!AH36:AH38)</f>
+        <v>20.128869116490275</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6587,16 +6498,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
         <v>36</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <f>HARMEAN('80 - Models'!AB18:AB20,'80 - Models'!AE18:AE20,'80 - Models'!AH18:AH20)</f>
         <v>25.844199160281665</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="7">
+        <f>HARMEAN('80 - Models'!AB39:AB41,'80 - Models'!AE39:AE41,'80 - Models'!AH39:AH41)</f>
+        <v>37.410604615631556</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6604,16 +6517,18 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
         <v>48</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <f>HARMEAN('80 - Models'!AB21:AB23,'80 - Models'!AE21:AE23,'80 - Models'!AH21:AH23)</f>
         <v>20.128765769100387</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="7">
+        <f>HARMEAN('80 - Models'!AB42:AB44,'80 - Models'!AE42:AE44,'80 - Models'!AH42:AH44)</f>
+        <v>13.871834631856656</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6621,14 +6536,16 @@
         <f>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</f>
         <v>60</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <f>HARMEAN('80 - Models'!AB24:AB26,'80 - Models'!AE24:AE26,'80 - Models'!AH24:AH26)</f>
         <v>42.83365578908839</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="D34" s="7">
+        <f>HARMEAN('80 - Models'!AB45:AB47,'80 - Models'!AE45:AE47,'80 - Models'!AH45:AH47)</f>
+        <v>8.5724833041754245</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6743,54 +6660,54 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7" t="s">
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7" t="s">
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7" t="s">
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7" t="s">
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8513,54 +8430,54 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7" t="s">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7" t="s">
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7" t="s">
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7" t="s">
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7" t="s">
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -10283,54 +10200,54 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7" t="s">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7" t="s">
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7" t="s">
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7" t="s">
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7" t="s">
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7" t="s">
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7" t="s">
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -12053,54 +11970,54 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7" t="s">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7" t="s">
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7" t="s">
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7" t="s">
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7" t="s">
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7" t="s">
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7" t="s">
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="7"/>
-      <c r="AI73" s="7"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -13823,54 +13740,54 @@
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7" t="s">
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7" t="s">
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7" t="s">
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7" t="s">
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7" t="s">
+      <c r="AB94" s="8"/>
+      <c r="AC94" s="8"/>
+      <c r="AD94" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
-      <c r="AG94" s="7" t="s">
+      <c r="AE94" s="8"/>
+      <c r="AF94" s="8"/>
+      <c r="AG94" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH94" s="7"/>
-      <c r="AI94" s="7"/>
+      <c r="AH94" s="8"/>
+      <c r="AI94" s="8"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -15586,14 +15503,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AA94:AC94"/>
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AG94:AI94"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="T94:Z94"/>
+    <mergeCell ref="AA73:AC73"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AG73:AI73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Z31"/>
     <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="AG10:AI10"/>
     <mergeCell ref="T10:Z10"/>
@@ -15610,22 +15535,14 @@
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:Z31"/>
-    <mergeCell ref="AA73:AC73"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AG73:AI73"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AG94:AI94"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:Z94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -15643,8 +15560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI110"/>
   <sheetViews>
-    <sheetView topLeftCell="Z7" workbookViewId="0">
-      <selection activeCell="AJ27" sqref="AJ27"/>
+    <sheetView topLeftCell="Z25" workbookViewId="0">
+      <selection activeCell="AJ48" sqref="AJ48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15706,54 +15623,54 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7" t="s">
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7" t="s">
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7" t="s">
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7" t="s">
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -17476,54 +17393,54 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7" t="s">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7" t="s">
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7" t="s">
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7" t="s">
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7" t="s">
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -17632,140 +17549,1610 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>1298</v>
+      </c>
+      <c r="E33">
+        <v>1420</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>46</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.161</v>
+      </c>
+      <c r="L33">
+        <v>0.125</v>
+      </c>
+      <c r="M33">
+        <v>0.18</v>
+      </c>
+      <c r="N33">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="P33">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S33">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="T33">
+        <v>5258</v>
+      </c>
+      <c r="U33">
+        <v>5380</v>
+      </c>
+      <c r="V33">
+        <v>1000</v>
+      </c>
+      <c r="W33">
+        <v>23532</v>
+      </c>
+      <c r="X33">
+        <v>45027</v>
+      </c>
+      <c r="Y33">
+        <v>21518</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>11.699</v>
+      </c>
+      <c r="AC33">
+        <v>11.75</v>
+      </c>
+      <c r="AD33">
+        <v>0.161</v>
+      </c>
+      <c r="AE33">
+        <v>10.167</v>
+      </c>
+      <c r="AF33">
+        <v>10.214</v>
+      </c>
+      <c r="AG33">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AH33">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AI33">
+        <v>9.9969999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>1401</v>
+      </c>
+      <c r="E34">
+        <v>1534</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>44</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="L34">
+        <v>0.11</v>
+      </c>
+      <c r="M34">
+        <v>0.154</v>
+      </c>
+      <c r="N34">
+        <v>0.154</v>
+      </c>
+      <c r="O34">
+        <v>0.09</v>
+      </c>
+      <c r="P34">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="R34">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S34">
+        <v>0.128</v>
+      </c>
+      <c r="T34" s="2">
+        <v>5361</v>
+      </c>
+      <c r="U34" s="2">
+        <v>5494</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W34">
+        <v>57160</v>
+      </c>
+      <c r="X34">
+        <v>112286</v>
+      </c>
+      <c r="Y34">
+        <v>55151</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AB34">
+        <v>19.152999999999999</v>
+      </c>
+      <c r="AC34">
+        <v>19.207999999999998</v>
+      </c>
+      <c r="AD34">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AE34">
+        <v>18.62</v>
+      </c>
+      <c r="AF34">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="AG34">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AH34">
+        <v>19.187999999999999</v>
+      </c>
+      <c r="AI34">
+        <v>19.228999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>1324</v>
+      </c>
+      <c r="E35">
+        <v>1449</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>58</v>
+      </c>
+      <c r="H35">
+        <v>81</v>
+      </c>
+      <c r="I35">
+        <v>35</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="L35">
+        <v>0.125</v>
+      </c>
+      <c r="M35">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N35">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.111</v>
+      </c>
+      <c r="P35">
+        <v>0.155</v>
+      </c>
+      <c r="Q35">
+        <v>0.151</v>
+      </c>
+      <c r="R35">
+        <v>0.123</v>
+      </c>
+      <c r="S35">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="T35">
+        <v>1380</v>
+      </c>
+      <c r="U35">
+        <v>1505</v>
+      </c>
+      <c r="V35">
+        <v>24</v>
+      </c>
+      <c r="W35">
+        <v>219</v>
+      </c>
+      <c r="X35">
+        <v>391</v>
+      </c>
+      <c r="Y35">
+        <v>172</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0.154</v>
+      </c>
+      <c r="AB35">
+        <v>0.193</v>
+      </c>
+      <c r="AC35">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AD35">
+        <v>0.15</v>
+      </c>
+      <c r="AE35">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AF35">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AG35">
+        <v>0.159</v>
+      </c>
+      <c r="AH35">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AI35">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>2712</v>
+      </c>
+      <c r="E36">
+        <v>2986</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>59</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.154</v>
+      </c>
+      <c r="L36">
+        <v>0.13</v>
+      </c>
+      <c r="M36">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="N36">
+        <v>0.186</v>
+      </c>
+      <c r="O36">
+        <v>0.17</v>
+      </c>
+      <c r="P36">
+        <v>0.221</v>
+      </c>
+      <c r="Q36">
+        <v>0.193</v>
+      </c>
+      <c r="R36">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S36">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="T36">
+        <v>6672</v>
+      </c>
+      <c r="U36">
+        <v>6946</v>
+      </c>
+      <c r="V36">
+        <v>1000</v>
+      </c>
+      <c r="W36">
+        <v>34535</v>
+      </c>
+      <c r="X36">
+        <v>67002</v>
+      </c>
+      <c r="Y36">
+        <v>32506</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0.16</v>
+      </c>
+      <c r="AB36">
+        <v>15.256</v>
+      </c>
+      <c r="AC36">
+        <v>15.305999999999999</v>
+      </c>
+      <c r="AD36">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AE36">
+        <v>14.387</v>
+      </c>
+      <c r="AF36">
+        <v>14.441000000000001</v>
+      </c>
+      <c r="AG36">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AH36">
+        <v>13.555</v>
+      </c>
+      <c r="AI36">
+        <v>13.606999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>2658</v>
+      </c>
+      <c r="E37">
+        <v>2921</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>71</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.16</v>
+      </c>
+      <c r="L37">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="M37">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.126</v>
+      </c>
+      <c r="P37">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="Q37">
+        <v>0.152</v>
+      </c>
+      <c r="R37">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="S37">
+        <v>0.185</v>
+      </c>
+      <c r="T37" s="2">
+        <v>6618</v>
+      </c>
+      <c r="U37" s="2">
+        <v>6881</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W37">
+        <v>24321</v>
+      </c>
+      <c r="X37">
+        <v>46544</v>
+      </c>
+      <c r="Y37">
+        <v>22276</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0.161</v>
+      </c>
+      <c r="AB37">
+        <v>12.82</v>
+      </c>
+      <c r="AC37">
+        <v>12.872</v>
+      </c>
+      <c r="AD37">
+        <v>0.16</v>
+      </c>
+      <c r="AE37">
+        <v>14.275</v>
+      </c>
+      <c r="AF37">
+        <v>14.329000000000001</v>
+      </c>
+      <c r="AG37">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AH37">
+        <v>13.141999999999999</v>
+      </c>
+      <c r="AI37">
+        <v>13.202999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>2616</v>
+      </c>
+      <c r="E38">
+        <v>2878</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>62</v>
+      </c>
+      <c r="H38">
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.154</v>
+      </c>
+      <c r="L38">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0.189</v>
+      </c>
+      <c r="N38">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="P38">
+        <v>0.185</v>
+      </c>
+      <c r="Q38">
+        <v>0.157</v>
+      </c>
+      <c r="R38">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S38">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="T38">
+        <v>6576</v>
+      </c>
+      <c r="U38">
+        <v>6838</v>
+      </c>
+      <c r="V38">
+        <v>1000</v>
+      </c>
+      <c r="W38">
+        <v>699070</v>
+      </c>
+      <c r="X38">
+        <v>1396067</v>
+      </c>
+      <c r="Y38">
+        <v>697041</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AB38">
+        <v>193.613</v>
+      </c>
+      <c r="AC38">
+        <v>193.66499999999999</v>
+      </c>
+      <c r="AD38">
+        <v>0.21</v>
+      </c>
+      <c r="AE38">
+        <v>216.87700000000001</v>
+      </c>
+      <c r="AF38">
+        <v>216.94399999999999</v>
+      </c>
+      <c r="AG38">
+        <v>0.221</v>
+      </c>
+      <c r="AH38">
+        <v>228.99600000000001</v>
+      </c>
+      <c r="AI38">
+        <v>229.059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>3994</v>
+      </c>
+      <c r="E39">
+        <v>4393</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="L39">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.317</v>
+      </c>
+      <c r="N39">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O39">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="P39">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="Q39">
+        <v>0.315</v>
+      </c>
+      <c r="R39">
+        <v>0.318</v>
+      </c>
+      <c r="S39">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="T39">
+        <v>7954</v>
+      </c>
+      <c r="U39">
+        <v>8353</v>
+      </c>
+      <c r="V39">
+        <v>1000</v>
+      </c>
+      <c r="W39">
+        <v>52304</v>
+      </c>
+      <c r="X39">
+        <v>102504</v>
+      </c>
+      <c r="Y39">
+        <v>50259</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AB39">
+        <v>45.445999999999998</v>
+      </c>
+      <c r="AC39">
+        <v>45.539000000000001</v>
+      </c>
+      <c r="AD39">
+        <v>0.308</v>
+      </c>
+      <c r="AE39">
+        <v>45.85</v>
+      </c>
+      <c r="AF39">
+        <v>45.945</v>
+      </c>
+      <c r="AG39">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AH39">
+        <v>50.021000000000001</v>
+      </c>
+      <c r="AI39">
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>21</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>3886</v>
+      </c>
+      <c r="E40">
+        <v>4275</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>65</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.222</v>
+      </c>
+      <c r="M40">
+        <v>0.3</v>
+      </c>
+      <c r="N40">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="O40">
+        <v>0.245</v>
+      </c>
+      <c r="P40">
+        <v>0.33</v>
+      </c>
+      <c r="Q40">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="R40">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="S40">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="T40">
+        <v>7846</v>
+      </c>
+      <c r="U40">
+        <v>8235</v>
+      </c>
+      <c r="V40">
+        <v>1000</v>
+      </c>
+      <c r="W40">
+        <v>641535</v>
+      </c>
+      <c r="X40">
+        <v>1280987</v>
+      </c>
+      <c r="Y40">
+        <v>639498</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AB40">
+        <v>287.80599999999998</v>
+      </c>
+      <c r="AC40">
+        <v>287.88200000000001</v>
+      </c>
+      <c r="AD40">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>300.07100000000003</v>
+      </c>
+      <c r="AF40">
+        <v>300.14</v>
+      </c>
+      <c r="AG40">
+        <v>0.254</v>
+      </c>
+      <c r="AH40">
+        <v>304.97899999999998</v>
+      </c>
+      <c r="AI40">
+        <v>305.06599999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>3972</v>
+      </c>
+      <c r="E41">
+        <v>4371</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>48</v>
+      </c>
+      <c r="H41">
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.219</v>
+      </c>
+      <c r="L41">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N41">
+        <v>0.254</v>
+      </c>
+      <c r="O41">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="P41">
+        <v>0.315</v>
+      </c>
+      <c r="Q41">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="R41">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="S41">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="T41">
+        <v>7932</v>
+      </c>
+      <c r="U41">
+        <v>8331</v>
+      </c>
+      <c r="V41">
+        <v>1000</v>
+      </c>
+      <c r="W41">
+        <v>24297</v>
+      </c>
+      <c r="X41">
+        <v>46549</v>
+      </c>
+      <c r="Y41">
+        <v>22282</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AB41">
+        <v>15.8</v>
+      </c>
+      <c r="AC41">
+        <v>15.87</v>
+      </c>
+      <c r="AD41">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AE41">
+        <v>19.134</v>
+      </c>
+      <c r="AF41">
+        <v>19.228999999999999</v>
+      </c>
+      <c r="AG41">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AH41">
+        <v>19.559000000000001</v>
+      </c>
+      <c r="AI41">
+        <v>19.643000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>30</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>5414</v>
+      </c>
+      <c r="E42">
+        <v>5955</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>72</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="M42">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="N42">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="P42">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Q42">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="S42">
+        <v>0.36</v>
+      </c>
+      <c r="T42">
+        <v>9374</v>
+      </c>
+      <c r="U42">
+        <v>9915</v>
+      </c>
+      <c r="V42">
+        <v>1000</v>
+      </c>
+      <c r="W42">
+        <v>13922</v>
+      </c>
+      <c r="X42">
+        <v>25752</v>
+      </c>
+      <c r="Y42">
+        <v>11884</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AB42">
+        <v>12.994</v>
+      </c>
+      <c r="AC42">
+        <v>13.071</v>
+      </c>
+      <c r="AD42">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AE42">
+        <v>13.489000000000001</v>
+      </c>
+      <c r="AF42">
+        <v>13.568</v>
+      </c>
+      <c r="AG42">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AH42">
+        <v>13.494</v>
+      </c>
+      <c r="AI42">
+        <v>13.573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>31</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <v>5241</v>
+      </c>
+      <c r="E43">
+        <v>5768</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>105</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.22</v>
+      </c>
+      <c r="L43">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="M43">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="N43">
+        <v>0.247</v>
+      </c>
+      <c r="O43">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="P43">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Q43">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="R43">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="S43">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="T43">
+        <v>9201</v>
+      </c>
+      <c r="U43">
+        <v>9728</v>
+      </c>
+      <c r="V43">
+        <v>1000</v>
+      </c>
+      <c r="W43">
+        <v>130900</v>
+      </c>
+      <c r="X43">
+        <v>259643</v>
+      </c>
+      <c r="Y43">
+        <v>128826</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AB43">
+        <v>73.477000000000004</v>
+      </c>
+      <c r="AC43">
+        <v>73.558999999999997</v>
+      </c>
+      <c r="AD43">
+        <v>0.3</v>
+      </c>
+      <c r="AE43">
+        <v>80.768000000000001</v>
+      </c>
+      <c r="AF43">
+        <v>80.858000000000004</v>
+      </c>
+      <c r="AG43">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AH43">
+        <v>68.007999999999996</v>
+      </c>
+      <c r="AI43">
+        <v>68.093999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>32</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>5291</v>
+      </c>
+      <c r="E44">
+        <v>5828</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>112</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="M44">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N44">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="P44">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>0.255</v>
+      </c>
+      <c r="R44">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="S44">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="T44">
+        <v>9251</v>
+      </c>
+      <c r="U44">
+        <v>9788</v>
+      </c>
+      <c r="V44">
+        <v>1000</v>
+      </c>
+      <c r="W44">
+        <v>7518</v>
+      </c>
+      <c r="X44">
+        <v>12866</v>
+      </c>
+      <c r="Y44">
+        <v>5439</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AB44">
+        <v>8.3780000000000001</v>
+      </c>
+      <c r="AC44">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="AD44">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AE44">
+        <v>7.5679999999999996</v>
+      </c>
+      <c r="AF44">
+        <v>7.6520000000000001</v>
+      </c>
+      <c r="AG44">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AH44">
+        <v>7.61</v>
+      </c>
+      <c r="AI44">
+        <v>7.6920000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45">
+        <v>6561</v>
+      </c>
+      <c r="E45">
+        <v>7225</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>127</v>
+      </c>
+      <c r="H45">
+        <v>18</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="M45">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="N45">
+        <v>0.252</v>
+      </c>
+      <c r="O45">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="P45">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="Q45">
+        <v>0.33</v>
+      </c>
+      <c r="R45">
+        <v>0.39</v>
+      </c>
+      <c r="S45">
+        <v>0.49</v>
+      </c>
+      <c r="T45">
+        <v>10521</v>
+      </c>
+      <c r="U45">
+        <v>11185</v>
+      </c>
+      <c r="V45">
+        <v>1000</v>
+      </c>
+      <c r="W45">
+        <v>6073</v>
+      </c>
+      <c r="X45">
+        <v>9936</v>
+      </c>
+      <c r="Y45">
+        <v>3974</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AB45">
+        <v>8.1240000000000006</v>
+      </c>
+      <c r="AC45">
+        <v>8.2089999999999996</v>
+      </c>
+      <c r="AD45">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AE45">
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="AF45">
+        <v>6.9640000000000004</v>
+      </c>
+      <c r="AG45">
+        <v>0.252</v>
+      </c>
+      <c r="AH45">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="AI45">
+        <v>6.766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46">
+        <v>6696</v>
+      </c>
+      <c r="E46">
+        <v>7372</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>132</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.253</v>
+      </c>
+      <c r="L46">
+        <v>0.35</v>
+      </c>
+      <c r="M46">
+        <v>0.433</v>
+      </c>
+      <c r="N46">
+        <v>0.246</v>
+      </c>
+      <c r="O46">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P46">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="Q46">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R46">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="S46">
+        <v>0.505</v>
+      </c>
+      <c r="T46">
+        <v>10656</v>
+      </c>
+      <c r="U46">
+        <v>11332</v>
+      </c>
+      <c r="V46">
+        <v>1000</v>
+      </c>
+      <c r="W46">
+        <v>76071</v>
+      </c>
+      <c r="X46">
+        <v>149919</v>
+      </c>
+      <c r="Y46">
+        <v>73964</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AB46">
+        <v>70.915000000000006</v>
+      </c>
+      <c r="AC46">
+        <v>70.995000000000005</v>
+      </c>
+      <c r="AD46">
+        <v>0.251</v>
+      </c>
+      <c r="AE46">
+        <v>71.352000000000004</v>
+      </c>
+      <c r="AF46">
+        <v>71.433000000000007</v>
+      </c>
+      <c r="AG46">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AH46">
+        <v>60.25</v>
+      </c>
+      <c r="AI46">
+        <v>60.331000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
+      <c r="C47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47">
+        <v>6475</v>
+      </c>
+      <c r="E47">
+        <v>7136</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>88</v>
+      </c>
+      <c r="H47">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="N47">
+        <v>0.182</v>
+      </c>
+      <c r="O47">
+        <v>0.249</v>
+      </c>
+      <c r="P47">
+        <v>0.308</v>
+      </c>
+      <c r="Q47">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="R47">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="S47">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="T47" s="2">
+        <v>10435</v>
+      </c>
+      <c r="U47" s="2">
+        <v>11096</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W47">
+        <v>4961</v>
+      </c>
+      <c r="X47">
+        <v>7797</v>
+      </c>
+      <c r="Y47">
+        <v>2907</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AB47">
+        <v>5.0730000000000004</v>
+      </c>
+      <c r="AC47">
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="AD47">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AE47">
+        <v>5.1180000000000003</v>
+      </c>
+      <c r="AF47">
+        <v>5.1779999999999999</v>
+      </c>
+      <c r="AG47">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AH47">
+        <v>5.1420000000000003</v>
+      </c>
+      <c r="AI47">
+        <v>5.2030000000000003</v>
+      </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -17776,54 +19163,54 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7" t="s">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7" t="s">
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7" t="s">
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7" t="s">
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7" t="s">
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7" t="s">
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7" t="s">
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -18095,54 +19482,54 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7" t="s">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7" t="s">
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7" t="s">
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7" t="s">
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7" t="s">
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7" t="s">
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7" t="s">
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="7"/>
-      <c r="AI73" s="7"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -18420,54 +19807,54 @@
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7" t="s">
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7" t="s">
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7" t="s">
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7" t="s">
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7" t="s">
+      <c r="AB94" s="8"/>
+      <c r="AC94" s="8"/>
+      <c r="AD94" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
-      <c r="AG94" s="7" t="s">
+      <c r="AE94" s="8"/>
+      <c r="AF94" s="8"/>
+      <c r="AG94" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AH94" s="7"/>
-      <c r="AI94" s="7"/>
+      <c r="AH94" s="8"/>
+      <c r="AI94" s="8"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -18749,14 +20136,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AG94:AI94"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="T94:Z94"/>
-    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Z31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AC10"/>
     <mergeCell ref="AD52:AF52"/>
     <mergeCell ref="AG52:AI52"/>
     <mergeCell ref="D73:J73"/>
@@ -18773,22 +20168,14 @@
     <mergeCell ref="Q52:S52"/>
     <mergeCell ref="T52:Z52"/>
     <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:Z31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AG94:AI94"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:Z94"/>
+    <mergeCell ref="AA94:AC94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="86">
   <si>
     <t>Run</t>
   </si>
@@ -371,7 +371,10 @@
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2038,6 +2041,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4403439720453305E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12747786209302864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16365266899139061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20252825777913985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23397925761994948</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2584,6 +2602,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30892749190503238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.89973204291565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.235223571130939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8942436050518818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.756228717733677</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5203,11 +5236,11 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="17"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="16"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="15"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="14"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="13"/>
+    <tableColumn id="2" name="Default" dataDxfId="18"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="17"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="16"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="15"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5263,7 +5296,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -5307,7 +5340,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -5441,11 +5474,11 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="12"/>
+    <tableColumn id="2" name="Default" dataDxfId="13"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="11"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="10"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="9"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="12"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="11"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5459,10 +5492,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="8"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="7"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="6"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="5"/>
+    <tableColumn id="2" name="Default" dataDxfId="9"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="8"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="7"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5476,10 +5509,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="4"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="3"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="2"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="1"/>
+    <tableColumn id="2" name="Default" dataDxfId="5"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="4"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="3"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5970,8 +6003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6353,7 +6386,10 @@
         <f>HARMEAN('80 - Models'!L33:L35,'80 - Models'!O33:O35,'80 - Models'!R33:R35)</f>
         <v>0.11439175202788675</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7">
+        <f>HARMEAN('80 - Models'!L54:L56,'80 - Models'!O54:O56,'80 - Models'!R54:R56)</f>
+        <v>8.4403439720453305E-2</v>
+      </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6372,7 +6408,10 @@
         <f>HARMEAN('80 - Models'!L36:L38,'80 - Models'!O36:O38,'80 - Models'!R36:R38)</f>
         <v>0.14781688745976435</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="7">
+        <f>HARMEAN('80 - Models'!L57:L59,'80 - Models'!O57:O59,'80 - Models'!R57:R59)</f>
+        <v>0.12747786209302864</v>
+      </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6391,7 +6430,10 @@
         <f>HARMEAN('80 - Models'!L39:L41,'80 - Models'!O39:O41,'80 - Models'!R39:R41)</f>
         <v>0.24908093144028493</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7">
+        <f>HARMEAN('80 - Models'!L60:L62,'80 - Models'!O60:O62,'80 - Models'!R60:R62)</f>
+        <v>0.16365266899139061</v>
+      </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6410,7 +6452,10 @@
         <f>HARMEAN('80 - Models'!L42:L44,'80 - Models'!O42:O44,'80 - Models'!R42:R44)</f>
         <v>0.26994033745986379</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7">
+        <f>HARMEAN('80 - Models'!L63:L65,'80 - Models'!O63:O65,'80 - Models'!R63:R65)</f>
+        <v>0.20252825777913985</v>
+      </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6429,7 +6474,10 @@
         <f>HARMEAN('80 - Models'!L45:L47,'80 - Models'!O45:O47,'80 - Models'!R45:R47)</f>
         <v>0.30074901114503988</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7">
+        <f>HARMEAN('80 - Models'!L66:L68,'80 - Models'!O66:O68,'80 - Models'!R66:R68)</f>
+        <v>0.23397925761994948</v>
+      </c>
       <c r="F25" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6468,7 +6516,10 @@
         <f>HARMEAN('80 - Models'!AB33:AB35,'80 - Models'!AE33:AE35,'80 - Models'!AH33:AH35)</f>
         <v>0.56580424271293084</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7">
+        <f>HARMEAN('80 - Models'!AB54:AB56,'80 - Models'!AE54:AE56,'80 - Models'!AH54:AH56)</f>
+        <v>0.30892749190503238</v>
+      </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6487,7 +6538,10 @@
         <f>HARMEAN('80 - Models'!AB36:AB38,'80 - Models'!AE36:AE38,'80 - Models'!AH36:AH38)</f>
         <v>20.128869116490275</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7">
+        <f>HARMEAN('80 - Models'!AB57:AB59,'80 - Models'!AE57:AE59,'80 - Models'!AH57:AH59)</f>
+        <v>14.89973204291565</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6506,7 +6560,10 @@
         <f>HARMEAN('80 - Models'!AB39:AB41,'80 - Models'!AE39:AE41,'80 - Models'!AH39:AH41)</f>
         <v>37.410604615631556</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7">
+        <f>HARMEAN('80 - Models'!AB60:AB62,'80 - Models'!AE60:AE62,'80 - Models'!AH60:AH62)</f>
+        <v>14.235223571130939</v>
+      </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6525,7 +6582,10 @@
         <f>HARMEAN('80 - Models'!AB42:AB44,'80 - Models'!AE42:AE44,'80 - Models'!AH42:AH44)</f>
         <v>13.871834631856656</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7">
+        <f>HARMEAN('80 - Models'!AB63:AB65,'80 - Models'!AE63:AE65,'80 - Models'!AH63:AH65)</f>
+        <v>9.8942436050518818</v>
+      </c>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6544,7 +6604,10 @@
         <f>HARMEAN('80 - Models'!AB45:AB47,'80 - Models'!AE45:AE47,'80 - Models'!AH45:AH47)</f>
         <v>8.5724833041754245</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7">
+        <f>HARMEAN('80 - Models'!AB66:AB68,'80 - Models'!AE66:AE68,'80 - Models'!AH66:AH68)</f>
+        <v>16.756228717733677</v>
+      </c>
       <c r="F34" s="7"/>
     </row>
   </sheetData>
@@ -15560,8 +15623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI110"/>
   <sheetViews>
-    <sheetView topLeftCell="Z25" workbookViewId="0">
-      <selection activeCell="AJ48" sqref="AJ48"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19326,6 +19389,105 @@
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>1298</v>
+      </c>
+      <c r="E54">
+        <v>1420</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>37</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L54">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M54">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N54">
+        <v>0.123</v>
+      </c>
+      <c r="O54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.114</v>
+      </c>
+      <c r="Q54">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="R54">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="S54">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="T54">
+        <v>5258</v>
+      </c>
+      <c r="U54">
+        <v>5380</v>
+      </c>
+      <c r="V54">
+        <v>1000</v>
+      </c>
+      <c r="W54">
+        <v>33681</v>
+      </c>
+      <c r="X54">
+        <v>65329</v>
+      </c>
+      <c r="Y54">
+        <v>31674</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="AB54">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="AC54">
+        <v>9.1150000000000002</v>
+      </c>
+      <c r="AD54">
+        <v>0.122</v>
+      </c>
+      <c r="AE54">
+        <v>8.7390000000000008</v>
+      </c>
+      <c r="AF54">
+        <v>8.7789999999999999</v>
+      </c>
+      <c r="AG54">
+        <v>0.122</v>
+      </c>
+      <c r="AH54">
+        <v>9.0370000000000008</v>
+      </c>
+      <c r="AI54">
+        <v>9.077</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -19334,6 +19496,105 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>1401</v>
+      </c>
+      <c r="E55">
+        <v>1534</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>39</v>
+      </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.13</v>
+      </c>
+      <c r="L55">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="M55">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="N55">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O55">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="P55">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Q55">
+        <v>0.218</v>
+      </c>
+      <c r="R55">
+        <v>0.09</v>
+      </c>
+      <c r="S55">
+        <v>0.18</v>
+      </c>
+      <c r="T55">
+        <v>5361</v>
+      </c>
+      <c r="U55">
+        <v>5494</v>
+      </c>
+      <c r="V55">
+        <v>1000</v>
+      </c>
+      <c r="W55">
+        <v>18942</v>
+      </c>
+      <c r="X55">
+        <v>35842</v>
+      </c>
+      <c r="Y55">
+        <v>16927</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AB55">
+        <v>5.9459999999999997</v>
+      </c>
+      <c r="AC55">
+        <v>6.024</v>
+      </c>
+      <c r="AD55">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AE55">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="AF55">
+        <v>5.819</v>
+      </c>
+      <c r="AG55">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AH55">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="AI55">
+        <v>6.0970000000000004</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -19342,6 +19603,105 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>1324</v>
+      </c>
+      <c r="E56">
+        <v>1449</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>34</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="L56">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M56">
+        <v>0.12</v>
+      </c>
+      <c r="N56">
+        <v>0.127</v>
+      </c>
+      <c r="O56">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="P56">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q56">
+        <v>0.128</v>
+      </c>
+      <c r="R56">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S56">
+        <v>0.126</v>
+      </c>
+      <c r="T56">
+        <v>1420</v>
+      </c>
+      <c r="U56">
+        <v>1545</v>
+      </c>
+      <c r="V56">
+        <v>34</v>
+      </c>
+      <c r="W56">
+        <v>108</v>
+      </c>
+      <c r="X56">
+        <v>149</v>
+      </c>
+      <c r="Y56">
+        <v>41</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AB56">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AC56">
+        <v>0.17</v>
+      </c>
+      <c r="AD56">
+        <v>0.122</v>
+      </c>
+      <c r="AE56">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AF56">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AG56">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AH56">
+        <v>0.106</v>
+      </c>
+      <c r="AI56">
+        <v>0.14599999999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -19350,7 +19710,105 @@
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>2712</v>
+      </c>
+      <c r="E57">
+        <v>2986</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>65</v>
+      </c>
+      <c r="H57">
+        <v>39</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N57">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.121</v>
+      </c>
+      <c r="P57">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q57">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R57">
+        <v>0.121</v>
+      </c>
+      <c r="S57">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="T57">
+        <v>6672</v>
+      </c>
+      <c r="U57">
+        <v>6946</v>
+      </c>
+      <c r="V57">
+        <v>1000</v>
+      </c>
+      <c r="W57">
+        <v>154743</v>
+      </c>
+      <c r="X57">
+        <v>307426</v>
+      </c>
+      <c r="Y57">
+        <v>152720</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AB57">
+        <v>50.284999999999997</v>
+      </c>
+      <c r="AC57">
+        <v>50.344999999999999</v>
+      </c>
+      <c r="AD57">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AE57">
+        <v>48.427999999999997</v>
+      </c>
+      <c r="AF57">
+        <v>48.475000000000001</v>
+      </c>
+      <c r="AG57">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AH57">
+        <v>48.423999999999999</v>
+      </c>
+      <c r="AI57">
+        <v>48.51</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -19359,10 +19817,105 @@
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58">
+        <v>2658</v>
+      </c>
+      <c r="E58">
+        <v>2921</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>61</v>
+      </c>
+      <c r="H58">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.216</v>
+      </c>
+      <c r="L58">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M58">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="N58">
+        <v>0.158</v>
+      </c>
+      <c r="O58">
+        <v>0.113</v>
+      </c>
+      <c r="P58">
+        <v>0.16</v>
+      </c>
+      <c r="Q58">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="R58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="S58">
+        <v>0.185</v>
+      </c>
+      <c r="T58">
+        <v>6618</v>
+      </c>
+      <c r="U58">
+        <v>6881</v>
+      </c>
+      <c r="V58">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="2">
+        <v>229857</v>
+      </c>
+      <c r="X58" s="2">
+        <v>457644</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>227831</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0.188</v>
+      </c>
+      <c r="AB58">
+        <v>62.070999999999998</v>
+      </c>
+      <c r="AC58">
+        <v>62.128999999999998</v>
+      </c>
+      <c r="AD58">
+        <v>0.153</v>
+      </c>
+      <c r="AE58">
+        <v>66.153000000000006</v>
+      </c>
+      <c r="AF58">
+        <v>66.203000000000003</v>
+      </c>
+      <c r="AG58">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AH58">
+        <v>58.222999999999999</v>
+      </c>
+      <c r="AI58">
+        <v>58.268000000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -19371,7 +19924,105 @@
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59">
+        <v>2616</v>
+      </c>
+      <c r="E59">
+        <v>2878</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>45</v>
+      </c>
+      <c r="H59">
+        <v>15</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L59">
+        <v>0.108</v>
+      </c>
+      <c r="M59">
+        <v>0.153</v>
+      </c>
+      <c r="N59">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.123</v>
+      </c>
+      <c r="P59">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Q59">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="R59">
+        <v>0.11</v>
+      </c>
+      <c r="S59">
+        <v>0.159</v>
+      </c>
+      <c r="T59">
+        <v>6576</v>
+      </c>
+      <c r="U59">
+        <v>6838</v>
+      </c>
+      <c r="V59">
+        <v>1000</v>
+      </c>
+      <c r="W59">
+        <v>14081</v>
+      </c>
+      <c r="X59">
+        <v>26115</v>
+      </c>
+      <c r="Y59">
+        <v>12065</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0.188</v>
+      </c>
+      <c r="AB59">
+        <v>6.2</v>
+      </c>
+      <c r="AC59">
+        <v>6.2629999999999999</v>
+      </c>
+      <c r="AD59">
+        <v>0.155</v>
+      </c>
+      <c r="AE59">
+        <v>5.8550000000000004</v>
+      </c>
+      <c r="AF59">
+        <v>5.9059999999999997</v>
+      </c>
+      <c r="AG59">
+        <v>0.16</v>
+      </c>
+      <c r="AH59">
+        <v>6.1589999999999998</v>
+      </c>
+      <c r="AI59">
+        <v>6.2160000000000002</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -19380,7 +20031,105 @@
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>3994</v>
+      </c>
+      <c r="E60">
+        <v>4393</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>62</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="M60">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="N60">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O60">
+        <v>0.161</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S60">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="T60">
+        <v>7954</v>
+      </c>
+      <c r="U60">
+        <v>8353</v>
+      </c>
+      <c r="V60">
+        <v>1000</v>
+      </c>
+      <c r="W60">
+        <v>28369</v>
+      </c>
+      <c r="X60">
+        <v>54658</v>
+      </c>
+      <c r="Y60">
+        <v>26336</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AB60">
+        <v>12.635999999999999</v>
+      </c>
+      <c r="AC60">
+        <v>12.712999999999999</v>
+      </c>
+      <c r="AD60">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AE60">
+        <v>12.284000000000001</v>
+      </c>
+      <c r="AF60">
+        <v>12.333</v>
+      </c>
+      <c r="AG60">
+        <v>0.153</v>
+      </c>
+      <c r="AH60">
+        <v>12.106</v>
+      </c>
+      <c r="AI60">
+        <v>12.161</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -19389,12 +20138,105 @@
       <c r="B61">
         <v>3</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="C61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>3886</v>
+      </c>
+      <c r="E61" s="2">
+        <v>4275</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>67</v>
+      </c>
+      <c r="H61" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L61">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="M61">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N61">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="O61">
+        <v>0.155</v>
+      </c>
+      <c r="P61">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Q61">
+        <v>0.157</v>
+      </c>
+      <c r="R61">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="S61">
+        <v>0.19</v>
+      </c>
+      <c r="T61">
+        <v>7846</v>
+      </c>
+      <c r="U61">
+        <v>8235</v>
+      </c>
+      <c r="V61">
+        <v>1000</v>
+      </c>
+      <c r="W61">
+        <v>23166</v>
+      </c>
+      <c r="X61">
+        <v>44246</v>
+      </c>
+      <c r="Y61">
+        <v>21128</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AB61">
+        <v>11.249000000000001</v>
+      </c>
+      <c r="AC61">
+        <v>11.298999999999999</v>
+      </c>
+      <c r="AD61">
+        <v>0.158</v>
+      </c>
+      <c r="AE61">
+        <v>9.8379999999999992</v>
+      </c>
+      <c r="AF61">
+        <v>9.89</v>
+      </c>
+      <c r="AG61">
+        <v>0.152</v>
+      </c>
+      <c r="AH61">
+        <v>10.183999999999999</v>
+      </c>
+      <c r="AI61">
+        <v>10.236000000000001</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -19403,7 +20245,105 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>3972</v>
+      </c>
+      <c r="E62">
+        <v>4371</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>45</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.255</v>
+      </c>
+      <c r="L62">
+        <v>0.22</v>
+      </c>
+      <c r="M62">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="N62">
+        <v>0.159</v>
+      </c>
+      <c r="O62">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="P62">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q62">
+        <v>0.157</v>
+      </c>
+      <c r="R62">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="S62">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="T62">
+        <v>7932</v>
+      </c>
+      <c r="U62">
+        <v>8331</v>
+      </c>
+      <c r="V62">
+        <v>1000</v>
+      </c>
+      <c r="W62">
+        <v>80859</v>
+      </c>
+      <c r="X62">
+        <v>159664</v>
+      </c>
+      <c r="Y62">
+        <v>78839</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AB62">
+        <v>30.361000000000001</v>
+      </c>
+      <c r="AC62">
+        <v>30.446000000000002</v>
+      </c>
+      <c r="AD62">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AE62">
+        <v>30.760999999999999</v>
+      </c>
+      <c r="AF62">
+        <v>30.812000000000001</v>
+      </c>
+      <c r="AG62">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AH62">
+        <v>28.651</v>
+      </c>
+      <c r="AI62">
+        <v>28.701000000000001</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -19412,10 +20352,105 @@
       <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="C63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5414</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5955</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.251</v>
+      </c>
+      <c r="L63">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="M63">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="N63">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="P63">
+        <v>0.252</v>
+      </c>
+      <c r="Q63">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R63">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="S63">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="T63" s="2">
+        <v>9374</v>
+      </c>
+      <c r="U63" s="2">
+        <v>9915</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W63">
+        <v>5715</v>
+      </c>
+      <c r="X63">
+        <v>9344</v>
+      </c>
+      <c r="Y63">
+        <v>3676</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AB63">
+        <v>4.9370000000000003</v>
+      </c>
+      <c r="AC63">
+        <v>5.0309999999999997</v>
+      </c>
+      <c r="AD63">
+        <v>0.155</v>
+      </c>
+      <c r="AE63">
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="AF63">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="AG63">
+        <v>0.158</v>
+      </c>
+      <c r="AH63">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="AI63">
+        <v>4.58</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -19424,7 +20459,105 @@
       <c r="B64">
         <v>4</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64">
+        <v>5241</v>
+      </c>
+      <c r="E64">
+        <v>5768</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.158</v>
+      </c>
+      <c r="L64">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.157</v>
+      </c>
+      <c r="O64">
+        <v>0.18</v>
+      </c>
+      <c r="P64">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q64">
+        <v>0.158</v>
+      </c>
+      <c r="R64">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="S64">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="T64">
+        <v>9201</v>
+      </c>
+      <c r="U64">
+        <v>9728</v>
+      </c>
+      <c r="V64">
+        <v>1000</v>
+      </c>
+      <c r="W64">
+        <v>105867</v>
+      </c>
+      <c r="X64">
+        <v>209616</v>
+      </c>
+      <c r="Y64">
+        <v>103818</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0.158</v>
+      </c>
+      <c r="AB64">
+        <v>44.368000000000002</v>
+      </c>
+      <c r="AC64">
+        <v>44.424999999999997</v>
+      </c>
+      <c r="AD64">
+        <v>0.161</v>
+      </c>
+      <c r="AE64">
+        <v>47.392000000000003</v>
+      </c>
+      <c r="AF64">
+        <v>47.451000000000001</v>
+      </c>
+      <c r="AG64">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AH64">
+        <v>44.865000000000002</v>
+      </c>
+      <c r="AI64">
+        <v>44.923999999999999</v>
+      </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -19433,7 +20566,105 @@
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>5291</v>
+      </c>
+      <c r="E65">
+        <v>5828</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>91</v>
+      </c>
+      <c r="H65">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="L65">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="M65">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="N65">
+        <v>0.156</v>
+      </c>
+      <c r="O65">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="P65">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="Q65">
+        <v>0.183</v>
+      </c>
+      <c r="R65">
+        <v>0.252</v>
+      </c>
+      <c r="S65">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="T65">
+        <v>9251</v>
+      </c>
+      <c r="U65">
+        <v>9788</v>
+      </c>
+      <c r="V65">
+        <v>1000</v>
+      </c>
+      <c r="W65">
+        <v>30823</v>
+      </c>
+      <c r="X65">
+        <v>59504</v>
+      </c>
+      <c r="Y65">
+        <v>28757</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0.155</v>
+      </c>
+      <c r="AB65">
+        <v>18.401</v>
+      </c>
+      <c r="AC65">
+        <v>18.457000000000001</v>
+      </c>
+      <c r="AD65">
+        <v>0.16</v>
+      </c>
+      <c r="AE65">
+        <v>13.629</v>
+      </c>
+      <c r="AF65">
+        <v>13.689</v>
+      </c>
+      <c r="AG65">
+        <v>0.152</v>
+      </c>
+      <c r="AH65">
+        <v>13.895</v>
+      </c>
+      <c r="AI65">
+        <v>13.951000000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -19442,7 +20673,105 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>6561</v>
+      </c>
+      <c r="E66">
+        <v>7225</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>122</v>
+      </c>
+      <c r="H66">
+        <v>29</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="M66">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="N66">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="O66">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P66">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Q66">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="R66">
+        <v>0.217</v>
+      </c>
+      <c r="S66">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="T66">
+        <v>10521</v>
+      </c>
+      <c r="U66">
+        <v>11185</v>
+      </c>
+      <c r="V66">
+        <v>1000</v>
+      </c>
+      <c r="W66">
+        <v>16150</v>
+      </c>
+      <c r="X66">
+        <v>30116</v>
+      </c>
+      <c r="Y66">
+        <v>14066</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AB66">
+        <v>10.276999999999999</v>
+      </c>
+      <c r="AC66">
+        <v>10.336</v>
+      </c>
+      <c r="AD66">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AE66">
+        <v>10.757</v>
+      </c>
+      <c r="AF66">
+        <v>10.818</v>
+      </c>
+      <c r="AG66">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AH66">
+        <v>10.336</v>
+      </c>
+      <c r="AI66">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -19451,12 +20780,105 @@
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
+      <c r="C67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67">
+        <v>6696</v>
+      </c>
+      <c r="E67">
+        <v>7372</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>110</v>
+      </c>
+      <c r="H67">
+        <v>15</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.2</v>
+      </c>
+      <c r="L67">
+        <v>0.312</v>
+      </c>
+      <c r="M67">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="N67">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="P67">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="Q67">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="R67">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="S67">
+        <v>0.33</v>
+      </c>
+      <c r="T67" s="2">
+        <v>10656</v>
+      </c>
+      <c r="U67" s="2">
+        <v>11332</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W67">
+        <v>43420</v>
+      </c>
+      <c r="X67" s="2">
+        <v>84661</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>41334</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AB67">
+        <v>27.222999999999999</v>
+      </c>
+      <c r="AC67">
+        <v>27.317</v>
+      </c>
+      <c r="AD67">
+        <v>0.183</v>
+      </c>
+      <c r="AE67">
+        <v>28.472999999999999</v>
+      </c>
+      <c r="AF67">
+        <v>28.545999999999999</v>
+      </c>
+      <c r="AG67">
+        <v>0.185</v>
+      </c>
+      <c r="AH67">
+        <v>23.079000000000001</v>
+      </c>
+      <c r="AI67">
+        <v>23.146000000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -19465,13 +20887,105 @@
       <c r="B68">
         <v>5</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
+      <c r="C68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>6475</v>
+      </c>
+      <c r="E68">
+        <v>7136</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>80</v>
+      </c>
+      <c r="H68">
+        <v>18</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.182</v>
+      </c>
+      <c r="L68">
+        <v>0.23</v>
+      </c>
+      <c r="M68">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="N68">
+        <v>0.17</v>
+      </c>
+      <c r="O68">
+        <v>0.215</v>
+      </c>
+      <c r="P68">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="Q68">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R68">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="S68">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="T68" s="2">
+        <v>10435</v>
+      </c>
+      <c r="U68" s="2">
+        <v>11096</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W68">
+        <v>38334</v>
+      </c>
+      <c r="X68">
+        <v>74561</v>
+      </c>
+      <c r="Y68">
+        <v>36291</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>22.896999999999998</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>22.959</v>
+      </c>
+      <c r="AD68">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AE68">
+        <v>22.84</v>
+      </c>
+      <c r="AF68">
+        <v>22.901</v>
+      </c>
+      <c r="AG68">
+        <v>0.158</v>
+      </c>
+      <c r="AH68">
+        <v>21.071999999999999</v>
+      </c>
+      <c r="AI68">
+        <v>21.129000000000001</v>
+      </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="85">
   <si>
     <t>Run</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Features: 80, Heuristic 3: Default + BiVarArithmetic + OrAttr0 + OrAttr1</t>
   </si>
   <si>
-    <t>Features: 80, Heuristic 4: Default + OrAttr0 + OrAttr1</t>
-  </si>
-  <si>
     <t>0, 19</t>
   </si>
   <si>
@@ -371,7 +368,34 @@
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2117,6 +2141,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3752656488276206E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13285316265553723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16262414002527026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22716082133096244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24044982172616361</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2678,6 +2717,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36655533021610098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.063730824790003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.441589155109996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6598031875659505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.79035970925041</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5110,13 +5164,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>601133</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5139,14 +5193,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>440266</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>135466</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>143934</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160868</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5236,17 +5290,105 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="18"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="17"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="16"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="15"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="14"/>
+    <tableColumn id="2" name="Default" dataDxfId="27"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="26"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="25"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="24"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A95:AI110"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -5290,101 +5432,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1410" displayName="Table1410" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="10" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -5423,12 +5477,56 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1437813" displayName="Table1437813" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A95:AI110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="8" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -5474,11 +5572,11 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="13"/>
+    <tableColumn id="2" name="Default" dataDxfId="22"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="12"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="11"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="10"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="21"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="20"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5492,10 +5590,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="9"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="8"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="7"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="6"/>
+    <tableColumn id="2" name="Default" dataDxfId="18"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="17"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="16"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5509,16 +5607,46 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="5"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="4"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="3"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="2"/>
+    <tableColumn id="2" name="Default" dataDxfId="14"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="13"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="12"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table41413" displayName="Table41413" ref="A39:F44" totalsRowShown="0">
+  <autoFilter ref="A39:F44"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Models"/>
+    <tableColumn id="6" name="Constraints"/>
+    <tableColumn id="2" name="Default" dataDxfId="7"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="6"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="5"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table4141516" displayName="Table4141516" ref="A48:F53" totalsRowShown="0">
+  <autoFilter ref="A48:F53"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Models"/>
+    <tableColumn id="6" name="Constraints"/>
+    <tableColumn id="2" name="Default" dataDxfId="3"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="2"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="1"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -5562,7 +5690,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
@@ -5606,97 +5734,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A53:AI68"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A95:AI110"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
@@ -6001,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6390,7 +6430,10 @@
         <f>HARMEAN('80 - Models'!L54:L56,'80 - Models'!O54:O56,'80 - Models'!R54:R56)</f>
         <v>8.4403439720453305E-2</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <f>HARMEAN('80 - Models'!L75:L77,'80 - Models'!O75:O77,'80 - Models'!R75:R77)</f>
+        <v>8.3752656488276206E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -6412,7 +6455,10 @@
         <f>HARMEAN('80 - Models'!L57:L59,'80 - Models'!O57:O59,'80 - Models'!R57:R59)</f>
         <v>0.12747786209302864</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <f>HARMEAN('80 - Models'!L78:L80,'80 - Models'!O78:O80,'80 - Models'!R78:R80)</f>
+        <v>0.13285316265553723</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -6434,7 +6480,10 @@
         <f>HARMEAN('80 - Models'!L60:L62,'80 - Models'!O60:O62,'80 - Models'!R60:R62)</f>
         <v>0.16365266899139061</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <f>HARMEAN('80 - Models'!L81:L83,'80 - Models'!O81:O83,'80 - Models'!R81:R83)</f>
+        <v>0.16262414002527026</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -6456,7 +6505,10 @@
         <f>HARMEAN('80 - Models'!L63:L65,'80 - Models'!O63:O65,'80 - Models'!R63:R65)</f>
         <v>0.20252825777913985</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <f>HARMEAN('80 - Models'!L84:L86,'80 - Models'!O84:O86,'80 - Models'!R84:R86)</f>
+        <v>0.22716082133096244</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -6478,7 +6530,10 @@
         <f>HARMEAN('80 - Models'!L66:L68,'80 - Models'!O66:O68,'80 - Models'!R66:R68)</f>
         <v>0.23397925761994948</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <f>HARMEAN('80 - Models'!L87:L89,'80 - Models'!O87:O89,'80 - Models'!R87:R89)</f>
+        <v>0.24044982172616361</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -6520,7 +6575,10 @@
         <f>HARMEAN('80 - Models'!AB54:AB56,'80 - Models'!AE54:AE56,'80 - Models'!AH54:AH56)</f>
         <v>0.30892749190503238</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <f>HARMEAN('80 - Models'!AB75:AB77,'80 - Models'!AE75:AE77,'80 - Models'!AH75:AH77)</f>
+        <v>0.36655533021610098</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -6542,7 +6600,10 @@
         <f>HARMEAN('80 - Models'!AB57:AB59,'80 - Models'!AE57:AE59,'80 - Models'!AH57:AH59)</f>
         <v>14.89973204291565</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <f>HARMEAN('80 - Models'!AB78:AB80,'80 - Models'!AE78:AE80,'80 - Models'!AH78:AH80)</f>
+        <v>15.063730824790003</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -6564,7 +6625,10 @@
         <f>HARMEAN('80 - Models'!AB60:AB62,'80 - Models'!AE60:AE62,'80 - Models'!AH60:AH62)</f>
         <v>14.235223571130939</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <f>HARMEAN('80 - Models'!AB81:AB83,'80 - Models'!AE81:AE83,'80 - Models'!AH81:AH83)</f>
+        <v>14.441589155109996</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -6586,7 +6650,10 @@
         <f>HARMEAN('80 - Models'!AB63:AB65,'80 - Models'!AE63:AE65,'80 - Models'!AH63:AH65)</f>
         <v>9.8942436050518818</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <f>HARMEAN('80 - Models'!AB84:AB86,'80 - Models'!AE84:AE86,'80 - Models'!AH84:AH86)</f>
+        <v>9.6598031875659505</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -6608,16 +6675,151 @@
         <f>HARMEAN('80 - Models'!AB66:AB68,'80 - Models'!AE66:AE68,'80 - Models'!AH66:AH68)</f>
         <v>16.756228717733677</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <f>HARMEAN('80 - Models'!AB87:AB89,'80 - Models'!AE87:AE89,'80 - Models'!AH87:AH89)</f>
+        <v>16.79035970925041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15621,10 +15823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI110"/>
+  <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16278,7 +16480,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>2658</v>
@@ -16385,7 +16587,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <v>2616</v>
@@ -16492,7 +16694,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>3994</v>
@@ -16813,7 +17015,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>5414</v>
@@ -16920,7 +17122,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>5241</v>
@@ -17134,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>6561</v>
@@ -17241,7 +17443,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>6696</v>
@@ -17348,7 +17550,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>6475</v>
@@ -18048,7 +18250,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>2658</v>
@@ -18155,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>2616</v>
@@ -18262,7 +18464,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39">
         <v>3994</v>
@@ -18583,7 +18785,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42">
         <v>5414</v>
@@ -18690,7 +18892,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>5241</v>
@@ -18904,7 +19106,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45">
         <v>6561</v>
@@ -19011,7 +19213,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46">
         <v>6696</v>
@@ -19118,7 +19320,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47">
         <v>6475</v>
@@ -19818,7 +20020,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>2658</v>
@@ -19925,7 +20127,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59">
         <v>2616</v>
@@ -20032,7 +20234,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60">
         <v>3994</v>
@@ -20353,7 +20555,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2">
         <v>5414</v>
@@ -20460,7 +20662,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64">
         <v>5241</v>
@@ -20674,7 +20876,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66">
         <v>6561</v>
@@ -20781,7 +20983,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67">
         <v>6696</v>
@@ -20888,7 +21090,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <v>6475</v>
@@ -21159,6 +21361,105 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>1298</v>
+      </c>
+      <c r="E75">
+        <v>1420</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>37</v>
+      </c>
+      <c r="H75">
+        <v>24</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.127</v>
+      </c>
+      <c r="L75">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M75">
+        <v>0.12</v>
+      </c>
+      <c r="N75">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="O75">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="P75">
+        <v>0.127</v>
+      </c>
+      <c r="Q75">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="R75">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="S75">
+        <v>0.123</v>
+      </c>
+      <c r="T75">
+        <v>5258</v>
+      </c>
+      <c r="U75">
+        <v>5380</v>
+      </c>
+      <c r="V75">
+        <v>1000</v>
+      </c>
+      <c r="W75">
+        <v>33681</v>
+      </c>
+      <c r="X75">
+        <v>65329</v>
+      </c>
+      <c r="Y75">
+        <v>31674</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0.188</v>
+      </c>
+      <c r="AB75">
+        <v>9.0540000000000003</v>
+      </c>
+      <c r="AC75">
+        <v>9.1189999999999998</v>
+      </c>
+      <c r="AD75">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>8.65</v>
+      </c>
+      <c r="AF75">
+        <v>8.6929999999999996</v>
+      </c>
+      <c r="AG75">
+        <v>0.127</v>
+      </c>
+      <c r="AH75">
+        <v>8.48</v>
+      </c>
+      <c r="AI75">
+        <v>8.5210000000000008</v>
+      </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -21167,6 +21468,105 @@
       <c r="B76">
         <v>1</v>
       </c>
+      <c r="C76">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1401</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1534</v>
+      </c>
+      <c r="F76" s="2">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <v>39</v>
+      </c>
+      <c r="H76" s="2">
+        <v>16</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L76" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="N76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O76">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="P76">
+        <v>0.128</v>
+      </c>
+      <c r="Q76">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="R76">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S76">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="T76">
+        <v>5361</v>
+      </c>
+      <c r="U76">
+        <v>5494</v>
+      </c>
+      <c r="V76">
+        <v>1000</v>
+      </c>
+      <c r="W76">
+        <v>18942</v>
+      </c>
+      <c r="X76">
+        <v>35842</v>
+      </c>
+      <c r="Y76">
+        <v>16927</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AB76">
+        <v>5.7850000000000001</v>
+      </c>
+      <c r="AC76">
+        <v>5.8609999999999998</v>
+      </c>
+      <c r="AD76">
+        <v>0.126</v>
+      </c>
+      <c r="AE76">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="AF76">
+        <v>5.7329999999999997</v>
+      </c>
+      <c r="AG76">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AH76">
+        <v>5.3230000000000004</v>
+      </c>
+      <c r="AI76">
+        <v>5.367</v>
+      </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -21175,6 +21575,105 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>1324</v>
+      </c>
+      <c r="E77">
+        <v>1449</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>34</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L77">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="M77">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N77">
+        <v>0.13</v>
+      </c>
+      <c r="O77">
+        <v>7.8E-2</v>
+      </c>
+      <c r="P77">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q77">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="R77">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S77">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="T77">
+        <v>1420</v>
+      </c>
+      <c r="U77">
+        <v>1545</v>
+      </c>
+      <c r="V77">
+        <v>34</v>
+      </c>
+      <c r="W77">
+        <v>108</v>
+      </c>
+      <c r="X77">
+        <v>149</v>
+      </c>
+      <c r="Y77">
+        <v>41</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0.223</v>
+      </c>
+      <c r="AB77">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AC77">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AD77">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AE77">
+        <v>0.111</v>
+      </c>
+      <c r="AF77">
+        <v>0.153</v>
+      </c>
+      <c r="AG77">
+        <v>0.129</v>
+      </c>
+      <c r="AH77">
+        <v>0.113</v>
+      </c>
+      <c r="AI77">
+        <v>0.156</v>
+      </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -21183,7 +21682,105 @@
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>2712</v>
+      </c>
+      <c r="E78">
+        <v>2986</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>65</v>
+      </c>
+      <c r="H78">
+        <v>39</v>
+      </c>
+      <c r="I78">
+        <v>12</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L78">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="M78">
+        <v>0.182</v>
+      </c>
+      <c r="N78">
+        <v>0.15</v>
+      </c>
+      <c r="O78">
+        <v>0.155</v>
+      </c>
+      <c r="P78">
+        <v>0.2</v>
+      </c>
+      <c r="Q78">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="R78">
+        <v>0.129</v>
+      </c>
+      <c r="S78">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="T78">
+        <v>6672</v>
+      </c>
+      <c r="U78">
+        <v>6946</v>
+      </c>
+      <c r="V78">
+        <v>1000</v>
+      </c>
+      <c r="W78">
+        <v>154743</v>
+      </c>
+      <c r="X78">
+        <v>307426</v>
+      </c>
+      <c r="Y78">
+        <v>152720</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0.24</v>
+      </c>
+      <c r="AB78">
+        <v>48.652999999999999</v>
+      </c>
+      <c r="AC78">
+        <v>48.723999999999997</v>
+      </c>
+      <c r="AD78">
+        <v>0.18</v>
+      </c>
+      <c r="AE78">
+        <v>49.582000000000001</v>
+      </c>
+      <c r="AF78">
+        <v>49.631999999999998</v>
+      </c>
+      <c r="AG78">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AH78">
+        <v>46.72</v>
+      </c>
+      <c r="AI78">
+        <v>46.764000000000003</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -21192,13 +21789,105 @@
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2658</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2921</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>61</v>
+      </c>
+      <c r="H79">
+        <v>17</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0.123</v>
+      </c>
+      <c r="M79">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="N79">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O79">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P79">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q79">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="R79">
+        <v>0.122</v>
+      </c>
+      <c r="S79">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="T79">
+        <v>6618</v>
+      </c>
+      <c r="U79">
+        <v>6881</v>
+      </c>
+      <c r="V79">
+        <v>1000</v>
+      </c>
+      <c r="W79" s="2">
+        <v>229831</v>
+      </c>
+      <c r="X79" s="2">
+        <v>457644</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>227831</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AB79">
+        <v>54.747</v>
+      </c>
+      <c r="AC79">
+        <v>54.819000000000003</v>
+      </c>
+      <c r="AD79">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AE79">
+        <v>54.491999999999997</v>
+      </c>
+      <c r="AF79">
+        <v>54.545000000000002</v>
+      </c>
+      <c r="AG79">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AH79">
+        <v>55.893000000000001</v>
+      </c>
+      <c r="AI79">
+        <v>55.938000000000002</v>
+      </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -21207,7 +21896,105 @@
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>2616</v>
+      </c>
+      <c r="E80">
+        <v>2878</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>45</v>
+      </c>
+      <c r="H80">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L80">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M80">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N80">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O80">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="P80">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Q80">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="R80">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="S80">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="T80">
+        <v>6576</v>
+      </c>
+      <c r="U80">
+        <v>6838</v>
+      </c>
+      <c r="V80">
+        <v>1000</v>
+      </c>
+      <c r="W80">
+        <v>14081</v>
+      </c>
+      <c r="X80">
+        <v>26115</v>
+      </c>
+      <c r="Y80">
+        <v>12065</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AB80">
+        <v>6.8159999999999998</v>
+      </c>
+      <c r="AC80">
+        <v>6.859</v>
+      </c>
+      <c r="AD80">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AE80">
+        <v>5.9829999999999997</v>
+      </c>
+      <c r="AF80">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="AG80">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AH80">
+        <v>5.9889999999999999</v>
+      </c>
+      <c r="AI80">
+        <v>6.0359999999999996</v>
+      </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -21216,11 +22003,105 @@
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
+      <c r="C81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>3994</v>
+      </c>
+      <c r="E81">
+        <v>4393</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>62</v>
+      </c>
+      <c r="H81">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="L81">
+        <v>0.157</v>
+      </c>
+      <c r="M81">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N81">
+        <v>0.155</v>
+      </c>
+      <c r="O81">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P81">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="Q81">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="R81">
+        <v>0.16</v>
+      </c>
+      <c r="S81">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="T81">
+        <v>7954</v>
+      </c>
+      <c r="U81">
+        <v>8353</v>
+      </c>
+      <c r="V81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W81" s="2">
+        <v>28369</v>
+      </c>
+      <c r="X81" s="2">
+        <v>54658</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>26336</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0.219</v>
+      </c>
+      <c r="AB81">
+        <v>12.695</v>
+      </c>
+      <c r="AC81">
+        <v>12.77</v>
+      </c>
+      <c r="AD81">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AE81">
+        <v>11.866</v>
+      </c>
+      <c r="AF81">
+        <v>11.917</v>
+      </c>
+      <c r="AG81">
+        <v>0.157</v>
+      </c>
+      <c r="AH81">
+        <v>12.064</v>
+      </c>
+      <c r="AI81">
+        <v>12.115</v>
+      </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -21229,7 +22110,105 @@
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>3886</v>
+      </c>
+      <c r="E82">
+        <v>4275</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>67</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.155</v>
+      </c>
+      <c r="L82">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="M82">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="N82">
+        <v>0.153</v>
+      </c>
+      <c r="O82">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P82">
+        <v>0.216</v>
+      </c>
+      <c r="Q82">
+        <v>0.153</v>
+      </c>
+      <c r="R82">
+        <v>0.159</v>
+      </c>
+      <c r="S82">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="T82">
+        <v>7846</v>
+      </c>
+      <c r="U82">
+        <v>8235</v>
+      </c>
+      <c r="V82">
+        <v>1000</v>
+      </c>
+      <c r="W82">
+        <v>23166</v>
+      </c>
+      <c r="X82">
+        <v>44246</v>
+      </c>
+      <c r="Y82">
+        <v>21128</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AB82">
+        <v>10.513999999999999</v>
+      </c>
+      <c r="AC82">
+        <v>10.597</v>
+      </c>
+      <c r="AD82">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AE82">
+        <v>11.617000000000001</v>
+      </c>
+      <c r="AF82">
+        <v>11.688000000000001</v>
+      </c>
+      <c r="AG82">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AH82">
+        <v>10.31</v>
+      </c>
+      <c r="AI82">
+        <v>10.363</v>
+      </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -21238,7 +22217,105 @@
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>3972</v>
+      </c>
+      <c r="E83">
+        <v>4371</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>45</v>
+      </c>
+      <c r="H83">
+        <v>15</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L83">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="M83">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="N83">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O83">
+        <v>0.185</v>
+      </c>
+      <c r="P83">
+        <v>0.245</v>
+      </c>
+      <c r="Q83">
+        <v>0.155</v>
+      </c>
+      <c r="R83">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="S83">
+        <v>0.215</v>
+      </c>
+      <c r="T83">
+        <v>7932</v>
+      </c>
+      <c r="U83">
+        <v>8331</v>
+      </c>
+      <c r="V83">
+        <v>1000</v>
+      </c>
+      <c r="W83">
+        <v>80859</v>
+      </c>
+      <c r="X83">
+        <v>159664</v>
+      </c>
+      <c r="Y83">
+        <v>78839</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AB83">
+        <v>29.734999999999999</v>
+      </c>
+      <c r="AC83">
+        <v>29.785</v>
+      </c>
+      <c r="AD83">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AE83">
+        <v>30.709</v>
+      </c>
+      <c r="AF83">
+        <v>30.76</v>
+      </c>
+      <c r="AG83">
+        <v>0.158</v>
+      </c>
+      <c r="AH83">
+        <v>30.41</v>
+      </c>
+      <c r="AI83">
+        <v>30.457999999999998</v>
+      </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -21247,13 +22324,105 @@
       <c r="B84">
         <v>4</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5414</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5955</v>
+      </c>
+      <c r="F84" s="2">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>61</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0.254</v>
+      </c>
+      <c r="L84">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M84">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="N84">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="O84">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="P84">
+        <v>0.26</v>
+      </c>
+      <c r="Q84">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="R84">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="S84">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="T84" s="2">
+        <v>9374</v>
+      </c>
+      <c r="U84" s="2">
+        <v>9915</v>
+      </c>
+      <c r="V84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W84">
+        <v>5715</v>
+      </c>
+      <c r="X84">
+        <v>9344</v>
+      </c>
+      <c r="Y84">
+        <v>3676</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AB84">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="AC84">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="AD84">
+        <v>0.161</v>
+      </c>
+      <c r="AE84">
+        <v>4.41</v>
+      </c>
+      <c r="AF84">
+        <v>4.4710000000000001</v>
+      </c>
+      <c r="AG84">
+        <v>0.152</v>
+      </c>
+      <c r="AH84">
+        <v>4.5339999999999998</v>
+      </c>
+      <c r="AI84">
+        <v>4.59</v>
+      </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -21262,10 +22431,105 @@
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="C85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85">
+        <v>5241</v>
+      </c>
+      <c r="E85">
+        <v>5768</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>82</v>
+      </c>
+      <c r="H85" s="2">
+        <v>17</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.157</v>
+      </c>
+      <c r="L85">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M85">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="N85">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="O85">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P85">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="Q85">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="R85">
+        <v>0.189</v>
+      </c>
+      <c r="S85">
+        <v>0.248</v>
+      </c>
+      <c r="T85">
+        <v>9201</v>
+      </c>
+      <c r="U85">
+        <v>9728</v>
+      </c>
+      <c r="V85">
+        <v>1000</v>
+      </c>
+      <c r="W85">
+        <v>105867</v>
+      </c>
+      <c r="X85">
+        <v>209616</v>
+      </c>
+      <c r="Y85">
+        <v>103818</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AB85">
+        <v>45.601999999999997</v>
+      </c>
+      <c r="AC85">
+        <v>45.689</v>
+      </c>
+      <c r="AD85">
+        <v>0.156</v>
+      </c>
+      <c r="AE85">
+        <v>44.393999999999998</v>
+      </c>
+      <c r="AF85">
+        <v>44.451000000000001</v>
+      </c>
+      <c r="AG85">
+        <v>0.155</v>
+      </c>
+      <c r="AH85">
+        <v>44.531999999999996</v>
+      </c>
+      <c r="AI85">
+        <v>44.588000000000001</v>
+      </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -21274,7 +22538,105 @@
       <c r="B86">
         <v>4</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>5291</v>
+      </c>
+      <c r="E86">
+        <v>5828</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>15</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L86">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="M86">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="N86">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="O86">
+        <v>0.219</v>
+      </c>
+      <c r="P86">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Q86">
+        <v>0.155</v>
+      </c>
+      <c r="R86">
+        <v>0.21</v>
+      </c>
+      <c r="S86">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="T86">
+        <v>9251</v>
+      </c>
+      <c r="U86">
+        <v>9788</v>
+      </c>
+      <c r="V86">
+        <v>1000</v>
+      </c>
+      <c r="W86">
+        <v>30823</v>
+      </c>
+      <c r="X86">
+        <v>59504</v>
+      </c>
+      <c r="Y86">
+        <v>28757</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0.154</v>
+      </c>
+      <c r="AB86">
+        <v>14.582000000000001</v>
+      </c>
+      <c r="AC86">
+        <v>14.638</v>
+      </c>
+      <c r="AD86">
+        <v>0.156</v>
+      </c>
+      <c r="AE86">
+        <v>14.028</v>
+      </c>
+      <c r="AF86">
+        <v>14.082000000000001</v>
+      </c>
+      <c r="AG86">
+        <v>0.156</v>
+      </c>
+      <c r="AH86">
+        <v>14.742000000000001</v>
+      </c>
+      <c r="AI86">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -21283,7 +22645,105 @@
       <c r="B87">
         <v>5</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87">
+        <v>6561</v>
+      </c>
+      <c r="E87">
+        <v>7225</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>122</v>
+      </c>
+      <c r="H87">
+        <v>29</v>
+      </c>
+      <c r="I87">
+        <v>7</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0.17</v>
+      </c>
+      <c r="L87">
+        <v>0.24</v>
+      </c>
+      <c r="M87">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="N87">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="O87">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="P87">
+        <v>0.32</v>
+      </c>
+      <c r="Q87">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R87">
+        <v>0.252</v>
+      </c>
+      <c r="S87">
+        <v>0.316</v>
+      </c>
+      <c r="T87" s="2">
+        <v>10521</v>
+      </c>
+      <c r="U87" s="2">
+        <v>11185</v>
+      </c>
+      <c r="V87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W87">
+        <v>16150</v>
+      </c>
+      <c r="X87">
+        <v>30116</v>
+      </c>
+      <c r="Y87">
+        <v>14066</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>10.587999999999999</v>
+      </c>
+      <c r="AC87">
+        <v>10.648999999999999</v>
+      </c>
+      <c r="AD87">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AE87">
+        <v>11.691000000000001</v>
+      </c>
+      <c r="AF87">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="AG87">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AH87">
+        <v>11.372999999999999</v>
+      </c>
+      <c r="AI87">
+        <v>11.430999999999999</v>
+      </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -21292,10 +22752,105 @@
       <c r="B88">
         <v>5</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
+      <c r="C88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88">
+        <v>6696</v>
+      </c>
+      <c r="E88">
+        <v>7372</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>110</v>
+      </c>
+      <c r="H88">
+        <v>15</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L88">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="M88">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="N88">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O88">
+        <v>0.218</v>
+      </c>
+      <c r="P88">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="Q88">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R88">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="S88">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="T88" s="2">
+        <v>10656</v>
+      </c>
+      <c r="U88" s="2">
+        <v>11332</v>
+      </c>
+      <c r="V88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W88">
+        <v>43420</v>
+      </c>
+      <c r="X88">
+        <v>84661</v>
+      </c>
+      <c r="Y88">
+        <v>41334</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>21.933</v>
+      </c>
+      <c r="AC88" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="AD88">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AE88">
+        <v>22.986999999999998</v>
+      </c>
+      <c r="AF88">
+        <v>23.045999999999999</v>
+      </c>
+      <c r="AG88">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AH88">
+        <v>23.678000000000001</v>
+      </c>
+      <c r="AI88">
+        <v>23.742000000000001</v>
+      </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -21304,352 +22859,108 @@
       <c r="B89">
         <v>5</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
-      <c r="Y94" s="8"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB94" s="8"/>
-      <c r="AC94" s="8"/>
-      <c r="AD94" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE94" s="8"/>
-      <c r="AF94" s="8"/>
-      <c r="AG94" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH94" s="8"/>
-      <c r="AI94" s="8"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" t="s">
-        <v>31</v>
-      </c>
-      <c r="J95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K95" t="s">
-        <v>17</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="C89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89">
+        <v>6475</v>
+      </c>
+      <c r="E89">
+        <v>7136</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>80</v>
+      </c>
+      <c r="H89">
         <v>18</v>
       </c>
-      <c r="M95" t="s">
-        <v>19</v>
-      </c>
-      <c r="N95" t="s">
-        <v>20</v>
-      </c>
-      <c r="O95" t="s">
-        <v>21</v>
-      </c>
-      <c r="P95" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R95" t="s">
-        <v>24</v>
-      </c>
-      <c r="S95" t="s">
-        <v>25</v>
-      </c>
-      <c r="T95" t="s">
-        <v>37</v>
-      </c>
-      <c r="U95" t="s">
-        <v>38</v>
-      </c>
-      <c r="V95" t="s">
-        <v>39</v>
-      </c>
-      <c r="W95" t="s">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="I89">
         <v>2</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>10</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>11</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>12</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>20</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>21</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>22</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>30</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>31</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>32</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
-      </c>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>40</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>41</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
-      <c r="AC109" s="2"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>42</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="M89">
+        <v>0.3</v>
+      </c>
+      <c r="N89">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O89">
+        <v>0.254</v>
+      </c>
+      <c r="P89">
+        <v>0.313</v>
+      </c>
+      <c r="Q89">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R89">
+        <v>0.22</v>
+      </c>
+      <c r="S89">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="T89" s="2">
+        <v>10435</v>
+      </c>
+      <c r="U89" s="2">
+        <v>11096</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W89">
+        <v>38334</v>
+      </c>
+      <c r="X89">
+        <v>74561</v>
+      </c>
+      <c r="Y89">
+        <v>36291</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>21.204000000000001</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>21.280999999999999</v>
+      </c>
+      <c r="AD89">
+        <v>0.161</v>
+      </c>
+      <c r="AE89">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="AF89">
+        <v>21.463000000000001</v>
+      </c>
+      <c r="AG89">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AH89">
+        <v>23.306999999999999</v>
+      </c>
+      <c r="AI89">
+        <v>23.373999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="32">
     <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="AG10:AI10"/>
     <mergeCell ref="D31:J31"/>
@@ -21682,22 +22993,13 @@
     <mergeCell ref="Q52:S52"/>
     <mergeCell ref="T52:Z52"/>
     <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AG94:AI94"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="T94:Z94"/>
-    <mergeCell ref="AA94:AC94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Constraints" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="97">
   <si>
     <t>Run</t>
   </si>
@@ -3269,6 +3269,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19992273496842214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21353666647650751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28366371982754124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48866628896033271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9812948177069396</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3800,6 +3815,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2052998606581884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.994521587515987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.332615378285439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.132571282451323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.695150497408196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8060,7 +8090,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8120,7 +8150,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8164,7 +8194,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8252,7 +8282,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8296,7 +8326,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8340,7 +8370,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8428,7 +8458,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="8" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8472,7 +8502,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="7" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8516,7 +8546,7 @@
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="6" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8968,7 +8998,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9078,6 +9108,22 @@
       <c r="H3">
         <v>4</v>
       </c>
+      <c r="I3">
+        <f>HARMEAN('Summary - Models'!C5,'Summary - Models'!C23)</f>
+        <v>0.11813897880583678</v>
+      </c>
+      <c r="J3">
+        <f>HARMEAN('Summary - Models'!D5,'Summary - Models'!D23)</f>
+        <v>9.7958669093294704E-2</v>
+      </c>
+      <c r="K3">
+        <f>HARMEAN('Summary - Models'!E5,'Summary - Models'!E23)</f>
+        <v>8.2001009294525404E-2</v>
+      </c>
+      <c r="L3">
+        <f>HARMEAN('Summary - Models'!F5,'Summary - Models'!F23)</f>
+        <v>7.8983911371815957E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -9558,8 +9604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="D28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10307,7 +10353,10 @@
         <f>HARMEAN('160 - Models'!L12:L14,'160 - Models'!O12:O14,'160 - Models'!R12:R14)</f>
         <v>0.19992273496842214</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <f>HARMEAN('160 - Models'!L12:L14,'160 - Models'!O12:O14,'160 - Models'!R12:R14)</f>
+        <v>0.19992273496842214</v>
+      </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
@@ -10323,7 +10372,10 @@
         <f>HARMEAN('160 - Models'!L15:L17,'160 - Models'!O15:O17,'160 - Models'!R15:R17)</f>
         <v>0.48255409989671955</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7">
+        <f>HARMEAN('160 - Models'!L36:L38,'160 - Models'!O36:O38,'160 - Models'!R36:R38)</f>
+        <v>0.21353666647650751</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
@@ -10339,7 +10391,10 @@
         <f>HARMEAN('160 - Models'!L18:L20,'160 - Models'!O18:O20,'160 - Models'!R18:R20)</f>
         <v>0.9326603567024776</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <f>HARMEAN('160 - Models'!L39:L41,'160 - Models'!O39:O41,'160 - Models'!R39:R41)</f>
+        <v>0.28366371982754124</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
@@ -10355,7 +10410,10 @@
         <f>HARMEAN('160 - Models'!L21:L23,'160 - Models'!O21:O23,'160 - Models'!R21:R23)</f>
         <v>1.32805075686389</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <f>HARMEAN('160 - Models'!L42:L44,'160 - Models'!R42:R44,'160 - Models'!O42:O44)</f>
+        <v>0.48866628896033271</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
@@ -10371,7 +10429,10 @@
         <f>HARMEAN('160 - Models'!L24:L26,'160 - Models'!O24:O26,'160 - Models'!R24:R26)</f>
         <v>1.5081057095703692</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <f>HARMEAN('160 - Models'!O45:O47,'160 - Models'!R45:R47,'160 - Models'!U45:U47)</f>
+        <v>0.9812948177069396</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
@@ -10423,7 +10484,10 @@
         <f>HARMEAN('160 - Models'!AB12:AB14,'160 - Models'!AE12:AE14,'160 - Models'!AH12:AH14)</f>
         <v>7.6469880237127192</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7">
+        <f>HARMEAN('160 - Models'!AB33:AB35,'160 - Models'!AE33:AE35,'160 - Models'!AH33:AH35)</f>
+        <v>5.2052998606581884</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
@@ -10439,7 +10503,10 @@
         <f>HARMEAN('160 - Models'!AB15:AB17,'160 - Models'!AE15:AE17,'160 - Models'!AH15:AH17)</f>
         <v>33.63532095104884</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7">
+        <f>HARMEAN('160 - Models'!AB36:AB38,'160 - Models'!AE36:AE38,'160 - Models'!AH36:AH38)</f>
+        <v>11.994521587515987</v>
+      </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
@@ -10455,7 +10522,10 @@
         <f>HARMEAN('160 - Models'!AB18:AB20,'160 - Models'!AE18:AE20,'160 - Models'!AH18:AH20)</f>
         <v>30.083124143729631</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7">
+        <f>HARMEAN('160 - Models'!AB39:AB41,'160 - Models'!AE39:AE41,'160 - Models'!AH39:AH41)</f>
+        <v>17.332615378285439</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
@@ -10471,7 +10541,10 @@
         <f>HARMEAN('160 - Models'!AB21:AB23,'160 - Models'!AE21:AE23,'160 - Models'!AH21:AH23)</f>
         <v>31.976986274077074</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7">
+        <f>HARMEAN('160 - Models'!AB42:AB44,'160 - Models'!AE42:AE44,'160 - Models'!AH42:AH44)</f>
+        <v>25.132571282451323</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
@@ -10487,7 +10560,10 @@
         <f>HARMEAN('160 - Models'!AB24:AB26,'160 - Models'!AE24:AE26,'160 - Models'!AH24:AH26)</f>
         <v>131.20788481112584</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="7">
+        <f>HARMEAN('160 - Models'!AB45:AB47,'160 - Models'!AE45:AE47,'160 - Models'!AH45:AH47)</f>
+        <v>17.695150497408196</v>
+      </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
@@ -26690,8 +26766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28679,146 +28755,1610 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>2733</v>
+      </c>
+      <c r="E33">
+        <v>2998</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.15</v>
+      </c>
+      <c r="L33">
+        <v>0.153</v>
+      </c>
+      <c r="M33">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.129</v>
+      </c>
+      <c r="P33">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S33">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="T33">
+        <v>6693</v>
+      </c>
+      <c r="U33">
+        <v>6958</v>
+      </c>
+      <c r="V33">
+        <v>1000</v>
+      </c>
+      <c r="W33">
+        <v>121609</v>
+      </c>
+      <c r="X33">
+        <v>241145</v>
+      </c>
+      <c r="Y33">
+        <v>119577</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0.156</v>
+      </c>
+      <c r="AB33">
+        <v>52.21</v>
+      </c>
+      <c r="AC33">
+        <v>52.26</v>
+      </c>
+      <c r="AD33">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AE33">
+        <v>60.807000000000002</v>
+      </c>
+      <c r="AF33">
+        <v>60.854999999999997</v>
+      </c>
+      <c r="AG33">
+        <v>0.2</v>
+      </c>
+      <c r="AH33">
+        <v>69.863</v>
+      </c>
+      <c r="AI33">
+        <v>69.935000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>2748</v>
+      </c>
+      <c r="E34">
+        <v>3015</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>65</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L34">
+        <v>0.123</v>
+      </c>
+      <c r="M34">
+        <v>0.17</v>
+      </c>
+      <c r="N34">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.12</v>
+      </c>
+      <c r="P34">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.15</v>
+      </c>
+      <c r="R34">
+        <v>0.127</v>
+      </c>
+      <c r="S34">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="T34" s="2">
+        <v>6708</v>
+      </c>
+      <c r="U34" s="2">
+        <v>6975</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W34">
+        <v>4448</v>
+      </c>
+      <c r="X34">
+        <v>6812</v>
+      </c>
+      <c r="Y34">
+        <v>2412</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0.157</v>
+      </c>
+      <c r="AB34">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="AC34">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="AD34">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AE34">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="AF34">
+        <v>2.5870000000000002</v>
+      </c>
+      <c r="AG34">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AH34">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="AI34">
+        <v>2.629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>2737</v>
+      </c>
+      <c r="E35">
+        <v>3002</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>57</v>
+      </c>
+      <c r="H35">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L35">
+        <v>0.122</v>
+      </c>
+      <c r="M35">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="N35">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.124</v>
+      </c>
+      <c r="P35">
+        <v>0.17</v>
+      </c>
+      <c r="Q35">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R35">
+        <v>0.121</v>
+      </c>
+      <c r="S35">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="T35">
+        <v>6697</v>
+      </c>
+      <c r="U35">
+        <v>6962</v>
+      </c>
+      <c r="V35">
+        <v>1000</v>
+      </c>
+      <c r="W35">
+        <v>11803</v>
+      </c>
+      <c r="X35">
+        <v>21544</v>
+      </c>
+      <c r="Y35">
+        <v>9778</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AB35">
+        <v>5.9459999999999997</v>
+      </c>
+      <c r="AC35">
+        <v>6.032</v>
+      </c>
+      <c r="AD35">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AE35">
+        <v>5.8410000000000002</v>
+      </c>
+      <c r="AF35">
+        <v>5.8890000000000002</v>
+      </c>
+      <c r="AG35">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AH35">
+        <v>5.7679999999999998</v>
+      </c>
+      <c r="AI35">
+        <v>5.8140000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>5437</v>
+      </c>
+      <c r="E36">
+        <v>5982</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>88</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M36">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="N36">
+        <v>0.158</v>
+      </c>
+      <c r="O36">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="P36">
+        <v>0.253</v>
+      </c>
+      <c r="Q36">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R36">
+        <v>0.192</v>
+      </c>
+      <c r="S36">
+        <v>0.248</v>
+      </c>
+      <c r="T36">
+        <v>9397</v>
+      </c>
+      <c r="U36">
+        <v>9942</v>
+      </c>
+      <c r="V36">
+        <v>1000</v>
+      </c>
+      <c r="W36">
+        <v>8107</v>
+      </c>
+      <c r="X36">
+        <v>14088</v>
+      </c>
+      <c r="Y36">
+        <v>6050</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0.309</v>
+      </c>
+      <c r="AB36">
+        <v>7.266</v>
+      </c>
+      <c r="AC36">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="AD36">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AE36">
+        <v>6.65</v>
+      </c>
+      <c r="AF36">
+        <v>6.7210000000000001</v>
+      </c>
+      <c r="AG36">
+        <v>0.224</v>
+      </c>
+      <c r="AH36">
+        <v>6.9880000000000004</v>
+      </c>
+      <c r="AI36">
+        <v>7.069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5283</v>
+      </c>
+      <c r="E37">
+        <v>5818</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>86</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="L37">
+        <v>0.249</v>
+      </c>
+      <c r="M37">
+        <v>0.308</v>
+      </c>
+      <c r="N37">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.215</v>
+      </c>
+      <c r="P37">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Q37">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="R37">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="T37" s="2">
+        <v>9243</v>
+      </c>
+      <c r="U37" s="2">
+        <v>9778</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W37">
+        <v>44566</v>
+      </c>
+      <c r="X37">
+        <v>86966</v>
+      </c>
+      <c r="Y37">
+        <v>42487</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AB37">
+        <v>19.457000000000001</v>
+      </c>
+      <c r="AC37">
+        <v>19.568999999999999</v>
+      </c>
+      <c r="AD37">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AE37">
+        <v>17.951000000000001</v>
+      </c>
+      <c r="AF37">
+        <v>18.012</v>
+      </c>
+      <c r="AG37">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AH37">
+        <v>18.03</v>
+      </c>
+      <c r="AI37">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5414</v>
+      </c>
+      <c r="E38">
+        <v>5955</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>101</v>
+      </c>
+      <c r="H38">
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="N38">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="O38">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="P38">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="Q38">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="R38">
+        <v>0.224</v>
+      </c>
+      <c r="S38">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="T38">
+        <v>9374</v>
+      </c>
+      <c r="U38">
+        <v>9915</v>
+      </c>
+      <c r="V38">
+        <v>1000</v>
+      </c>
+      <c r="W38">
+        <v>41543</v>
+      </c>
+      <c r="X38">
+        <v>80930</v>
+      </c>
+      <c r="Y38">
+        <v>39472</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0.312</v>
+      </c>
+      <c r="AB38">
+        <v>19.940999999999999</v>
+      </c>
+      <c r="AC38">
+        <v>20.047000000000001</v>
+      </c>
+      <c r="AD38">
+        <v>0.16</v>
+      </c>
+      <c r="AE38">
+        <v>18.983000000000001</v>
+      </c>
+      <c r="AF38">
+        <v>19.041</v>
+      </c>
+      <c r="AG38">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AH38">
+        <v>18.571999999999999</v>
+      </c>
+      <c r="AI38">
+        <v>18.631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>8113</v>
+      </c>
+      <c r="E39">
+        <v>8934</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>95</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.185</v>
+      </c>
+      <c r="L39">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M39">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N39">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.313</v>
+      </c>
+      <c r="P39">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="Q39">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="R39">
+        <v>0.248</v>
+      </c>
+      <c r="S39">
+        <v>0.312</v>
+      </c>
+      <c r="T39">
+        <v>12073</v>
+      </c>
+      <c r="U39">
+        <v>12894</v>
+      </c>
+      <c r="V39">
+        <v>1000</v>
+      </c>
+      <c r="W39">
+        <v>98055</v>
+      </c>
+      <c r="X39">
+        <v>193979</v>
+      </c>
+      <c r="Y39">
+        <v>95998</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AB39">
+        <v>49.79</v>
+      </c>
+      <c r="AC39">
+        <v>49.866999999999997</v>
+      </c>
+      <c r="AD39">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AE39">
+        <v>51.338000000000001</v>
+      </c>
+      <c r="AF39">
+        <v>51.412999999999997</v>
+      </c>
+      <c r="AG39">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AH39">
+        <v>50.268999999999998</v>
+      </c>
+      <c r="AI39">
+        <v>50.348999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>21</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>8122</v>
+      </c>
+      <c r="E40">
+        <v>8941</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>109</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.18</v>
+      </c>
+      <c r="L40">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.214</v>
+      </c>
+      <c r="O40">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="P40">
+        <v>0.4</v>
+      </c>
+      <c r="Q40">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="S40">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="T40">
+        <v>12082</v>
+      </c>
+      <c r="U40">
+        <v>12901</v>
+      </c>
+      <c r="V40">
+        <v>1000</v>
+      </c>
+      <c r="W40">
+        <v>17747</v>
+      </c>
+      <c r="X40">
+        <v>33317</v>
+      </c>
+      <c r="Y40">
+        <v>15664</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AB40">
+        <v>16.295999999999999</v>
+      </c>
+      <c r="AC40">
+        <v>16.364999999999998</v>
+      </c>
+      <c r="AD40">
+        <v>0.185</v>
+      </c>
+      <c r="AE40">
+        <v>15.064</v>
+      </c>
+      <c r="AF40">
+        <v>15.134</v>
+      </c>
+      <c r="AG40">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AH40">
+        <v>17.177</v>
+      </c>
+      <c r="AI40">
+        <v>17.241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7872</v>
+      </c>
+      <c r="E41">
+        <v>8669</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>96</v>
+      </c>
+      <c r="H41">
+        <v>23</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M41">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N41">
+        <v>0.193</v>
+      </c>
+      <c r="O41">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P41">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="Q41">
+        <v>0.222</v>
+      </c>
+      <c r="R41">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="S41">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="T41">
+        <v>11832</v>
+      </c>
+      <c r="U41">
+        <v>12629</v>
+      </c>
+      <c r="V41">
+        <v>1000</v>
+      </c>
+      <c r="W41">
+        <v>8860</v>
+      </c>
+      <c r="X41">
+        <v>15588</v>
+      </c>
+      <c r="Y41">
+        <v>6800</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>10.86</v>
+      </c>
+      <c r="AC41">
+        <v>10.981999999999999</v>
+      </c>
+      <c r="AD41">
+        <v>0.247</v>
+      </c>
+      <c r="AE41">
+        <v>11.305999999999999</v>
+      </c>
+      <c r="AF41">
+        <v>11.401999999999999</v>
+      </c>
+      <c r="AG41">
+        <v>0.252</v>
+      </c>
+      <c r="AH41">
+        <v>10.718</v>
+      </c>
+      <c r="AI41">
+        <v>10.808999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>30</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>10758</v>
+      </c>
+      <c r="E42">
+        <v>11850</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>150</v>
+      </c>
+      <c r="H42">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="L42">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M42">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="N42">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="P42">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="Q42">
+        <v>0.315</v>
+      </c>
+      <c r="R42">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="S42">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="T42">
+        <v>14718</v>
+      </c>
+      <c r="U42">
+        <v>15810</v>
+      </c>
+      <c r="V42">
+        <v>1000</v>
+      </c>
+      <c r="W42">
+        <v>122867</v>
+      </c>
+      <c r="X42">
+        <v>243489</v>
+      </c>
+      <c r="Y42">
+        <v>120752</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0.376</v>
+      </c>
+      <c r="AB42">
+        <v>108.59099999999999</v>
+      </c>
+      <c r="AC42">
+        <v>108.74299999999999</v>
+      </c>
+      <c r="AD42">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AE42">
+        <v>83.774000000000001</v>
+      </c>
+      <c r="AF42">
+        <v>83.87</v>
+      </c>
+      <c r="AG42">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AH42">
+        <v>100.738</v>
+      </c>
+      <c r="AI42">
+        <v>100.836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>31</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43">
+        <v>10727</v>
+      </c>
+      <c r="E43">
+        <v>11820</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>116</v>
+      </c>
+      <c r="H43">
+        <v>17</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L43">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="M43">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="N43">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="O43">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="P43">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Q43">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R43">
+        <v>0.438</v>
+      </c>
+      <c r="S43">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="T43">
+        <v>14687</v>
+      </c>
+      <c r="U43">
+        <v>15780</v>
+      </c>
+      <c r="V43">
+        <v>1000</v>
+      </c>
+      <c r="W43">
+        <v>6848</v>
+      </c>
+      <c r="X43">
+        <v>11516</v>
+      </c>
+      <c r="Y43">
+        <v>4762</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AB43">
+        <v>13.981</v>
+      </c>
+      <c r="AC43">
+        <v>14.105</v>
+      </c>
+      <c r="AD43">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="AE43">
+        <v>12.379</v>
+      </c>
+      <c r="AF43">
+        <v>12.569000000000001</v>
+      </c>
+      <c r="AG43">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AH43">
+        <v>10.513999999999999</v>
+      </c>
+      <c r="AI43">
+        <v>10.632999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>32</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44">
+        <v>10656</v>
+      </c>
+      <c r="E44">
+        <v>11734</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>28</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="L44">
+        <v>0.437</v>
+      </c>
+      <c r="M44">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N44">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P44">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="R44">
+        <v>0.45</v>
+      </c>
+      <c r="S44">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="T44">
+        <v>14616</v>
+      </c>
+      <c r="U44">
+        <v>15694</v>
+      </c>
+      <c r="V44">
+        <v>1000</v>
+      </c>
+      <c r="W44">
+        <v>32702</v>
+      </c>
+      <c r="X44">
+        <v>63270</v>
+      </c>
+      <c r="Y44">
+        <v>30642</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AB44">
+        <v>33.536999999999999</v>
+      </c>
+      <c r="AC44">
+        <v>33.658000000000001</v>
+      </c>
+      <c r="AD44">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="AE44">
+        <v>34.786000000000001</v>
+      </c>
+      <c r="AF44">
+        <v>34.878999999999998</v>
+      </c>
+      <c r="AG44">
+        <v>0.221</v>
+      </c>
+      <c r="AH44">
+        <v>47.518000000000001</v>
+      </c>
+      <c r="AI44">
+        <v>47.604999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>13237</v>
+      </c>
+      <c r="E45">
+        <v>14585</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>177</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="L45">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="N45">
+        <v>0.318</v>
+      </c>
+      <c r="O45">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="P45">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q45">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="R45">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="S45">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="T45">
+        <v>17197</v>
+      </c>
+      <c r="U45">
+        <v>18545</v>
+      </c>
+      <c r="V45">
+        <v>1000</v>
+      </c>
+      <c r="W45">
+        <v>6257</v>
+      </c>
+      <c r="X45">
+        <v>10217</v>
+      </c>
+      <c r="Y45">
+        <v>4116</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>13.382</v>
+      </c>
+      <c r="AC45">
+        <v>13.5</v>
+      </c>
+      <c r="AD45">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AE45">
+        <v>10.835000000000001</v>
+      </c>
+      <c r="AF45">
+        <v>10.929</v>
+      </c>
+      <c r="AG45">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AH45">
+        <v>12.493</v>
+      </c>
+      <c r="AI45">
+        <v>12.612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>13444</v>
+      </c>
+      <c r="E46">
+        <v>14812</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>66</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="M46">
+        <v>0.76</v>
+      </c>
+      <c r="N46">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O46">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="P46">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>0.33</v>
+      </c>
+      <c r="R46">
+        <v>0.63</v>
+      </c>
+      <c r="S46">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="T46">
+        <v>17404</v>
+      </c>
+      <c r="U46">
+        <v>18772</v>
+      </c>
+      <c r="V46">
+        <v>1000</v>
+      </c>
+      <c r="W46">
+        <v>8328</v>
+      </c>
+      <c r="X46">
+        <v>14566</v>
+      </c>
+      <c r="Y46">
+        <v>6287</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AB46">
+        <v>13.738</v>
+      </c>
+      <c r="AC46">
+        <v>13.888</v>
+      </c>
+      <c r="AD46">
+        <v>0.32</v>
+      </c>
+      <c r="AE46">
+        <v>14.705</v>
+      </c>
+      <c r="AF46">
+        <v>14.831</v>
+      </c>
+      <c r="AG46">
+        <v>0.311</v>
+      </c>
+      <c r="AH46">
+        <v>13.565</v>
+      </c>
+      <c r="AI46">
+        <v>13.701000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
+      <c r="C47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47">
+        <v>13328</v>
+      </c>
+      <c r="E47">
+        <v>14685</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>83</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="L47">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="N47">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="O47">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="P47">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="Q47">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="R47">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="S47">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="T47" s="2">
+        <v>17288</v>
+      </c>
+      <c r="U47" s="2">
+        <v>18645</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W47">
+        <v>60053</v>
+      </c>
+      <c r="X47">
+        <v>117991</v>
+      </c>
+      <c r="Y47">
+        <v>58001</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0.35</v>
+      </c>
+      <c r="AB47">
+        <v>68.697000000000003</v>
+      </c>
+      <c r="AC47">
+        <v>68.852000000000004</v>
+      </c>
+      <c r="AD47">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AE47">
+        <v>51.957999999999998</v>
+      </c>
+      <c r="AF47">
+        <v>52.067</v>
+      </c>
+      <c r="AG47">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AH47">
+        <v>75.578000000000003</v>
+      </c>
+      <c r="AI47">
+        <v>75.721999999999994</v>
+      </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -28992,6 +30532,9 @@
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -29000,6 +30543,9 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -29008,6 +30554,9 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -29016,7 +30565,9 @@
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -29025,7 +30576,9 @@
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
@@ -29037,7 +30590,9 @@
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -29046,7 +30601,9 @@
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -29061,7 +30618,9 @@
       <c r="B61">
         <v>3</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -29075,7 +30634,9 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -29084,7 +30645,9 @@
       <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -29099,7 +30662,9 @@
       <c r="B64">
         <v>4</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -29111,7 +30676,9 @@
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -29120,7 +30687,9 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -29129,7 +30698,9 @@
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -29143,7 +30714,9 @@
       <c r="B68">
         <v>5</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -29323,6 +30896,9 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -29330,6 +30906,9 @@
       </c>
       <c r="B76">
         <v>1</v>
+      </c>
+      <c r="C76">
+        <v>24</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -29349,6 +30928,9 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -29357,7 +30939,9 @@
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -29366,7 +30950,9 @@
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -29381,7 +30967,9 @@
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -29390,7 +30978,9 @@
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
@@ -29403,7 +30993,9 @@
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -29412,7 +31004,9 @@
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -29421,7 +31015,9 @@
       <c r="B84">
         <v>4</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -29436,7 +31032,9 @@
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -29448,7 +31046,9 @@
       <c r="B86">
         <v>4</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -29457,7 +31057,9 @@
       <c r="B87">
         <v>5</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
@@ -29469,7 +31071,9 @@
       <c r="B88">
         <v>5</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
@@ -29484,7 +31088,9 @@
       <c r="B89">
         <v>5</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Constraints" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="97">
   <si>
     <t>Run</t>
   </si>
@@ -330,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,8 +368,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +392,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -440,12 +452,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -459,13 +472,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -595,6 +611,1517 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>10 Solutions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$I$2:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.1187269729718287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11813897880583678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17014395193802512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20322580946383451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23112729160001227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37773472606510916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52390286240936557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68858636014817731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9326603567024776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5081057095703692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.5905807503954361E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7958669093294704E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10691845154486945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15879289425183235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22708745996596125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24908093144028493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23844840329286437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30074901114503988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28366371982754124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9812948177069396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$K$2:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7.837459345418106E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2001009294525404E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11130381037109011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13776490140155909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14112515449175733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16365266899139061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22832701688783202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23397925761994948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28407873426735769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3939455246647362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$L$2:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.5412518447039589E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8983911371815957E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10156336722046637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12786435704368879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15417903466059946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16262414002527026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22716082133096244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24044982172616361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="477898928"/>
+        <c:axId val="477893832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="477898928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477893832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477893832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477898928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$24:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$I$24:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.30144674955333528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52670223026525131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1782102891205311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.014524622039671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3311456376174444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.844199160281665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.18549233492114</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>42.83365578908839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$24:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$J$24:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.26271717043663456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71888943125240323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3579809941861845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.690071337062054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.845771604971324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.410604615631556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.865052853918522</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>8.5724833041754245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$24:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$K$24:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.3103117867143107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43395791731254568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7141563995510145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.108566407841614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.470053843172394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.235223571130939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.758058682833097</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>16.756228717733677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$L$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$24:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$L$24:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.28661775870741463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48053330668291011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9914634565127107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.436446512710656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.888986502272239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.441589155109996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6598031875659505</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>16.79035970925041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="475285064"/>
+        <c:axId val="475282712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="475285064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475282712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475282712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475285064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1257,7 +2784,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1909,7 +3436,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2485,7 +4012,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3061,7 +4588,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3345,6 +4872,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16627748000652248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26165791948762801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28407873426735769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33768944938022039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3939455246647362</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3607,7 +5149,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3891,6 +5433,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.732582179426373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.684241711696046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.573600803808091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.117950666124415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.374654062644559</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4354,6 +5911,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7489,7 +9126,1104 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7689,6 +10423,50 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A11:AI26"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
@@ -7732,7 +10510,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
@@ -7776,7 +10554,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
@@ -7820,7 +10598,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A95:AI110"/>
   <tableColumns count="35">
@@ -7864,7 +10642,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -7908,7 +10686,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1410" displayName="Table1410" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
@@ -7952,7 +10730,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
@@ -7996,7 +10774,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
@@ -8040,57 +10818,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1917" displayName="Table1917" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table141018" displayName="Table141018" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A32:AI47"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -8145,6 +10879,50 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table141018" displayName="Table141018" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A32:AI47"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1431119" displayName="Table1431119" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
@@ -8188,7 +10966,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table14371220" displayName="Table14371220" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
@@ -8232,7 +11010,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table19172129" displayName="Table19172129" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -8276,7 +11054,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table1410182230" displayName="Table1410182230" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
@@ -8320,7 +11098,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table14311192331" displayName="Table14311192331" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
@@ -8364,7 +11142,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table143712202432" displayName="Table143712202432" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
@@ -8408,7 +11186,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table191721" displayName="Table191721" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -8452,7 +11230,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table14101822" displayName="Table14101822" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
@@ -8496,7 +11274,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table143111923" displayName="Table143111923" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
@@ -8540,7 +11318,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table3234" displayName="Table3234" ref="F23:L41" totalsRowShown="0">
+  <autoFilter ref="F23:L41"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Constraints"/>
+    <tableColumn id="2" name="CTC"/>
+    <tableColumn id="3" name="CMC"/>
+    <tableColumn id="4" name="Default"/>
+    <tableColumn id="5" name="Heuristic 1"/>
+    <tableColumn id="6" name="Heuristic 2"/>
+    <tableColumn id="7" name="Heuristic 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table1437122024" displayName="Table1437122024" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
@@ -8584,7 +11378,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A12:G17" totalsRowShown="0">
   <autoFilter ref="A12:G17"/>
   <tableColumns count="7">
@@ -8602,7 +11396,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A3:G8" totalsRowShown="0">
   <autoFilter ref="A3:G8"/>
   <tableColumns count="7">
@@ -8620,7 +11414,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table414" displayName="Table414" ref="A22:F27" totalsRowShown="0">
   <autoFilter ref="A22:F27"/>
   <tableColumns count="6">
@@ -8637,7 +11431,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table41415" displayName="Table41415" ref="A31:F36" totalsRowShown="0">
   <autoFilter ref="A31:F36"/>
   <tableColumns count="6">
@@ -8654,7 +11448,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table41413" displayName="Table41413" ref="A41:F46" totalsRowShown="0">
   <autoFilter ref="A41:F46"/>
   <tableColumns count="6">
@@ -8671,7 +11465,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table4141516" displayName="Table4141516" ref="A50:F55" totalsRowShown="0">
   <autoFilter ref="A50:F55"/>
   <tableColumns count="6">
@@ -8683,50 +11477,6 @@
     <tableColumn id="3" name="Heuristic 1" dataDxfId="14"/>
     <tableColumn id="4" name="Heuristic 2" dataDxfId="13"/>
     <tableColumn id="5" name="Heuristic 3" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A11:AI26"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8995,10 +11745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="I23" activeCellId="1" sqref="F23:F40 I23:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9048,15 +11798,15 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <f>B2+C2</f>
         <v>6</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B12</f>
         <v>4</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B6</f>
         <v>2</v>
       </c>
@@ -9069,33 +11819,33 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <f>'Summary - Models'!C4</f>
         <v>9.1187269729718287E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <f>'Summary - Models'!D4</f>
         <v>6.5905807503954361E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <f>'Summary - Models'!E4</f>
         <v>7.837459345418106E-2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <f>'Summary - Models'!F4</f>
         <v>6.5412518447039589E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <f t="shared" ref="A3:A6" si="0">B3+C3</f>
         <v>12</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B15</f>
         <v>8</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B15</f>
         <v>4</v>
       </c>
@@ -9108,90 +11858,138 @@
       <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <f>HARMEAN('Summary - Models'!C5,'Summary - Models'!C23)</f>
         <v>0.11813897880583678</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <f>HARMEAN('Summary - Models'!D5,'Summary - Models'!D23)</f>
         <v>9.7958669093294704E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <f>HARMEAN('Summary - Models'!E5,'Summary - Models'!E23)</f>
         <v>8.2001009294525404E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <f>HARMEAN('Summary - Models'!F5,'Summary - Models'!F23)</f>
         <v>7.8983911371815957E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B18</f>
         <v>12</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B18</f>
         <v>6</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <f>'Summary - Models'!C6</f>
+        <v>0.17014395193802512</v>
+      </c>
+      <c r="J4" s="7">
+        <f>'Summary - Models'!D6</f>
+        <v>0.10691845154486945</v>
+      </c>
+      <c r="K4" s="7">
+        <f>'Summary - Models'!E6</f>
+        <v>0.11130381037109011</v>
+      </c>
+      <c r="L4" s="7">
+        <f>'Summary - Models'!F6</f>
+        <v>0.10156336722046637</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B21</f>
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B21</f>
         <v>8</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <f>HARMEAN('Summary - Models'!C7,'Summary - Models'!C24,'Summary - Models'!C42)</f>
+        <v>0.20322580946383451</v>
+      </c>
+      <c r="J5" s="7">
+        <f>HARMEAN('Summary - Models'!D7,'Summary - Models'!D24,'Summary - Models'!D42)</f>
+        <v>0.15879289425183235</v>
+      </c>
+      <c r="K5" s="7">
+        <f>HARMEAN('Summary - Models'!E7,'Summary - Models'!E24,'Summary - Models'!E42)</f>
+        <v>0.13776490140155909</v>
+      </c>
+      <c r="L5" s="7">
+        <f>HARMEAN('Summary - Models'!F7,'Summary - Models'!F24,'Summary - Models'!F42)</f>
+        <v>0.12786435704368879</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B3*'40 - Models'!B24</f>
         <v>20</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <f>'40 - Models'!B2*'40 - Models'!B6*'40 - Models'!B24</f>
         <v>10</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <f>'Summary - Models'!C8</f>
+        <v>0.23112729160001227</v>
+      </c>
+      <c r="J6" s="7">
+        <f>'Summary - Models'!D8</f>
+        <v>0.22708745996596125</v>
+      </c>
+      <c r="K6" s="7">
+        <f>'Summary - Models'!E8</f>
+        <v>0.14112515449175733</v>
+      </c>
+      <c r="L6" s="7">
+        <f>'Summary - Models'!F8</f>
+        <v>0.15417903466059946</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9208,13 +12006,29 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <f>'Summary - Models'!C25</f>
+        <v>0.37773472606510916</v>
+      </c>
+      <c r="J7" s="7">
+        <f>'Summary - Models'!D25</f>
+        <v>0.24908093144028493</v>
+      </c>
+      <c r="K7" s="7">
+        <f>'Summary - Models'!E25</f>
+        <v>0.16365266899139061</v>
+      </c>
+      <c r="L7" s="7">
+        <f>'Summary - Models'!F25</f>
+        <v>0.16262414002527026</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -9230,14 +12044,30 @@
         <f>'80 - Models'!B2*'80 - Models'!B6*'80 - Models'!B15</f>
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>36</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
+      <c r="F8" s="12">
+        <v>48</v>
+      </c>
+      <c r="G8" s="12">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14">
+        <f>HARMEAN('Summary - Models'!C26,'Summary - Models'!C43)</f>
+        <v>0.52390286240936557</v>
+      </c>
+      <c r="J8" s="14">
+        <f>HARMEAN('Summary - Models'!D26,'Summary - Models'!D43)</f>
+        <v>0.23844840329286437</v>
+      </c>
+      <c r="K8" s="14">
+        <f>HARMEAN('Summary - Models'!E26,'Summary - Models'!E43)</f>
+        <v>0.22832701688783202</v>
+      </c>
+      <c r="L8" s="14">
+        <f>HARMEAN('Summary - Models'!F26,'Summary - Models'!F43)</f>
+        <v>0.22716082133096244</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -9254,13 +12084,29 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="I9" s="7">
+        <f>'Summary - Models'!C27</f>
+        <v>0.68858636014817731</v>
+      </c>
+      <c r="J9" s="7">
+        <f>'Summary - Models'!D27</f>
+        <v>0.30074901114503988</v>
+      </c>
+      <c r="K9" s="7">
+        <f>'Summary - Models'!E27</f>
+        <v>0.23397925761994948</v>
+      </c>
+      <c r="L9" s="7">
+        <f>'Summary - Models'!F27</f>
+        <v>0.24044982172616361</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -9277,13 +12123,29 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <f>'Summary - Models'!C44</f>
+        <v>0.9326603567024776</v>
+      </c>
+      <c r="J10" s="7">
+        <f>'Summary - Models'!D44</f>
+        <v>0.28366371982754124</v>
+      </c>
+      <c r="K10" s="7">
+        <f>'Summary - Models'!E44</f>
+        <v>0.28407873426735769</v>
+      </c>
+      <c r="L10" s="7">
+        <f>'Summary - Models'!F44</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -9299,132 +12161,168 @@
         <f>'80 - Models'!B2*'80 - Models'!B6*'80 - Models'!B24</f>
         <v>20</v>
       </c>
-      <c r="F11">
-        <v>72</v>
-      </c>
-      <c r="G11">
-        <v>48</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="12">
+        <v>96</v>
+      </c>
+      <c r="G11" s="12">
+        <v>64</v>
+      </c>
+      <c r="H11" s="12">
+        <v>32</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <f t="shared" si="1"/>
+      <c r="B12" s="13">
+        <f>'160 - Models'!B2*'160 - Models'!B3*Table1917[[#This Row],['#Models]]</f>
         <v>16</v>
       </c>
-      <c r="B12" s="12">
+      <c r="C12" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B6*Table1917[[#This Row],['#Models]]</f>
         <v>8</v>
       </c>
-      <c r="C12" s="12">
-        <f>'160 - Models'!B2*'160 - Models'!B6*Table1917[[#This Row],['#Models]]</f>
-        <v>8</v>
-      </c>
       <c r="F12">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G12">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="I12" s="7">
+        <f>'Summary - Models'!C46</f>
+        <v>1.5081057095703692</v>
+      </c>
+      <c r="J12" s="7">
+        <f>'Summary - Models'!D46</f>
+        <v>0.9812948177069396</v>
+      </c>
+      <c r="K12" s="7">
+        <f>'Summary - Models'!E46</f>
+        <v>0.3939455246647362</v>
+      </c>
+      <c r="L12" s="7">
+        <f>'Summary - Models'!F46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B3*'160 - Models'!B15</f>
         <v>32</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B6*'160 - Models'!B15</f>
         <v>16</v>
       </c>
-      <c r="F13">
-        <v>120</v>
-      </c>
-      <c r="G13">
-        <v>80</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
+      <c r="F13" s="12">
+        <v>144</v>
+      </c>
+      <c r="G13" s="12">
+        <v>96</v>
+      </c>
+      <c r="H13" s="12">
+        <v>48</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <f t="shared" ref="A14:A16" si="2">B14+C14</f>
         <v>72</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B3*'160 - Models'!B18</f>
         <v>48</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B6*'160 - Models'!B18</f>
         <v>24</v>
       </c>
-      <c r="F14">
-        <v>144</v>
-      </c>
-      <c r="G14">
-        <v>96</v>
-      </c>
-      <c r="H14">
-        <v>48</v>
-      </c>
+      <c r="F14" s="12">
+        <v>192</v>
+      </c>
+      <c r="G14" s="12">
+        <v>128</v>
+      </c>
+      <c r="H14" s="12">
+        <v>64</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B3*'160 - Models'!B21</f>
         <v>64</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B6*'160 - Models'!B21</f>
         <v>32</v>
       </c>
-      <c r="F15">
-        <v>192</v>
-      </c>
-      <c r="G15">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>64</v>
-      </c>
+      <c r="F15" s="12">
+        <v>240</v>
+      </c>
+      <c r="G15" s="12">
+        <v>160</v>
+      </c>
+      <c r="H15" s="12">
+        <v>80</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B3*'160 - Models'!B24</f>
         <v>80</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <f>'160 - Models'!B2*'160 - Models'!B6*'160 - Models'!B24</f>
         <v>40</v>
       </c>
-      <c r="F16">
-        <v>240</v>
-      </c>
-      <c r="G16">
-        <v>160</v>
-      </c>
-      <c r="H16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="12">
+        <v>288</v>
+      </c>
+      <c r="G16" s="12">
+        <v>192</v>
+      </c>
+      <c r="H16" s="12">
+        <v>96</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -9437,17 +12335,21 @@
         <f>'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B12</f>
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>288</v>
-      </c>
-      <c r="G17">
-        <v>192</v>
-      </c>
-      <c r="H17">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="12">
+        <v>384</v>
+      </c>
+      <c r="G17" s="12">
+        <v>256</v>
+      </c>
+      <c r="H17" s="12">
+        <v>128</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ref="A18:A21" si="3">B18+C18</f>
         <v>96</v>
@@ -9460,17 +12362,21 @@
         <f>'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B15</f>
         <v>32</v>
       </c>
-      <c r="F18">
-        <v>384</v>
-      </c>
-      <c r="G18">
-        <v>256</v>
-      </c>
-      <c r="H18">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F18" s="12">
+        <v>480</v>
+      </c>
+      <c r="G18" s="12">
+        <v>320</v>
+      </c>
+      <c r="H18" s="12">
+        <v>160</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>144</v>
@@ -9483,17 +12389,8 @@
         <f>'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B18</f>
         <v>48</v>
       </c>
-      <c r="F19">
-        <v>480</v>
-      </c>
-      <c r="G19">
-        <v>320</v>
-      </c>
-      <c r="H19">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -9507,7 +12404,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -9521,81 +12418,441 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <f>B22+C22</f>
         <v>96</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B3*'640 - Models'!B12</f>
         <v>64</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B6*'640 - Models'!B12</f>
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B3*'640 - Models'!B15</f>
         <v>128</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B6*'640 - Models'!B15</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="F23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <f t="shared" ref="A24:A26" si="4">B24+C24</f>
         <v>288</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B3*'640 - Models'!B18</f>
         <v>192</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B6*'640 - Models'!B18</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <f>'Summary - Models'!C13</f>
+        <v>0.30144674955333528</v>
+      </c>
+      <c r="J24" s="7">
+        <f>'Summary - Models'!D13</f>
+        <v>0.26271717043663456</v>
+      </c>
+      <c r="K24" s="7">
+        <f>'Summary - Models'!E13</f>
+        <v>0.3103117867143107</v>
+      </c>
+      <c r="L24" s="7">
+        <f>'Summary - Models'!F13</f>
+        <v>0.28661775870741463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <f t="shared" si="4"/>
         <v>384</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B3*'640 - Models'!B21</f>
         <v>256</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B6*'640 - Models'!B21</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
+        <f>HARMEAN('Summary - Models'!C14,'Summary - Models'!C32)</f>
+        <v>0.52670223026525131</v>
+      </c>
+      <c r="J25" s="7">
+        <f>HARMEAN('Summary - Models'!D14,'Summary - Models'!D32)</f>
+        <v>0.71888943125240323</v>
+      </c>
+      <c r="K25" s="7">
+        <f>HARMEAN('Summary - Models'!E14,'Summary - Models'!E32)</f>
+        <v>0.43395791731254568</v>
+      </c>
+      <c r="L25" s="7">
+        <f>HARMEAN('Summary - Models'!F14,'Summary - Models'!F32)</f>
+        <v>0.48053330668291011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B3*'640 - Models'!B24</f>
         <v>320</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="13">
         <f>'640 - Models'!B2*'640 - Models'!B6*'640 - Models'!B24</f>
         <v>160</v>
       </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <f>'Summary - Models'!C15</f>
+        <v>7.1782102891205311</v>
+      </c>
+      <c r="J26" s="7">
+        <f>'Summary - Models'!D15</f>
+        <v>7.3579809941861845</v>
+      </c>
+      <c r="K26" s="7">
+        <f>'Summary - Models'!E15</f>
+        <v>5.7141563995510145</v>
+      </c>
+      <c r="L26" s="7">
+        <f>'Summary - Models'!F15</f>
+        <v>4.9914634565127107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27" s="7">
+        <f>HARMEAN('Summary - Models'!C16,'Summary - Models'!C33)</f>
+        <v>14.014524622039671</v>
+      </c>
+      <c r="J27" s="7">
+        <f>HARMEAN('Summary - Models'!D16,'Summary - Models'!D33)</f>
+        <v>24.690071337062054</v>
+      </c>
+      <c r="K27" s="7">
+        <f>HARMEAN('Summary - Models'!E16,'Summary - Models'!E33)</f>
+        <v>21.108566407841614</v>
+      </c>
+      <c r="L27" s="7">
+        <f>HARMEAN('Summary - Models'!F16,'Summary - Models'!F33)</f>
+        <v>20.436446512710656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7">
+        <f>'Summary - Models'!C17</f>
+        <v>9.3311456376174444</v>
+      </c>
+      <c r="J28" s="7">
+        <f>'Summary - Models'!D17</f>
+        <v>13.845771604971324</v>
+      </c>
+      <c r="K28" s="7">
+        <f>'Summary - Models'!E17</f>
+        <v>30.470053843172394</v>
+      </c>
+      <c r="L28" s="7">
+        <f>'Summary - Models'!F17</f>
+        <v>33.888986502272239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7">
+        <f>'Summary - Models'!C34</f>
+        <v>25.844199160281665</v>
+      </c>
+      <c r="J29" s="7">
+        <f>'Summary - Models'!D34</f>
+        <v>37.410604615631556</v>
+      </c>
+      <c r="K29" s="7">
+        <f>'Summary - Models'!E34</f>
+        <v>14.235223571130939</v>
+      </c>
+      <c r="L29" s="7">
+        <f>'Summary - Models'!F34</f>
+        <v>14.441589155109996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F30" s="12">
+        <v>48</v>
+      </c>
+      <c r="G30" s="12">
+        <v>32</v>
+      </c>
+      <c r="H30" s="12">
+        <v>16</v>
+      </c>
+      <c r="I30" s="14">
+        <f>HARMEAN('Summary - Models'!C35,'Summary - Models'!C52)</f>
+        <v>25.18549233492114</v>
+      </c>
+      <c r="J30" s="14">
+        <f>HARMEAN('Summary - Models'!D35,'Summary - Models'!D52)</f>
+        <v>12.865052853918522</v>
+      </c>
+      <c r="K30" s="14">
+        <f>HARMEAN('Summary - Models'!E35,'Summary - Models'!E52)</f>
+        <v>15.758058682833097</v>
+      </c>
+      <c r="L30" s="14">
+        <f>HARMEAN('Summary - Models'!F35,'Summary - Models'!F52)</f>
+        <v>9.6598031875659505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <f>'Summary - Models'!C36</f>
+        <v>42.83365578908839</v>
+      </c>
+      <c r="J31">
+        <f>'Summary - Models'!D36</f>
+        <v>8.5724833041754245</v>
+      </c>
+      <c r="K31">
+        <f>'Summary - Models'!E36</f>
+        <v>16.756228717733677</v>
+      </c>
+      <c r="L31">
+        <f>'Summary - Models'!F36</f>
+        <v>16.79035970925041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <v>48</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F33" s="12">
+        <v>96</v>
+      </c>
+      <c r="G33" s="12">
+        <v>64</v>
+      </c>
+      <c r="H33" s="12">
+        <v>32</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <v>80</v>
+      </c>
+      <c r="H34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F35" s="12">
+        <v>144</v>
+      </c>
+      <c r="G35" s="12">
+        <v>96</v>
+      </c>
+      <c r="H35" s="12">
+        <v>48</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F36" s="12">
+        <v>192</v>
+      </c>
+      <c r="G36" s="12">
+        <v>128</v>
+      </c>
+      <c r="H36" s="12">
+        <v>64</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F37" s="12">
+        <v>240</v>
+      </c>
+      <c r="G37" s="12">
+        <v>160</v>
+      </c>
+      <c r="H37" s="12">
+        <v>80</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F38" s="12">
+        <v>288</v>
+      </c>
+      <c r="G38" s="12">
+        <v>192</v>
+      </c>
+      <c r="H38" s="12">
+        <v>96</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F39" s="12">
+        <v>384</v>
+      </c>
+      <c r="G39" s="12">
+        <v>256</v>
+      </c>
+      <c r="H39" s="12">
+        <v>128</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F40" s="12">
+        <v>480</v>
+      </c>
+      <c r="G40" s="12">
+        <v>320</v>
+      </c>
+      <c r="H40" s="12">
+        <v>160</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9604,8 +12861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10346,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <f>'160 - Models'!$B$2*'160 - Models'!$B$6*Table41413[[#This Row],[Models]]+'160 - Models'!$B$2*'160 - Models'!$B$3*Table41413[[#This Row],[Models]]</f>
+        <f>'160 - Models'!B2*'160 - Models'!B3*'160 - Models'!B12+'160 - Models'!B2*'160 - Models'!B6*'160 - Models'!B12</f>
         <v>24</v>
       </c>
       <c r="C42" s="7">
@@ -10357,7 +13614,10 @@
         <f>HARMEAN('160 - Models'!L12:L14,'160 - Models'!O12:O14,'160 - Models'!R12:R14)</f>
         <v>0.19992273496842214</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7">
+        <f>HARMEAN('160 - Models'!L54:L56,'160 - Models'!O54:O56,'160 - Models'!R54:R56)</f>
+        <v>0.16627748000652248</v>
+      </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -10376,7 +13636,10 @@
         <f>HARMEAN('160 - Models'!L36:L38,'160 - Models'!O36:O38,'160 - Models'!R36:R38)</f>
         <v>0.21353666647650751</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="7">
+        <f>HARMEAN('160 - Models'!L57:L59,'160 - Models'!O57:O59,'160 - Models'!R57:R59)</f>
+        <v>0.26165791948762801</v>
+      </c>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -10395,7 +13658,10 @@
         <f>HARMEAN('160 - Models'!L39:L41,'160 - Models'!O39:O41,'160 - Models'!R39:R41)</f>
         <v>0.28366371982754124</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="7">
+        <f>HARMEAN('160 - Models'!L60:L62,'160 - Models'!O60:O62,'160 - Models'!R60:R62)</f>
+        <v>0.28407873426735769</v>
+      </c>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -10414,7 +13680,10 @@
         <f>HARMEAN('160 - Models'!L42:L44,'160 - Models'!R42:R44,'160 - Models'!O42:O44)</f>
         <v>0.48866628896033271</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7">
+        <f>HARMEAN('160 - Models'!L63:L65,'160 - Models'!O63:O65,'160 - Models'!R63:R65)</f>
+        <v>0.33768944938022039</v>
+      </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -10433,7 +13702,10 @@
         <f>HARMEAN('160 - Models'!O45:O47,'160 - Models'!R45:R47,'160 - Models'!U45:U47)</f>
         <v>0.9812948177069396</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7">
+        <f>HARMEAN('160 - Models'!L66:L68,'160 - Models'!O66:O68,'160 - Models'!R66:R68)</f>
+        <v>0.3939455246647362</v>
+      </c>
       <c r="F46" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10488,7 +13760,10 @@
         <f>HARMEAN('160 - Models'!AB33:AB35,'160 - Models'!AE33:AE35,'160 - Models'!AH33:AH35)</f>
         <v>5.2052998606581884</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="7">
+        <f>HARMEAN('160 - Models'!AB54:AB56,'160 - Models'!AE54:AE56,'160 - Models'!AH54:AH56)</f>
+        <v>25.732582179426373</v>
+      </c>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -10507,7 +13782,10 @@
         <f>HARMEAN('160 - Models'!AB36:AB38,'160 - Models'!AE36:AE38,'160 - Models'!AH36:AH38)</f>
         <v>11.994521587515987</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7">
+        <f>HARMEAN('160 - Models'!AB57:AB59,'160 - Models'!AE57:AE59,'160 - Models'!AH57:AH59)</f>
+        <v>38.684241711696046</v>
+      </c>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -10526,7 +13804,10 @@
         <f>HARMEAN('160 - Models'!AB39:AB41,'160 - Models'!AE39:AE41,'160 - Models'!AH39:AH41)</f>
         <v>17.332615378285439</v>
       </c>
-      <c r="E53" s="7"/>
+      <c r="E53" s="7">
+        <f>HARMEAN('160 - Models'!AB60:AB62,'160 - Models'!AE60:AE62,'160 - Models'!AH60:AH62)</f>
+        <v>15.573600803808091</v>
+      </c>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -10545,7 +13826,10 @@
         <f>HARMEAN('160 - Models'!AB42:AB44,'160 - Models'!AE42:AE44,'160 - Models'!AH42:AH44)</f>
         <v>25.132571282451323</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="7">
+        <f>HARMEAN('160 - Models'!AB63:AB65,'160 - Models'!AE63:AE65,'160 - Models'!AH63:AH65)</f>
+        <v>95.117950666124415</v>
+      </c>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -10564,7 +13848,10 @@
         <f>HARMEAN('160 - Models'!AB45:AB47,'160 - Models'!AE45:AE47,'160 - Models'!AH45:AH47)</f>
         <v>17.695150497408196</v>
       </c>
-      <c r="E55" s="7"/>
+      <c r="E55" s="7">
+        <f>HARMEAN('160 - Models'!AB66:AB68,'160 - Models'!AE66:AE68,'160 - Models'!AH66:AH68)</f>
+        <v>28.374654062644559</v>
+      </c>
       <c r="F55" s="7"/>
     </row>
   </sheetData>
@@ -26766,8 +30053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="P49" workbookViewId="0">
+      <selection activeCell="AH69" sqref="AH69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30535,6 +33822,102 @@
       <c r="C54">
         <v>19</v>
       </c>
+      <c r="D54">
+        <v>2733</v>
+      </c>
+      <c r="E54">
+        <v>2998</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>48</v>
+      </c>
+      <c r="H54">
+        <v>15</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0.17</v>
+      </c>
+      <c r="M54">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="N54">
+        <v>0.188</v>
+      </c>
+      <c r="O54">
+        <v>0.155</v>
+      </c>
+      <c r="P54">
+        <v>0.216</v>
+      </c>
+      <c r="Q54">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="R54">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S54">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="T54">
+        <v>6693</v>
+      </c>
+      <c r="U54">
+        <v>6958</v>
+      </c>
+      <c r="V54">
+        <v>1000</v>
+      </c>
+      <c r="W54">
+        <v>45370</v>
+      </c>
+      <c r="X54">
+        <v>88688</v>
+      </c>
+      <c r="Y54">
+        <v>43351</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0.188</v>
+      </c>
+      <c r="AB54">
+        <v>24.553999999999998</v>
+      </c>
+      <c r="AC54">
+        <v>24.617999999999999</v>
+      </c>
+      <c r="AD54">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AE54">
+        <v>23.164000000000001</v>
+      </c>
+      <c r="AF54">
+        <v>23.228999999999999</v>
+      </c>
+      <c r="AG54">
+        <v>0.189</v>
+      </c>
+      <c r="AH54">
+        <v>21.974</v>
+      </c>
+      <c r="AI54">
+        <v>22.033999999999999</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -30546,6 +33929,102 @@
       <c r="C55">
         <v>24</v>
       </c>
+      <c r="D55">
+        <v>2748</v>
+      </c>
+      <c r="E55">
+        <v>3015</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>64</v>
+      </c>
+      <c r="H55">
+        <v>22</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M55">
+        <v>0.24</v>
+      </c>
+      <c r="N55">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="O55">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P55">
+        <v>0.224</v>
+      </c>
+      <c r="Q55">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="R55">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S55">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="T55">
+        <v>6708</v>
+      </c>
+      <c r="U55">
+        <v>6975</v>
+      </c>
+      <c r="V55">
+        <v>1000</v>
+      </c>
+      <c r="W55">
+        <v>32553</v>
+      </c>
+      <c r="X55">
+        <v>63025</v>
+      </c>
+      <c r="Y55">
+        <v>30519</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AB55">
+        <v>17.696999999999999</v>
+      </c>
+      <c r="AC55">
+        <v>17.766999999999999</v>
+      </c>
+      <c r="AD55">
+        <v>0.184</v>
+      </c>
+      <c r="AE55">
+        <v>17.492000000000001</v>
+      </c>
+      <c r="AF55">
+        <v>17.548999999999999</v>
+      </c>
+      <c r="AG55">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AH55">
+        <v>17.047000000000001</v>
+      </c>
+      <c r="AI55">
+        <v>17.114999999999998</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -30557,6 +34036,102 @@
       <c r="C56">
         <v>9</v>
       </c>
+      <c r="D56">
+        <v>2737</v>
+      </c>
+      <c r="E56">
+        <v>3002</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>48</v>
+      </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.192</v>
+      </c>
+      <c r="L56">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="M56">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="N56">
+        <v>0.184</v>
+      </c>
+      <c r="O56">
+        <v>0.156</v>
+      </c>
+      <c r="P56">
+        <v>0.216</v>
+      </c>
+      <c r="Q56">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="R56">
+        <v>0.17</v>
+      </c>
+      <c r="S56">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="T56">
+        <v>6697</v>
+      </c>
+      <c r="U56">
+        <v>6962</v>
+      </c>
+      <c r="V56">
+        <v>1000</v>
+      </c>
+      <c r="W56">
+        <v>145425</v>
+      </c>
+      <c r="X56">
+        <v>288791</v>
+      </c>
+      <c r="Y56">
+        <v>143402</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AB56">
+        <v>54.609000000000002</v>
+      </c>
+      <c r="AC56">
+        <v>54.662999999999997</v>
+      </c>
+      <c r="AD56">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE56">
+        <v>67.358999999999995</v>
+      </c>
+      <c r="AF56">
+        <v>67.412000000000006</v>
+      </c>
+      <c r="AG56">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AH56">
+        <v>67.335999999999999</v>
+      </c>
+      <c r="AI56">
+        <v>67.408000000000001</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -30568,6 +34143,102 @@
       <c r="C57" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="D57">
+        <v>5437</v>
+      </c>
+      <c r="E57">
+        <v>5982</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>93</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L57">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.41</v>
+      </c>
+      <c r="N57">
+        <v>0.249</v>
+      </c>
+      <c r="O57">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="P57">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Q57">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="R57">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S57">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="T57">
+        <v>9397</v>
+      </c>
+      <c r="U57">
+        <v>9942</v>
+      </c>
+      <c r="V57">
+        <v>1000</v>
+      </c>
+      <c r="W57">
+        <v>104034</v>
+      </c>
+      <c r="X57">
+        <v>205931</v>
+      </c>
+      <c r="Y57">
+        <v>101974</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AB57">
+        <v>61.673999999999999</v>
+      </c>
+      <c r="AC57">
+        <v>61.75</v>
+      </c>
+      <c r="AD57">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AE57">
+        <v>46.573999999999998</v>
+      </c>
+      <c r="AF57">
+        <v>46.631999999999998</v>
+      </c>
+      <c r="AG57">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AH57">
+        <v>48.237000000000002</v>
+      </c>
+      <c r="AI57">
+        <v>48.295000000000002</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -30579,9 +34250,102 @@
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
+      <c r="D58">
+        <v>5283</v>
+      </c>
+      <c r="E58">
+        <v>5818</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>103</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.18</v>
+      </c>
+      <c r="L58">
+        <v>0.216</v>
+      </c>
+      <c r="M58">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N58">
+        <v>0.183</v>
+      </c>
+      <c r="O58">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="P58">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="Q58">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="R58">
+        <v>0.221</v>
+      </c>
+      <c r="S58">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="T58">
+        <v>9243</v>
+      </c>
+      <c r="U58">
+        <v>9778</v>
+      </c>
+      <c r="V58">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="2">
+        <v>219311</v>
+      </c>
+      <c r="X58" s="2">
+        <v>436474</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>217248</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0.34</v>
+      </c>
+      <c r="AB58">
+        <v>121.55500000000001</v>
+      </c>
+      <c r="AC58">
+        <v>121.669</v>
+      </c>
+      <c r="AD58">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AE58">
+        <v>88.388000000000005</v>
+      </c>
+      <c r="AF58">
+        <v>88.447999999999993</v>
+      </c>
+      <c r="AG58">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AH58">
+        <v>105.15300000000001</v>
+      </c>
+      <c r="AI58">
+        <v>105.208</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -30593,6 +34357,102 @@
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D59">
+        <v>5414</v>
+      </c>
+      <c r="E59">
+        <v>5955</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>72</v>
+      </c>
+      <c r="H59">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L59">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="M59">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="N59">
+        <v>0.26</v>
+      </c>
+      <c r="O59">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="P59">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Q59">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="R59">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S59">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="T59">
+        <v>9374</v>
+      </c>
+      <c r="U59">
+        <v>9915</v>
+      </c>
+      <c r="V59">
+        <v>1000</v>
+      </c>
+      <c r="W59">
+        <v>28510</v>
+      </c>
+      <c r="X59">
+        <v>54918</v>
+      </c>
+      <c r="Y59">
+        <v>26465</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AB59">
+        <v>23.376000000000001</v>
+      </c>
+      <c r="AC59">
+        <v>23.459</v>
+      </c>
+      <c r="AD59">
+        <v>0.254</v>
+      </c>
+      <c r="AE59">
+        <v>19.355</v>
+      </c>
+      <c r="AF59">
+        <v>19.443000000000001</v>
+      </c>
+      <c r="AG59">
+        <v>0.218</v>
+      </c>
+      <c r="AH59">
+        <v>19.707999999999998</v>
+      </c>
+      <c r="AI59">
+        <v>19.779</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -30604,12 +34464,102 @@
       <c r="C60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
+      <c r="D60">
+        <v>8113</v>
+      </c>
+      <c r="E60">
+        <v>8934</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>98</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="M60">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N60">
+        <v>0.184</v>
+      </c>
+      <c r="O60">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="S60">
+        <v>0.375</v>
+      </c>
+      <c r="T60">
+        <v>12073</v>
+      </c>
+      <c r="U60">
+        <v>12894</v>
+      </c>
+      <c r="V60">
+        <v>1000</v>
+      </c>
+      <c r="W60">
+        <v>12468</v>
+      </c>
+      <c r="X60">
+        <v>22783</v>
+      </c>
+      <c r="Y60">
+        <v>10395</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0.193</v>
+      </c>
+      <c r="AB60">
+        <v>10.888</v>
+      </c>
+      <c r="AC60">
+        <v>10.956</v>
+      </c>
+      <c r="AD60">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AE60">
+        <v>10.602</v>
+      </c>
+      <c r="AF60">
+        <v>10.670999999999999</v>
+      </c>
+      <c r="AG60">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AH60">
+        <v>10.711</v>
+      </c>
+      <c r="AI60">
+        <v>10.789</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -30621,11 +34571,102 @@
       <c r="C61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="D61">
+        <v>8122</v>
+      </c>
+      <c r="E61" s="2">
+        <v>8941</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>96</v>
+      </c>
+      <c r="H61" s="2">
+        <v>28</v>
+      </c>
+      <c r="I61" s="2">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="M61">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="N61">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="O61">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="P61">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Q61">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="R61">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="S61">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="T61">
+        <v>12082</v>
+      </c>
+      <c r="U61">
+        <v>12901</v>
+      </c>
+      <c r="V61">
+        <v>1000</v>
+      </c>
+      <c r="W61">
+        <v>136912</v>
+      </c>
+      <c r="X61">
+        <v>271688</v>
+      </c>
+      <c r="Y61">
+        <v>134854</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0.189</v>
+      </c>
+      <c r="AB61">
+        <v>107.437</v>
+      </c>
+      <c r="AC61">
+        <v>107.508</v>
+      </c>
+      <c r="AD61">
+        <v>0.249</v>
+      </c>
+      <c r="AE61">
+        <v>110.31100000000001</v>
+      </c>
+      <c r="AF61">
+        <v>110.4</v>
+      </c>
+      <c r="AG61">
+        <v>0.248</v>
+      </c>
+      <c r="AH61">
+        <v>100.319</v>
+      </c>
+      <c r="AI61">
+        <v>100.417</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -30637,6 +34678,102 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D62">
+        <v>7872</v>
+      </c>
+      <c r="E62">
+        <v>8669</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>93</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="M62">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="N62">
+        <v>0.18</v>
+      </c>
+      <c r="O62">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="P62">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Q62">
+        <v>0.18</v>
+      </c>
+      <c r="R62">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="S62">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="T62">
+        <v>11832</v>
+      </c>
+      <c r="U62">
+        <v>12629</v>
+      </c>
+      <c r="V62">
+        <v>1000</v>
+      </c>
+      <c r="W62">
+        <v>17229</v>
+      </c>
+      <c r="X62">
+        <v>32321</v>
+      </c>
+      <c r="Y62">
+        <v>15168</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AB62">
+        <v>11.048999999999999</v>
+      </c>
+      <c r="AC62">
+        <v>11.112</v>
+      </c>
+      <c r="AD62">
+        <v>0.17</v>
+      </c>
+      <c r="AE62">
+        <v>10.832000000000001</v>
+      </c>
+      <c r="AF62">
+        <v>10.891999999999999</v>
+      </c>
+      <c r="AG62">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AH62">
+        <v>11.467000000000001</v>
+      </c>
+      <c r="AI62">
+        <v>11.536</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -30648,12 +34785,102 @@
       <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
+      <c r="D63" s="2">
+        <v>10758</v>
+      </c>
+      <c r="E63" s="2">
+        <v>11850</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>148</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.215</v>
+      </c>
+      <c r="L63">
+        <v>0.442</v>
+      </c>
+      <c r="M63">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="N63">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="P63">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="Q63">
+        <v>0.214</v>
+      </c>
+      <c r="R63">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="S63">
+        <v>0.436</v>
+      </c>
+      <c r="T63" s="2">
+        <v>14718</v>
+      </c>
+      <c r="U63" s="2">
+        <v>15810</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W63">
+        <v>381876</v>
+      </c>
+      <c r="X63">
+        <v>761502</v>
+      </c>
+      <c r="Y63">
+        <v>379758</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AB63">
+        <v>244.87299999999999</v>
+      </c>
+      <c r="AC63">
+        <v>244.952</v>
+      </c>
+      <c r="AD63">
+        <v>0.2</v>
+      </c>
+      <c r="AE63">
+        <v>258.32299999999998</v>
+      </c>
+      <c r="AF63">
+        <v>258.40300000000002</v>
+      </c>
+      <c r="AG63">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AH63">
+        <v>304.81799999999998</v>
+      </c>
+      <c r="AI63">
+        <v>304.94400000000002</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -30665,9 +34892,102 @@
       <c r="C64" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="D64">
+        <v>10727</v>
+      </c>
+      <c r="E64">
+        <v>11820</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>92</v>
+      </c>
+      <c r="H64" s="2">
+        <v>16</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.21</v>
+      </c>
+      <c r="L64">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="M64">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O64">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P64">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q64">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="R64">
+        <v>0.308</v>
+      </c>
+      <c r="S64">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="T64">
+        <v>14687</v>
+      </c>
+      <c r="U64">
+        <v>15780</v>
+      </c>
+      <c r="V64">
+        <v>1000</v>
+      </c>
+      <c r="W64">
+        <v>140911</v>
+      </c>
+      <c r="X64">
+        <v>279688</v>
+      </c>
+      <c r="Y64">
+        <v>138853</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AB64">
+        <v>92.146000000000001</v>
+      </c>
+      <c r="AC64">
+        <v>92.23</v>
+      </c>
+      <c r="AD64">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AE64">
+        <v>82.873999999999995</v>
+      </c>
+      <c r="AF64">
+        <v>82.953000000000003</v>
+      </c>
+      <c r="AG64">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AH64">
+        <v>86.933000000000007</v>
+      </c>
+      <c r="AI64">
+        <v>87.022000000000006</v>
+      </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -30679,6 +34999,102 @@
       <c r="C65" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="D65">
+        <v>10656</v>
+      </c>
+      <c r="E65">
+        <v>11734</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>84</v>
+      </c>
+      <c r="H65">
+        <v>16</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="L65">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="M65">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="N65">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="O65">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="P65">
+        <v>0.438</v>
+      </c>
+      <c r="Q65">
+        <v>0.21</v>
+      </c>
+      <c r="R65">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="S65">
+        <v>0.377</v>
+      </c>
+      <c r="T65">
+        <v>14616</v>
+      </c>
+      <c r="U65">
+        <v>15694</v>
+      </c>
+      <c r="V65">
+        <v>1000</v>
+      </c>
+      <c r="W65">
+        <v>86514</v>
+      </c>
+      <c r="X65">
+        <v>170908</v>
+      </c>
+      <c r="Y65">
+        <v>84462</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0.309</v>
+      </c>
+      <c r="AB65">
+        <v>55.066000000000003</v>
+      </c>
+      <c r="AC65">
+        <v>55.177</v>
+      </c>
+      <c r="AD65">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AE65">
+        <v>59.363</v>
+      </c>
+      <c r="AF65">
+        <v>59.442</v>
+      </c>
+      <c r="AG65">
+        <v>0.191</v>
+      </c>
+      <c r="AH65">
+        <v>71.652000000000001</v>
+      </c>
+      <c r="AI65">
+        <v>71.728999999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -30690,6 +35106,102 @@
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D66">
+        <v>13237</v>
+      </c>
+      <c r="E66">
+        <v>14585</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>161</v>
+      </c>
+      <c r="H66">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="M66">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="N66">
+        <v>0.249</v>
+      </c>
+      <c r="O66">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="P66">
+        <v>0.52</v>
+      </c>
+      <c r="Q66">
+        <v>0.21</v>
+      </c>
+      <c r="R66">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="S66">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="T66">
+        <v>17197</v>
+      </c>
+      <c r="U66">
+        <v>18545</v>
+      </c>
+      <c r="V66">
+        <v>1000</v>
+      </c>
+      <c r="W66">
+        <v>15776</v>
+      </c>
+      <c r="X66">
+        <v>29277</v>
+      </c>
+      <c r="Y66">
+        <v>13643</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="AB66">
+        <v>19.765999999999998</v>
+      </c>
+      <c r="AC66">
+        <v>19.878</v>
+      </c>
+      <c r="AD66">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AE66">
+        <v>15.721</v>
+      </c>
+      <c r="AF66">
+        <v>15.803000000000001</v>
+      </c>
+      <c r="AG66">
+        <v>0.215</v>
+      </c>
+      <c r="AH66">
+        <v>14.978</v>
+      </c>
+      <c r="AI66">
+        <v>15.063000000000001</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -30701,11 +35213,102 @@
       <c r="C67" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
+      <c r="D67">
+        <v>13444</v>
+      </c>
+      <c r="E67">
+        <v>14812</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>61</v>
+      </c>
+      <c r="H67">
+        <v>16</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="M67">
+        <v>0.49</v>
+      </c>
+      <c r="N67">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="O67">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="P67">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="Q67">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="R67">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="S67">
+        <v>0.52</v>
+      </c>
+      <c r="T67" s="2">
+        <v>17404</v>
+      </c>
+      <c r="U67" s="2">
+        <v>18772</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W67">
+        <v>191613</v>
+      </c>
+      <c r="X67" s="2">
+        <v>381146</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>189578</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AB67">
+        <v>131.905</v>
+      </c>
+      <c r="AC67">
+        <v>132.02500000000001</v>
+      </c>
+      <c r="AD67">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AE67">
+        <v>115.268</v>
+      </c>
+      <c r="AF67">
+        <v>115.373</v>
+      </c>
+      <c r="AG67">
+        <v>0.21</v>
+      </c>
+      <c r="AH67">
+        <v>134.607</v>
+      </c>
+      <c r="AI67">
+        <v>134.69399999999999</v>
+      </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -30717,12 +35320,102 @@
       <c r="C68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
+      <c r="D68">
+        <v>13328</v>
+      </c>
+      <c r="E68">
+        <v>14685</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>88</v>
+      </c>
+      <c r="H68">
+        <v>18</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L68">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="N68">
+        <v>0.216</v>
+      </c>
+      <c r="O68">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="P68">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="Q68">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="R68">
+        <v>0.375</v>
+      </c>
+      <c r="S68">
+        <v>0.46</v>
+      </c>
+      <c r="T68" s="2">
+        <v>17288</v>
+      </c>
+      <c r="U68" s="2">
+        <v>18645</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W68">
+        <v>27434</v>
+      </c>
+      <c r="X68">
+        <v>52738</v>
+      </c>
+      <c r="Y68">
+        <v>25374</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0.221</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>23.478000000000002</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>23.577999999999999</v>
+      </c>
+      <c r="AD68">
+        <v>0.23</v>
+      </c>
+      <c r="AE68">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="AF68">
+        <v>25.202999999999999</v>
+      </c>
+      <c r="AG68">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AH68">
+        <v>33.218000000000004</v>
+      </c>
+      <c r="AI68">
+        <v>33.301000000000002</v>
+      </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Constraints" sheetId="6" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
                   <c:v>0.10156336722046637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12786435704368879</c:v>
+                  <c:v>0.15115110713730162</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.15417903466059946</c:v>
@@ -1178,16 +1178,16 @@
                   <c:v>0.16262414002527026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22716082133096244</c:v>
+                  <c:v>0.22327018007930705</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.24044982172616361</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.31945853588623524</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.57024115125874641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,6 +1405,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>1000 Solutions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1554,7 +1579,7 @@
                 <c:pt idx="6">
                   <c:v>25.18549233492114</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>42.83365578908839</c:v>
                 </c:pt>
               </c:numCache>
@@ -1675,7 +1700,7 @@
                 <c:pt idx="6">
                   <c:v>12.865052853918522</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>8.5724833041754245</c:v>
                 </c:pt>
               </c:numCache>
@@ -1796,7 +1821,7 @@
                 <c:pt idx="6">
                   <c:v>15.758058682833097</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>16.756228717733677</c:v>
                 </c:pt>
               </c:numCache>
@@ -1915,9 +1940,9 @@
                   <c:v>14.441589155109996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6598031875659505</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
+                  <c:v>14.251047098065008</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>16.79035970925041</c:v>
                 </c:pt>
               </c:numCache>
@@ -4948,6 +4973,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23774923623549168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21951056668767799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31945853588623524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42407293399927654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57024115125874641</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5509,6 +5549,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.019550040108641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.16004739392222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.210225981036634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.534879232324485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.685382650143971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11747,8 +11802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="I23" activeCellId="1" sqref="F23:F40 I23:L40"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11950,7 +12005,7 @@
       </c>
       <c r="L5" s="7">
         <f>HARMEAN('Summary - Models'!F7,'Summary - Models'!F24,'Summary - Models'!F42)</f>
-        <v>0.12786435704368879</v>
+        <v>0.15115110713730162</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -12067,7 +12122,7 @@
       </c>
       <c r="L8" s="14">
         <f>HARMEAN('Summary - Models'!F26,'Summary - Models'!F43)</f>
-        <v>0.22716082133096244</v>
+        <v>0.22327018007930705</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12145,7 +12200,7 @@
       </c>
       <c r="L10" s="7">
         <f>'Summary - Models'!F44</f>
-        <v>0</v>
+        <v>0.31945853588623524</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12211,7 +12266,7 @@
       </c>
       <c r="L12" s="7">
         <f>'Summary - Models'!F46</f>
-        <v>0</v>
+        <v>0.57024115125874641</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -12689,7 +12744,7 @@
       </c>
       <c r="L30" s="14">
         <f>HARMEAN('Summary - Models'!F35,'Summary - Models'!F52)</f>
-        <v>9.6598031875659505</v>
+        <v>14.251047098065008</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -12702,19 +12757,19 @@
       <c r="H31">
         <v>20</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="7">
         <f>'Summary - Models'!C36</f>
         <v>42.83365578908839</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="7">
         <f>'Summary - Models'!D36</f>
         <v>8.5724833041754245</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="7">
         <f>'Summary - Models'!E36</f>
         <v>16.756228717733677</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="7">
         <f>'Summary - Models'!F36</f>
         <v>16.79035970925041</v>
       </c>
@@ -12861,8 +12916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="D37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13618,7 +13673,10 @@
         <f>HARMEAN('160 - Models'!L54:L56,'160 - Models'!O54:O56,'160 - Models'!R54:R56)</f>
         <v>0.16627748000652248</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7">
+        <f>HARMEAN('160 - Models'!L75:L77,'160 - Models'!O75:O77,'160 - Models'!R75:R77)</f>
+        <v>0.23774923623549168</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -13640,7 +13698,10 @@
         <f>HARMEAN('160 - Models'!L57:L59,'160 - Models'!O57:O59,'160 - Models'!R57:R59)</f>
         <v>0.26165791948762801</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <f>HARMEAN('160 - Models'!L78:L80,'160 - Models'!O78:O80,'160 - Models'!R78:R80)</f>
+        <v>0.21951056668767799</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -13662,7 +13723,10 @@
         <f>HARMEAN('160 - Models'!L60:L62,'160 - Models'!O60:O62,'160 - Models'!R60:R62)</f>
         <v>0.28407873426735769</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7">
+        <f>HARMEAN('160 - Models'!L81:L83,'160 - Models'!O81:O83,'160 - Models'!R81:R83)</f>
+        <v>0.31945853588623524</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -13684,7 +13748,10 @@
         <f>HARMEAN('160 - Models'!L63:L65,'160 - Models'!O63:O65,'160 - Models'!R63:R65)</f>
         <v>0.33768944938022039</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7">
+        <f>HARMEAN('160 - Models'!L84:L86,'160 - Models'!O84:O86,'160 - Models'!R84:R86)</f>
+        <v>0.42407293399927654</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -13706,7 +13773,10 @@
         <f>HARMEAN('160 - Models'!L66:L68,'160 - Models'!O66:O68,'160 - Models'!R66:R68)</f>
         <v>0.3939455246647362</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7">
+        <f>HARMEAN('160 - Models'!L87:L89,'160 - Models'!O87:O89,'160 - Models'!R87:R89)</f>
+        <v>0.57024115125874641</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -13764,7 +13834,10 @@
         <f>HARMEAN('160 - Models'!AB54:AB56,'160 - Models'!AE54:AE56,'160 - Models'!AH54:AH56)</f>
         <v>25.732582179426373</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7">
+        <f>HARMEAN('160 - Models'!AB75:AB77,'160 - Models'!AE75:AE77,'160 - Models'!AH75:AH77)</f>
+        <v>32.019550040108641</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
@@ -13786,7 +13859,10 @@
         <f>HARMEAN('160 - Models'!AB57:AB59,'160 - Models'!AE57:AE59,'160 - Models'!AH57:AH59)</f>
         <v>38.684241711696046</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="7">
+        <f>HARMEAN('160 - Models'!AB78:AB80,'160 - Models'!AE78:AE80,'160 - Models'!AH78:AH80)</f>
+        <v>27.16004739392222</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -13808,7 +13884,10 @@
         <f>HARMEAN('160 - Models'!AB60:AB62,'160 - Models'!AE60:AE62,'160 - Models'!AH60:AH62)</f>
         <v>15.573600803808091</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <f>HARMEAN('160 - Models'!AB81:AB83,'160 - Models'!AE81:AE83,'160 - Models'!AH81:AH83)</f>
+        <v>14.210225981036634</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -13830,7 +13909,10 @@
         <f>HARMEAN('160 - Models'!AB63:AB65,'160 - Models'!AE63:AE65,'160 - Models'!AH63:AH65)</f>
         <v>95.117950666124415</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="7">
+        <f>HARMEAN('160 - Models'!AB84:AB86,'160 - Models'!AE84:AE86,'160 - Models'!AH84:AH86)</f>
+        <v>87.534879232324485</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -13852,7 +13934,10 @@
         <f>HARMEAN('160 - Models'!AB66:AB68,'160 - Models'!AE66:AE68,'160 - Models'!AH66:AH68)</f>
         <v>28.374654062644559</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="7">
+        <f>HARMEAN('160 - Models'!AB87:AB89,'160 - Models'!AE87:AE89,'160 - Models'!AH87:AH89)</f>
+        <v>27.685382650143971</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30053,8 +30138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P49" workbookViewId="0">
-      <selection activeCell="AH69" sqref="AH69"/>
+    <sheetView tabSelected="1" topLeftCell="P79" workbookViewId="0">
+      <selection activeCell="AI90" sqref="AI90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35592,6 +35677,102 @@
       <c r="C75">
         <v>19</v>
       </c>
+      <c r="D75">
+        <v>2733</v>
+      </c>
+      <c r="E75">
+        <v>2998</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>48</v>
+      </c>
+      <c r="H75">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L75">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M75">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="N75">
+        <v>0.23</v>
+      </c>
+      <c r="O75">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="P75">
+        <v>0.318</v>
+      </c>
+      <c r="Q75">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="R75">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="S75">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T75">
+        <v>6693</v>
+      </c>
+      <c r="U75">
+        <v>6958</v>
+      </c>
+      <c r="V75">
+        <v>1000</v>
+      </c>
+      <c r="W75">
+        <v>45370</v>
+      </c>
+      <c r="X75">
+        <v>88688</v>
+      </c>
+      <c r="Y75">
+        <v>43351</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AB75">
+        <v>34.372999999999998</v>
+      </c>
+      <c r="AC75">
+        <v>34.529000000000003</v>
+      </c>
+      <c r="AD75">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>29.844000000000001</v>
+      </c>
+      <c r="AF75">
+        <v>29.920999999999999</v>
+      </c>
+      <c r="AG75">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AH75">
+        <v>30.536999999999999</v>
+      </c>
+      <c r="AI75">
+        <v>30.620999999999999</v>
+      </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -35603,16 +35784,102 @@
       <c r="C76">
         <v>24</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="D76" s="2">
+        <v>2748</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3015</v>
+      </c>
+      <c r="F76" s="2">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <v>64</v>
+      </c>
+      <c r="H76" s="2">
+        <v>22</v>
+      </c>
+      <c r="I76" s="2">
+        <v>4</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="N76">
+        <v>0.24</v>
+      </c>
+      <c r="O76">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P76">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="Q76">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="R76">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S76">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="T76">
+        <v>6708</v>
+      </c>
+      <c r="U76">
+        <v>6975</v>
+      </c>
+      <c r="V76">
+        <v>1000</v>
+      </c>
+      <c r="W76">
+        <v>32553</v>
+      </c>
+      <c r="X76">
+        <v>63025</v>
+      </c>
+      <c r="Y76">
+        <v>30519</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AB76">
+        <v>24.923999999999999</v>
+      </c>
+      <c r="AC76">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="AD76">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="AE76">
+        <v>25.863</v>
+      </c>
+      <c r="AF76">
+        <v>25.972000000000001</v>
+      </c>
+      <c r="AG76">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AH76">
+        <v>22.983000000000001</v>
+      </c>
+      <c r="AI76">
+        <v>23.081</v>
+      </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -35624,6 +35891,102 @@
       <c r="C77">
         <v>9</v>
       </c>
+      <c r="D77">
+        <v>2737</v>
+      </c>
+      <c r="E77">
+        <v>3002</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>48</v>
+      </c>
+      <c r="H77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0.22</v>
+      </c>
+      <c r="L77">
+        <v>0.223</v>
+      </c>
+      <c r="M77">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="N77">
+        <v>0.432</v>
+      </c>
+      <c r="O77">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P77">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="Q77">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="R77">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="S77">
+        <v>0.2</v>
+      </c>
+      <c r="T77">
+        <v>6697</v>
+      </c>
+      <c r="U77">
+        <v>6962</v>
+      </c>
+      <c r="V77">
+        <v>1000</v>
+      </c>
+      <c r="W77">
+        <v>145425</v>
+      </c>
+      <c r="X77">
+        <v>288791</v>
+      </c>
+      <c r="Y77">
+        <v>143402</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AB77">
+        <v>44.908999999999999</v>
+      </c>
+      <c r="AC77">
+        <v>44.954000000000001</v>
+      </c>
+      <c r="AD77">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AE77">
+        <v>48.473999999999997</v>
+      </c>
+      <c r="AF77">
+        <v>48.52</v>
+      </c>
+      <c r="AG77">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AH77">
+        <v>48.694000000000003</v>
+      </c>
+      <c r="AI77">
+        <v>48.741999999999997</v>
+      </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -35635,6 +35998,102 @@
       <c r="C78" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="D78">
+        <v>5437</v>
+      </c>
+      <c r="E78">
+        <v>5982</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>93</v>
+      </c>
+      <c r="H78">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="L78">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="M78">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N78">
+        <v>0.16</v>
+      </c>
+      <c r="O78">
+        <v>0.22</v>
+      </c>
+      <c r="P78">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Q78">
+        <v>0.16</v>
+      </c>
+      <c r="R78">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="S78">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="T78">
+        <v>9397</v>
+      </c>
+      <c r="U78">
+        <v>9942</v>
+      </c>
+      <c r="V78">
+        <v>1000</v>
+      </c>
+      <c r="W78">
+        <v>104034</v>
+      </c>
+      <c r="X78">
+        <v>205931</v>
+      </c>
+      <c r="Y78">
+        <v>101974</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AB78">
+        <v>41.918999999999997</v>
+      </c>
+      <c r="AC78">
+        <v>42.015000000000001</v>
+      </c>
+      <c r="AD78">
+        <v>0.154</v>
+      </c>
+      <c r="AE78">
+        <v>42.179000000000002</v>
+      </c>
+      <c r="AF78">
+        <v>42.234000000000002</v>
+      </c>
+      <c r="AG78">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AH78">
+        <v>50.225999999999999</v>
+      </c>
+      <c r="AI78">
+        <v>50.286000000000001</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -35646,12 +36105,102 @@
       <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
+      <c r="D79" s="2">
+        <v>5283</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5818</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>103</v>
+      </c>
+      <c r="H79">
+        <v>20</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.216</v>
+      </c>
+      <c r="L79">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M79">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="N79">
+        <v>0.157</v>
+      </c>
+      <c r="O79">
+        <v>0.2</v>
+      </c>
+      <c r="P79">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="Q79">
+        <v>0.155</v>
+      </c>
+      <c r="R79">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S79">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="T79">
+        <v>9243</v>
+      </c>
+      <c r="U79">
+        <v>9778</v>
+      </c>
+      <c r="V79">
+        <v>1000</v>
+      </c>
+      <c r="W79" s="2">
+        <v>219311</v>
+      </c>
+      <c r="X79" s="2">
+        <v>436474</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>217248</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0.249</v>
+      </c>
+      <c r="AB79">
+        <v>83.888999999999996</v>
+      </c>
+      <c r="AC79">
+        <v>83.977000000000004</v>
+      </c>
+      <c r="AD79">
+        <v>0.151</v>
+      </c>
+      <c r="AE79">
+        <v>77.947999999999993</v>
+      </c>
+      <c r="AF79">
+        <v>78.001999999999995</v>
+      </c>
+      <c r="AG79">
+        <v>0.151</v>
+      </c>
+      <c r="AH79">
+        <v>80.748000000000005</v>
+      </c>
+      <c r="AI79">
+        <v>80.802000000000007</v>
+      </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -35663,8 +36212,104 @@
       <c r="C80" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>5414</v>
+      </c>
+      <c r="E80">
+        <v>5955</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>72</v>
+      </c>
+      <c r="H80">
+        <v>18</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.155</v>
+      </c>
+      <c r="L80">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="M80">
+        <v>0.251</v>
+      </c>
+      <c r="N80">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="O80">
+        <v>0.192</v>
+      </c>
+      <c r="P80">
+        <v>0.247</v>
+      </c>
+      <c r="Q80">
+        <v>0.154</v>
+      </c>
+      <c r="R80">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="S80">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="T80">
+        <v>9374</v>
+      </c>
+      <c r="U80">
+        <v>9915</v>
+      </c>
+      <c r="V80">
+        <v>1000</v>
+      </c>
+      <c r="W80">
+        <v>28510</v>
+      </c>
+      <c r="X80">
+        <v>54918</v>
+      </c>
+      <c r="Y80">
+        <v>26465</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AB80">
+        <v>14.013</v>
+      </c>
+      <c r="AC80">
+        <v>14.08</v>
+      </c>
+      <c r="AD80">
+        <v>0.15</v>
+      </c>
+      <c r="AE80">
+        <v>13.196999999999999</v>
+      </c>
+      <c r="AF80">
+        <v>13.25</v>
+      </c>
+      <c r="AG80">
+        <v>0.158</v>
+      </c>
+      <c r="AH80">
+        <v>12.558999999999999</v>
+      </c>
+      <c r="AI80">
+        <v>12.614000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -35674,12 +36319,104 @@
       <c r="C81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>8113</v>
+      </c>
+      <c r="E81">
+        <v>8934</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>98</v>
+      </c>
+      <c r="H81">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.185</v>
+      </c>
+      <c r="L81">
+        <v>0.376</v>
+      </c>
+      <c r="M81">
+        <v>0.443</v>
+      </c>
+      <c r="N81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="O81">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="P81">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q81">
+        <v>0.192</v>
+      </c>
+      <c r="R81">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="S81">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="T81">
+        <v>12073</v>
+      </c>
+      <c r="U81">
+        <v>12894</v>
+      </c>
+      <c r="V81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W81" s="2">
+        <v>12468</v>
+      </c>
+      <c r="X81" s="2">
+        <v>22783</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>10395</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AB81">
+        <v>9.1280000000000001</v>
+      </c>
+      <c r="AC81">
+        <v>9.2059999999999995</v>
+      </c>
+      <c r="AD81">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AE81">
+        <v>9.6280000000000001</v>
+      </c>
+      <c r="AF81">
+        <v>9.6910000000000007</v>
+      </c>
+      <c r="AG81">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AH81">
+        <v>9.0190000000000001</v>
+      </c>
+      <c r="AI81">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -35689,8 +36426,104 @@
       <c r="C82" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>8122</v>
+      </c>
+      <c r="E82">
+        <v>8941</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>96</v>
+      </c>
+      <c r="H82">
+        <v>28</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L82">
+        <v>0.317</v>
+      </c>
+      <c r="M82">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="N82">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O82">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="P82">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="Q82">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R82">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="T82">
+        <v>12082</v>
+      </c>
+      <c r="U82">
+        <v>12901</v>
+      </c>
+      <c r="V82">
+        <v>1000</v>
+      </c>
+      <c r="W82">
+        <v>136912</v>
+      </c>
+      <c r="X82">
+        <v>271688</v>
+      </c>
+      <c r="Y82">
+        <v>134854</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AB82">
+        <v>67.608000000000004</v>
+      </c>
+      <c r="AC82">
+        <v>67.698999999999998</v>
+      </c>
+      <c r="AD82">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AE82">
+        <v>71.647000000000006</v>
+      </c>
+      <c r="AF82">
+        <v>71.709000000000003</v>
+      </c>
+      <c r="AG82">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AH82">
+        <v>73.241</v>
+      </c>
+      <c r="AI82">
+        <v>73.311999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22</v>
       </c>
@@ -35700,8 +36533,104 @@
       <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>7872</v>
+      </c>
+      <c r="E83">
+        <v>8669</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>93</v>
+      </c>
+      <c r="H83">
+        <v>15</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.17</v>
+      </c>
+      <c r="L83">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="M83">
+        <v>0.35</v>
+      </c>
+      <c r="N83">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O83">
+        <v>0.3</v>
+      </c>
+      <c r="P83">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="Q83">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="R83">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S83">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="T83">
+        <v>11832</v>
+      </c>
+      <c r="U83">
+        <v>12629</v>
+      </c>
+      <c r="V83">
+        <v>1000</v>
+      </c>
+      <c r="W83">
+        <v>17229</v>
+      </c>
+      <c r="X83">
+        <v>32321</v>
+      </c>
+      <c r="Y83">
+        <v>15168</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0.183</v>
+      </c>
+      <c r="AB83">
+        <v>11.141999999999999</v>
+      </c>
+      <c r="AC83">
+        <v>11.208</v>
+      </c>
+      <c r="AD83">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AE83">
+        <v>11.353999999999999</v>
+      </c>
+      <c r="AF83">
+        <v>11.419</v>
+      </c>
+      <c r="AG83">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AH83">
+        <v>11.257999999999999</v>
+      </c>
+      <c r="AI83">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>30</v>
       </c>
@@ -35711,14 +36640,104 @@
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D84" s="2">
+        <v>10758</v>
+      </c>
+      <c r="E84" s="2">
+        <v>11850</v>
+      </c>
+      <c r="F84" s="2">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>148</v>
+      </c>
+      <c r="H84">
+        <v>17</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="L84">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="M84">
+        <v>0.52</v>
+      </c>
+      <c r="N84">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="O84">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="P84">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="Q84">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="R84">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="S84">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="T84" s="2">
+        <v>14718</v>
+      </c>
+      <c r="U84" s="2">
+        <v>15810</v>
+      </c>
+      <c r="V84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W84">
+        <v>381758</v>
+      </c>
+      <c r="X84">
+        <v>761502</v>
+      </c>
+      <c r="Y84">
+        <v>379758</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AB84">
+        <v>224.4</v>
+      </c>
+      <c r="AC84">
+        <v>224.489</v>
+      </c>
+      <c r="AD84">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AE84">
+        <v>250.154</v>
+      </c>
+      <c r="AF84">
+        <v>250.244</v>
+      </c>
+      <c r="AG84">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AH84">
+        <v>215.17</v>
+      </c>
+      <c r="AI84">
+        <v>215.262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>31</v>
       </c>
@@ -35728,11 +36747,104 @@
       <c r="C85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>10727</v>
+      </c>
+      <c r="E85">
+        <v>11820</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>92</v>
+      </c>
+      <c r="H85" s="2">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="L85">
+        <v>0.435</v>
+      </c>
+      <c r="M85">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="N85">
+        <v>0.192</v>
+      </c>
+      <c r="O85">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="P85">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="Q85">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="R85">
+        <v>0.4</v>
+      </c>
+      <c r="S85">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="T85">
+        <v>14687</v>
+      </c>
+      <c r="U85">
+        <v>15780</v>
+      </c>
+      <c r="V85">
+        <v>1000</v>
+      </c>
+      <c r="W85">
+        <v>140911</v>
+      </c>
+      <c r="X85">
+        <v>279688</v>
+      </c>
+      <c r="Y85">
+        <v>138853</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AB85">
+        <v>82.102999999999994</v>
+      </c>
+      <c r="AC85">
+        <v>82.234999999999999</v>
+      </c>
+      <c r="AD85">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AE85">
+        <v>84.32</v>
+      </c>
+      <c r="AF85">
+        <v>84.406000000000006</v>
+      </c>
+      <c r="AG85">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AH85">
+        <v>105.449</v>
+      </c>
+      <c r="AI85">
+        <v>105.556</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>32</v>
       </c>
@@ -35742,8 +36854,104 @@
       <c r="C86" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>10656</v>
+      </c>
+      <c r="E86">
+        <v>11734</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>84</v>
+      </c>
+      <c r="H86">
+        <v>16</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.2</v>
+      </c>
+      <c r="L86">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="M86">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N86">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O86">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="P86">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="Q86">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="R86">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="S86">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="T86">
+        <v>14616</v>
+      </c>
+      <c r="U86">
+        <v>15694</v>
+      </c>
+      <c r="V86">
+        <v>1000</v>
+      </c>
+      <c r="W86">
+        <v>86514</v>
+      </c>
+      <c r="X86">
+        <v>170908</v>
+      </c>
+      <c r="Y86">
+        <v>84462</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AB86">
+        <v>52.631999999999998</v>
+      </c>
+      <c r="AC86">
+        <v>52.710999999999999</v>
+      </c>
+      <c r="AD86">
+        <v>0.215</v>
+      </c>
+      <c r="AE86">
+        <v>51.997</v>
+      </c>
+      <c r="AF86">
+        <v>52.098999999999997</v>
+      </c>
+      <c r="AG86">
+        <v>0.2</v>
+      </c>
+      <c r="AH86">
+        <v>55.677999999999997</v>
+      </c>
+      <c r="AI86">
+        <v>55.767000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -35753,11 +36961,104 @@
       <c r="C87" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>13237</v>
+      </c>
+      <c r="E87">
+        <v>14585</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>161</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0.216</v>
+      </c>
+      <c r="L87">
+        <v>0.62</v>
+      </c>
+      <c r="M87">
+        <v>0.71</v>
+      </c>
+      <c r="N87">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="O87">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="P87">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="Q87">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="R87">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="S87">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="T87" s="2">
+        <v>17197</v>
+      </c>
+      <c r="U87" s="2">
+        <v>18545</v>
+      </c>
+      <c r="V87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W87">
+        <v>15776</v>
+      </c>
+      <c r="X87">
+        <v>29277</v>
+      </c>
+      <c r="Y87">
+        <v>13643</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>20.248999999999999</v>
+      </c>
+      <c r="AC87">
+        <v>20.373000000000001</v>
+      </c>
+      <c r="AD87">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AE87">
+        <v>15.726000000000001</v>
+      </c>
+      <c r="AF87">
+        <v>15.813000000000001</v>
+      </c>
+      <c r="AG87">
+        <v>0.215</v>
+      </c>
+      <c r="AH87">
+        <v>15.691000000000001</v>
+      </c>
+      <c r="AI87">
+        <v>15.776999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -35767,14 +37068,104 @@
       <c r="C88" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>13444</v>
+      </c>
+      <c r="E88">
+        <v>14812</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>61</v>
+      </c>
+      <c r="H88">
+        <v>16</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L88">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="M88">
+        <v>0.61</v>
+      </c>
+      <c r="N88">
+        <v>0.223</v>
+      </c>
+      <c r="O88">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="P88">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="Q88">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="R88">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="S88">
+        <v>0.622</v>
+      </c>
+      <c r="T88" s="2">
+        <v>17404</v>
+      </c>
+      <c r="U88" s="2">
+        <v>18772</v>
+      </c>
+      <c r="V88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W88">
+        <v>191613</v>
+      </c>
+      <c r="X88">
+        <v>381146</v>
+      </c>
+      <c r="Y88">
+        <v>189578</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>116.07599999999999</v>
+      </c>
+      <c r="AC88" s="2">
+        <v>116.17400000000001</v>
+      </c>
+      <c r="AD88">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AE88">
+        <v>119.691</v>
+      </c>
+      <c r="AF88">
+        <v>119.791</v>
+      </c>
+      <c r="AG88">
+        <v>0.37</v>
+      </c>
+      <c r="AH88">
+        <v>157.28</v>
+      </c>
+      <c r="AI88">
+        <v>157.41999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>42</v>
       </c>
@@ -35784,12 +37175,102 @@
       <c r="C89" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
+      <c r="D89">
+        <v>13328</v>
+      </c>
+      <c r="E89">
+        <v>14685</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89">
+        <v>18</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.215</v>
+      </c>
+      <c r="L89">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="M89">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="N89">
+        <v>0.214</v>
+      </c>
+      <c r="O89">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="P89">
+        <v>0.625</v>
+      </c>
+      <c r="Q89">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="R89">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S89">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="T89" s="2">
+        <v>17288</v>
+      </c>
+      <c r="U89" s="2">
+        <v>18645</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W89">
+        <v>27434</v>
+      </c>
+      <c r="X89">
+        <v>52738</v>
+      </c>
+      <c r="Y89">
+        <v>25374</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>24.077999999999999</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>24.25</v>
+      </c>
+      <c r="AD89">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AE89">
+        <v>23.879000000000001</v>
+      </c>
+      <c r="AF89">
+        <v>23.988</v>
+      </c>
+      <c r="AG89">
+        <v>0.215</v>
+      </c>
+      <c r="AH89">
+        <v>24.015999999999998</v>
+      </c>
+      <c r="AI89">
+        <v>24.105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Constraints" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="108">
   <si>
     <t>Run</t>
   </si>
@@ -322,6 +322,39 @@
   <si>
     <t>1, 7, 12, 22, 26</t>
   </si>
+  <si>
+    <t>Marcar los límites</t>
+  </si>
+  <si>
+    <t>7, 22</t>
+  </si>
+  <si>
+    <t>5, 21, 26</t>
+  </si>
+  <si>
+    <t>6, 15, 23</t>
+  </si>
+  <si>
+    <t>20, 21, 22, 25</t>
+  </si>
+  <si>
+    <t>5, 11, 15, 18</t>
+  </si>
+  <si>
+    <t>1, 2, 11, 12</t>
+  </si>
+  <si>
+    <t>Geomean R1</t>
+  </si>
+  <si>
+    <t>Geomean R2</t>
+  </si>
+  <si>
+    <t>Geomean R3</t>
+  </si>
+  <si>
+    <t>14, 20, 24, 25, 27</t>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +491,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -478,6 +511,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -485,7 +523,7 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="48">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -494,6 +532,39 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -797,7 +868,7 @@
                   <c:v>0.37773472606510916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52390286240936557</c:v>
+                  <c:v>0.48910153993208716</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.68858636014817731</c:v>
@@ -805,8 +876,20 @@
                 <c:pt idx="8">
                   <c:v>0.9326603567024776</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1982175655128309</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>1.5081057095703692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0120466639545902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6627435649713718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6094104317624396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,8 +1015,14 @@
                 <c:pt idx="8">
                   <c:v>0.28366371982754124</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48866628896033271</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>0.9812948177069396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,8 +1148,14 @@
                 <c:pt idx="8">
                   <c:v>0.28407873426735769</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33768944938022039</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>0.3939455246647362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,8 +1281,14 @@
                 <c:pt idx="8">
                   <c:v>0.31945853588623524</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42407293399927654</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>0.57024115125874641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,6 +1491,537 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>1000 Solutions - 320 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$C$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$70:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$C$70:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.996873134312047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9373636185122038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4779602794576345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.743559841822844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.622867169541173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$D$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$70:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$D$70:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$E$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$70:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$E$70:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$F$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$70:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$F$70:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="488953464"/>
+        <c:axId val="488952680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="488953464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488952680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488952680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488953464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1577,10 +2209,28 @@
                   <c:v>25.844199160281665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.18549233492114</c:v>
+                  <c:v>27.987427729412278</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>42.83365578908839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.083124143729631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6533827145893865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131.20788481112584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4779602794576345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.743559841822844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.622867169541173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,6 +2353,24 @@
                 <c:pt idx="7">
                   <c:v>8.5724833041754245</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.332615378285439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.132571282451323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.695150497408196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1824,6 +2492,24 @@
                 <c:pt idx="7">
                   <c:v>16.756228717733677</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.573600803808091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.117950666124415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.374654062644559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1944,6 +2630,24 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.79035970925041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.210225981036634</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.534879232324485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.685382650143971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5765,7 +6469,582 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Solutions - 320 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$C$61:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43174274475961733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0915092018917707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0120466639545902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6627435649713718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6094104317624396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$D$61:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$E$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$E$61:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$F$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$F$61:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="557450968"/>
+        <c:axId val="557451752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="557450968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557451752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557451752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557450968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6085,7 +7364,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10213,6 +12048,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10247,16 +12598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10460,6 +12811,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10478,9 +12889,39 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A11:AI26"/>
-  <tableColumns count="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table4141335" displayName="Table4141335" ref="A60:F65" totalsRowShown="0">
+  <autoFilter ref="A60:F65"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Models"/>
+    <tableColumn id="6" name="Constraints"/>
+    <tableColumn id="2" name="Default" dataDxfId="13"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="12"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="11"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table414151636" displayName="Table414151636" ref="A69:F74" totalsRowShown="0">
+  <autoFilter ref="A69:F74"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Models"/>
+    <tableColumn id="6" name="Constraints"/>
+    <tableColumn id="2" name="Default" dataDxfId="9"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="8"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="7"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AL26" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A11:AL26"/>
+  <tableColumns count="38">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -10516,15 +12957,24 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Geomean R1" dataDxfId="5" dataCellStyle="Normal">
+      <calculatedColumnFormula>GEOMEAN(V12,AB12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Geomean R2" dataDxfId="4" dataCellStyle="Normal">
+      <calculatedColumnFormula>GEOMEAN(V12,AE12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Geomean R3" dataDxfId="3" dataCellStyle="Normal">
+      <calculatedColumnFormula>GEOMEAN(V12,AH12)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A32:AI47"/>
-  <tableColumns count="35">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AL47" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A32:AL47"/>
+  <tableColumns count="38">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -10560,15 +13010,18 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Geomean R1" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Geomean R2" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Geomean R3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
-  <tableColumns count="35">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AL68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AL68"/>
+  <tableColumns count="38">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -10604,15 +13057,18 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Geomean R1" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Geomean R2" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Geomean R3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
-  <tableColumns count="35">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AL89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AL89"/>
+  <tableColumns count="38">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -10648,12 +13104,15 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Geomean R1" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Geomean R2" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Geomean R3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14378" displayName="Table14378" ref="A95:AI110" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A95:AI110"/>
   <tableColumns count="35">
@@ -10697,7 +13156,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -10741,101 +13200,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1410" displayName="Table1410" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="22" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -10874,12 +13245,12 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1917" displayName="Table1917" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A11:AI26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14311" displayName="Table14311" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="21" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -10934,12 +13305,12 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table141018" displayName="Table141018" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A32:AI47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table143712" displayName="Table143712" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="20" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -10978,12 +13349,12 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1431119" displayName="Table1431119" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1917" displayName="Table1917" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -11022,12 +13393,12 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table14371220" displayName="Table14371220" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table141018" displayName="Table141018" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="16" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -11066,6 +13437,94 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1431119" displayName="Table1431119" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table14371220" displayName="Table14371220" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table19172129" displayName="Table19172129" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
@@ -11109,101 +13568,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table1410182230" displayName="Table1410182230" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A32:AI47"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table14311192331" displayName="Table14311192331" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
-    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
-    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
-    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
-    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
-    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
-    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
-    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
-    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
-    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
-    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
-    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
-    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
-    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
-    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
-    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
-    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
-    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
-    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
-    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
-    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
-    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
-    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
-    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
-    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
-    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
-    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
-    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
-    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table143712202432" displayName="Table143712202432" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AI89"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -11242,12 +13613,12 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table191721" displayName="Table191721" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A11:AI26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table14311192331" displayName="Table14311192331" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -11286,12 +13657,12 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table14101822" displayName="Table14101822" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A32:AI47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table143712202432" displayName="Table143712202432" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -11330,12 +13701,12 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table143111923" displayName="Table143111923" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AI68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table191721" displayName="Table191721" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A11:AI26"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -11390,12 +13761,100 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table14101822" displayName="Table14101822" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A32:AI47"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table143111923" displayName="Table143111923" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
+    <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
+    <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
+    <tableColumn id="34" name="Nodes5" dataCellStyle="Normal"/>
+    <tableColumn id="33" name="Backtracks6" dataCellStyle="Normal"/>
+    <tableColumn id="32" name="Fails7" dataCellStyle="Normal"/>
+    <tableColumn id="29" name="Restarts8" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="Building Time3" dataCellStyle="Normal"/>
+    <tableColumn id="21" name="Resolution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="22" name="Execution Time2" dataCellStyle="Normal"/>
+    <tableColumn id="23" name="Building Time32" dataCellStyle="Normal"/>
+    <tableColumn id="24" name="Resolution Time23" dataCellStyle="Normal"/>
+    <tableColumn id="25" name="Execution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="26" name="Building Time33" dataCellStyle="Normal"/>
+    <tableColumn id="27" name="Resolution Time24" dataCellStyle="Normal"/>
+    <tableColumn id="28" name="Execution Time25" dataCellStyle="Normal"/>
+    <tableColumn id="37" name="Variables3" dataCellStyle="Normal"/>
+    <tableColumn id="38" name="Constraints4" dataCellStyle="Normal"/>
+    <tableColumn id="39" name="Solutions5" dataCellStyle="Normal"/>
+    <tableColumn id="40" name="Nodes6" dataCellStyle="Normal"/>
+    <tableColumn id="41" name="Backtracks7" dataCellStyle="Normal"/>
+    <tableColumn id="42" name="Fails8" dataCellStyle="Normal"/>
+    <tableColumn id="43" name="Restarts9" dataCellStyle="Normal"/>
+    <tableColumn id="44" name="Building Time10" dataCellStyle="Normal"/>
+    <tableColumn id="45" name="Resolution Time11" dataCellStyle="Normal"/>
+    <tableColumn id="46" name="Execution Time12" dataCellStyle="Normal"/>
+    <tableColumn id="47" name="Building Time213" dataCellStyle="Normal"/>
+    <tableColumn id="48" name="Resolution Time314" dataCellStyle="Normal"/>
+    <tableColumn id="49" name="Execution Time415" dataCellStyle="Normal"/>
+    <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
+    <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
+    <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table1437122024" displayName="Table1437122024" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
   <autoFilter ref="A74:AI89"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Selected models" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Selected models" dataDxfId="17" dataCellStyle="Normal"/>
     <tableColumn id="31" name="Variables2" dataCellStyle="Normal"/>
     <tableColumn id="30" name="Constraints3" dataCellStyle="Normal"/>
     <tableColumn id="35" name="Solutions4" dataCellStyle="Normal"/>
@@ -11441,11 +13900,11 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="36"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="35"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="34"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="33"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="32"/>
+    <tableColumn id="2" name="Default" dataDxfId="47"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="46"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="45"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="44"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11459,11 +13918,11 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="31"/>
+    <tableColumn id="2" name="Default" dataDxfId="42"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="30"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="29"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="28"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="41"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="40"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11477,10 +13936,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="27"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="26"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="25"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="24"/>
+    <tableColumn id="2" name="Default" dataDxfId="38"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="37"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="36"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11494,10 +13953,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="23"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="22"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="21"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="20"/>
+    <tableColumn id="2" name="Default" dataDxfId="34"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="33"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="32"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11511,10 +13970,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'160 - Models'!$B$2*'160 - Models'!$B$6*Table41413[[#This Row],[Models]]+'160 - Models'!$B$2*'160 - Models'!$B$3*Table41413[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="19"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="18"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="17"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="16"/>
+    <tableColumn id="2" name="Default" dataDxfId="30"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="29"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="28"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11528,10 +13987,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'160 - Models'!$B$2*'160 - Models'!$B$6*Table4141516[[#This Row],[Models]]+'160 - Models'!$B$2*'160 - Models'!$B$3*Table4141516[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="15"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="14"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="13"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="12"/>
+    <tableColumn id="2" name="Default" dataDxfId="26"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="25"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="24"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11800,10 +14259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12099,29 +14558,29 @@
         <f>'80 - Models'!B2*'80 - Models'!B6*'80 - Models'!B15</f>
         <v>8</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>48</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8">
         <v>32</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="I8" s="14">
-        <f>HARMEAN('Summary - Models'!C26,'Summary - Models'!C43)</f>
-        <v>0.52390286240936557</v>
-      </c>
-      <c r="J8" s="14">
-        <f>HARMEAN('Summary - Models'!D26,'Summary - Models'!D43)</f>
+      <c r="I8" s="7">
+        <f>HARMEAN('Summary - Models'!C26,'Summary - Models'!C43,'Summary - Models'!C61)</f>
+        <v>0.48910153993208716</v>
+      </c>
+      <c r="J8" s="7">
+        <f>HARMEAN('Summary - Models'!D26,'Summary - Models'!D43,'Summary - Models'!D61)</f>
         <v>0.23844840329286437</v>
       </c>
-      <c r="K8" s="14">
-        <f>HARMEAN('Summary - Models'!E26,'Summary - Models'!E43)</f>
+      <c r="K8" s="7">
+        <f>HARMEAN('Summary - Models'!E26,'Summary - Models'!E43,'Summary - Models'!E61)</f>
         <v>0.22832701688783202</v>
       </c>
-      <c r="L8" s="14">
-        <f>HARMEAN('Summary - Models'!F26,'Summary - Models'!F43)</f>
+      <c r="L8" s="7">
+        <f>HARMEAN('Summary - Models'!F26,'Summary - Models'!F43,'Summary - Models'!F61)</f>
         <v>0.22327018007930705</v>
       </c>
     </row>
@@ -12225,10 +14684,22 @@
       <c r="H11" s="12">
         <v>32</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="I11" s="14">
+        <f>HARMEAN('Summary - Models'!C45,'Summary - Models'!C62)</f>
+        <v>1.1982175655128309</v>
+      </c>
+      <c r="J11" s="14">
+        <f>HARMEAN('Summary - Models'!D45,'Summary - Models'!D62)</f>
+        <v>0.48866628896033271</v>
+      </c>
+      <c r="K11" s="14">
+        <f>HARMEAN('Summary - Models'!E45,'Summary - Models'!E62)</f>
+        <v>0.33768944938022039</v>
+      </c>
+      <c r="L11" s="14">
+        <f>HARMEAN('Summary - Models'!F45,'Summary - Models'!F62)</f>
+        <v>0.42407293399927654</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -12282,19 +14753,19 @@
         <f>'160 - Models'!B2*'160 - Models'!B6*'160 - Models'!B15</f>
         <v>16</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>144</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13">
         <v>96</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13">
         <v>48</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="I13" s="7">
+        <f>'Summary - Models'!C63</f>
+        <v>2.0120466639545902</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -12318,10 +14789,22 @@
       <c r="H14" s="12">
         <v>64</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="I14" s="14">
+        <f>HARMEAN('Summary - Models'!C64)</f>
+        <v>2.6627435649713718</v>
+      </c>
+      <c r="J14" s="14" t="e">
+        <f>HARMEAN('Summary - Models'!D64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="14" t="e">
+        <f>HARMEAN('Summary - Models'!E64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="14" t="e">
+        <f>HARMEAN('Summary - Models'!F64)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -12336,19 +14819,19 @@
         <f>'160 - Models'!B2*'160 - Models'!B6*'160 - Models'!B21</f>
         <v>32</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15">
         <v>240</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15">
         <v>160</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15">
         <v>80</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="I15" s="7">
+        <f>'Summary - Models'!C65</f>
+        <v>4.6094104317624396</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
@@ -12721,29 +15204,29 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F30" s="12">
+      <c r="F30">
         <v>48</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30">
         <v>32</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30">
         <v>16</v>
       </c>
-      <c r="I30" s="14">
-        <f>HARMEAN('Summary - Models'!C35,'Summary - Models'!C52)</f>
-        <v>25.18549233492114</v>
-      </c>
-      <c r="J30" s="14">
-        <f>HARMEAN('Summary - Models'!D35,'Summary - Models'!D52)</f>
+      <c r="I30" s="7">
+        <f>HARMEAN('Summary - Models'!C35,'Summary - Models'!C52,'Summary - Models'!C70)</f>
+        <v>27.987427729412278</v>
+      </c>
+      <c r="J30" s="7">
+        <f>HARMEAN('Summary - Models'!D35,'Summary - Models'!D52,'Summary - Models'!D70)</f>
         <v>12.865052853918522</v>
       </c>
-      <c r="K30" s="14">
-        <f>HARMEAN('Summary - Models'!E35,'Summary - Models'!E52)</f>
+      <c r="K30" s="7">
+        <f>HARMEAN('Summary - Models'!E35,'Summary - Models'!E52,'Summary - Models'!E70)</f>
         <v>15.758058682833097</v>
       </c>
-      <c r="L30" s="14">
-        <f>HARMEAN('Summary - Models'!F35,'Summary - Models'!F52)</f>
+      <c r="L30" s="7">
+        <f>HARMEAN('Summary - Models'!F35,'Summary - Models'!F52,'Summary - Models'!F70)</f>
         <v>14.251047098065008</v>
       </c>
     </row>
@@ -12784,8 +15267,24 @@
       <c r="H32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="I32" s="7">
+        <f>'Summary - Models'!C53</f>
+        <v>30.083124143729631</v>
+      </c>
+      <c r="J32" s="7">
+        <f>'Summary - Models'!D53</f>
+        <v>17.332615378285439</v>
+      </c>
+      <c r="K32" s="7">
+        <f>'Summary - Models'!E53</f>
+        <v>15.573600803808091</v>
+      </c>
+      <c r="L32" s="7">
+        <f>'Summary - Models'!F53</f>
+        <v>14.210225981036634</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F33" s="12">
         <v>96</v>
       </c>
@@ -12795,12 +15294,24 @@
       <c r="H33" s="12">
         <v>32</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="I33" s="14">
+        <f>HARMEAN('Summary - Models'!C54,'Summary - Models'!C71)</f>
+        <v>3.6533827145893865</v>
+      </c>
+      <c r="J33" s="14">
+        <f>HARMEAN('Summary - Models'!D54,'Summary - Models'!D71)</f>
+        <v>25.132571282451323</v>
+      </c>
+      <c r="K33" s="14">
+        <f>HARMEAN('Summary - Models'!E54,'Summary - Models'!E71)</f>
+        <v>95.117950666124415</v>
+      </c>
+      <c r="L33" s="14">
+        <f>HARMEAN('Summary - Models'!F54,'Summary - Models'!F71)</f>
+        <v>87.534879232324485</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>120</v>
       </c>
@@ -12810,23 +15321,51 @@
       <c r="H34">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F35" s="12">
+      <c r="I34" s="7">
+        <f>'Summary - Models'!C55</f>
+        <v>131.20788481112584</v>
+      </c>
+      <c r="J34" s="7">
+        <f>'Summary - Models'!D55</f>
+        <v>17.695150497408196</v>
+      </c>
+      <c r="K34" s="7">
+        <f>'Summary - Models'!E55</f>
+        <v>28.374654062644559</v>
+      </c>
+      <c r="L34" s="7">
+        <f>'Summary - Models'!F55</f>
+        <v>27.685382650143971</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F35">
         <v>144</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35">
         <v>96</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35">
         <v>48</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="I35" s="7">
+        <f>'Summary - Models'!C72</f>
+        <v>1.4779602794576345</v>
+      </c>
+      <c r="J35" s="7">
+        <f>'Summary - Models'!D72</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <f>'Summary - Models'!E72</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f>'Summary - Models'!F72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F36" s="12">
         <v>192</v>
       </c>
@@ -12836,27 +15375,51 @@
       <c r="H36" s="12">
         <v>64</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F37" s="12">
+      <c r="I36" s="14">
+        <f>HARMEAN('Summary - Models'!C73)</f>
+        <v>95.743559841822844</v>
+      </c>
+      <c r="J36" s="14" t="e">
+        <f>HARMEAN('Summary - Models'!D73)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="14" t="e">
+        <f>HARMEAN('Summary - Models'!E73)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="14" t="e">
+        <f>HARMEAN('Summary - Models'!F73)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F37">
         <v>240</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37">
         <v>160</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37">
         <v>80</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="I37" s="7">
+        <f>'Summary - Models'!C74</f>
+        <v>51.622867169541173</v>
+      </c>
+      <c r="J37" s="7">
+        <f>'Summary - Models'!D74</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <f>'Summary - Models'!E74</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f>'Summary - Models'!F74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F38" s="12">
         <v>288</v>
       </c>
@@ -12870,8 +15433,11 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="N38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F39" s="12">
         <v>384</v>
       </c>
@@ -12886,7 +15452,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F40" s="12">
         <v>480</v>
       </c>
@@ -12914,10 +15480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13939,27 +16505,261 @@
         <v>27.685382650143971</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B12+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B12</f>
+        <v>48</v>
+      </c>
+      <c r="C61" s="7">
+        <f>HARMEAN('320 - Models'!L12:L14,'320 - Models'!O12:O14,'320 - Models'!R12:R14)</f>
+        <v>0.43174274475961733</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B15+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B15</f>
+        <v>96</v>
+      </c>
+      <c r="C62" s="7">
+        <f>HARMEAN('320 - Models'!L15:L17,'320 - Models'!O15:O17,'320 - Models'!R15:R17)</f>
+        <v>1.0915092018917707</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B18+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B18</f>
+        <v>144</v>
+      </c>
+      <c r="C63" s="7">
+        <f>HARMEAN('320 - Models'!L18:L20,'320 - Models'!O18:O20,'320 - Models'!R18:R20)</f>
+        <v>2.0120466639545902</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B21+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B21</f>
+        <v>192</v>
+      </c>
+      <c r="C64" s="7">
+        <f>HARMEAN('320 - Models'!L21:L23,'320 - Models'!O21:O23,'320 - Models'!R21:R23)</f>
+        <v>2.6627435649713718</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B24+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B24</f>
+        <v>240</v>
+      </c>
+      <c r="C65" s="7">
+        <f>HARMEAN('320 - Models'!L24:L26,'320 - Models'!O24:O26,'320 - Models'!R24:R26)</f>
+        <v>4.6094104317624396</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B12+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B12</f>
+        <v>48</v>
+      </c>
+      <c r="C70" s="7">
+        <f>HARMEAN('320 - Models'!AB12:AB14,'320 - Models'!AE12:AE14,'320 - Models'!AH12:AH14)</f>
+        <v>35.996873134312047</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B15+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B15</f>
+        <v>96</v>
+      </c>
+      <c r="C71" s="7">
+        <f>HARMEAN('320 - Models'!AB15:AB17,'320 - Models'!AE15:AE17,'320 - Models'!AH15:AH17)</f>
+        <v>1.9373636185122038</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B18+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B18</f>
+        <v>144</v>
+      </c>
+      <c r="C72" s="7">
+        <f>HARMEAN('320 - Models'!AB18:AB20,'320 - Models'!AE18:AE20,'320 - Models'!AH18:AH20)</f>
+        <v>1.4779602794576345</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B21+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B21</f>
+        <v>192</v>
+      </c>
+      <c r="C73" s="7">
+        <f>HARMEAN('320 - Models'!AB21:AB23,'320 - Models'!AE21:AE23,'320 - Models'!AH21:AH23)</f>
+        <v>95.743559841822844</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <f>'320 - Models'!B2*'320 - Models'!B3*'320 - Models'!B24+'320 - Models'!B2*'320 - Models'!B6*'320 - Models'!B24</f>
+        <v>240</v>
+      </c>
+      <c r="C74" s="7">
+        <f>HARMEAN('320 - Models'!AB24:AB25,'320 - Models'!AE24:AE25,'320 - Models'!AH24:AH25)</f>
+        <v>51.622867169541173</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="6">
+  <tableParts count="8">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI110"/>
+  <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB115" sqref="AB115"/>
+    <sheetView topLeftCell="AD7" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13999,14 +16799,15 @@
     <col min="33" max="33" width="16.6640625" customWidth="1"/>
     <col min="34" max="34" width="18.77734375" customWidth="1"/>
     <col min="35" max="35" width="18.109375" customWidth="1"/>
+    <col min="36" max="38" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
@@ -14014,7 +16815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
@@ -14022,7 +16823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -14030,7 +16831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -14038,7 +16839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -14046,12 +16847,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -14103,8 +16904,11 @@
       </c>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -14210,8 +17014,17 @@
       <c r="AI11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -14317,8 +17130,20 @@
       <c r="AI12">
         <v>0.82899999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ12" s="15">
+        <f>GEOMEAN(V12,AB12)</f>
+        <v>18.835073665903195</v>
+      </c>
+      <c r="AK12" s="15">
+        <f>GEOMEAN(V12,AE12)</f>
+        <v>18.146073955542008</v>
+      </c>
+      <c r="AL12" s="15">
+        <f>GEOMEAN(V12,AH12)</f>
+        <v>17.686605101036207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -14424,8 +17249,20 @@
       <c r="AI13">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ13" s="15">
+        <f t="shared" ref="AJ13:AJ26" si="0">GEOMEAN(V13,AB13)</f>
+        <v>19.273297590189387</v>
+      </c>
+      <c r="AK13" s="15">
+        <f t="shared" ref="AK13:AK26" si="1">GEOMEAN(V13,AE13)</f>
+        <v>18.901481423422876</v>
+      </c>
+      <c r="AL13" s="15">
+        <f t="shared" ref="AL13:AL26" si="2">GEOMEAN(V13,AH13)</f>
+        <v>19.115961916681044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -14531,8 +17368,20 @@
       <c r="AI14">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ14" s="15">
+        <f t="shared" si="0"/>
+        <v>2.1248529360875779</v>
+      </c>
+      <c r="AK14" s="15">
+        <f t="shared" si="1"/>
+        <v>2.1083168642308014</v>
+      </c>
+      <c r="AL14" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0663978319771825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -14638,8 +17487,20 @@
       <c r="AI15">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="15">
+        <f t="shared" si="0"/>
+        <v>9.1342761070596072</v>
+      </c>
+      <c r="AK15" s="15">
+        <f t="shared" si="1"/>
+        <v>9.1746934553695034</v>
+      </c>
+      <c r="AL15" s="15">
+        <f t="shared" si="2"/>
+        <v>9.0529000878171626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -14745,8 +17606,20 @@
       <c r="AI16">
         <v>6.5629999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ16" s="15">
+        <f t="shared" si="0"/>
+        <v>79.899937421752711</v>
+      </c>
+      <c r="AK16" s="15">
+        <f t="shared" si="1"/>
+        <v>79.536155300592696</v>
+      </c>
+      <c r="AL16" s="15">
+        <f t="shared" si="2"/>
+        <v>80.802227692063042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -14852,8 +17725,20 @@
       <c r="AI17">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ17" s="15">
+        <f t="shared" si="0"/>
+        <v>10.734523743510934</v>
+      </c>
+      <c r="AK17" s="15">
+        <f t="shared" si="1"/>
+        <v>10.988630487917955</v>
+      </c>
+      <c r="AL17" s="15">
+        <f t="shared" si="2"/>
+        <v>11.539930675701653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -14959,8 +17844,20 @@
       <c r="AI18">
         <v>16.309000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="15">
+        <f t="shared" si="0"/>
+        <v>127.8827588066507</v>
+      </c>
+      <c r="AK18" s="15">
+        <f t="shared" si="1"/>
+        <v>127.30278865759382</v>
+      </c>
+      <c r="AL18" s="15">
+        <f t="shared" si="2"/>
+        <v>127.56174975281579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -15066,8 +17963,20 @@
       <c r="AI19">
         <v>4.1159999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="15">
+        <f t="shared" si="0"/>
+        <v>53.97332674571765</v>
+      </c>
+      <c r="AK19" s="15">
+        <f t="shared" si="1"/>
+        <v>53.81434752926026</v>
+      </c>
+      <c r="AL19" s="15">
+        <f t="shared" si="2"/>
+        <v>53.999777777320524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>22</v>
       </c>
@@ -15173,8 +18082,20 @@
       <c r="AI20">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ20" s="15">
+        <f t="shared" si="0"/>
+        <v>96.171721415393208</v>
+      </c>
+      <c r="AK20" s="15">
+        <f t="shared" si="1"/>
+        <v>93.1933474020544</v>
+      </c>
+      <c r="AL20" s="15">
+        <f t="shared" si="2"/>
+        <v>95.467271878900988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -15280,8 +18201,20 @@
       <c r="AI21">
         <v>44.777999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ21" s="15">
+        <f t="shared" si="0"/>
+        <v>208.14177860295132</v>
+      </c>
+      <c r="AK21" s="15">
+        <f t="shared" si="1"/>
+        <v>208.83725721240452</v>
+      </c>
+      <c r="AL21" s="15">
+        <f t="shared" si="2"/>
+        <v>211.49704489661315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31</v>
       </c>
@@ -15387,8 +18320,20 @@
       <c r="AI22">
         <v>40.029000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ22" s="15">
+        <f t="shared" si="0"/>
+        <v>198.83913095766638</v>
+      </c>
+      <c r="AK22" s="15">
+        <f t="shared" si="1"/>
+        <v>195.82390048204024</v>
+      </c>
+      <c r="AL22" s="15">
+        <f t="shared" si="2"/>
+        <v>199.94749310756563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>32</v>
       </c>
@@ -15494,8 +18439,20 @@
       <c r="AI23">
         <v>18.484999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ23" s="15">
+        <f t="shared" si="0"/>
+        <v>149.79319076646976</v>
+      </c>
+      <c r="AK23" s="15">
+        <f t="shared" si="1"/>
+        <v>134.70337783441067</v>
+      </c>
+      <c r="AL23" s="15">
+        <f t="shared" si="2"/>
+        <v>135.78291497828437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>40</v>
       </c>
@@ -15601,8 +18558,20 @@
       <c r="AI24">
         <v>15.989000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ24" s="15">
+        <f t="shared" si="0"/>
+        <v>128.61570666135611</v>
+      </c>
+      <c r="AK24" s="15">
+        <f t="shared" si="1"/>
+        <v>128.80993750483694</v>
+      </c>
+      <c r="AL24" s="15">
+        <f t="shared" si="2"/>
+        <v>126.28935030318273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>41</v>
       </c>
@@ -15708,8 +18677,20 @@
       <c r="AI25">
         <v>10.631</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ25" s="15">
+        <f t="shared" si="0"/>
+        <v>106.4800450788785</v>
+      </c>
+      <c r="AK25" s="15">
+        <f t="shared" si="1"/>
+        <v>105.08567932882197</v>
+      </c>
+      <c r="AL25" s="15">
+        <f t="shared" si="2"/>
+        <v>102.90772565750348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>42</v>
       </c>
@@ -15815,13 +18796,25 @@
       <c r="AI26">
         <v>5.92</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ26" s="15">
+        <f t="shared" si="0"/>
+        <v>76.889531146964345</v>
+      </c>
+      <c r="AK26" s="15">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="AL26" s="15">
+        <f t="shared" si="2"/>
+        <v>76.674637266830288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -15874,7 +18867,7 @@
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -15980,8 +18973,17 @@
       <c r="AI32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -16087,8 +19089,11 @@
       <c r="AI33">
         <v>0.63900000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -16194,8 +19199,11 @@
       <c r="AI34">
         <v>2.6539999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -16301,8 +19309,11 @@
       <c r="AI35">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -16408,8 +19419,11 @@
       <c r="AI36">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
@@ -16515,8 +19529,11 @@
       <c r="AI37">
         <v>11.599</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -16622,8 +19639,11 @@
       <c r="AI38">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
@@ -16729,8 +19749,11 @@
       <c r="AI39">
         <v>14.118</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>21</v>
       </c>
@@ -16836,8 +19859,11 @@
       <c r="AI40">
         <v>3.4569999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
@@ -16943,8 +19969,11 @@
       <c r="AI41">
         <v>21.378</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>30</v>
       </c>
@@ -17050,8 +20079,11 @@
       <c r="AI42">
         <v>40.185000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>31</v>
       </c>
@@ -17157,8 +20189,11 @@
       <c r="AI43">
         <v>15.180999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>32</v>
       </c>
@@ -17264,8 +20299,11 @@
       <c r="AI44">
         <v>544.73199999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -17371,8 +20409,11 @@
       <c r="AI45">
         <v>71.796000000000006</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -17478,8 +20519,11 @@
       <c r="AI46">
         <v>22.893999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -17585,13 +20629,16 @@
       <c r="AI47">
         <v>6.74</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -17644,7 +20691,7 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="8"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -17750,8 +20797,17 @@
       <c r="AI53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ53" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -17857,8 +20913,11 @@
       <c r="AI54">
         <v>1.0409999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -17964,8 +21023,11 @@
       <c r="AI55">
         <v>1.458</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -18071,8 +21133,11 @@
       <c r="AI56">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10</v>
       </c>
@@ -18178,8 +21243,11 @@
       <c r="AI57">
         <v>0.47399999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -18285,8 +21353,11 @@
       <c r="AI58">
         <v>2.6110000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -18392,8 +21463,11 @@
       <c r="AI59">
         <v>0.69899999999999995</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20</v>
       </c>
@@ -18499,8 +21573,11 @@
       <c r="AI60">
         <v>10.298999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>21</v>
       </c>
@@ -18606,8 +21683,11 @@
       <c r="AI61">
         <v>4.5010000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>22</v>
       </c>
@@ -18713,8 +21793,11 @@
       <c r="AI62">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>30</v>
       </c>
@@ -18820,8 +21903,11 @@
       <c r="AI63">
         <v>14.959</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>31</v>
       </c>
@@ -18927,8 +22013,11 @@
       <c r="AI64">
         <v>99.691999999999993</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="2"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>32</v>
       </c>
@@ -19034,8 +22123,11 @@
       <c r="AI65">
         <v>183.86699999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="2"/>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>40</v>
       </c>
@@ -19141,8 +22233,11 @@
       <c r="AI66">
         <v>241.24799999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>41</v>
       </c>
@@ -19248,8 +22343,11 @@
       <c r="AI67">
         <v>75.84</v>
       </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>42</v>
       </c>
@@ -19355,13 +22453,16 @@
       <c r="AI68">
         <v>12.236000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -19414,7 +22515,7 @@
       <c r="AH73" s="8"/>
       <c r="AI73" s="8"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -19520,8 +22621,17 @@
       <c r="AI74" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -19627,8 +22737,11 @@
       <c r="AI75">
         <v>0.81599999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -19734,8 +22847,11 @@
       <c r="AI76">
         <v>1.2649999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -19841,8 +22957,11 @@
       <c r="AI77">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="2"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>10</v>
       </c>
@@ -19948,8 +23067,11 @@
       <c r="AI78">
         <v>0.48099999999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11</v>
       </c>
@@ -20055,8 +23177,11 @@
       <c r="AI79">
         <v>2.4980000000000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>12</v>
       </c>
@@ -20162,8 +23287,11 @@
       <c r="AI80">
         <v>0.61599999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="2"/>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -20269,8 +23397,11 @@
       <c r="AI81">
         <v>9.1199999999999992</v>
       </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="2"/>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -20376,8 +23507,11 @@
       <c r="AI82">
         <v>3.8759999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22</v>
       </c>
@@ -20483,8 +23617,11 @@
       <c r="AI83">
         <v>4.8540000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>30</v>
       </c>
@@ -20590,8 +23727,11 @@
       <c r="AI84">
         <v>13.244</v>
       </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+      <c r="AL84" s="2"/>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>31</v>
       </c>
@@ -20697,8 +23837,11 @@
       <c r="AI85">
         <v>76.995999999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="2"/>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>32</v>
       </c>
@@ -20804,8 +23947,11 @@
       <c r="AI86">
         <v>151.58600000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -20911,8 +24057,11 @@
       <c r="AI87">
         <v>259.58</v>
       </c>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="2"/>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -21018,8 +24167,11 @@
       <c r="AI88">
         <v>97.828999999999994</v>
       </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
+      <c r="AL88" s="2"/>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>42</v>
       </c>
@@ -21125,13 +24277,16 @@
       <c r="AI89">
         <v>13.647</v>
       </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="2"/>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -21184,7 +24339,7 @@
       <c r="AH94" s="8"/>
       <c r="AI94" s="8"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -21291,7 +24446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -22955,7 +26110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -30138,8 +33293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P79" workbookViewId="0">
-      <selection activeCell="AI90" sqref="AI90"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37321,11 +40476,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -37544,6 +40702,105 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>5329</v>
+      </c>
+      <c r="E12">
+        <v>5854</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.439</v>
+      </c>
+      <c r="N12">
+        <v>0.152</v>
+      </c>
+      <c r="O12">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="P12">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.43</v>
+      </c>
+      <c r="T12">
+        <v>9289</v>
+      </c>
+      <c r="U12">
+        <v>9814</v>
+      </c>
+      <c r="V12">
+        <v>1000</v>
+      </c>
+      <c r="W12">
+        <v>50086</v>
+      </c>
+      <c r="X12">
+        <v>98040</v>
+      </c>
+      <c r="Y12">
+        <v>48027</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>39.646999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>39.715000000000003</v>
+      </c>
+      <c r="AD12">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE12">
+        <v>34.795999999999999</v>
+      </c>
+      <c r="AF12">
+        <v>34.838999999999999</v>
+      </c>
+      <c r="AG12">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AH12">
+        <v>33.351999999999997</v>
+      </c>
+      <c r="AI12">
+        <v>33.396000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -37552,6 +40809,105 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>5540</v>
+      </c>
+      <c r="E13">
+        <v>6083</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>123</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.155</v>
+      </c>
+      <c r="L13">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="N13">
+        <v>0.155</v>
+      </c>
+      <c r="O13">
+        <v>0.442</v>
+      </c>
+      <c r="P13">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.16</v>
+      </c>
+      <c r="R13">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S13">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="T13">
+        <v>9500</v>
+      </c>
+      <c r="U13">
+        <v>10043</v>
+      </c>
+      <c r="V13">
+        <v>1000</v>
+      </c>
+      <c r="W13">
+        <v>274020</v>
+      </c>
+      <c r="X13">
+        <v>545864</v>
+      </c>
+      <c r="Y13">
+        <v>271941</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0.253</v>
+      </c>
+      <c r="AB13">
+        <v>138.44300000000001</v>
+      </c>
+      <c r="AC13">
+        <v>138.52699999999999</v>
+      </c>
+      <c r="AD13">
+        <v>0.15</v>
+      </c>
+      <c r="AE13">
+        <v>131.547</v>
+      </c>
+      <c r="AF13">
+        <v>131.595</v>
+      </c>
+      <c r="AG13">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AH13">
+        <v>173.41300000000001</v>
+      </c>
+      <c r="AI13">
+        <v>173.46299999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -37560,6 +40916,105 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>447</v>
+      </c>
+      <c r="E14">
+        <v>5985</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>52</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="N14">
+        <v>0.157</v>
+      </c>
+      <c r="O14">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.499</v>
+      </c>
+      <c r="Q14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="S14">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="T14">
+        <v>9407</v>
+      </c>
+      <c r="U14">
+        <v>9945</v>
+      </c>
+      <c r="V14">
+        <v>1000</v>
+      </c>
+      <c r="W14">
+        <v>26319</v>
+      </c>
+      <c r="X14">
+        <v>50504</v>
+      </c>
+      <c r="Y14">
+        <v>24256</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0.15</v>
+      </c>
+      <c r="AB14">
+        <v>18.96</v>
+      </c>
+      <c r="AC14">
+        <v>19.003</v>
+      </c>
+      <c r="AD14">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>20.571000000000002</v>
+      </c>
+      <c r="AF14">
+        <v>20.614000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>0.182</v>
+      </c>
+      <c r="AH14">
+        <v>22.66</v>
+      </c>
+      <c r="AI14">
+        <v>22.713000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -37568,7 +41023,105 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15">
+        <v>10728</v>
+      </c>
+      <c r="E15">
+        <v>11814</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>158</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.191</v>
+      </c>
+      <c r="L15">
+        <v>1.079</v>
+      </c>
+      <c r="M15">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.186</v>
+      </c>
+      <c r="O15">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="P15">
+        <v>1.21</v>
+      </c>
+      <c r="Q15">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="R15">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="S15">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="T15">
+        <v>14688</v>
+      </c>
+      <c r="U15">
+        <v>15774</v>
+      </c>
+      <c r="V15">
+        <v>1000</v>
+      </c>
+      <c r="W15">
+        <v>17950</v>
+      </c>
+      <c r="X15">
+        <v>33664</v>
+      </c>
+      <c r="Y15">
+        <v>15839</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AB15">
+        <v>19.821999999999999</v>
+      </c>
+      <c r="AC15">
+        <v>19.925999999999998</v>
+      </c>
+      <c r="AD15">
+        <v>0.192</v>
+      </c>
+      <c r="AE15">
+        <v>18.834</v>
+      </c>
+      <c r="AF15">
+        <v>18.902000000000001</v>
+      </c>
+      <c r="AG15">
+        <v>0.188</v>
+      </c>
+      <c r="AH15">
+        <v>19.457000000000001</v>
+      </c>
+      <c r="AI15">
+        <v>19.521999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -37577,7 +41130,105 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>10752</v>
+      </c>
+      <c r="E16">
+        <v>11843</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="M16">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.99</v>
+      </c>
+      <c r="P16">
+        <v>1.054</v>
+      </c>
+      <c r="Q16">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="R16">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="S16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T16">
+        <v>10988</v>
+      </c>
+      <c r="U16">
+        <v>12079</v>
+      </c>
+      <c r="V16">
+        <v>69</v>
+      </c>
+      <c r="W16">
+        <v>202</v>
+      </c>
+      <c r="X16">
+        <v>267</v>
+      </c>
+      <c r="Y16">
+        <v>65</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0.223</v>
+      </c>
+      <c r="AB16">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AC16">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="AD16">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AE16">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="AF16">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AG16">
+        <v>0.19</v>
+      </c>
+      <c r="AH16">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="AI16">
+        <v>0.79100000000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -37586,7 +41237,105 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>10876</v>
+      </c>
+      <c r="E17">
+        <v>11972</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>135</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.186</v>
+      </c>
+      <c r="L17">
+        <v>1.111</v>
+      </c>
+      <c r="M17">
+        <v>1.177</v>
+      </c>
+      <c r="N17">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="O17">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="P17">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="R17">
+        <v>1.23</v>
+      </c>
+      <c r="S17">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="T17">
+        <v>14836</v>
+      </c>
+      <c r="U17">
+        <v>15932</v>
+      </c>
+      <c r="V17">
+        <v>1000</v>
+      </c>
+      <c r="W17">
+        <v>16910</v>
+      </c>
+      <c r="X17">
+        <v>31613</v>
+      </c>
+      <c r="Y17">
+        <v>14812</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AB17">
+        <v>20.184000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>20.251000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>0.185</v>
+      </c>
+      <c r="AE17">
+        <v>22.875</v>
+      </c>
+      <c r="AF17">
+        <v>22.940999999999999</v>
+      </c>
+      <c r="AG17">
+        <v>0.214</v>
+      </c>
+      <c r="AH17">
+        <v>20.914000000000001</v>
+      </c>
+      <c r="AI17">
+        <v>20.991</v>
+      </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -37595,9 +41344,105 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>16076</v>
+      </c>
+      <c r="E18">
+        <v>17715</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.35</v>
+      </c>
+      <c r="L18">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="M18">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="O18">
+        <v>1.962</v>
+      </c>
+      <c r="P18">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="R18">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="S18">
+        <v>1.988</v>
+      </c>
+      <c r="T18" s="2">
+        <v>16108</v>
+      </c>
+      <c r="U18" s="2">
+        <v>17747</v>
+      </c>
+      <c r="V18">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>48</v>
+      </c>
+      <c r="X18">
+        <v>61</v>
+      </c>
+      <c r="Y18">
+        <v>13</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AB18">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="AC18">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AD18">
+        <v>0.249</v>
+      </c>
+      <c r="AE18">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AF18">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AG18">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="AH18">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AI18">
+        <v>0.69299999999999995</v>
+      </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -37606,10 +41451,105 @@
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19">
+        <v>16042</v>
+      </c>
+      <c r="E19">
+        <v>17671</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>112</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.253</v>
+      </c>
+      <c r="L19">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="M19">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="O19">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="P19">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="R19">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="S19">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="T19" s="2">
+        <v>20002</v>
+      </c>
+      <c r="U19" s="2">
+        <v>21631</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W19">
+        <v>53807</v>
+      </c>
+      <c r="X19">
+        <v>105460</v>
+      </c>
+      <c r="Y19">
+        <v>51735</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>93.35</v>
+      </c>
+      <c r="AC19">
+        <v>93.468999999999994</v>
+      </c>
+      <c r="AD19">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>73.462999999999994</v>
+      </c>
+      <c r="AF19">
+        <v>73.587999999999994</v>
+      </c>
+      <c r="AG19">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AH19">
+        <v>93.091999999999999</v>
+      </c>
+      <c r="AI19">
+        <v>93.222999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -37618,7 +41558,105 @@
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>16261</v>
+      </c>
+      <c r="E20">
+        <v>17910</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>149</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L20">
+        <v>1.909</v>
+      </c>
+      <c r="M20">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="P20">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.27</v>
+      </c>
+      <c r="R20">
+        <v>2.073</v>
+      </c>
+      <c r="S20">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="T20">
+        <v>20221</v>
+      </c>
+      <c r="U20">
+        <v>21870</v>
+      </c>
+      <c r="V20">
+        <v>1000</v>
+      </c>
+      <c r="W20">
+        <v>61120</v>
+      </c>
+      <c r="X20">
+        <v>119990</v>
+      </c>
+      <c r="Y20">
+        <v>59002</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0.3</v>
+      </c>
+      <c r="AB20">
+        <v>97.006</v>
+      </c>
+      <c r="AC20">
+        <v>97.144000000000005</v>
+      </c>
+      <c r="AD20">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>89.552000000000007</v>
+      </c>
+      <c r="AF20">
+        <v>89.674000000000007</v>
+      </c>
+      <c r="AG20">
+        <v>0.253</v>
+      </c>
+      <c r="AH20">
+        <v>87.631</v>
+      </c>
+      <c r="AI20">
+        <v>87.733000000000004</v>
+      </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -37627,7 +41665,105 @@
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21">
+        <v>21209</v>
+      </c>
+      <c r="E21">
+        <v>23367</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>182</v>
+      </c>
+      <c r="H21">
+        <v>81</v>
+      </c>
+      <c r="I21">
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L21">
+        <v>2.669</v>
+      </c>
+      <c r="M21">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="O21">
+        <v>2.613</v>
+      </c>
+      <c r="P21">
+        <v>2.72</v>
+      </c>
+      <c r="Q21">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="R21">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="S21">
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="T21">
+        <v>25169</v>
+      </c>
+      <c r="U21">
+        <v>27327</v>
+      </c>
+      <c r="V21">
+        <v>1000</v>
+      </c>
+      <c r="W21">
+        <v>38067</v>
+      </c>
+      <c r="X21">
+        <v>73878</v>
+      </c>
+      <c r="Y21">
+        <v>35944</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0.27</v>
+      </c>
+      <c r="AB21">
+        <v>68.885000000000005</v>
+      </c>
+      <c r="AC21">
+        <v>68.977999999999994</v>
+      </c>
+      <c r="AD21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AE21">
+        <v>74.33</v>
+      </c>
+      <c r="AF21">
+        <v>74.438000000000002</v>
+      </c>
+      <c r="AG21">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AH21">
+        <v>69.539000000000001</v>
+      </c>
+      <c r="AI21">
+        <v>69.638999999999996</v>
+      </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -37636,7 +41772,105 @@
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22">
+        <v>21273</v>
+      </c>
+      <c r="E22">
+        <v>23440</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>52</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="L22">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="M22">
+        <v>2.82</v>
+      </c>
+      <c r="N22">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="O22">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="P22">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="R22">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="S22">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="T22">
+        <v>25233</v>
+      </c>
+      <c r="U22">
+        <v>27400</v>
+      </c>
+      <c r="V22">
+        <v>1000</v>
+      </c>
+      <c r="W22">
+        <v>32720</v>
+      </c>
+      <c r="X22">
+        <v>63398</v>
+      </c>
+      <c r="Y22">
+        <v>30705</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AB22">
+        <v>89.311999999999998</v>
+      </c>
+      <c r="AC22">
+        <v>89.418000000000006</v>
+      </c>
+      <c r="AD22">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AE22">
+        <v>70.513999999999996</v>
+      </c>
+      <c r="AF22">
+        <v>70.62</v>
+      </c>
+      <c r="AG22">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AH22">
+        <v>64.700999999999993</v>
+      </c>
+      <c r="AI22">
+        <v>64.831000000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -37645,7 +41879,105 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23">
+        <v>21320</v>
+      </c>
+      <c r="E23">
+        <v>23482</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>251</v>
+      </c>
+      <c r="H23">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L23">
+        <v>2.778</v>
+      </c>
+      <c r="M23">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="N23">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O23">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="P23">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="R23">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="S23">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="T23">
+        <v>25280</v>
+      </c>
+      <c r="U23">
+        <v>27442</v>
+      </c>
+      <c r="V23">
+        <v>1000</v>
+      </c>
+      <c r="W23">
+        <v>122350</v>
+      </c>
+      <c r="X23">
+        <v>242298</v>
+      </c>
+      <c r="Y23">
+        <v>120155</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0.3</v>
+      </c>
+      <c r="AB23">
+        <v>298.38099999999997</v>
+      </c>
+      <c r="AC23">
+        <v>298.49200000000002</v>
+      </c>
+      <c r="AD23">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AE23">
+        <v>251.428</v>
+      </c>
+      <c r="AF23">
+        <v>251.53700000000001</v>
+      </c>
+      <c r="AG23">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AH23">
+        <v>286.73700000000002</v>
+      </c>
+      <c r="AI23">
+        <v>286.851</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -37654,7 +41986,105 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <v>26683</v>
+      </c>
+      <c r="E24">
+        <v>29383</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>145</v>
+      </c>
+      <c r="H24">
+        <v>53</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.39</v>
+      </c>
+      <c r="L24">
+        <v>4.7590000000000003</v>
+      </c>
+      <c r="M24">
+        <v>4.915</v>
+      </c>
+      <c r="N24">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="O24">
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="P24">
+        <v>4.7370000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="R24">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="S24">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="T24">
+        <v>30643</v>
+      </c>
+      <c r="U24">
+        <v>33343</v>
+      </c>
+      <c r="V24">
+        <v>1000</v>
+      </c>
+      <c r="W24">
+        <v>23303</v>
+      </c>
+      <c r="X24">
+        <v>44403</v>
+      </c>
+      <c r="Y24">
+        <v>21208</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AB24">
+        <v>74.281999999999996</v>
+      </c>
+      <c r="AC24">
+        <v>74.468999999999994</v>
+      </c>
+      <c r="AD24">
+        <v>0.35</v>
+      </c>
+      <c r="AE24">
+        <v>72.468000000000004</v>
+      </c>
+      <c r="AF24">
+        <v>72.606999999999999</v>
+      </c>
+      <c r="AG24">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AH24">
+        <v>70.432000000000002</v>
+      </c>
+      <c r="AI24">
+        <v>70.552000000000007</v>
+      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -37663,16 +42093,148 @@
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25">
+        <v>26622</v>
+      </c>
+      <c r="E25">
+        <v>29338</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>235</v>
+      </c>
+      <c r="H25">
+        <v>81</v>
+      </c>
+      <c r="I25">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.36</v>
+      </c>
+      <c r="L25">
+        <v>5.05</v>
+      </c>
+      <c r="M25">
+        <v>5.2009999999999996</v>
+      </c>
+      <c r="N25">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="O25">
+        <v>4.2149999999999999</v>
+      </c>
+      <c r="P25">
+        <v>4.3390000000000004</v>
+      </c>
+      <c r="Q25">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="R25">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="S25">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="T25">
+        <v>30582</v>
+      </c>
+      <c r="U25">
+        <v>33298</v>
+      </c>
+      <c r="V25">
+        <v>1000</v>
+      </c>
+      <c r="W25">
+        <v>12741</v>
+      </c>
+      <c r="X25">
+        <v>23120</v>
+      </c>
+      <c r="Y25">
+        <v>10568</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AB25">
+        <v>39.167000000000002</v>
+      </c>
+      <c r="AC25">
+        <v>39.329000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>0.308</v>
+      </c>
+      <c r="AE25">
+        <v>39.543999999999997</v>
+      </c>
+      <c r="AF25">
+        <v>39.658000000000001</v>
+      </c>
+      <c r="AG25">
+        <v>0.373</v>
+      </c>
+      <c r="AH25">
+        <v>41.756999999999998</v>
+      </c>
+      <c r="AI25">
+        <v>41.917999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="12">
         <v>42</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="12">
         <v>5</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -37846,6 +42408,9 @@
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -37854,6 +42419,9 @@
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -37865,6 +42433,9 @@
       <c r="B35">
         <v>1</v>
       </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -37873,7 +42444,9 @@
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -37882,7 +42455,9 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -37894,7 +42469,9 @@
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -37903,7 +42480,9 @@
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -37912,7 +42491,9 @@
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -37921,7 +42502,9 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -37930,7 +42513,9 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -37939,7 +42524,9 @@
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -37948,7 +42535,9 @@
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -37957,7 +42546,9 @@
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -37966,7 +42557,9 @@
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -37975,7 +42568,9 @@
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -38152,6 +42747,9 @@
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -38160,6 +42758,9 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -38168,6 +42769,9 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -38176,7 +42780,9 @@
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -38185,7 +42791,9 @@
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
@@ -38197,7 +42805,9 @@
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -38206,7 +42816,9 @@
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -38221,7 +42833,9 @@
       <c r="B61">
         <v>3</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -38235,7 +42849,9 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -38244,7 +42860,9 @@
       <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -38259,7 +42877,9 @@
       <c r="B64">
         <v>4</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -38271,7 +42891,9 @@
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -38280,7 +42902,9 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -38289,7 +42913,9 @@
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -38303,7 +42929,9 @@
       <c r="B68">
         <v>5</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -38483,6 +43111,9 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -38490,6 +43121,9 @@
       </c>
       <c r="B76">
         <v>1</v>
+      </c>
+      <c r="C76">
+        <v>24</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -38509,6 +43143,9 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -38517,7 +43154,9 @@
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -38526,7 +43165,9 @@
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -38541,7 +43182,9 @@
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -38550,7 +43193,9 @@
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
@@ -38563,7 +43208,9 @@
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -38572,7 +43219,9 @@
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -38581,7 +43230,9 @@
       <c r="B84">
         <v>4</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -38596,7 +43247,9 @@
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -38608,7 +43261,9 @@
       <c r="B86">
         <v>4</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -38617,7 +43272,9 @@
       <c r="B87">
         <v>5</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
@@ -38629,7 +43286,9 @@
       <c r="B88">
         <v>5</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
@@ -38644,7 +43303,9 @@
       <c r="B89">
         <v>5</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Constraints" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="113">
   <si>
     <t>Run</t>
   </si>
@@ -344,16 +344,31 @@
     <t>1, 2, 11, 12</t>
   </si>
   <si>
-    <t>Geomean R1</t>
+    <t>14, 20, 24, 25, 27</t>
   </si>
   <si>
-    <t>Geomean R2</t>
+    <t>Features: 320, Heuristic: default</t>
   </si>
   <si>
-    <t>Geomean R3</t>
+    <t>Features: 320, Heuristic 3: Default + BiVarArithmetic + OrAttr0 + OrAttr1</t>
   </si>
   <si>
-    <t>14, 20, 24, 25, 27</t>
+    <t>Features: 320, Heuristic 2: Default + BiVarArithmetic</t>
+  </si>
+  <si>
+    <t>Features: 320, Heuristic 1: Default + MorePercInstVars</t>
+  </si>
+  <si>
+    <t>Features: 640, Heuristic: default</t>
+  </si>
+  <si>
+    <t>Features: 640, Heuristic 1: Default + MorePercInstVars</t>
+  </si>
+  <si>
+    <t>Features: 640, Heuristic 2: Default + BiVarArithmetic</t>
+  </si>
+  <si>
+    <t>Features: 640, Heuristic 3: Default + BiVarArithmetic + OrAttr0 + OrAttr1</t>
   </si>
 </sst>
 </file>
@@ -504,7 +519,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -521,7 +536,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,7 +555,7 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="70">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -833,15 +847,6 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1338,7 +1343,7 @@
                   <c:v>0.16365266899139061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22832701688783202</c:v>
+                  <c:v>0.24749691001900373</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.23397925761994948</c:v>
@@ -1347,19 +1352,19 @@
                   <c:v>0.28407873426735769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33768944938022039</c:v>
+                  <c:v>0.40399752937129396</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.3939455246647362</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.65901897449037727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83749301127131703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.1133730464231242</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1754,6 +1759,571 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Solutions - 320 Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$C$61:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43174274475961733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0915092018917707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0120466639545902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6627435649713718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6094104317624396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$D$61:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.20319475405936657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32095217850196328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51892222755818718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67183260292712577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3345209522589796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$E$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$E$61:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29744225950106512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50270843408094934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65901897449037727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83749301127131703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1133730464231242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Models'!$F$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Models'!$F$61:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="212091416"/>
+        <c:axId val="212091808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="212091416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212091808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="212091808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212091416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
               <a:t>1000 Solutions - 320 Features</a:t>
             </a:r>
           </a:p>
@@ -2003,6 +2573,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.828286748278609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7736975291433805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5454066765065118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.64301748412403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108.95954346979502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2265,7 +2850,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3281,7 +3866,7 @@
                   <c:v>14.235223571130939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.758058682833097</c:v>
+                  <c:v>14.643295237100938</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.756228717733677</c:v>
@@ -3290,19 +3875,19 @@
                   <c:v>15.573600803808091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.117950666124415</c:v>
+                  <c:v>5.3902131510451987</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>28.374654062644559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.5454066765065118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>99.64301748412403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>108.95954346979502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,6 +4264,871 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
+              <a:t>10 Solutions - Logarihtmic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$I$2:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.1187269729718287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11813897880583678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17014395193802512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20322580946383451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23112729160001227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37773472606510916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48910153993208716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68858636014817731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9326603567024776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2940560032436186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5081057095703692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0120466639545902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.272362805525451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6094104317624396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0828951581140691</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.710979414281567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.687582639594122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.5905807503954361E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7958669093294704E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10691845154486945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15879289425183235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22708745996596125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24908093144028493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22541229573589316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30074901114503988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28366371982754124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42452775740238541</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9812948177069396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51892222755818718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82702536615706057</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3345209522589796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8337759507267497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4223248584906143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8667976517129667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$K$2:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7.837459345418106E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2001009294525404E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11130381037109011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13776490140155909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14112515449175733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16365266899139061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24749691001900373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23397925761994948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28407873426735769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40399752937129396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3939455246647362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65901897449037727</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83749301127131703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1133730464231242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary - Constraints'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary - Constraints'!$L$2:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.5412518447039589E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8983911371815957E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10156336722046637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15115110713730162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15417903466059946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16262414002527026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22327018007930705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24044982172616361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31945853588623524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42407293399927654</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57024115125874641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="420947320"/>
+        <c:axId val="420947712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="420947320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420947712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420947712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420947320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
               <a:t>10 Solutions -</a:t>
             </a:r>
             <a:r>
@@ -4307,7 +5757,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4959,7 +6409,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5535,7 +6985,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6111,7 +7561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6687,7 +8137,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7263,556 +8713,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>10</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> Solutions - 320 Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary - Models'!$C$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Default</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary - Models'!$C$61:$C$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.43174274475961733</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0915092018917707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0120466639545902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6627435649713718</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6094104317624396</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary - Models'!$D$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary - Models'!$D$61:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.20319475405936657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32095217850196328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51892222755818718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67183260292712577</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3345209522589796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary - Models'!$E$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary - Models'!$E$61:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary - Models'!$F$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary - Models'!$A$61:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary - Models'!$F$61:$F$65</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="212091416"/>
-        <c:axId val="212091808"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="212091416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="212091808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="212091808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="212091416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7894,6 +8794,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9286,6 +10226,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13991,6 +15447,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14289,10 +15777,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
     <tableColumn id="6" name="Constraints"/>
-    <tableColumn id="2" name="Default" dataDxfId="47"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="46"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="45"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="44"/>
+    <tableColumn id="2" name="Default" dataDxfId="44"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="43"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="42"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14304,10 +15792,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="Models"/>
     <tableColumn id="6" name="Constraints"/>
-    <tableColumn id="2" name="Default" dataDxfId="43"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="42"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="41"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="40"/>
+    <tableColumn id="2" name="Default" dataDxfId="40"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="39"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="38"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14344,9 +15832,9 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AL26" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A11:AL26"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:AI26" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A11:AI26"/>
+  <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -14382,24 +15870,15 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Geomean R1" dataDxfId="39" dataCellStyle="Normal">
-      <calculatedColumnFormula>GEOMEAN(V12,AB12)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="Geomean R2" dataDxfId="38" dataCellStyle="Normal">
-      <calculatedColumnFormula>GEOMEAN(V12,AE12)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Geomean R3" dataDxfId="37" dataCellStyle="Normal">
-      <calculatedColumnFormula>GEOMEAN(V12,AH12)</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AL47" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A32:AL47"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A32:AI47" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A32:AI47"/>
+  <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -14435,18 +15914,15 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Geomean R1" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Geomean R2" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Geomean R3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AL68" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A53:AL68"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A53:AI68" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A53:AI68"/>
+  <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -14482,18 +15958,15 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Geomean R1" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Geomean R2" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Geomean R3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AL89" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A74:AL89"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1437" displayName="Table1437" ref="A74:AI89" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A74:AI89"/>
+  <tableColumns count="35">
     <tableColumn id="1" name="Run" dataCellStyle="Normal"/>
     <tableColumn id="2" name="#Models" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Selected models" dataCellStyle="Normal"/>
@@ -14529,9 +16002,6 @@
     <tableColumn id="50" name="Building Time516" dataCellStyle="Normal"/>
     <tableColumn id="51" name="Resolution Time617" dataCellStyle="Normal"/>
     <tableColumn id="52" name="Execution Time718" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Geomean R1" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Geomean R2" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Geomean R3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15325,11 +16795,11 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table4[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table4[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="72"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="71"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="70"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="69"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="68"/>
+    <tableColumn id="2" name="Default" dataDxfId="69"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="68"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="67"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="66"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15343,11 +16813,11 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'40 - Models'!$B$2*'40 - Models'!$B$6*Table5[[#This Row],[Models]]+'40 - Models'!$B$2*'40 - Models'!$B$3*Table5[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="67"/>
+    <tableColumn id="2" name="Default" dataDxfId="64"/>
     <tableColumn id="3" name="Heuristic 1"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="66"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="65"/>
-    <tableColumn id="7" name="Heuristic 4" dataDxfId="64"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="63"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="62"/>
+    <tableColumn id="7" name="Heuristic 4" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15361,10 +16831,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table414[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table414[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="63"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="62"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="61"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="60"/>
+    <tableColumn id="2" name="Default" dataDxfId="60"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="59"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="58"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15378,10 +16848,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'80 - Models'!$B$2*'80 - Models'!$B$6*Table41415[[#This Row],[Models]]+'80 - Models'!$B$2*'80 - Models'!$B$3*Table41415[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="59"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="58"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="57"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="56"/>
+    <tableColumn id="2" name="Default" dataDxfId="56"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="55"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="54"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15395,10 +16865,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'160 - Models'!$B$2*'160 - Models'!$B$6*Table41413[[#This Row],[Models]]+'160 - Models'!$B$2*'160 - Models'!$B$3*Table41413[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="55"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="54"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="53"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="52"/>
+    <tableColumn id="2" name="Default" dataDxfId="52"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="51"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="50"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15412,10 +16882,10 @@
     <tableColumn id="6" name="Constraints">
       <calculatedColumnFormula>'160 - Models'!$B$2*'160 - Models'!$B$6*Table4141516[[#This Row],[Models]]+'160 - Models'!$B$2*'160 - Models'!$B$3*Table4141516[[#This Row],[Models]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Default" dataDxfId="51"/>
-    <tableColumn id="3" name="Heuristic 1" dataDxfId="50"/>
-    <tableColumn id="4" name="Heuristic 2" dataDxfId="49"/>
-    <tableColumn id="5" name="Heuristic 3" dataDxfId="48"/>
+    <tableColumn id="2" name="Default" dataDxfId="48"/>
+    <tableColumn id="3" name="Heuristic 1" dataDxfId="47"/>
+    <tableColumn id="4" name="Heuristic 2" dataDxfId="46"/>
+    <tableColumn id="5" name="Heuristic 3" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15686,8 +17156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16002,7 +17472,7 @@
       </c>
       <c r="K8" s="7">
         <f>HARMEAN('Summary - Models'!E26,'Summary - Models'!E43,'Summary - Models'!E61)</f>
-        <v>0.22832701688783202</v>
+        <v>0.24749691001900373</v>
       </c>
       <c r="L8" s="7">
         <f>HARMEAN('Summary - Models'!F26,'Summary - Models'!F43,'Summary - Models'!F61)</f>
@@ -16119,7 +17589,7 @@
       </c>
       <c r="K11" s="7">
         <f>HARMEAN('Summary - Models'!E45,'Summary - Models'!E62,'Summary - Models'!E80)</f>
-        <v>0.33768944938022039</v>
+        <v>0.40399752937129396</v>
       </c>
       <c r="L11" s="7">
         <f>HARMEAN('Summary - Models'!F45,'Summary - Models'!F62,'Summary - Models'!F80)</f>
@@ -16197,7 +17667,7 @@
       </c>
       <c r="K13" s="7">
         <f>'Summary - Models'!E63</f>
-        <v>0</v>
+        <v>0.65901897449037727</v>
       </c>
       <c r="L13" s="7">
         <f>'Summary - Models'!F63</f>
@@ -16234,9 +17704,9 @@
         <f>HARMEAN('Summary - Models'!D64,'Summary - Models'!D81)</f>
         <v>0.82702536615706057</v>
       </c>
-      <c r="K14" s="7" t="e">
+      <c r="K14" s="7">
         <f>HARMEAN('Summary - Models'!E64,'Summary - Models'!E81)</f>
-        <v>#N/A</v>
+        <v>0.83749301127131703</v>
       </c>
       <c r="L14" s="7" t="e">
         <f>HARMEAN('Summary - Models'!F64,'Summary - Models'!F81)</f>
@@ -16275,7 +17745,7 @@
       </c>
       <c r="K15" s="7">
         <f>'Summary - Models'!E65</f>
-        <v>0</v>
+        <v>1.1133730464231242</v>
       </c>
       <c r="L15" s="7">
         <f>'Summary - Models'!F65</f>
@@ -16708,7 +18178,7 @@
       </c>
       <c r="K30" s="7">
         <f>HARMEAN('Summary - Models'!E35,'Summary - Models'!E52,'Summary - Models'!E70)</f>
-        <v>15.758058682833097</v>
+        <v>14.643295237100938</v>
       </c>
       <c r="L30" s="7">
         <f>HARMEAN('Summary - Models'!F35,'Summary - Models'!F52,'Summary - Models'!F70)</f>
@@ -16789,7 +18259,7 @@
       </c>
       <c r="K33" s="13">
         <f>HARMEAN('Summary - Models'!E54,'Summary - Models'!E71)</f>
-        <v>95.117950666124415</v>
+        <v>5.3902131510451987</v>
       </c>
       <c r="L33" s="13">
         <f>HARMEAN('Summary - Models'!F54,'Summary - Models'!F71)</f>
@@ -16843,7 +18313,7 @@
       </c>
       <c r="K35" s="7">
         <f>'Summary - Models'!E72</f>
-        <v>0</v>
+        <v>1.5454066765065118</v>
       </c>
       <c r="L35" s="7">
         <f>'Summary - Models'!F72</f>
@@ -16868,9 +18338,9 @@
         <f>HARMEAN('Summary - Models'!D73)</f>
         <v>62.351108034151132</v>
       </c>
-      <c r="K36" s="13" t="e">
+      <c r="K36" s="13">
         <f>HARMEAN('Summary - Models'!E73)</f>
-        <v>#N/A</v>
+        <v>99.64301748412403</v>
       </c>
       <c r="L36" s="13" t="e">
         <f>HARMEAN('Summary - Models'!F73)</f>
@@ -16897,7 +18367,7 @@
       </c>
       <c r="K37" s="7">
         <f>'Summary - Models'!E74</f>
-        <v>0</v>
+        <v>108.95954346979502</v>
       </c>
       <c r="L37" s="7">
         <f>'Summary - Models'!F74</f>
@@ -16967,8 +18437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W81" sqref="W81"/>
+    <sheetView topLeftCell="D40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18042,7 +19512,10 @@
         <f>HARMEAN('320 - Models'!L33:L35,'320 - Models'!O33:O35,'320 - Models'!R33:R35)</f>
         <v>0.20319475405936657</v>
       </c>
-      <c r="E61" s="7"/>
+      <c r="E61" s="7">
+        <f>HARMEAN('320 - Models'!L54:L56,'320 - Models'!O54:O56,'320 - Models'!R54:R56)</f>
+        <v>0.29744225950106512</v>
+      </c>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -18061,7 +19534,10 @@
         <f>HARMEAN('320 - Models'!L36:L38,'320 - Models'!O36:O38,'320 - Models'!R36:R38)</f>
         <v>0.32095217850196328</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="E62" s="7">
+        <f>HARMEAN('320 - Models'!L57:L59,'320 - Models'!O57:O59,'320 - Models'!R57:R59)</f>
+        <v>0.50270843408094934</v>
+      </c>
       <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -18080,7 +19556,10 @@
         <f>HARMEAN('320 - Models'!L39:L41,'320 - Models'!O39:O41,'320 - Models'!R39:R41)</f>
         <v>0.51892222755818718</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="E63" s="7">
+        <f>HARMEAN('320 - Models'!L60:L62,'320 - Models'!O60:O62,'320 - Models'!R60:R62)</f>
+        <v>0.65901897449037727</v>
+      </c>
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -18099,7 +19578,10 @@
         <f>HARMEAN('320 - Models'!L42:L44,'320 - Models'!O42:O44,'320 - Models'!R42:R44)</f>
         <v>0.67183260292712577</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="7">
+        <f>HARMEAN('320 - Models'!L63:L65,'320 - Models'!O63:O65,'320 - Models'!R63:R65)</f>
+        <v>0.83749301127131703</v>
+      </c>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -18118,7 +19600,10 @@
         <f>HARMEAN('320 - Models'!L45:L47,'320 - Models'!O45:O47,'320 - Models'!R45:R47)</f>
         <v>1.3345209522589796</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="7">
+        <f>HARMEAN('320 - Models'!L66:L68,'320 - Models'!O66:O68,'320 - Models'!R66:R68)</f>
+        <v>1.1133730464231242</v>
+      </c>
       <c r="F65" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -18173,7 +19658,10 @@
         <f>HARMEAN('320 - Models'!AB33:AB35,'320 - Models'!AE33:AE35,'320 - Models'!AH33:AH35)</f>
         <v>22.52674311727759</v>
       </c>
-      <c r="E70" s="7"/>
+      <c r="E70" s="7">
+        <f>HARMEAN('320 - Models'!AB54:AB56,'320 - Models'!AE54:AE56,'320 - Models'!AH54:AH56)</f>
+        <v>12.828286748278609</v>
+      </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -18192,7 +19680,10 @@
         <f>HARMEAN('320 - Models'!AB36:AB38,'320 - Models'!AE36:AE38,'320 - Models'!AH36:AH38)</f>
         <v>1.8367755403464145</v>
       </c>
-      <c r="E71" s="7"/>
+      <c r="E71" s="7">
+        <f>HARMEAN('320 - Models'!AB57:AB59,'320 - Models'!AE57:AE59,'320 - Models'!AH57:AH59)</f>
+        <v>2.7736975291433805</v>
+      </c>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -18211,7 +19702,10 @@
         <f>HARMEAN('320 - Models'!AB39:AB41,'320 - Models'!AE39:AE41,'320 - Models'!AH39:AH41)</f>
         <v>1.1948460744957132</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="E72" s="7">
+        <f>HARMEAN('320 - Models'!AB60:AB62,'320 - Models'!AE60:AE62,'320 - Models'!AH60:AH62)</f>
+        <v>1.5454066765065118</v>
+      </c>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -18230,7 +19724,10 @@
         <f>HARMEAN('320 - Models'!AB42:AB44,'320 - Models'!AE42:AE44,'320 - Models'!AH42:AH44)</f>
         <v>62.351108034151132</v>
       </c>
-      <c r="E73" s="7"/>
+      <c r="E73" s="7">
+        <f>HARMEAN('320 - Models'!AB63:AB65,'320 - Models'!AE63:AE65,'320 - Models'!AH63:AH65)</f>
+        <v>99.64301748412403</v>
+      </c>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -18249,7 +19746,10 @@
         <f>HARMEAN('320 - Models'!AB45:AB47,'320 - Models'!AE45:AE47,'320 - Models'!AH45:AH47)</f>
         <v>174.010772751921</v>
       </c>
-      <c r="E74" s="7"/>
+      <c r="E74" s="7">
+        <f>HARMEAN('320 - Models'!AB66:AB68,'320 - Models'!AE66:AE68,'320 - Models'!AH66:AH68)</f>
+        <v>108.95954346979502</v>
+      </c>
       <c r="F74" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -18507,8 +20007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView topLeftCell="AD7" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ78" sqref="AJ78:AL78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18605,57 +20105,57 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16" t="s">
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16" t="s">
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -18763,15 +20263,6 @@
       <c r="AI11" t="s">
         <v>52</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -18878,18 +20369,6 @@
       </c>
       <c r="AI12">
         <v>0.82899999999999996</v>
-      </c>
-      <c r="AJ12" s="14">
-        <f>GEOMEAN(V12,AB12)</f>
-        <v>18.835073665903195</v>
-      </c>
-      <c r="AK12" s="14">
-        <f>GEOMEAN(V12,AE12)</f>
-        <v>18.146073955542008</v>
-      </c>
-      <c r="AL12" s="14">
-        <f>GEOMEAN(V12,AH12)</f>
-        <v>17.686605101036207</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -18998,18 +20477,6 @@
       <c r="AI13">
         <v>1.24</v>
       </c>
-      <c r="AJ13" s="14">
-        <f t="shared" ref="AJ13:AJ26" si="0">GEOMEAN(V13,AB13)</f>
-        <v>19.273297590189387</v>
-      </c>
-      <c r="AK13" s="14">
-        <f t="shared" ref="AK13:AK26" si="1">GEOMEAN(V13,AE13)</f>
-        <v>18.901481423422876</v>
-      </c>
-      <c r="AL13" s="14">
-        <f t="shared" ref="AL13:AL26" si="2">GEOMEAN(V13,AH13)</f>
-        <v>19.115961916681044</v>
-      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -19117,18 +20584,6 @@
       <c r="AI14">
         <v>0.155</v>
       </c>
-      <c r="AJ14" s="14">
-        <f t="shared" si="0"/>
-        <v>2.1248529360875779</v>
-      </c>
-      <c r="AK14" s="14">
-        <f t="shared" si="1"/>
-        <v>2.1083168642308014</v>
-      </c>
-      <c r="AL14" s="14">
-        <f t="shared" si="2"/>
-        <v>2.0663978319771825</v>
-      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -19236,18 +20691,6 @@
       <c r="AI15">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AJ15" s="14">
-        <f t="shared" si="0"/>
-        <v>9.1342761070596072</v>
-      </c>
-      <c r="AK15" s="14">
-        <f t="shared" si="1"/>
-        <v>9.1746934553695034</v>
-      </c>
-      <c r="AL15" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0529000878171626</v>
-      </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -19355,20 +20798,8 @@
       <c r="AI16">
         <v>6.5629999999999997</v>
       </c>
-      <c r="AJ16" s="14">
-        <f t="shared" si="0"/>
-        <v>79.899937421752711</v>
-      </c>
-      <c r="AK16" s="14">
-        <f t="shared" si="1"/>
-        <v>79.536155300592696</v>
-      </c>
-      <c r="AL16" s="14">
-        <f t="shared" si="2"/>
-        <v>80.802227692063042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -19474,20 +20905,8 @@
       <c r="AI17">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AJ17" s="14">
-        <f t="shared" si="0"/>
-        <v>10.734523743510934</v>
-      </c>
-      <c r="AK17" s="14">
-        <f t="shared" si="1"/>
-        <v>10.988630487917955</v>
-      </c>
-      <c r="AL17" s="14">
-        <f t="shared" si="2"/>
-        <v>11.539930675701653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -19593,20 +21012,8 @@
       <c r="AI18">
         <v>16.309000000000001</v>
       </c>
-      <c r="AJ18" s="14">
-        <f t="shared" si="0"/>
-        <v>127.8827588066507</v>
-      </c>
-      <c r="AK18" s="14">
-        <f t="shared" si="1"/>
-        <v>127.30278865759382</v>
-      </c>
-      <c r="AL18" s="14">
-        <f t="shared" si="2"/>
-        <v>127.56174975281579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -19712,20 +21119,8 @@
       <c r="AI19">
         <v>4.1159999999999997</v>
       </c>
-      <c r="AJ19" s="14">
-        <f t="shared" si="0"/>
-        <v>53.97332674571765</v>
-      </c>
-      <c r="AK19" s="14">
-        <f t="shared" si="1"/>
-        <v>53.81434752926026</v>
-      </c>
-      <c r="AL19" s="14">
-        <f t="shared" si="2"/>
-        <v>53.999777777320524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>22</v>
       </c>
@@ -19831,20 +21226,8 @@
       <c r="AI20">
         <v>9.15</v>
       </c>
-      <c r="AJ20" s="14">
-        <f t="shared" si="0"/>
-        <v>96.171721415393208</v>
-      </c>
-      <c r="AK20" s="14">
-        <f t="shared" si="1"/>
-        <v>93.1933474020544</v>
-      </c>
-      <c r="AL20" s="14">
-        <f t="shared" si="2"/>
-        <v>95.467271878900988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -19950,20 +21333,8 @@
       <c r="AI21">
         <v>44.777999999999999</v>
       </c>
-      <c r="AJ21" s="14">
-        <f t="shared" si="0"/>
-        <v>208.14177860295132</v>
-      </c>
-      <c r="AK21" s="14">
-        <f t="shared" si="1"/>
-        <v>208.83725721240452</v>
-      </c>
-      <c r="AL21" s="14">
-        <f t="shared" si="2"/>
-        <v>211.49704489661315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31</v>
       </c>
@@ -20069,20 +21440,8 @@
       <c r="AI22">
         <v>40.029000000000003</v>
       </c>
-      <c r="AJ22" s="14">
-        <f t="shared" si="0"/>
-        <v>198.83913095766638</v>
-      </c>
-      <c r="AK22" s="14">
-        <f t="shared" si="1"/>
-        <v>195.82390048204024</v>
-      </c>
-      <c r="AL22" s="14">
-        <f t="shared" si="2"/>
-        <v>199.94749310756563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>32</v>
       </c>
@@ -20188,20 +21547,8 @@
       <c r="AI23">
         <v>18.484999999999999</v>
       </c>
-      <c r="AJ23" s="14">
-        <f t="shared" si="0"/>
-        <v>149.79319076646976</v>
-      </c>
-      <c r="AK23" s="14">
-        <f t="shared" si="1"/>
-        <v>134.70337783441067</v>
-      </c>
-      <c r="AL23" s="14">
-        <f t="shared" si="2"/>
-        <v>135.78291497828437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>40</v>
       </c>
@@ -20307,20 +21654,8 @@
       <c r="AI24">
         <v>15.989000000000001</v>
       </c>
-      <c r="AJ24" s="14">
-        <f t="shared" si="0"/>
-        <v>128.61570666135611</v>
-      </c>
-      <c r="AK24" s="14">
-        <f t="shared" si="1"/>
-        <v>128.80993750483694</v>
-      </c>
-      <c r="AL24" s="14">
-        <f t="shared" si="2"/>
-        <v>126.28935030318273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>41</v>
       </c>
@@ -20426,20 +21761,8 @@
       <c r="AI25">
         <v>10.631</v>
       </c>
-      <c r="AJ25" s="14">
-        <f t="shared" si="0"/>
-        <v>106.4800450788785</v>
-      </c>
-      <c r="AK25" s="14">
-        <f t="shared" si="1"/>
-        <v>105.08567932882197</v>
-      </c>
-      <c r="AL25" s="14">
-        <f t="shared" si="2"/>
-        <v>102.90772565750348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>42</v>
       </c>
@@ -20545,78 +21868,66 @@
       <c r="AI26">
         <v>5.92</v>
       </c>
-      <c r="AJ26" s="14">
-        <f t="shared" si="0"/>
-        <v>76.889531146964345</v>
-      </c>
-      <c r="AK26" s="14">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="AL26" s="14">
-        <f t="shared" si="2"/>
-        <v>76.674637266830288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16" t="s">
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16" t="s">
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16" t="s">
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -20722,17 +22033,8 @@
       <c r="AI32" t="s">
         <v>52</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -20838,11 +22140,8 @@
       <c r="AI33">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -20948,11 +22247,8 @@
       <c r="AI34">
         <v>2.6539999999999999</v>
       </c>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -21058,11 +22354,8 @@
       <c r="AI35">
         <v>0.13800000000000001</v>
       </c>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -21168,11 +22461,8 @@
       <c r="AI36">
         <v>0.66400000000000003</v>
       </c>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
@@ -21278,11 +22568,8 @@
       <c r="AI37">
         <v>11.599</v>
       </c>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -21388,11 +22675,8 @@
       <c r="AI38">
         <v>0.60199999999999998</v>
       </c>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
@@ -21498,11 +22782,8 @@
       <c r="AI39">
         <v>14.118</v>
       </c>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>21</v>
       </c>
@@ -21608,11 +22889,8 @@
       <c r="AI40">
         <v>3.4569999999999999</v>
       </c>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
@@ -21718,11 +22996,8 @@
       <c r="AI41">
         <v>21.378</v>
       </c>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>30</v>
       </c>
@@ -21828,11 +23103,8 @@
       <c r="AI42">
         <v>40.185000000000002</v>
       </c>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>31</v>
       </c>
@@ -21938,11 +23210,8 @@
       <c r="AI43">
         <v>15.180999999999999</v>
       </c>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>32</v>
       </c>
@@ -22048,11 +23317,8 @@
       <c r="AI44">
         <v>544.73199999999997</v>
       </c>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -22158,11 +23424,8 @@
       <c r="AI45">
         <v>71.796000000000006</v>
       </c>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -22268,11 +23531,8 @@
       <c r="AI46">
         <v>22.893999999999998</v>
       </c>
-      <c r="AJ46" s="2"/>
-      <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -22378,69 +23638,66 @@
       <c r="AI47">
         <v>6.74</v>
       </c>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16" t="s">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16" t="s">
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16" t="s">
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16" t="s">
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16" t="s">
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16" t="s">
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -22546,17 +23803,8 @@
       <c r="AI53" t="s">
         <v>52</v>
       </c>
-      <c r="AJ53" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -22662,11 +23910,8 @@
       <c r="AI54">
         <v>1.0409999999999999</v>
       </c>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -22772,11 +24017,8 @@
       <c r="AI55">
         <v>1.458</v>
       </c>
-      <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -22882,11 +24124,8 @@
       <c r="AI56">
         <v>0.17699999999999999</v>
       </c>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10</v>
       </c>
@@ -22992,11 +24231,8 @@
       <c r="AI57">
         <v>0.47399999999999998</v>
       </c>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -23102,11 +24338,8 @@
       <c r="AI58">
         <v>2.6110000000000002</v>
       </c>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -23212,11 +24445,8 @@
       <c r="AI59">
         <v>0.69899999999999995</v>
       </c>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20</v>
       </c>
@@ -23322,11 +24552,8 @@
       <c r="AI60">
         <v>10.298999999999999</v>
       </c>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>21</v>
       </c>
@@ -23432,11 +24659,8 @@
       <c r="AI61">
         <v>4.5010000000000003</v>
       </c>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>22</v>
       </c>
@@ -23542,11 +24766,8 @@
       <c r="AI62">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AJ62" s="2"/>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="2"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>30</v>
       </c>
@@ -23652,11 +24873,8 @@
       <c r="AI63">
         <v>14.959</v>
       </c>
-      <c r="AJ63" s="2"/>
-      <c r="AK63" s="2"/>
-      <c r="AL63" s="2"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>31</v>
       </c>
@@ -23762,11 +24980,8 @@
       <c r="AI64">
         <v>99.691999999999993</v>
       </c>
-      <c r="AJ64" s="2"/>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>32</v>
       </c>
@@ -23872,11 +25087,8 @@
       <c r="AI65">
         <v>183.86699999999999</v>
       </c>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>40</v>
       </c>
@@ -23982,11 +25194,8 @@
       <c r="AI66">
         <v>241.24799999999999</v>
       </c>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>41</v>
       </c>
@@ -24092,11 +25301,8 @@
       <c r="AI67">
         <v>75.84</v>
       </c>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>42</v>
       </c>
@@ -24202,69 +25408,66 @@
       <c r="AI68">
         <v>12.236000000000001</v>
       </c>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16" t="s">
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16" t="s">
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16" t="s">
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16" t="s">
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16" t="s">
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16" t="s">
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="16"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="16" t="s">
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="16"/>
-      <c r="AI73" s="16"/>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -24370,17 +25573,8 @@
       <c r="AI74" t="s">
         <v>52</v>
       </c>
-      <c r="AJ74" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -24486,11 +25680,8 @@
       <c r="AI75">
         <v>0.81599999999999995</v>
       </c>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -24596,11 +25787,8 @@
       <c r="AI76">
         <v>1.2649999999999999</v>
       </c>
-      <c r="AJ76" s="2"/>
-      <c r="AK76" s="2"/>
-      <c r="AL76" s="2"/>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -24706,11 +25894,8 @@
       <c r="AI77">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>10</v>
       </c>
@@ -24816,11 +26001,8 @@
       <c r="AI78">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AJ78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11</v>
       </c>
@@ -24926,11 +26108,8 @@
       <c r="AI79">
         <v>2.4980000000000002</v>
       </c>
-      <c r="AJ79" s="2"/>
-      <c r="AK79" s="2"/>
-      <c r="AL79" s="2"/>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>12</v>
       </c>
@@ -25036,11 +26215,8 @@
       <c r="AI80">
         <v>0.61599999999999999</v>
       </c>
-      <c r="AJ80" s="2"/>
-      <c r="AK80" s="2"/>
-      <c r="AL80" s="2"/>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -25146,11 +26322,8 @@
       <c r="AI81">
         <v>9.1199999999999992</v>
       </c>
-      <c r="AJ81" s="2"/>
-      <c r="AK81" s="2"/>
-      <c r="AL81" s="2"/>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -25256,11 +26429,8 @@
       <c r="AI82">
         <v>3.8759999999999999</v>
       </c>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22</v>
       </c>
@@ -25366,11 +26536,8 @@
       <c r="AI83">
         <v>4.8540000000000001</v>
       </c>
-      <c r="AJ83" s="2"/>
-      <c r="AK83" s="2"/>
-      <c r="AL83" s="2"/>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>30</v>
       </c>
@@ -25476,11 +26643,8 @@
       <c r="AI84">
         <v>13.244</v>
       </c>
-      <c r="AJ84" s="2"/>
-      <c r="AK84" s="2"/>
-      <c r="AL84" s="2"/>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>31</v>
       </c>
@@ -25586,11 +26750,8 @@
       <c r="AI85">
         <v>76.995999999999995</v>
       </c>
-      <c r="AJ85" s="2"/>
-      <c r="AK85" s="2"/>
-      <c r="AL85" s="2"/>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>32</v>
       </c>
@@ -25696,11 +26857,8 @@
       <c r="AI86">
         <v>151.58600000000001</v>
       </c>
-      <c r="AJ86" s="2"/>
-      <c r="AK86" s="2"/>
-      <c r="AL86" s="2"/>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -25806,11 +26964,8 @@
       <c r="AI87">
         <v>259.58</v>
       </c>
-      <c r="AJ87" s="2"/>
-      <c r="AK87" s="2"/>
-      <c r="AL87" s="2"/>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -25916,11 +27071,8 @@
       <c r="AI88">
         <v>97.828999999999994</v>
       </c>
-      <c r="AJ88" s="2"/>
-      <c r="AK88" s="2"/>
-      <c r="AL88" s="2"/>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>42</v>
       </c>
@@ -26026,69 +27178,66 @@
       <c r="AI89">
         <v>13.647</v>
       </c>
-      <c r="AJ89" s="2"/>
-      <c r="AK89" s="2"/>
-      <c r="AL89" s="2"/>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16" t="s">
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16" t="s">
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16" t="s">
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16" t="s">
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U94" s="16"/>
-      <c r="V94" s="16"/>
-      <c r="W94" s="16"/>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
-      <c r="AA94" s="16" t="s">
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB94" s="16"/>
-      <c r="AC94" s="16"/>
-      <c r="AD94" s="16" t="s">
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE94" s="16"/>
-      <c r="AF94" s="16"/>
-      <c r="AG94" s="16" t="s">
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH94" s="16"/>
-      <c r="AI94" s="16"/>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -26195,7 +27344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -27859,8 +29008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="R79" workbookViewId="0">
+      <selection activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27922,54 +29071,54 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16" t="s">
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16" t="s">
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -29692,54 +30841,54 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16" t="s">
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16" t="s">
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16" t="s">
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -31462,54 +32611,54 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16" t="s">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16" t="s">
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16" t="s">
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16" t="s">
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16" t="s">
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16" t="s">
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -33232,54 +34381,54 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16" t="s">
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16" t="s">
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16" t="s">
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16" t="s">
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16" t="s">
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16" t="s">
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="16"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="16" t="s">
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="16"/>
-      <c r="AI73" s="16"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -35042,7 +36191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -35105,54 +36254,54 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16" t="s">
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16" t="s">
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -36875,54 +38024,54 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16" t="s">
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16" t="s">
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16" t="s">
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -38645,54 +39794,54 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16" t="s">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16" t="s">
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16" t="s">
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16" t="s">
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16" t="s">
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16" t="s">
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -40415,54 +41564,54 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16" t="s">
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16" t="s">
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16" t="s">
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16" t="s">
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16" t="s">
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16" t="s">
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="16"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="16" t="s">
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="16"/>
-      <c r="AI73" s="16"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -42225,8 +43374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AI54" sqref="AI54"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="AI81" sqref="AI81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42281,61 +43430,61 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16" t="s">
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16" t="s">
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -43843,7 +44992,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25">
         <v>26622</v>
@@ -43943,105 +45092,105 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>42</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>5</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16" t="s">
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16" t="s">
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16" t="s">
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -45328,79 +46477,79 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>32</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="17">
         <v>4</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="17">
         <v>21320</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="17">
         <v>23482</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="17">
         <v>10</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="17">
         <v>199</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="17">
         <v>15</v>
       </c>
-      <c r="I44" s="18">
-        <v>0</v>
-      </c>
-      <c r="J44" s="18">
-        <v>0</v>
-      </c>
-      <c r="K44" s="18">
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="17">
         <v>0.29099999999999998</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="17">
         <v>0.66600000000000004</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="17">
         <v>0.27800000000000002</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="17">
         <v>0.61299999999999999</v>
       </c>
-      <c r="P44" s="18">
+      <c r="P44" s="17">
         <v>0.72399999999999998</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q44" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="R44" s="18">
+      <c r="R44" s="17">
         <v>0.624</v>
       </c>
-      <c r="S44" s="18">
+      <c r="S44" s="17">
         <v>0.749</v>
       </c>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -45517,7 +46666,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2">
         <v>26622</v>
@@ -45725,61 +46874,61 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16" t="s">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16" t="s">
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16" t="s">
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16" t="s">
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16" t="s">
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16" t="s">
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -45897,6 +47046,102 @@
       </c>
       <c r="C54">
         <v>19</v>
+      </c>
+      <c r="D54">
+        <v>5329</v>
+      </c>
+      <c r="E54">
+        <v>5854</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>87</v>
+      </c>
+      <c r="H54">
+        <v>16</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.251</v>
+      </c>
+      <c r="L54">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M54">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="N54">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="O54">
+        <v>0.223</v>
+      </c>
+      <c r="P54">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="Q54">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="R54">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="S54">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T54">
+        <v>9289</v>
+      </c>
+      <c r="U54">
+        <v>9814</v>
+      </c>
+      <c r="V54">
+        <v>1000</v>
+      </c>
+      <c r="W54">
+        <v>8718</v>
+      </c>
+      <c r="X54">
+        <v>15308</v>
+      </c>
+      <c r="Y54">
+        <v>6661</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0.308</v>
+      </c>
+      <c r="AB54">
+        <v>12.17</v>
+      </c>
+      <c r="AC54">
+        <v>12.257</v>
+      </c>
+      <c r="AD54">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AE54">
+        <v>11.259</v>
+      </c>
+      <c r="AF54">
+        <v>11.352</v>
+      </c>
+      <c r="AG54">
+        <v>0.24</v>
+      </c>
+      <c r="AH54">
+        <v>11.597</v>
+      </c>
+      <c r="AI54">
+        <v>11.683</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
@@ -45909,6 +47154,102 @@
       <c r="C55">
         <v>24</v>
       </c>
+      <c r="D55">
+        <v>5540</v>
+      </c>
+      <c r="E55">
+        <v>6083</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>109</v>
+      </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.504</v>
+      </c>
+      <c r="M55">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="N55">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="O55">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P55">
+        <v>0.374</v>
+      </c>
+      <c r="Q55">
+        <v>0.246</v>
+      </c>
+      <c r="R55">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="S55">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="T55">
+        <v>9500</v>
+      </c>
+      <c r="U55">
+        <v>10043</v>
+      </c>
+      <c r="V55">
+        <v>1000</v>
+      </c>
+      <c r="W55">
+        <v>19799</v>
+      </c>
+      <c r="X55">
+        <v>37419</v>
+      </c>
+      <c r="Y55">
+        <v>17713</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AB55">
+        <v>19.065999999999999</v>
+      </c>
+      <c r="AC55">
+        <v>19.155999999999999</v>
+      </c>
+      <c r="AD55">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AE55">
+        <v>17.539000000000001</v>
+      </c>
+      <c r="AF55">
+        <v>17.63</v>
+      </c>
+      <c r="AG55">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AH55">
+        <v>18.085000000000001</v>
+      </c>
+      <c r="AI55">
+        <v>18.187999999999999</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -45920,6 +47261,102 @@
       <c r="C56">
         <v>9</v>
       </c>
+      <c r="D56">
+        <v>5447</v>
+      </c>
+      <c r="E56">
+        <v>5985</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>79</v>
+      </c>
+      <c r="H56">
+        <v>16</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.252</v>
+      </c>
+      <c r="L56">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="M56">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="N56">
+        <v>0.246</v>
+      </c>
+      <c r="O56">
+        <v>0.31</v>
+      </c>
+      <c r="P56">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Q56">
+        <v>0.24</v>
+      </c>
+      <c r="R56">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="S56">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="T56">
+        <v>9407</v>
+      </c>
+      <c r="U56">
+        <v>9945</v>
+      </c>
+      <c r="V56">
+        <v>1000</v>
+      </c>
+      <c r="W56">
+        <v>10217</v>
+      </c>
+      <c r="X56">
+        <v>18320</v>
+      </c>
+      <c r="Y56">
+        <v>8166</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0.443</v>
+      </c>
+      <c r="AB56">
+        <v>11.545999999999999</v>
+      </c>
+      <c r="AC56">
+        <v>11.688000000000001</v>
+      </c>
+      <c r="AD56">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AE56">
+        <v>11.654</v>
+      </c>
+      <c r="AF56">
+        <v>11.733000000000001</v>
+      </c>
+      <c r="AG56">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AH56">
+        <v>9.33</v>
+      </c>
+      <c r="AI56">
+        <v>9.4060000000000006</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -45931,6 +47368,102 @@
       <c r="C57" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="D57">
+        <v>10728</v>
+      </c>
+      <c r="E57">
+        <v>11814</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>102</v>
+      </c>
+      <c r="H57">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="N57">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="O57">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="P57">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="Q57">
+        <v>0.26</v>
+      </c>
+      <c r="R57">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="S57">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="T57">
+        <v>14688</v>
+      </c>
+      <c r="U57">
+        <v>15774</v>
+      </c>
+      <c r="V57">
+        <v>1000</v>
+      </c>
+      <c r="W57">
+        <v>34503</v>
+      </c>
+      <c r="X57">
+        <v>66849</v>
+      </c>
+      <c r="Y57">
+        <v>32433</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AB57">
+        <v>43.768000000000001</v>
+      </c>
+      <c r="AC57">
+        <v>43.951000000000001</v>
+      </c>
+      <c r="AD57">
+        <v>0.89</v>
+      </c>
+      <c r="AE57">
+        <v>47.581000000000003</v>
+      </c>
+      <c r="AF57">
+        <v>47.731999999999999</v>
+      </c>
+      <c r="AG57">
+        <v>0.37</v>
+      </c>
+      <c r="AH57">
+        <v>42.526000000000003</v>
+      </c>
+      <c r="AI57">
+        <v>42.710999999999999</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -45942,9 +47475,102 @@
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
+      <c r="D58">
+        <v>10752</v>
+      </c>
+      <c r="E58">
+        <v>11843</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>26</v>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="L58">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="M58">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="N58">
+        <v>0.379</v>
+      </c>
+      <c r="O58">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="P58">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="Q58">
+        <v>0.3</v>
+      </c>
+      <c r="R58">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="S58">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="T58">
+        <v>11004</v>
+      </c>
+      <c r="U58">
+        <v>12095</v>
+      </c>
+      <c r="V58">
+        <v>73</v>
+      </c>
+      <c r="W58" s="2">
+        <v>214</v>
+      </c>
+      <c r="X58" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="AB58">
+        <v>1.383</v>
+      </c>
+      <c r="AC58">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="AD58">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AE58">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AF58">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AG58">
+        <v>0.251</v>
+      </c>
+      <c r="AH58">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="AI58">
+        <v>0.95399999999999996</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -45956,6 +47582,102 @@
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D59">
+        <v>10876</v>
+      </c>
+      <c r="E59">
+        <v>11972</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>150</v>
+      </c>
+      <c r="H59">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.502</v>
+      </c>
+      <c r="L59">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M59">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="N59">
+        <v>0.372</v>
+      </c>
+      <c r="O59">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="P59">
+        <v>0.878</v>
+      </c>
+      <c r="Q59">
+        <v>0.308</v>
+      </c>
+      <c r="R59">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="S59">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="T59">
+        <v>14836</v>
+      </c>
+      <c r="U59">
+        <v>15932</v>
+      </c>
+      <c r="V59">
+        <v>1000</v>
+      </c>
+      <c r="W59">
+        <v>20390</v>
+      </c>
+      <c r="X59">
+        <v>38530</v>
+      </c>
+      <c r="Y59">
+        <v>18274</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>36.908000000000001</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>37.155999999999999</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AE59">
+        <v>28.364000000000001</v>
+      </c>
+      <c r="AF59">
+        <v>28.494</v>
+      </c>
+      <c r="AG59">
+        <v>0.37</v>
+      </c>
+      <c r="AH59">
+        <v>27.67</v>
+      </c>
+      <c r="AI59">
+        <v>27.847000000000001</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -45967,12 +47689,102 @@
       <c r="C60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
+      <c r="D60">
+        <v>16076</v>
+      </c>
+      <c r="E60">
+        <v>17715</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>38</v>
+      </c>
+      <c r="H60">
+        <v>31</v>
+      </c>
+      <c r="I60">
+        <v>16</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="M60">
+        <v>1.206</v>
+      </c>
+      <c r="N60">
+        <v>0.438</v>
+      </c>
+      <c r="O60">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="S60">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="T60">
+        <v>16096</v>
+      </c>
+      <c r="U60">
+        <v>17735</v>
+      </c>
+      <c r="V60">
+        <v>15</v>
+      </c>
+      <c r="W60">
+        <v>49</v>
+      </c>
+      <c r="X60">
+        <v>69</v>
+      </c>
+      <c r="Y60">
+        <v>20</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AB60">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="AC60">
+        <v>0.88</v>
+      </c>
+      <c r="AD60">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AE60">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="AF60">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AG60">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AH60">
+        <v>0.434</v>
+      </c>
+      <c r="AI60">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -45984,11 +47796,102 @@
       <c r="C61" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="D61">
+        <v>16042</v>
+      </c>
+      <c r="E61" s="2">
+        <v>17671</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>119</v>
+      </c>
+      <c r="H61" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.43</v>
+      </c>
+      <c r="L61">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M61">
+        <v>0.876</v>
+      </c>
+      <c r="N61">
+        <v>0.439</v>
+      </c>
+      <c r="O61">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="P61">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="R61">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="S61">
+        <v>0.997</v>
+      </c>
+      <c r="T61">
+        <v>20002</v>
+      </c>
+      <c r="U61">
+        <v>21631</v>
+      </c>
+      <c r="V61">
+        <v>1000</v>
+      </c>
+      <c r="W61">
+        <v>168189</v>
+      </c>
+      <c r="X61">
+        <v>334205</v>
+      </c>
+      <c r="Y61">
+        <v>166112</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AB61">
+        <v>215.99100000000001</v>
+      </c>
+      <c r="AC61">
+        <v>216.25399999999999</v>
+      </c>
+      <c r="AD61">
+        <v>0.38</v>
+      </c>
+      <c r="AE61">
+        <v>185.797</v>
+      </c>
+      <c r="AF61">
+        <v>185.983</v>
+      </c>
+      <c r="AG61">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AH61">
+        <v>178.33099999999999</v>
+      </c>
+      <c r="AI61">
+        <v>178.499</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -46000,6 +47903,102 @@
       <c r="C62" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="D62">
+        <v>16261</v>
+      </c>
+      <c r="E62">
+        <v>17910</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>204</v>
+      </c>
+      <c r="H62">
+        <v>16</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L62">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M62">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="N62">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="O62">
+        <v>0.49</v>
+      </c>
+      <c r="P62">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="Q62">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="R62">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S62">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="T62">
+        <v>20221</v>
+      </c>
+      <c r="U62">
+        <v>21870</v>
+      </c>
+      <c r="V62">
+        <v>1000</v>
+      </c>
+      <c r="W62">
+        <v>14510</v>
+      </c>
+      <c r="X62">
+        <v>26655</v>
+      </c>
+      <c r="Y62">
+        <v>12332</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AB62">
+        <v>17.45</v>
+      </c>
+      <c r="AC62">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AD62">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AE62">
+        <v>16.925999999999998</v>
+      </c>
+      <c r="AF62">
+        <v>17.050999999999998</v>
+      </c>
+      <c r="AG62">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AH62">
+        <v>17.512</v>
+      </c>
+      <c r="AI62">
+        <v>17.661000000000001</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -46011,12 +48010,102 @@
       <c r="C63" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
+      <c r="D63" s="2">
+        <v>21209</v>
+      </c>
+      <c r="E63" s="2">
+        <v>23367</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>169</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L63">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M63">
+        <v>1.103</v>
+      </c>
+      <c r="N63">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="O63">
+        <v>0.746</v>
+      </c>
+      <c r="P63">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="Q63">
+        <v>0.37</v>
+      </c>
+      <c r="R63">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="S63">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="T63" s="2">
+        <v>25169</v>
+      </c>
+      <c r="U63" s="2">
+        <v>27327</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W63">
+        <v>87299</v>
+      </c>
+      <c r="X63">
+        <v>172310</v>
+      </c>
+      <c r="Y63">
+        <v>85160</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="AB63">
+        <v>147.745</v>
+      </c>
+      <c r="AC63">
+        <v>147.96</v>
+      </c>
+      <c r="AD63">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AE63">
+        <v>137.17699999999999</v>
+      </c>
+      <c r="AF63">
+        <v>137.41499999999999</v>
+      </c>
+      <c r="AG63">
+        <v>0.65</v>
+      </c>
+      <c r="AH63">
+        <v>145.40799999999999</v>
+      </c>
+      <c r="AI63">
+        <v>145.78899999999999</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -46028,9 +48117,102 @@
       <c r="C64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="D64">
+        <v>21273</v>
+      </c>
+      <c r="E64">
+        <v>23440</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>43</v>
+      </c>
+      <c r="H64" s="2">
+        <v>19</v>
+      </c>
+      <c r="I64" s="2">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.443</v>
+      </c>
+      <c r="L64">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="M64">
+        <v>1.089</v>
+      </c>
+      <c r="N64">
+        <v>0.379</v>
+      </c>
+      <c r="O64">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="P64">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="Q64">
+        <v>0.374</v>
+      </c>
+      <c r="R64">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="S64">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="T64">
+        <v>25233</v>
+      </c>
+      <c r="U64">
+        <v>27400</v>
+      </c>
+      <c r="V64">
+        <v>1000</v>
+      </c>
+      <c r="W64">
+        <v>30475</v>
+      </c>
+      <c r="X64">
+        <v>58911</v>
+      </c>
+      <c r="Y64">
+        <v>28463</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AB64">
+        <v>65.186000000000007</v>
+      </c>
+      <c r="AC64">
+        <v>65.353999999999999</v>
+      </c>
+      <c r="AD64">
+        <v>0.43</v>
+      </c>
+      <c r="AE64">
+        <v>53.615000000000002</v>
+      </c>
+      <c r="AF64">
+        <v>53.835999999999999</v>
+      </c>
+      <c r="AG64">
+        <v>0.374</v>
+      </c>
+      <c r="AH64">
+        <v>56.372999999999998</v>
+      </c>
+      <c r="AI64">
+        <v>56.542000000000002</v>
+      </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -46042,6 +48224,102 @@
       <c r="C65" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D65">
+        <v>21320</v>
+      </c>
+      <c r="E65">
+        <v>23482</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>223</v>
+      </c>
+      <c r="H65">
+        <v>22</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.48</v>
+      </c>
+      <c r="L65">
+        <v>0.999</v>
+      </c>
+      <c r="M65">
+        <v>1.218</v>
+      </c>
+      <c r="N65">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="O65">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="P65">
+        <v>1.327</v>
+      </c>
+      <c r="Q65">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="R65">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="S65">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="T65">
+        <v>25280</v>
+      </c>
+      <c r="U65">
+        <v>27442</v>
+      </c>
+      <c r="V65">
+        <v>1000</v>
+      </c>
+      <c r="W65">
+        <v>105802</v>
+      </c>
+      <c r="X65">
+        <v>209213</v>
+      </c>
+      <c r="Y65">
+        <v>103614</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0.498</v>
+      </c>
+      <c r="AB65">
+        <v>183.16300000000001</v>
+      </c>
+      <c r="AC65">
+        <v>183.38800000000001</v>
+      </c>
+      <c r="AD65">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AE65">
+        <v>162.98099999999999</v>
+      </c>
+      <c r="AF65">
+        <v>163.209</v>
+      </c>
+      <c r="AG65">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AH65">
+        <v>165.00399999999999</v>
+      </c>
+      <c r="AI65">
+        <v>165.232</v>
+      </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -46053,6 +48331,102 @@
       <c r="C66" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="D66">
+        <v>26683</v>
+      </c>
+      <c r="E66">
+        <v>29383</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>160</v>
+      </c>
+      <c r="H66">
+        <v>36</v>
+      </c>
+      <c r="I66">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="L66">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="M66">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="N66">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="O66">
+        <v>1.645</v>
+      </c>
+      <c r="P66">
+        <v>1.873</v>
+      </c>
+      <c r="Q66">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="R66">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="S66">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="T66">
+        <v>30643</v>
+      </c>
+      <c r="U66">
+        <v>33343</v>
+      </c>
+      <c r="V66">
+        <v>1000</v>
+      </c>
+      <c r="W66">
+        <v>115757</v>
+      </c>
+      <c r="X66">
+        <v>229261</v>
+      </c>
+      <c r="Y66">
+        <v>113649</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0.6</v>
+      </c>
+      <c r="AB66">
+        <v>243.1</v>
+      </c>
+      <c r="AC66">
+        <v>243.35599999999999</v>
+      </c>
+      <c r="AD66">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AE66">
+        <v>234.738</v>
+      </c>
+      <c r="AF66">
+        <v>234.96199999999999</v>
+      </c>
+      <c r="AG66">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AH66">
+        <v>187.11199999999999</v>
+      </c>
+      <c r="AI66">
+        <v>187.49799999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -46062,13 +48436,104 @@
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D67">
+        <v>26622</v>
+      </c>
+      <c r="E67">
+        <v>29338</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>230</v>
+      </c>
+      <c r="H67">
+        <v>32</v>
+      </c>
+      <c r="I67">
+        <v>13</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="L67">
+        <v>0.93</v>
+      </c>
+      <c r="M67">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="N67">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="O67">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P67">
+        <v>1.097</v>
+      </c>
+      <c r="Q67">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="R67">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="S67">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="T67" s="2">
+        <v>30582</v>
+      </c>
+      <c r="U67" s="2">
+        <v>33298</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W67">
+        <v>77823</v>
+      </c>
+      <c r="X67" s="2">
+        <v>153250</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>75637</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0.498</v>
+      </c>
+      <c r="AB67">
+        <v>129.143</v>
+      </c>
+      <c r="AC67">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="AD67">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AE67">
+        <v>105.31100000000001</v>
+      </c>
+      <c r="AF67">
+        <v>105.468</v>
+      </c>
+      <c r="AG67">
+        <v>0.41</v>
+      </c>
+      <c r="AH67">
+        <v>132.792</v>
+      </c>
+      <c r="AI67">
+        <v>132.964</v>
+      </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -46080,70 +48545,160 @@
       <c r="C68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
+      <c r="D68">
+        <v>26686</v>
+      </c>
+      <c r="E68">
+        <v>29388</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>228</v>
+      </c>
+      <c r="H68">
+        <v>36</v>
+      </c>
+      <c r="I68">
+        <v>15</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L68">
+        <v>1.206</v>
+      </c>
+      <c r="M68">
+        <v>1.381</v>
+      </c>
+      <c r="N68">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="O68">
+        <v>0.87</v>
+      </c>
+      <c r="P68">
+        <v>1.006</v>
+      </c>
+      <c r="Q68">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="R68">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="S68">
+        <v>1.125</v>
+      </c>
+      <c r="T68" s="2">
+        <v>30646</v>
+      </c>
+      <c r="U68" s="2">
+        <v>33348</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W68">
+        <v>38340</v>
+      </c>
+      <c r="X68">
+        <v>74295</v>
+      </c>
+      <c r="Y68">
+        <v>36160</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>80.483999999999995</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>80.649000000000001</v>
+      </c>
+      <c r="AD68">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AE68">
+        <v>71.105000000000004</v>
+      </c>
+      <c r="AF68">
+        <v>71.308999999999997</v>
+      </c>
+      <c r="AG68">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AH68">
+        <v>56.743000000000002</v>
+      </c>
+      <c r="AI68">
+        <v>56.89</v>
+      </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16" t="s">
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16" t="s">
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16" t="s">
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16" t="s">
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16" t="s">
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16" t="s">
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="16"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="16" t="s">
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="16"/>
-      <c r="AI73" s="16"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -46435,7 +48990,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
@@ -46511,7 +49066,7 @@
   <dimension ref="A1:AI89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46563,61 +49118,61 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16" t="s">
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16" t="s">
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -46739,7 +49294,7 @@
       <c r="E12" s="2">
         <v>11669</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>10</v>
       </c>
       <c r="G12" s="2">
@@ -46798,7 +49353,7 @@
       <c r="E13" s="2">
         <v>11794</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>10</v>
       </c>
       <c r="G13" s="2">
@@ -46857,7 +49412,7 @@
       <c r="E14" s="2">
         <v>11724</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>10</v>
       </c>
       <c r="G14" s="2">
@@ -46917,7 +49472,7 @@
       <c r="E15" s="2">
         <v>23523</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>10</v>
       </c>
       <c r="G15" s="2">
@@ -46977,7 +49532,7 @@
       <c r="E16" s="2">
         <v>23149</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>10</v>
       </c>
       <c r="G16" s="2">
@@ -47037,7 +49592,7 @@
       <c r="E17" s="2">
         <v>23390</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>10</v>
       </c>
       <c r="G17" s="2">
@@ -47097,7 +49652,7 @@
       <c r="E18" s="2">
         <v>34944</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>10</v>
       </c>
       <c r="G18" s="2">
@@ -47157,7 +49712,7 @@
       <c r="E19" s="2">
         <v>35545</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>10</v>
       </c>
       <c r="G19" s="2">
@@ -47217,7 +49772,7 @@
       <c r="E20" s="2">
         <v>35100</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>10</v>
       </c>
       <c r="G20" s="2">
@@ -47277,7 +49832,7 @@
       <c r="E21" s="2">
         <v>47260</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>10</v>
       </c>
       <c r="G21" s="2">
@@ -47337,7 +49892,7 @@
       <c r="E22" s="2">
         <v>47090</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>10</v>
       </c>
       <c r="G22" s="2">
@@ -47397,7 +49952,7 @@
       <c r="E23" s="2">
         <v>46554</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>10</v>
       </c>
       <c r="G23" s="2">
@@ -47457,7 +50012,7 @@
       <c r="E24" s="2">
         <v>58059</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>10</v>
       </c>
       <c r="G24" s="2">
@@ -47517,7 +50072,7 @@
       <c r="E25" s="2">
         <v>58829</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>10</v>
       </c>
       <c r="G25" s="2">
@@ -47577,7 +50132,7 @@
       <c r="E26" s="2">
         <v>59033</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>10</v>
       </c>
       <c r="G26" s="2">
@@ -47625,61 +50180,61 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16" t="s">
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16" t="s">
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16" t="s">
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -48651,61 +51206,61 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16" t="s">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16" t="s">
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16" t="s">
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16" t="s">
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16" t="s">
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16" t="s">
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -48982,61 +51537,61 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16" t="s">
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16" t="s">
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16" t="s">
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16" t="s">
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16" t="s">
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16" t="s">
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE73" s="16"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="16" t="s">
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AH73" s="16"/>
-      <c r="AI73" s="16"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">

--- a/docs/testsFSG/tests-summary.xlsx
+++ b/docs/testsFSG/tests-summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8232" windowHeight="4296" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Constraints" sheetId="6" r:id="rId1"/>
@@ -519,7 +519,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -539,9 +539,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyAlignment="1">
@@ -1491,7 +1488,7 @@
                   <c:v>0.16262414002527026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22327018007930705</c:v>
+                  <c:v>0.22255938769876107</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.24044982172616361</c:v>
@@ -1500,19 +1497,19 @@
                   <c:v>0.31945853588623524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42407293399927654</c:v>
+                  <c:v>0.45970177535306034</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.57024115125874641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.76723745596803183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.4859315035309266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.700571017438687</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2088,6 +2085,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22115129410790241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50186650879657968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76723745596803183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4859315035309266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.700571017438687</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2649,6 +2661,21 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1317849187337501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8150142416754516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99159329469556445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.402003269101328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.4750862191798</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4005,7 +4032,7 @@
                   <c:v>14.441589155109996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.251047098065008</c:v>
+                  <c:v>11.393207076435523</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.79035970925041</c:v>
@@ -4014,19 +4041,19 @@
                   <c:v>14.210225981036634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.534879232324485</c:v>
+                  <c:v>3.5562896892818689</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>27.685382650143971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.99159329469556445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>86.402003269101328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>115.4750862191798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4860,7 +4887,7 @@
                   <c:v>0.16262414002527026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22327018007930705</c:v>
+                  <c:v>0.22255938769876107</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.24044982172616361</c:v>
@@ -4869,19 +4896,19 @@
                   <c:v>0.31945853588623524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42407293399927654</c:v>
+                  <c:v>0.45970177535306034</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.57024115125874641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.76723745596803183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.4859315035309266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.700571017438687</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -17156,7 +17183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
@@ -17476,7 +17503,7 @@
       </c>
       <c r="L8" s="7">
         <f>HARMEAN('Summary - Models'!F26,'Summary - Models'!F43,'Summary - Models'!F61)</f>
-        <v>0.22327018007930705</v>
+        <v>0.22255938769876107</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -17593,7 +17620,7 @@
       </c>
       <c r="L11" s="7">
         <f>HARMEAN('Summary - Models'!F45,'Summary - Models'!F62,'Summary - Models'!F80)</f>
-        <v>0.42407293399927654</v>
+        <v>0.45970177535306034</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -17671,7 +17698,7 @@
       </c>
       <c r="L13" s="7">
         <f>'Summary - Models'!F63</f>
-        <v>0</v>
+        <v>0.76723745596803183</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -17708,9 +17735,9 @@
         <f>HARMEAN('Summary - Models'!E64,'Summary - Models'!E81)</f>
         <v>0.83749301127131703</v>
       </c>
-      <c r="L14" s="7" t="e">
+      <c r="L14" s="7">
         <f>HARMEAN('Summary - Models'!F64,'Summary - Models'!F81)</f>
-        <v>#N/A</v>
+        <v>1.4859315035309266</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -17749,7 +17776,7 @@
       </c>
       <c r="L15" s="7">
         <f>'Summary - Models'!F65</f>
-        <v>0</v>
+        <v>2.700571017438687</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -18182,7 +18209,7 @@
       </c>
       <c r="L30" s="7">
         <f>HARMEAN('Summary - Models'!F35,'Summary - Models'!F52,'Summary - Models'!F70)</f>
-        <v>14.251047098065008</v>
+        <v>11.393207076435523</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -18263,7 +18290,7 @@
       </c>
       <c r="L33" s="13">
         <f>HARMEAN('Summary - Models'!F54,'Summary - Models'!F71)</f>
-        <v>87.534879232324485</v>
+        <v>3.5562896892818689</v>
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
@@ -18317,7 +18344,7 @@
       </c>
       <c r="L35" s="7">
         <f>'Summary - Models'!F72</f>
-        <v>0</v>
+        <v>0.99159329469556445</v>
       </c>
     </row>
     <row r="36" spans="6:14" x14ac:dyDescent="0.3">
@@ -18342,9 +18369,9 @@
         <f>HARMEAN('Summary - Models'!E73)</f>
         <v>99.64301748412403</v>
       </c>
-      <c r="L36" s="13" t="e">
+      <c r="L36" s="13">
         <f>HARMEAN('Summary - Models'!F73)</f>
-        <v>#N/A</v>
+        <v>86.402003269101328</v>
       </c>
     </row>
     <row r="37" spans="6:14" x14ac:dyDescent="0.3">
@@ -18371,7 +18398,7 @@
       </c>
       <c r="L37" s="7">
         <f>'Summary - Models'!F74</f>
-        <v>0</v>
+        <v>115.4750862191798</v>
       </c>
     </row>
     <row r="38" spans="6:14" x14ac:dyDescent="0.3">
@@ -18437,8 +18464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19516,7 +19543,10 @@
         <f>HARMEAN('320 - Models'!L54:L56,'320 - Models'!O54:O56,'320 - Models'!R54:R56)</f>
         <v>0.29744225950106512</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="7">
+        <f>HARMEAN('320 - Models'!L75:L77,'320 - Models'!O75:O77,'320 - Models'!R75:R77)</f>
+        <v>0.22115129410790241</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -19538,7 +19568,10 @@
         <f>HARMEAN('320 - Models'!L57:L59,'320 - Models'!O57:O59,'320 - Models'!R57:R59)</f>
         <v>0.50270843408094934</v>
       </c>
-      <c r="F62" s="7"/>
+      <c r="F62" s="7">
+        <f>HARMEAN('320 - Models'!L78:L80,'320 - Models'!O78:O80,'320 - Models'!R78:R80)</f>
+        <v>0.50186650879657968</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -19560,7 +19593,10 @@
         <f>HARMEAN('320 - Models'!L60:L62,'320 - Models'!O60:O62,'320 - Models'!R60:R62)</f>
         <v>0.65901897449037727</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <f>HARMEAN('320 - Models'!L81:L83,'320 - Models'!O81:O83,'320 - Models'!R81:R83)</f>
+        <v>0.76723745596803183</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -19582,7 +19618,10 @@
         <f>HARMEAN('320 - Models'!L63:L65,'320 - Models'!O63:O65,'320 - Models'!R63:R65)</f>
         <v>0.83749301127131703</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="7">
+        <f>HARMEAN('320 - Models'!L84:L86,'320 - Models'!O84:O86,'320 - Models'!R84:R86)</f>
+        <v>1.4859315035309266</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -19604,7 +19643,10 @@
         <f>HARMEAN('320 - Models'!L66:L68,'320 - Models'!O66:O68,'320 - Models'!R66:R68)</f>
         <v>1.1133730464231242</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7">
+        <f>HARMEAN('320 - Models'!L87:L89,'320 - Models'!O87:O89,'320 - Models'!R87:R89)</f>
+        <v>2.700571017438687</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -19662,7 +19704,10 @@
         <f>HARMEAN('320 - Models'!AB54:AB56,'320 - Models'!AE54:AE56,'320 - Models'!AH54:AH56)</f>
         <v>12.828286748278609</v>
       </c>
-      <c r="F70" s="7"/>
+      <c r="F70" s="7">
+        <f>HARMEAN('320 - Models'!AB75:AB77,'320 - Models'!AE75:AE77,'320 - Models'!AH75:AH77)</f>
+        <v>8.1317849187337501</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
@@ -19684,7 +19729,10 @@
         <f>HARMEAN('320 - Models'!AB57:AB59,'320 - Models'!AE57:AE59,'320 - Models'!AH57:AH59)</f>
         <v>2.7736975291433805</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="7">
+        <f>HARMEAN('320 - Models'!AB78:AB80,'320 - Models'!AE78:AE80,'320 - Models'!AH78:AH80)</f>
+        <v>1.8150142416754516</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -19706,7 +19754,10 @@
         <f>HARMEAN('320 - Models'!AB60:AB62,'320 - Models'!AE60:AE62,'320 - Models'!AH60:AH62)</f>
         <v>1.5454066765065118</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="7">
+        <f>HARMEAN('320 - Models'!AB81:AB83,'320 - Models'!AE81:AE83,'320 - Models'!AH81:AH83)</f>
+        <v>0.99159329469556445</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -19728,7 +19779,10 @@
         <f>HARMEAN('320 - Models'!AB63:AB65,'320 - Models'!AE63:AE65,'320 - Models'!AH63:AH65)</f>
         <v>99.64301748412403</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="7">
+        <f>HARMEAN('320 - Models'!AB84:AB86,'320 - Models'!AE84:AE86,'320 - Models'!AH84:AH86)</f>
+        <v>86.402003269101328</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -19750,7 +19804,10 @@
         <f>HARMEAN('320 - Models'!AB66:AB68,'320 - Models'!AE66:AE68,'320 - Models'!AH66:AH68)</f>
         <v>108.95954346979502</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <f>HARMEAN('320 - Models'!AB87:AB89,'320 - Models'!AE87:AE89,'320 - Models'!AH87:AH89)</f>
+        <v>115.4750862191798</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -43374,8 +43431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="AI81" sqref="AI81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45092,47 +45149,47 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>42</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>5</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -46477,79 +46534,79 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>32</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>4</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>21320</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>23482</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <v>10</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>199</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="16">
         <v>15</v>
       </c>
-      <c r="I44" s="17">
-        <v>0</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
         <v>0.29099999999999998</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="16">
         <v>0.66600000000000004</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="16">
         <v>0.78600000000000003</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="16">
         <v>0.27800000000000002</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="16">
         <v>0.61299999999999999</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="16">
         <v>0.72399999999999998</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="16">
         <v>0.29299999999999998</v>
       </c>
-      <c r="R44" s="17">
+      <c r="R44" s="16">
         <v>0.624</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="16">
         <v>0.749</v>
       </c>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
-      <c r="AG44" s="17"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="17"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -48817,6 +48874,102 @@
       <c r="C75">
         <v>19</v>
       </c>
+      <c r="D75">
+        <v>5329</v>
+      </c>
+      <c r="E75">
+        <v>5854</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>87</v>
+      </c>
+      <c r="H75">
+        <v>16</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.18</v>
+      </c>
+      <c r="L75">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M75">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="N75">
+        <v>0.152</v>
+      </c>
+      <c r="O75">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="P75">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Q75">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R75">
+        <v>0.222</v>
+      </c>
+      <c r="S75">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="T75">
+        <v>9289</v>
+      </c>
+      <c r="U75">
+        <v>9814</v>
+      </c>
+      <c r="V75">
+        <v>1000</v>
+      </c>
+      <c r="W75">
+        <v>8718</v>
+      </c>
+      <c r="X75">
+        <v>15308</v>
+      </c>
+      <c r="Y75">
+        <v>6661</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AB75">
+        <v>7.7210000000000001</v>
+      </c>
+      <c r="AC75">
+        <v>7.7750000000000004</v>
+      </c>
+      <c r="AD75">
+        <v>0.155</v>
+      </c>
+      <c r="AE75">
+        <v>8.4580000000000002</v>
+      </c>
+      <c r="AF75">
+        <v>8.5129999999999999</v>
+      </c>
+      <c r="AG75">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AH75">
+        <v>8.3209999999999997</v>
+      </c>
+      <c r="AI75">
+        <v>8.3870000000000005</v>
+      </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -48828,16 +48981,102 @@
       <c r="C76">
         <v>24</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="D76" s="2">
+        <v>5540</v>
+      </c>
+      <c r="E76" s="2">
+        <v>6083</v>
+      </c>
+      <c r="F76" s="2">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <v>109</v>
+      </c>
+      <c r="H76" s="2">
+        <v>16</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.161</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="N76">
+        <v>0.161</v>
+      </c>
+      <c r="O76">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="P76">
+        <v>0.32</v>
+      </c>
+      <c r="Q76">
+        <v>0.158</v>
+      </c>
+      <c r="R76">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="S76">
+        <v>0.3</v>
+      </c>
+      <c r="T76">
+        <v>9500</v>
+      </c>
+      <c r="U76">
+        <v>10043</v>
+      </c>
+      <c r="V76">
+        <v>1000</v>
+      </c>
+      <c r="W76">
+        <v>19799</v>
+      </c>
+      <c r="X76">
+        <v>37419</v>
+      </c>
+      <c r="Y76">
+        <v>17713</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0.19</v>
+      </c>
+      <c r="AB76">
+        <v>10.257</v>
+      </c>
+      <c r="AC76">
+        <v>10.323</v>
+      </c>
+      <c r="AD76">
+        <v>0.159</v>
+      </c>
+      <c r="AE76">
+        <v>10.385</v>
+      </c>
+      <c r="AF76">
+        <v>10.444000000000001</v>
+      </c>
+      <c r="AG76">
+        <v>0.157</v>
+      </c>
+      <c r="AH76">
+        <v>10.167999999999999</v>
+      </c>
+      <c r="AI76">
+        <v>10.222</v>
+      </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -48849,6 +49088,102 @@
       <c r="C77">
         <v>9</v>
       </c>
+      <c r="D77">
+        <v>5447</v>
+      </c>
+      <c r="E77">
+        <v>5985</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>79</v>
+      </c>
+      <c r="H77">
+        <v>16</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0.157</v>
+      </c>
+      <c r="L77">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="M77">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="N77">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="O77">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="P77">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Q77">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R77">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="S77">
+        <v>0.255</v>
+      </c>
+      <c r="T77">
+        <v>9407</v>
+      </c>
+      <c r="U77">
+        <v>9945</v>
+      </c>
+      <c r="V77">
+        <v>1000</v>
+      </c>
+      <c r="W77">
+        <v>10217</v>
+      </c>
+      <c r="X77">
+        <v>18320</v>
+      </c>
+      <c r="Y77">
+        <v>8166</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AB77">
+        <v>6.625</v>
+      </c>
+      <c r="AC77">
+        <v>6.6890000000000001</v>
+      </c>
+      <c r="AD77">
+        <v>0.154</v>
+      </c>
+      <c r="AE77">
+        <v>6.5949999999999998</v>
+      </c>
+      <c r="AF77">
+        <v>6.6539999999999999</v>
+      </c>
+      <c r="AG77">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AH77">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="AI77">
+        <v>6.9969999999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -48860,6 +49195,102 @@
       <c r="C78" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="D78">
+        <v>10728</v>
+      </c>
+      <c r="E78">
+        <v>11814</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>102</v>
+      </c>
+      <c r="H78">
+        <v>18</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.217</v>
+      </c>
+      <c r="L78">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="M78">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="N78">
+        <v>0.22</v>
+      </c>
+      <c r="O78">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="P78">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="Q78">
+        <v>0.215</v>
+      </c>
+      <c r="R78">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="S78">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="T78">
+        <v>14688</v>
+      </c>
+      <c r="U78">
+        <v>15774</v>
+      </c>
+      <c r="V78">
+        <v>1000</v>
+      </c>
+      <c r="W78">
+        <v>34503</v>
+      </c>
+      <c r="X78">
+        <v>66849</v>
+      </c>
+      <c r="Y78">
+        <v>32433</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0.223</v>
+      </c>
+      <c r="AB78">
+        <v>28.677</v>
+      </c>
+      <c r="AC78">
+        <v>28.774999999999999</v>
+      </c>
+      <c r="AD78">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AE78">
+        <v>25.367999999999999</v>
+      </c>
+      <c r="AF78">
+        <v>25.488</v>
+      </c>
+      <c r="AG78">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AH78">
+        <v>26.798999999999999</v>
+      </c>
+      <c r="AI78">
+        <v>26.907</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -48871,12 +49302,102 @@
       <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
+      <c r="D79" s="2">
+        <v>10752</v>
+      </c>
+      <c r="E79" s="2">
+        <v>11843</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>26</v>
+      </c>
+      <c r="H79">
+        <v>16</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M79">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="N79">
+        <v>0.219</v>
+      </c>
+      <c r="O79">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P79">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="Q79">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="R79">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S79">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="T79">
+        <v>11004</v>
+      </c>
+      <c r="U79">
+        <v>12095</v>
+      </c>
+      <c r="V79">
+        <v>73</v>
+      </c>
+      <c r="W79" s="2">
+        <v>214</v>
+      </c>
+      <c r="X79" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0.314</v>
+      </c>
+      <c r="AB79">
+        <v>0.69</v>
+      </c>
+      <c r="AC79">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AD79">
+        <v>0.19</v>
+      </c>
+      <c r="AE79">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="AF79">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="AG79">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AH79">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AI79">
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -48888,8 +49409,104 @@
       <c r="C80" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D80">
+        <v>10876</v>
+      </c>
+      <c r="E80">
+        <v>11972</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>150</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="M80">
+        <v>0.629</v>
+      </c>
+      <c r="N80">
+        <v>0.214</v>
+      </c>
+      <c r="O80">
+        <v>0.505</v>
+      </c>
+      <c r="P80">
+        <v>0.6</v>
+      </c>
+      <c r="Q80">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="R80">
+        <v>0.626</v>
+      </c>
+      <c r="S80">
+        <v>0.751</v>
+      </c>
+      <c r="T80">
+        <v>14836</v>
+      </c>
+      <c r="U80">
+        <v>15932</v>
+      </c>
+      <c r="V80">
+        <v>1000</v>
+      </c>
+      <c r="W80">
+        <v>20390</v>
+      </c>
+      <c r="X80">
+        <v>38530</v>
+      </c>
+      <c r="Y80">
+        <v>18274</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AB80">
+        <v>16.777999999999999</v>
+      </c>
+      <c r="AC80">
+        <v>16.888000000000002</v>
+      </c>
+      <c r="AD80">
+        <v>0.2</v>
+      </c>
+      <c r="AE80">
+        <v>16.669</v>
+      </c>
+      <c r="AF80">
+        <v>16.754000000000001</v>
+      </c>
+      <c r="AG80">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AH80">
+        <v>16.123000000000001</v>
+      </c>
+      <c r="AI80">
+        <v>16.213999999999999</v>
+      </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -48899,12 +49516,104 @@
       <c r="C81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
+      <c r="D81">
+        <v>16076</v>
+      </c>
+      <c r="E81">
+        <v>17715</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81">
+        <v>31</v>
+      </c>
+      <c r="I81">
+        <v>16</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L81">
+        <v>0.746</v>
+      </c>
+      <c r="M81">
+        <v>0.88</v>
+      </c>
+      <c r="N81">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O81">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="P81">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Q81">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="R81">
+        <v>0.746</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="T81" s="2">
+        <v>16096</v>
+      </c>
+      <c r="U81" s="2">
+        <v>17735</v>
+      </c>
+      <c r="V81" s="2">
+        <v>15</v>
+      </c>
+      <c r="W81" s="2">
+        <v>49</v>
+      </c>
+      <c r="X81" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="AB81">
+        <v>0.38</v>
+      </c>
+      <c r="AC81">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AD81">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AE81">
+        <v>0.318</v>
+      </c>
+      <c r="AF81">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AG81">
+        <v>0.254</v>
+      </c>
+      <c r="AH81">
+        <v>0.32</v>
+      </c>
+      <c r="AI81">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -48914,8 +49623,104 @@
       <c r="C82" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="D82">
+        <v>16042</v>
+      </c>
+      <c r="E82">
+        <v>17671</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>119</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L82">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="M82">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N82">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="O82">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="P82">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="Q82">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="R82">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="S82">
+        <v>0.876</v>
+      </c>
+      <c r="T82">
+        <v>2002</v>
+      </c>
+      <c r="U82">
+        <v>21631</v>
+      </c>
+      <c r="V82">
+        <v>1000</v>
+      </c>
+      <c r="W82">
+        <v>168189</v>
+      </c>
+      <c r="X82">
+        <v>334205</v>
+      </c>
+      <c r="Y82">
+        <v>166112</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AB82">
+        <v>184.245</v>
+      </c>
+      <c r="AC82">
+        <v>184.404</v>
+      </c>
+      <c r="AD82">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="AE82">
+        <v>135.863</v>
+      </c>
+      <c r="AF82">
+        <v>135.99199999999999</v>
+      </c>
+      <c r="AG82">
+        <v>0.311</v>
+      </c>
+      <c r="AH82">
+        <v>173.78899999999999</v>
+      </c>
+      <c r="AI82">
+        <v>173.934</v>
+      </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>22</v>
       </c>
@@ -48925,8 +49730,104 @@
       <c r="C83" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="D83">
+        <v>16261</v>
+      </c>
+      <c r="E83">
+        <v>17910</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>204</v>
+      </c>
+      <c r="H83">
+        <v>16</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L83">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M83">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="N83">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="O83">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="P83">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="Q83">
+        <v>0.248</v>
+      </c>
+      <c r="R83">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="S83">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="T83">
+        <v>20221</v>
+      </c>
+      <c r="U83">
+        <v>21870</v>
+      </c>
+      <c r="V83">
+        <v>1000</v>
+      </c>
+      <c r="W83">
+        <v>14510</v>
+      </c>
+      <c r="X83">
+        <v>26655</v>
+      </c>
+      <c r="Y83">
+        <v>12332</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="AB83">
+        <v>23.181999999999999</v>
+      </c>
+      <c r="AC83">
+        <v>23.346</v>
+      </c>
+      <c r="AD83">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AE83">
+        <v>17.786999999999999</v>
+      </c>
+      <c r="AF83">
+        <v>17.928000000000001</v>
+      </c>
+      <c r="AG83">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AH83">
+        <v>17.492000000000001</v>
+      </c>
+      <c r="AI83">
+        <v>17.623999999999999</v>
+      </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>30</v>
       </c>
@@ -48936,14 +49837,104 @@
       <c r="C84" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
+      <c r="D84" s="2">
+        <v>21209</v>
+      </c>
+      <c r="E84" s="2">
+        <v>23367</v>
+      </c>
+      <c r="F84" s="2">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>169</v>
+      </c>
+      <c r="H84">
+        <v>28</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="L84">
+        <v>1.254</v>
+      </c>
+      <c r="M84">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="N84">
+        <v>0.309</v>
+      </c>
+      <c r="O84">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="P84">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="Q84">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="R84">
+        <v>1.23</v>
+      </c>
+      <c r="S84">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="T84" s="2">
+        <v>25169</v>
+      </c>
+      <c r="U84" s="2">
+        <v>27327</v>
+      </c>
+      <c r="V84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W84">
+        <v>87299</v>
+      </c>
+      <c r="X84">
+        <v>172310</v>
+      </c>
+      <c r="Y84">
+        <v>85160</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="AB84">
+        <v>105.045</v>
+      </c>
+      <c r="AC84">
+        <v>105.2</v>
+      </c>
+      <c r="AD84">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="AE84">
+        <v>79.177999999999997</v>
+      </c>
+      <c r="AF84">
+        <v>79.311999999999998</v>
+      </c>
+      <c r="AG84">
+        <v>0.311</v>
+      </c>
+      <c r="AH84">
+        <v>84.373999999999995</v>
+      </c>
+      <c r="AI84">
+        <v>84.506</v>
+      </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>31</v>
       </c>
@@ -48953,11 +49944,104 @@
       <c r="C85" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="D85">
+        <v>21273</v>
+      </c>
+      <c r="E85">
+        <v>23440</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>43</v>
+      </c>
+      <c r="H85" s="2">
+        <v>19</v>
+      </c>
+      <c r="I85" s="2">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L85">
+        <v>1.893</v>
+      </c>
+      <c r="M85">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="N85">
+        <v>0.501</v>
+      </c>
+      <c r="O85">
+        <v>1.843</v>
+      </c>
+      <c r="P85">
+        <v>2.08</v>
+      </c>
+      <c r="Q85">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="R85">
+        <v>1.577</v>
+      </c>
+      <c r="S85">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="T85">
+        <v>25233</v>
+      </c>
+      <c r="U85">
+        <v>27400</v>
+      </c>
+      <c r="V85">
+        <v>1000</v>
+      </c>
+      <c r="W85">
+        <v>30475</v>
+      </c>
+      <c r="X85">
+        <v>58911</v>
+      </c>
+      <c r="Y85">
+        <v>28463</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="AB85">
+        <v>66.698999999999998</v>
+      </c>
+      <c r="AC85">
+        <v>66.98</v>
+      </c>
+      <c r="AD85">
+        <v>0.375</v>
+      </c>
+      <c r="AE85">
+        <v>47.225000000000001</v>
+      </c>
+      <c r="AF85">
+        <v>47.398000000000003</v>
+      </c>
+      <c r="AG85">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AH85">
+        <v>59.731999999999999</v>
+      </c>
+      <c r="AI85">
+        <v>59.954000000000001</v>
+      </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>32</v>
       </c>
@@ -48967,8 +50051,104 @@
       <c r="C86" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D86" s="2">
+        <v>21320</v>
+      </c>
+      <c r="E86" s="2">
+        <v>23482</v>
+      </c>
+      <c r="F86" s="2">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>223</v>
+      </c>
+      <c r="H86">
+        <v>22</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.499</v>
+      </c>
+      <c r="L86">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="M86">
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="N86">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="O86">
+        <v>1.476</v>
+      </c>
+      <c r="P86">
+        <v>1.657</v>
+      </c>
+      <c r="Q86">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="R86">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="S86">
+        <v>1.704</v>
+      </c>
+      <c r="T86">
+        <v>25280</v>
+      </c>
+      <c r="U86">
+        <v>27442</v>
+      </c>
+      <c r="V86">
+        <v>1000</v>
+      </c>
+      <c r="W86">
+        <v>105802</v>
+      </c>
+      <c r="X86">
+        <v>209213</v>
+      </c>
+      <c r="Y86">
+        <v>103614</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="AB86">
+        <v>178.84700000000001</v>
+      </c>
+      <c r="AC86">
+        <v>179.12799999999999</v>
+      </c>
+      <c r="AD86">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AE86">
+        <v>173.01300000000001</v>
+      </c>
+      <c r="AF86">
+        <v>173.20400000000001</v>
+      </c>
+      <c r="AG86">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AH86">
+        <v>170.00800000000001</v>
+      </c>
+      <c r="AI86">
+        <v>170.233</v>
+      </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -48978,11 +50158,104 @@
       <c r="C87" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
+      <c r="D87">
+        <v>26683</v>
+      </c>
+      <c r="E87">
+        <v>29683</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>160</v>
+      </c>
+      <c r="H87">
+        <v>36</v>
+      </c>
+      <c r="I87">
+        <v>21</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="L87">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="M87">
+        <v>3.87</v>
+      </c>
+      <c r="N87">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="O87">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="P87">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="Q87">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="R87">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="S87">
+        <v>3.085</v>
+      </c>
+      <c r="T87" s="2">
+        <v>30643</v>
+      </c>
+      <c r="U87" s="2">
+        <v>33343</v>
+      </c>
+      <c r="V87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W87">
+        <v>115757</v>
+      </c>
+      <c r="X87">
+        <v>229261</v>
+      </c>
+      <c r="Y87">
+        <v>113649</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AB87">
+        <v>218.858</v>
+      </c>
+      <c r="AC87">
+        <v>219.126</v>
+      </c>
+      <c r="AD87">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AE87">
+        <v>208.22</v>
+      </c>
+      <c r="AF87">
+        <v>208.41800000000001</v>
+      </c>
+      <c r="AG87">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="AH87">
+        <v>190.75700000000001</v>
+      </c>
+      <c r="AI87">
+        <v>190.99100000000001</v>
+      </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -48992,14 +50265,104 @@
       <c r="C88" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
+      <c r="D88">
+        <v>26622</v>
+      </c>
+      <c r="E88">
+        <v>29338</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>230</v>
+      </c>
+      <c r="H88">
+        <v>32</v>
+      </c>
+      <c r="I88">
+        <v>13</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.34</v>
+      </c>
+      <c r="L88">
+        <v>2.04</v>
+      </c>
+      <c r="M88">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="N88">
+        <v>0.315</v>
+      </c>
+      <c r="O88">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="P88">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="Q88">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="R88">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="S88">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="T88" s="2">
+        <v>30582</v>
+      </c>
+      <c r="U88" s="2">
+        <v>33298</v>
+      </c>
+      <c r="V88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W88">
+        <v>77823</v>
+      </c>
+      <c r="X88">
+        <v>153250</v>
+      </c>
+      <c r="Y88">
+        <v>75637</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>128.12899999999999</v>
+      </c>
+      <c r="AC88" s="2">
+        <v>128.28700000000001</v>
+      </c>
+      <c r="AD88">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="AE88">
+        <v>105.652</v>
+      </c>
+      <c r="AF88">
+        <v>105.792</v>
+      </c>
+      <c r="AG88">
+        <v>0.317</v>
+      </c>
+      <c r="AH88">
+        <v>92.185000000000002</v>
+      </c>
+      <c r="AI88">
+        <v>92.323999999999998</v>
+      </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>42</v>
       </c>
@@ -49009,12 +50372,102 @@
       <c r="C89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
+      <c r="D89">
+        <v>26686</v>
+      </c>
+      <c r="E89">
+        <v>29388</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>228</v>
+      </c>
+      <c r="H89">
+        <v>36</v>
+      </c>
+      <c r="I89">
+        <v>15</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="L89">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="M89">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="N89">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O89">
+        <v>3.718</v>
+      </c>
+      <c r="P89">
+        <v>4.0549999999999997</v>
+      </c>
+      <c r="Q89">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="R89">
+        <v>3.8769999999999998</v>
+      </c>
+      <c r="S89">
+        <v>4.2270000000000003</v>
+      </c>
+      <c r="T89" s="2">
+        <v>30646</v>
+      </c>
+      <c r="U89" s="2">
+        <v>33348</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W89">
+        <v>38340</v>
+      </c>
+      <c r="X89">
+        <v>74295</v>
+      </c>
+      <c r="Y89">
+        <v>36160</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>97.436999999999998</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>97.89</v>
+      </c>
+      <c r="AD89">
+        <v>0.4</v>
+      </c>
+      <c r="AE89">
+        <v>71.206000000000003</v>
+      </c>
+      <c r="AF89">
+        <v>71.393000000000001</v>
+      </c>
+      <c r="AG89">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AH89">
+        <v>91.738</v>
+      </c>
+      <c r="AI89">
+        <v>92.031999999999996</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -49066,7 +50519,7 @@
   <dimension ref="A1:AI89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49288,53 +50741,53 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>10612</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>11669</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>78</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>49</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>17</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.34100000000000003</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>1.653</v>
       </c>
-      <c r="M12" s="2">
-        <v>1784</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12">
+        <v>1.784</v>
+      </c>
+      <c r="N12">
         <v>0.248</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>1.248</v>
       </c>
-      <c r="P12" s="2">
-        <v>1338</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="P12">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="Q12">
         <v>0.249</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>1.4370000000000001</v>
       </c>
-      <c r="S12" s="2">
-        <v>1521</v>
+      <c r="S12">
+        <v>1.5209999999999999</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -49347,53 +50800,53 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>10734</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>11794</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>40</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>18</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0.42099999999999999</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>2.5369999999999999</v>
       </c>
-      <c r="M13" s="2">
-        <v>2654</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="M13">
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="N13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>1.637</v>
       </c>
-      <c r="P13" s="2">
-        <v>1753</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="P13">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="Q13">
         <v>0.30099999999999999</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13">
         <v>1.77</v>
       </c>
-      <c r="S13" s="2">
-        <v>1861</v>
+      <c r="S13">
+        <v>1.861</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -49406,53 +50859,53 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>10682</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>11724</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>101</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>40</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>15</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0.33600000000000002</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>0.98799999999999999</v>
       </c>
-      <c r="M14" s="2">
-        <v>1144</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="M14">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="N14">
         <v>0.29399999999999998</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>1.679</v>
       </c>
-      <c r="P14" s="2">
-        <v>1793</v>
-      </c>
-      <c r="Q14" s="2">
+      <c r="P14">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="Q14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14">
         <v>1.778</v>
       </c>
-      <c r="S14" s="2">
-        <v>1889</v>
+      <c r="S14">
+        <v>1.889</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -49466,53 +50919,53 @@
         <v>2</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>21367</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>23523</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>79</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>36</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>10</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>0.66800000000000004</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>4.952</v>
       </c>
-      <c r="M15" s="2">
-        <v>5138</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="M15">
+        <v>5.1379999999999999</v>
+      </c>
+      <c r="N15">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>4.984</v>
       </c>
-      <c r="P15" s="2">
-        <v>5161</v>
-      </c>
-      <c r="Q15" s="2">
+      <c r="P15">
+        <v>5.1609999999999996</v>
+      </c>
+      <c r="Q15">
         <v>0.41099999999999998</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15">
         <v>3.9620000000000002</v>
       </c>
-      <c r="S15" s="2">
-        <v>4115</v>
+      <c r="S15">
+        <v>4.1150000000000002</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -49526,53 +50979,53 @@
         <v>2</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>21032</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>23149</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>180</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>61</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>23</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0.69799999999999995</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>6.5149999999999997</v>
       </c>
-      <c r="M16" s="2">
-        <v>6797</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="M16">
+        <v>6.7969999999999997</v>
+      </c>
+      <c r="N16">
         <v>0.53</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <v>3.9940000000000002</v>
       </c>
-      <c r="P16" s="2">
-        <v>4176</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="P16">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="Q16">
         <v>0.39100000000000001</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16">
         <v>3.47</v>
       </c>
-      <c r="S16" s="2">
-        <v>3616</v>
+      <c r="S16">
+        <v>3.6160000000000001</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -49586,53 +51039,53 @@
         <v>2</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>21245</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>23390</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>95</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>45</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>14</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0.67200000000000004</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>4.8609999999999998</v>
       </c>
-      <c r="M17" s="2">
-        <v>5196</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="M17">
+        <v>5.1959999999999997</v>
+      </c>
+      <c r="N17">
         <v>0.44900000000000001</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17">
         <v>3.4729999999999999</v>
       </c>
-      <c r="P17" s="2">
-        <v>3645</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="P17">
+        <v>3.645</v>
+      </c>
+      <c r="Q17">
         <v>0.42199999999999999</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17">
         <v>3.5720000000000001</v>
       </c>
-      <c r="S17" s="2">
-        <v>3726</v>
+      <c r="S17">
+        <v>3.726</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -49646,53 +51099,53 @@
         <v>3</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>31721</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>34944</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>155</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>73</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>31</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0.71299999999999997</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>9.3460000000000001</v>
       </c>
-      <c r="M18" s="2">
-        <v>9648</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="M18">
+        <v>9.6479999999999997</v>
+      </c>
+      <c r="N18">
         <v>0.501</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18">
         <v>8.6660000000000004</v>
       </c>
-      <c r="P18" s="2">
-        <v>8880</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="P18">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="Q18">
         <v>0.45900000000000002</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18">
         <v>6.5650000000000004</v>
       </c>
-      <c r="S18" s="2">
-        <v>6756</v>
+      <c r="S18">
+        <v>6.7560000000000002</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -49706,53 +51159,53 @@
         <v>3</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>32272</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>35545</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>43</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>17</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0.45900000000000002</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>6.452</v>
       </c>
-      <c r="M19" s="2">
-        <v>6635</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="M19">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="N19">
         <v>0.46500000000000002</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>6.3479999999999999</v>
       </c>
-      <c r="P19" s="2">
-        <v>6530</v>
-      </c>
-      <c r="Q19" s="2">
+      <c r="P19">
+        <v>6.53</v>
+      </c>
+      <c r="Q19">
         <v>0.46899999999999997</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19">
         <v>6.3339999999999996</v>
       </c>
-      <c r="S19" s="2">
-        <v>6514</v>
+      <c r="S19">
+        <v>6.5140000000000002</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -49766,53 +51219,53 @@
         <v>3</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>31853</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>35100</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20">
         <v>10</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>80</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>52</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>18</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>0.626</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>7.4669999999999996</v>
       </c>
-      <c r="M20" s="2">
-        <v>7719</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="M20">
+        <v>7.7190000000000003</v>
+      </c>
+      <c r="N20">
         <v>0.46800000000000003</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20">
         <v>6.7750000000000004</v>
       </c>
-      <c r="P20" s="2">
-        <v>6960</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="P20">
+        <v>6.96</v>
+      </c>
+      <c r="Q20">
         <v>0.55500000000000005</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20">
         <v>6.9429999999999996</v>
       </c>
-      <c r="S20" s="2">
-        <v>7193</v>
+      <c r="S20">
+        <v>7.1929999999999996</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -49826,53 +51279,53 @@
         <v>4</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>42877</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>47260</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21">
         <v>10</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>73</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>34</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>9</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0.77900000000000003</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>14.135999999999999</v>
       </c>
-      <c r="M21" s="2">
-        <v>14490</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="M21">
+        <v>14.49</v>
+      </c>
+      <c r="N21">
         <v>0.70899999999999996</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21">
         <v>10.292</v>
       </c>
-      <c r="P21" s="2">
-        <v>10608</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="P21">
+        <v>10.608000000000001</v>
+      </c>
+      <c r="Q21">
         <v>0.63100000000000001</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21">
         <v>9.7040000000000006</v>
       </c>
-      <c r="S21" s="2">
-        <v>10008</v>
+      <c r="S21">
+        <v>10.007999999999999</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -49886,53 +51339,53 @@
         <v>4</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>42749</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>47090</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>335</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>122</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>53</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>0.68300000000000005</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <v>13.311</v>
       </c>
-      <c r="M22" s="2">
-        <v>13634</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="M22">
+        <v>13.634</v>
+      </c>
+      <c r="N22">
         <v>0.84899999999999998</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>12.571999999999999</v>
       </c>
-      <c r="P22" s="2">
-        <v>12908</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="P22">
+        <v>12.907999999999999</v>
+      </c>
+      <c r="Q22">
         <v>0.86699999999999999</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22">
         <v>11.177</v>
       </c>
-      <c r="S22" s="2">
-        <v>11597</v>
+      <c r="S22">
+        <v>11.597</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -49946,53 +51399,53 @@
         <v>4</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>42224</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>46554</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>158</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>90</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>37</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0.999</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <v>14.343</v>
       </c>
-      <c r="M23" s="2">
-        <v>14732</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="M23">
+        <v>14.731999999999999</v>
+      </c>
+      <c r="N23">
         <v>0.77</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23">
         <v>11.804</v>
       </c>
-      <c r="P23" s="2">
-        <v>12164</v>
-      </c>
-      <c r="Q23" s="2">
+      <c r="P23">
+        <v>12.164</v>
+      </c>
+      <c r="Q23">
         <v>0.69899999999999995</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23">
         <v>10.103</v>
       </c>
-      <c r="S23" s="2">
-        <v>10468</v>
+      <c r="S23">
+        <v>10.468</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -50006,53 +51459,53 @@
         <v>5</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>52672</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>58059</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24">
         <v>10</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>135</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>72</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>28</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>0.874</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24">
         <v>18.623000000000001</v>
       </c>
-      <c r="M24" s="2">
-        <v>18979</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="M24">
+        <v>18.978999999999999</v>
+      </c>
+      <c r="N24">
         <v>0.73799999999999999</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24">
         <v>15.494</v>
       </c>
-      <c r="P24" s="2">
-        <v>15785</v>
-      </c>
-      <c r="Q24" s="2">
+      <c r="P24">
+        <v>15.785</v>
+      </c>
+      <c r="Q24">
         <v>0.82899999999999996</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24">
         <v>15.929</v>
       </c>
-      <c r="S24" s="2">
-        <v>16275</v>
+      <c r="S24">
+        <v>16.274999999999999</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -50066,53 +51519,53 @@
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>53385</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>58829</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25">
         <v>10</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>229</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>64</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>24</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>1.046</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>18.391999999999999</v>
       </c>
-      <c r="M25" s="2">
-        <v>18782</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="M25">
+        <v>18.782</v>
+      </c>
+      <c r="N25">
         <v>0.93600000000000005</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25">
         <v>19.13</v>
       </c>
-      <c r="P25" s="2">
-        <v>19516</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="P25">
+        <v>19.515999999999998</v>
+      </c>
+      <c r="Q25">
         <v>1.1890000000000001</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25">
         <v>19.832000000000001</v>
       </c>
-      <c r="S25" s="2">
-        <v>20275</v>
+      <c r="S25">
+        <v>20.274999999999999</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -50126,53 +51579,53 @@
         <v>5</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>53573</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>59033</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>134</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>36</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>11</v>
       </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>0.91900000000000004</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26">
         <v>21.466999999999999</v>
       </c>
-      <c r="M26" s="2">
-        <v>21791</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="M26">
+        <v>21.791</v>
+      </c>
+      <c r="N26">
         <v>0.69799999999999995</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26">
         <v>16.385000000000002</v>
       </c>
-      <c r="P26" s="2">
-        <v>16665</v>
-      </c>
-      <c r="Q26" s="2">
+      <c r="P26">
+        <v>16.664999999999999</v>
+      </c>
+      <c r="Q26">
         <v>0.71799999999999997</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26">
         <v>15.84</v>
       </c>
-      <c r="S26" s="2">
-        <v>16145</v>
+      <c r="S26">
+        <v>16.145</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -50378,7 +51831,7 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="M33">
-        <v>709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="N33">
         <v>0.30199999999999999</v>
@@ -50387,7 +51840,7 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="P33">
-        <v>724</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="Q33">
         <v>0.29799999999999999</v>
@@ -50396,7 +51849,7 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="S33">
-        <v>594</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -50434,7 +51887,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="M34">
-        <v>628</v>
+        <v>0.628</v>
       </c>
       <c r="N34">
         <v>0.29399999999999998</v>
@@ -50443,7 +51896,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="P34">
-        <v>672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="Q34">
         <v>0.25900000000000001</v>
@@ -50452,7 +51905,7 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="S34">
-        <v>597</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -50493,7 +51946,7 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="M35">
-        <v>589</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="N35">
         <v>0.28999999999999998</v>
@@ -50502,7 +51955,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="P35">
-        <v>708</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="Q35">
         <v>0.25700000000000001</v>
@@ -50511,7 +51964,7 @@
         <v>0.5</v>
       </c>
       <c r="S35">
-        <v>601</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -50550,7 +52003,7 @@
         <v>1.083</v>
       </c>
       <c r="M36">
-        <v>1246</v>
+        <v>1.246</v>
       </c>
       <c r="N36">
         <v>0.45200000000000001</v>
@@ -50559,7 +52012,7 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="P36">
-        <v>1138</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="Q36">
         <v>0.44900000000000001</v>
@@ -50568,7 +52021,7 @@
         <v>1.036</v>
       </c>
       <c r="S36">
-        <v>1241</v>
+        <v>1.2410000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -50607,7 +52060,7 @@
         <v>1.2470000000000001</v>
       </c>
       <c r="M37">
-        <v>1415</v>
+        <v>1.415</v>
       </c>
       <c r="N37">
         <v>0.42099999999999999</v>
@@ -50616,7 +52069,7 @@
         <v>1.1659999999999999</v>
       </c>
       <c r="P37">
-        <v>1348</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="Q37">
         <v>0.443</v>
@@ -50625,7 +52078,7 @@
         <v>0.999</v>
       </c>
       <c r="S37">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -50667,7 +52120,7 @@
         <v>1.085</v>
       </c>
       <c r="M38">
-        <v>1249</v>
+        <v>1.2490000000000001</v>
       </c>
       <c r="N38">
         <v>0.42</v>
@@ -50676,7 +52129,7 @@
         <v>1.1080000000000001</v>
       </c>
       <c r="P38">
-        <v>1286</v>
+        <v>1.286</v>
       </c>
       <c r="Q38">
         <v>0.42099999999999999</v>
@@ -50685,7 +52138,7 @@
         <v>1.044</v>
       </c>
       <c r="S38">
-        <v>1222</v>
+        <v>1.222</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -50724,7 +52177,7 @@
         <v>2.085</v>
       </c>
       <c r="M39">
-        <v>2373</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="N39">
         <v>0.62</v>
@@ -50733,7 +52186,7 @@
         <v>1.984</v>
       </c>
       <c r="P39">
-        <v>2192</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="Q39">
         <v>0.51500000000000001</v>
@@ -50742,7 +52195,7 @@
         <v>1.954</v>
       </c>
       <c r="S39">
-        <v>2180</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -50781,7 +52234,7 @@
         <v>2.56</v>
       </c>
       <c r="M40">
-        <v>3055</v>
+        <v>3.0550000000000002</v>
       </c>
       <c r="N40">
         <v>0.51500000000000001</v>
@@ -50790,7 +52243,7 @@
         <v>1.7589999999999999</v>
       </c>
       <c r="P40">
-        <v>1987</v>
+        <v>1.9870000000000001</v>
       </c>
       <c r="Q40">
         <v>0.505</v>
@@ -50799,7 +52252,7 @@
         <v>1.665</v>
       </c>
       <c r="S40">
-        <v>1888</v>
+        <v>1.8879999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -50838,7 +52291,7 @@
         <v>1.5209999999999999</v>
       </c>
       <c r="M41">
-        <v>1756</v>
+        <v>1.756</v>
       </c>
       <c r="N41">
         <v>0.60099999999999998</v>
@@ -50847,7 +52300,7 @@
         <v>1.552</v>
       </c>
       <c r="P41">
-        <v>1780</v>
+        <v>1.78</v>
       </c>
       <c r="Q41">
         <v>0.51300000000000001</v>
@@ -50856,7 +52309,7 @@
         <v>1.8149999999999999</v>
       </c>
       <c r="S41">
-        <v>2047</v>
+        <v>2.0470000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -50895,7 +52348,7 @@
         <v>2.5390000000000001</v>
       </c>
       <c r="M42">
-        <v>2959</v>
+        <v>2.9590000000000001</v>
       </c>
       <c r="N42">
         <v>1.167</v>
@@ -50904,7 +52357,7 @@
         <v>2.2250000000000001</v>
       </c>
       <c r="P42">
-        <v>2799</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="Q42">
         <v>0.79700000000000004</v>
@@ -50913,7 +52366,7 @@
         <v>2.319</v>
       </c>
       <c r="S42">
-        <v>2748</v>
+        <v>2.7480000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -50952,7 +52405,7 @@
         <v>3.181</v>
       </c>
       <c r="M43">
-        <v>3646</v>
+        <v>3.6459999999999999</v>
       </c>
       <c r="N43">
         <v>0.67200000000000004</v>
@@ -50961,7 +52414,7 @@
         <v>2.6240000000000001</v>
       </c>
       <c r="P43">
-        <v>2975</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="Q43">
         <v>0.69699999999999995</v>
@@ -50970,7 +52423,7 @@
         <v>2.5259999999999998</v>
       </c>
       <c r="S43">
-        <v>2882</v>
+        <v>2.8820000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -51009,7 +52462,7 @@
         <v>2.42</v>
       </c>
       <c r="M44">
-        <v>2876</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="N44">
         <v>0.83299999999999996</v>
@@ -51018,7 +52471,7 @@
         <v>2.1469999999999998</v>
       </c>
       <c r="P44">
-        <v>2580</v>
+        <v>2.58</v>
       </c>
       <c r="Q44">
         <v>0.65900000000000003</v>
@@ -51027,7 +52480,7 @@
         <v>2.125</v>
       </c>
       <c r="S44">
-        <v>2475</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -51066,7 +52519,7 @@
         <v>4.0910000000000002</v>
       </c>
       <c r="M45">
-        <v>4492</v>
+        <v>4.492</v>
       </c>
       <c r="N45">
         <v>1.1459999999999999</v>
@@ -51075,7 +52528,7 @@
         <v>3.83</v>
       </c>
       <c r="P45">
-        <v>4311</v>
+        <v>4.3109999999999999</v>
       </c>
       <c r="Q45">
         <v>0.77100000000000002</v>
@@ -51084,7 +52537,7 @@
         <v>3.577</v>
       </c>
       <c r="S45">
-        <v>3919</v>
+        <v>3.919</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -51123,7 +52576,7 @@
         <v>4.29</v>
       </c>
       <c r="M46">
-        <v>4872</v>
+        <v>4.8719999999999999</v>
       </c>
       <c r="N46">
         <v>0.82299999999999995</v>
@@ -51132,7 +52585,7 @@
         <v>3.7050000000000001</v>
       </c>
       <c r="P46">
-        <v>4062</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="Q46">
         <v>0.82299999999999995</v>
@@ -51141,7 +52594,7 @@
         <v>3.9950000000000001</v>
       </c>
       <c r="S46">
-        <v>4406</v>
+        <v>4.4059999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -51180,7 +52633,7 @@
         <v>4.2489999999999997</v>
       </c>
       <c r="M47">
-        <v>4669</v>
+        <v>4.6689999999999996</v>
       </c>
       <c r="N47">
         <v>0.97899999999999998</v>
@@ -51189,7 +52642,7 @@
         <v>3.9289999999999998</v>
       </c>
       <c r="P47">
-        <v>4288</v>
+        <v>4.2880000000000003</v>
       </c>
       <c r="Q47">
         <v>1.133</v>
@@ -51198,7 +52651,7 @@
         <v>3.3420000000000001</v>
       </c>
       <c r="S47">
-        <v>3824</v>
+        <v>3.8239999999999998</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -51376,6 +52829,54 @@
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="D54">
+        <v>10612</v>
+      </c>
+      <c r="E54">
+        <v>11669</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>66</v>
+      </c>
+      <c r="H54">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="L54">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="M54">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="N54">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="O54">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="P54">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="Q54">
+        <v>0.26</v>
+      </c>
+      <c r="R54">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="S54">
+        <v>0.58099999999999996</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -51384,6 +52885,54 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="D55">
+        <v>10734</v>
+      </c>
+      <c r="E55">
+        <v>11794</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>129</v>
+      </c>
+      <c r="H55">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L55">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M55">
+        <v>0.87</v>
+      </c>
+      <c r="N55">
+        <v>0.309</v>
+      </c>
+      <c r="O55">
+        <v>0.52</v>
+      </c>
+      <c r="P55">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="Q55">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="R55">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="S55">
+        <v>0.61599999999999999</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -51392,6 +52941,54 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="D56">
+        <v>10682</v>
+      </c>
+      <c r="E56">
+        <v>11724</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>114</v>
+      </c>
+      <c r="H56">
+        <v>28</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L56">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M56">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="N56">
+        <v>0.246</v>
+      </c>
+      <c r="O56">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="P56">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="Q56">
+        <v>0.251</v>
+      </c>
+      <c r="R56">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="S56">
+        <v>0.53600000000000003</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -51401,6 +52998,54 @@
         <v>2</v>
       </c>
       <c r="C57" s="3"/>
+      <c r="D57">
+        <v>21367</v>
+      </c>
+      <c r="E57">
+        <v>23523</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>81</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="L57">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="M57">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="N57">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="O57">
+        <v>0.91</v>
+      </c>
+      <c r="P57">
+        <v>1.069</v>
+      </c>
+      <c r="Q57">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="R57">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="S57">
+        <v>1.0660000000000001</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -51410,6 +53055,54 @@
         <v>2</v>
       </c>
       <c r="C58" s="3"/>
+      <c r="D58">
+        <v>21032</v>
+      </c>
+      <c r="E58">
+        <v>23149</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>157</v>
+      </c>
+      <c r="H58">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.499</v>
+      </c>
+      <c r="L58">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="M58">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="N58">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="O58">
+        <v>1.038</v>
+      </c>
+      <c r="P58">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="Q58">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="R58">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="S58">
+        <v>1.343</v>
+      </c>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
@@ -51422,6 +53115,54 @@
         <v>2</v>
       </c>
       <c r="C59" s="3"/>
+      <c r="D59">
+        <v>21245</v>
+      </c>
+      <c r="E59">
+        <v>23393</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>89</v>
+      </c>
+      <c r="H59">
+        <v>16</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="L59">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="M59">
+        <v>1.62</v>
+      </c>
+      <c r="N59">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="O59">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="P59">
+        <v>1.62</v>
+      </c>
+      <c r="Q59">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="R59">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S59">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -51431,12 +53172,54 @@
         <v>3</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
+      <c r="D60">
+        <v>31721</v>
+      </c>
+      <c r="E60">
+        <v>34944</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>225</v>
+      </c>
+      <c r="H60">
+        <v>26</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1.645</v>
+      </c>
+      <c r="M60">
+        <v>1.94</v>
+      </c>
+      <c r="N60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O60">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="P60" s="2">
+        <v>2.395</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R60" s="2">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="S60">
+        <v>2.395</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -51446,11 +53229,54 @@
         <v>3</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="D61">
+        <v>32272</v>
+      </c>
+      <c r="E61" s="2">
+        <v>35545</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>59</v>
+      </c>
+      <c r="H61" s="2">
+        <v>36</v>
+      </c>
+      <c r="I61" s="2">
+        <v>15</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="L61">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="M61">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="N61">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="O61">
+        <v>1.573</v>
+      </c>
+      <c r="P61">
+        <v>1.821</v>
+      </c>
+      <c r="Q61">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="R61">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="S61">
+        <v>2.2210000000000001</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -51460,6 +53286,54 @@
         <v>3</v>
       </c>
       <c r="C62" s="3"/>
+      <c r="D62">
+        <v>31853</v>
+      </c>
+      <c r="E62">
+        <v>35100</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>82</v>
+      </c>
+      <c r="H62">
+        <v>29</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="L62">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="M62">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="N62">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="O62">
+        <v>1.663</v>
+      </c>
+      <c r="P62">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="Q62">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="R62">
+        <v>1.615</v>
+      </c>
+      <c r="S62">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -51469,9 +53343,54 @@
         <v>4</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="D63" s="2">
+        <v>42877</v>
+      </c>
+      <c r="E63" s="2">
+        <v>47260</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>19</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="L63">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="M63">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="N63">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="O63">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="P63">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="Q63">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="R63">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S63">
+        <v>2.3879999999999999</v>
+      </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -51484,9 +53403,54 @@
         <v>4</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="D64">
+        <v>42749</v>
+      </c>
+      <c r="E64">
+        <v>47090</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>302</v>
+      </c>
+      <c r="H64" s="2">
+        <v>16</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L64">
+        <v>2.843</v>
+      </c>
+      <c r="M64">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="N64">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O64">
+        <v>2.355</v>
+      </c>
+      <c r="P64">
+        <v>2.74</v>
+      </c>
+      <c r="Q64">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="R64">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="S64">
+        <v>2.4870000000000001</v>
+      </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -51496,6 +53460,54 @@
         <v>4</v>
       </c>
       <c r="C65" s="3"/>
+      <c r="D65">
+        <v>42224</v>
+      </c>
+      <c r="E65">
+        <v>46554</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>154</v>
+      </c>
+      <c r="H65">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="L65">
+        <v>2.399</v>
+      </c>
+      <c r="M65">
+        <v>2.863</v>
+      </c>
+      <c r="N65">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="O65">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="P65">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="Q65">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="R65">
+        <v>2.625</v>
+      </c>
+      <c r="S65">
+        <v>3.0270000000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -51505,6 +53517,54 @@
         <v>5</v>
       </c>
       <c r="C66" s="3"/>
+      <c r="D66">
+        <v>52672</v>
+      </c>
+      <c r="E66">
+        <v>58059</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>202</v>
+      </c>
+      <c r="H66">
+        <v>21</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1.034</v>
+      </c>
+      <c r="L66">
+        <v>3.984</v>
+      </c>
+      <c r="M66">
+        <v>4.4470000000000001</v>
+      </c>
+      <c r="N66">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="O66">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="P66">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="Q66">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="R66">
+        <v>3.8210000000000002</v>
+      </c>
+      <c r="S66">
+        <v>4.2030000000000003</v>
+      </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -51514,6 +53574,54 @@
         <v>5</v>
       </c>
       <c r="C67" s="3"/>
+      <c r="D67">
+        <v>53385</v>
+      </c>
+      <c r="E67">
+        <v>58829</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>243</v>
+      </c>
+      <c r="H67">
+        <v>28</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.97</v>
+      </c>
+      <c r="L67">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="M67">
+        <v>4.1589999999999998</v>
+      </c>
+      <c r="N67">
+        <v>1.04</v>
+      </c>
+      <c r="O67">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="P67">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="Q67">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="R67">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="S67">
+        <v>4.4029999999999996</v>
+      </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -51528,6 +53636,54 @@
         <v>5</v>
       </c>
       <c r="C68" s="3"/>
+      <c r="D68">
+        <v>53573</v>
+      </c>
+      <c r="E68">
+        <v>59033</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>126</v>
+      </c>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>9</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1.115</v>
+      </c>
+      <c r="L68">
+        <v>3.9470000000000001</v>
+      </c>
+      <c r="M68">
+        <v>4.3940000000000001</v>
+      </c>
+      <c r="N68">
+        <v>0.96</v>
+      </c>
+      <c r="O68">
+        <v>3.8260000000000001</v>
+      </c>
+      <c r="P68">
+        <v>4.25</v>
+      </c>
+      <c r="Q68">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="R68">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="S68">
+        <v>4.5410000000000004</v>
+      </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -51707,6 +53863,54 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="D75">
+        <v>10612</v>
+      </c>
+      <c r="E75">
+        <v>11669</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>66</v>
+      </c>
+      <c r="H75">
+        <v>21</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="L75">
+        <v>1.135</v>
+      </c>
+      <c r="M75">
+        <v>1.248</v>
+      </c>
+      <c r="N75">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="O75">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="P75">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="Q75">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="R75">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="S75">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -51715,16 +53919,54 @@
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="D76" s="2">
+        <v>10734</v>
+      </c>
+      <c r="E76" s="2">
+        <v>11764</v>
+      </c>
+      <c r="F76" s="2">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2">
+        <v>129</v>
+      </c>
+      <c r="H76" s="2">
+        <v>18</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="M76" s="2">
+        <v>1.411</v>
+      </c>
+      <c r="N76">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="O76">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P76">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="Q76">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="R76">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="S76">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -51733,6 +53975,54 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="D77">
+        <v>10682</v>
+      </c>
+      <c r="E77">
+        <v>11724</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>114</v>
+      </c>
+      <c r="H77">
+        <v>28</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="L77">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="M77">
+        <v>1.044</v>
+      </c>
+      <c r="N77">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="O77">
+        <v>0.62</v>
+      </c>
+      <c r="P77">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="Q77">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="R77">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S77">
+        <v>1.042</v>
+      </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -51742,6 +54032,54 @@
         <v>2</v>
       </c>
       <c r="C78" s="3"/>
+      <c r="D78">
+        <v>21367</v>
+      </c>
+      <c r="E78">
+        <v>23523</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>81</v>
+      </c>
+      <c r="H78">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L78">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="M78">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="N78">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O78">
+        <v>1.627</v>
+      </c>
+      <c r="P78">
+        <v>1.845</v>
+      </c>
+      <c r="Q78">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="R78">
+        <v>1.843</v>
+      </c>
+      <c r="S78">
+        <v>2.0139999999999998</v>
+      </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -51751,9 +54089,54 @@
         <v>2</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="D79" s="2">
+        <v>21032</v>
+      </c>
+      <c r="E79" s="2">
+        <v>23149</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>157</v>
+      </c>
+      <c r="H79">
+        <v>17</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L79">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="M79">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="N79">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="O79">
+        <v>2.105</v>
+      </c>
+      <c r="P79">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="Q79">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="R79">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="S79">
+        <v>1.976</v>
+      </c>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
@@ -51766,6 +54149,54 @@
         <v>2</v>
       </c>
       <c r="C80" s="3"/>
+      <c r="D80">
+        <v>21245</v>
+      </c>
+      <c r="E80">
+        <v>23393</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>89</v>
+      </c>
+      <c r="H80">
+        <v>16</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="L80">
+        <v>1.972</v>
+      </c>
+      <c r="M80">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="N80">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O80">
+        <v>1.78</v>
+      </c>
+      <c r="P80">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="Q80">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R80">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="S80">
+        <v>1.895</v>
+      </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -51775,6 +54206,54 @@
         <v>3</v>
       </c>
       <c r="C81" s="3"/>
+      <c r="D81">
+        <v>31721</v>
+      </c>
+      <c r="E81">
+        <v>34944</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>225</v>
+      </c>
+      <c r="H81">
+        <v>26</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="L81">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="M81">
+        <v>3.8959999999999999</v>
+      </c>
+      <c r="N81">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="O81">
+        <v>2.5870000000000002</v>
+      </c>
+      <c r="P81">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="Q81">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="R81">
+        <v>2.673</v>
+      </c>
+      <c r="S81">
+        <v>2.891</v>
+      </c>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
@@ -51788,6 +54267,54 @@
         <v>3</v>
       </c>
       <c r="C82" s="3"/>
+      <c r="D82">
+        <v>32272</v>
+      </c>
+      <c r="E82">
+        <v>35545</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>59</v>
+      </c>
+      <c r="H82">
+        <v>36</v>
+      </c>
+      <c r="I82">
+        <v>15</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="L82">
+        <v>2.863</v>
+      </c>
+      <c r="M82">
+        <v>3.13</v>
+      </c>
+      <c r="N82">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="O82">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="P82">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="Q82">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="R82">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="S82">
+        <v>2.6040000000000001</v>
+      </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -51797,6 +54324,54 @@
         <v>3</v>
       </c>
       <c r="C83" s="3"/>
+      <c r="D83">
+        <v>31853</v>
+      </c>
+      <c r="E83">
+        <v>35100</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83">
+        <v>29</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="L83">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="M83">
+        <v>3.274</v>
+      </c>
+      <c r="N83">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="O83">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="P83">
+        <v>2.867</v>
+      </c>
+      <c r="Q83">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="R83">
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="S83">
+        <v>2.552</v>
+      </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -51806,9 +54381,54 @@
         <v>4</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="D84" s="2">
+        <v>42877</v>
+      </c>
+      <c r="E84" s="2">
+        <v>47260</v>
+      </c>
+      <c r="F84" s="2">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>19</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="L84">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="M84">
+        <v>5.101</v>
+      </c>
+      <c r="N84">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O84">
+        <v>3.306</v>
+      </c>
+      <c r="P84">
+        <v>3.645</v>
+      </c>
+      <c r="Q84">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="R84">
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="S84">
+        <v>3.8860000000000001</v>
+      </c>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -51821,9 +54441,54 @@
         <v>4</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="D85">
+        <v>42749</v>
+      </c>
+      <c r="E85">
+        <v>47090</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>302</v>
+      </c>
+      <c r="H85" s="2">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="L85">
+        <v>4.4160000000000004</v>
+      </c>
+      <c r="M85">
+        <v>4.9580000000000002</v>
+      </c>
+      <c r="N85">
+        <v>0.69</v>
+      </c>
+      <c r="O85">
+        <v>4.18</v>
+      </c>
+      <c r="P85">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="Q85">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="R85">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="S85">
+        <v>4.2889999999999997</v>
+      </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -51833,6 +54498,54 @@
         <v>4</v>
       </c>
       <c r="C86" s="3"/>
+      <c r="D86">
+        <v>42224</v>
+      </c>
+      <c r="E86">
+        <v>46554</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>154</v>
+      </c>
+      <c r="H86">
+        <v>17</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0.874</v>
+      </c>
+      <c r="L86">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="M86">
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="N86">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="O86">
+        <v>3.847</v>
+      </c>
+      <c r="P86">
+        <v>4.2830000000000004</v>
+      </c>
+      <c r="Q86">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="R86">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="S86">
+        <v>5.2869999999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -51842,6 +54555,54 @@
         <v>5</v>
       </c>
       <c r="C87" s="3"/>
+      <c r="D87">
+        <v>52672</v>
+      </c>
+      <c r="E87">
+        <v>58059</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>202</v>
+      </c>
+      <c r="H87">
+        <v>21</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1.44</v>
+      </c>
+      <c r="L87">
+        <v>6.3040000000000003</v>
+      </c>
+      <c r="M87">
+        <v>6.8070000000000004</v>
+      </c>
+      <c r="N87">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="O87">
+        <v>5.9740000000000002</v>
+      </c>
+      <c r="P87">
+        <v>6.423</v>
+      </c>
+      <c r="Q87">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="R87">
+        <v>5.6539999999999999</v>
+      </c>
+      <c r="S87">
+        <v>6.22</v>
+      </c>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
@@ -51854,6 +54615,54 @@
         <v>5</v>
       </c>
       <c r="C88" s="3"/>
+      <c r="D88">
+        <v>53385</v>
+      </c>
+      <c r="E88">
+        <v>58829</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>243</v>
+      </c>
+      <c r="H88">
+        <v>28</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="L88">
+        <v>7.258</v>
+      </c>
+      <c r="M88">
+        <v>7.82</v>
+      </c>
+      <c r="N88">
+        <v>1.575</v>
+      </c>
+      <c r="O88">
+        <v>5.843</v>
+      </c>
+      <c r="P88">
+        <v>6.5049999999999999</v>
+      </c>
+      <c r="Q88">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="R88">
+        <v>5.4379999999999997</v>
+      </c>
+      <c r="S88">
+        <v>5.7610000000000001</v>
+      </c>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
@@ -51869,6 +54678,54 @@
         <v>5</v>
       </c>
       <c r="C89" s="3"/>
+      <c r="D89">
+        <v>53573</v>
+      </c>
+      <c r="E89">
+        <v>59033</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>126</v>
+      </c>
+      <c r="H89">
+        <v>30</v>
+      </c>
+      <c r="I89">
+        <v>9</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="L89">
+        <v>7.7009999999999996</v>
+      </c>
+      <c r="M89">
+        <v>8.1449999999999996</v>
+      </c>
+      <c r="N89">
+        <v>1.03</v>
+      </c>
+      <c r="O89">
+        <v>6.1029999999999998</v>
+      </c>
+      <c r="P89">
+        <v>6.6059999999999999</v>
+      </c>
+      <c r="Q89">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="R89">
+        <v>6.181</v>
+      </c>
+      <c r="S89">
+        <v>6.6239999999999997</v>
+      </c>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
